--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8280"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -14408,8 +14408,8 @@
   <sheetPr/>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="13" zoomScaleNormal="13" workbookViewId="0">
-      <selection activeCell="DZ87" sqref="DZ87"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>Number of ABUs attached</t>
   </si>
   <si>
-    <t>Energy reserved for ABU's own safe operations after detach (kWh)</t>
+    <t>Energy reserved for ABU's own safe operations (kWh)</t>
   </si>
   <si>
     <t>Structural fraction of battery mass</t>
@@ -87,13 +87,13 @@
     <t>Total Mission Range</t>
   </si>
   <si>
-    <t>1500 ft - 30 mi</t>
+    <t>1500 ft - 30 mi mission</t>
   </si>
   <si>
-    <t>1500 ft - 45 mi</t>
+    <t>1500 ft - 45 mi mission</t>
   </si>
   <si>
-    <t>1500 ft - 60 mi</t>
+    <t>1500 ft - 60 mi mission</t>
   </si>
   <si>
     <t>E_abu_mission_kwh</t>
@@ -126,13 +126,13 @@
     <t>1500 ft</t>
   </si>
   <si>
-    <t>3000 ft - 30 mi</t>
+    <t>3000 ft - 30 mi mission</t>
   </si>
   <si>
-    <t>3000 ft - 45 mi</t>
+    <t>3000 ft - 45 mi mission</t>
   </si>
   <si>
-    <t>3000 ft - 60 mi</t>
+    <t>3000 ft - 60 mi mission</t>
   </si>
   <si>
     <t>3000 ft</t>
@@ -971,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1017,6 +1017,12 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,7 +1319,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 30 mi</c:v>
+                  <c:v>1500 ft - 30 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1422,7 +1428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 45 mi</c:v>
+                  <c:v>1500 ft - 45 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1531,7 +1537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 60 mi</c:v>
+                  <c:v>1500 ft - 60 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1640,7 +1646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 30 mi</c:v>
+                  <c:v>3000 ft - 30 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1749,7 +1755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 45 mi</c:v>
+                  <c:v>3000 ft - 45 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1858,7 +1864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 60 mi</c:v>
+                  <c:v>3000 ft - 60 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2467,7 +2473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 30 mi</c:v>
+                  <c:v>1500 ft - 30 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2576,7 +2582,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 45 mi</c:v>
+                  <c:v>1500 ft - 45 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2685,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 60 mi</c:v>
+                  <c:v>1500 ft - 60 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2794,7 +2800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 30 mi</c:v>
+                  <c:v>3000 ft - 30 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2903,7 +2909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 45 mi</c:v>
+                  <c:v>3000 ft - 45 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3012,7 +3018,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 60 mi</c:v>
+                  <c:v>3000 ft - 60 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3619,7 +3625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 30 mi</c:v>
+                  <c:v>1500 ft - 30 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3728,7 +3734,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 45 mi</c:v>
+                  <c:v>1500 ft - 45 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3837,7 +3843,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1500 ft - 60 mi</c:v>
+                  <c:v>1500 ft - 60 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3946,7 +3952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 30 mi</c:v>
+                  <c:v>3000 ft - 30 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4055,7 +4061,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 45 mi</c:v>
+                  <c:v>3000 ft - 45 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4164,7 +4170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3000 ft - 60 mi</c:v>
+                  <c:v>3000 ft - 60 mi mission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6330,6 +6336,20 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>All!$B$11:$B$20</c:f>
@@ -13894,7 +13914,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23633430" y="2369185"/>
+        <a:off x="23633430" y="2186305"/>
         <a:ext cx="9813925" cy="6126480"/>
       </xdr:xfrm>
       <a:graphic>
@@ -13924,7 +13944,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23638510" y="8830945"/>
+        <a:off x="23638510" y="8648065"/>
         <a:ext cx="9813925" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -13954,7 +13974,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23635970" y="15137765"/>
+        <a:off x="23635970" y="14954885"/>
         <a:ext cx="9813925" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -13984,7 +14004,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33880425" y="2355850"/>
+        <a:off x="33880425" y="2172970"/>
         <a:ext cx="9813925" cy="6126480"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14014,7 +14034,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44103925" y="2330450"/>
+        <a:off x="44103925" y="2147570"/>
         <a:ext cx="9813925" cy="6126480"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14044,7 +14064,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33946465" y="8878570"/>
+        <a:off x="33946465" y="8695690"/>
         <a:ext cx="9813925" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14074,7 +14094,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44147105" y="8891270"/>
+        <a:off x="44147105" y="8708390"/>
         <a:ext cx="9813925" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14104,7 +14124,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33959165" y="15261590"/>
+        <a:off x="33959165" y="15078710"/>
         <a:ext cx="9813925" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14134,7 +14154,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44274105" y="15350490"/>
+        <a:off x="44274105" y="15167610"/>
         <a:ext cx="9813925" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14408,8 +14428,8 @@
   <sheetPr/>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14431,7 +14451,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="100.8" spans="1:10">
+    <row r="2" ht="86.4" spans="1:10">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -14445,7 +14465,7 @@
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:17">
       <c r="A3" s="7" t="s">
@@ -14469,7 +14489,7 @@
       <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="55"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:8">
       <c r="A4" s="11" t="s">
@@ -14489,7 +14509,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14503,4933 +14523,4934 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:26">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="46"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="48"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:26">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="19" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="56" t="s">
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="18"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:26">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="26" t="s">
+      <c r="V10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="26" t="s">
+      <c r="X10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="30">
         <v>5</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="31">
         <v>36.57979</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="32">
         <v>53.785563</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="32">
         <v>41.341488</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="32">
         <v>41.855502</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="32">
         <v>5</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="32">
         <v>4.485986</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="32">
         <v>60.548867</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="49">
         <v>2.524524</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="31">
         <v>36.57979</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="32">
         <v>53.785563</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="32">
         <v>68.013416</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="32">
         <v>68.859052</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="32">
         <v>5</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="32">
         <v>4.154364</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="32">
         <v>56.072854</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="49">
         <v>2.337901</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="31">
         <v>36.57979</v>
       </c>
-      <c r="T11" s="58">
+      <c r="T11" s="60">
         <v>53.785563</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="32">
         <v>94.685344</v>
       </c>
-      <c r="V11" s="58">
+      <c r="V11" s="60">
         <v>95.862601</v>
       </c>
-      <c r="W11" s="58">
+      <c r="W11" s="60">
         <v>5</v>
       </c>
-      <c r="X11" s="58">
+      <c r="X11" s="60">
         <v>3.822742</v>
       </c>
-      <c r="Y11" s="58">
+      <c r="Y11" s="60">
         <v>51.596842</v>
       </c>
-      <c r="Z11" s="47">
+      <c r="Z11" s="49">
         <v>2.151278</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30">
         <v>10</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>67.062948</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="32">
         <v>91.995801</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
         <v>42.22468</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="32">
         <v>10</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="32">
         <v>9.116808</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="32">
         <v>123.052635</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="49">
         <v>5.130556</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="31">
         <v>67.062948</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="32">
         <v>91.995801</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30">
+      <c r="M12" s="32"/>
+      <c r="N12" s="32">
         <v>69.466409</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="32">
         <v>10</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="32">
         <v>8.547007</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="32">
         <v>115.361837</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="49">
         <v>4.809896</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="31">
         <v>67.062948</v>
       </c>
-      <c r="T12" s="58">
+      <c r="T12" s="60">
         <v>91.995801</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="58">
+      <c r="U12" s="32"/>
+      <c r="V12" s="60">
         <v>96.708137</v>
       </c>
-      <c r="W12" s="58">
+      <c r="W12" s="60">
         <v>10</v>
       </c>
-      <c r="X12" s="58">
+      <c r="X12" s="60">
         <v>7.977206</v>
       </c>
-      <c r="Y12" s="58">
+      <c r="Y12" s="60">
         <v>107.67104</v>
       </c>
-      <c r="Z12" s="47">
+      <c r="Z12" s="49">
         <v>4.489236</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30">
         <v>15</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="31">
         <v>97.546106</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="32">
         <v>130.175022</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32">
         <v>42.596887</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="32">
         <v>15</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="32">
         <v>13.744601</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="32">
         <v>185.515508</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="49">
         <v>7.734883</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="31">
         <v>97.546106</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="32">
         <v>130.175022</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32">
         <v>70.07875</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="32">
         <v>15</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="32">
         <v>12.934666</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="32">
         <v>174.583542</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="49">
         <v>7.279085</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="31">
         <v>97.546106</v>
       </c>
-      <c r="T13" s="58">
+      <c r="T13" s="60">
         <v>130.175022</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="V13" s="58">
+      <c r="U13" s="32"/>
+      <c r="V13" s="60">
         <v>97.560613</v>
       </c>
-      <c r="W13" s="58">
+      <c r="W13" s="60">
         <v>15</v>
       </c>
-      <c r="X13" s="58">
+      <c r="X13" s="60">
         <v>12.124731</v>
       </c>
-      <c r="Y13" s="58">
+      <c r="Y13" s="60">
         <v>163.651575</v>
       </c>
-      <c r="Z13" s="47">
+      <c r="Z13" s="49">
         <v>6.823288</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30">
         <v>20</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="31">
         <v>128.029264</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="32">
         <v>168.35399</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32">
         <v>42.972421</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="32">
         <v>20</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="32">
         <v>18.369067</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="32">
         <v>247.933494</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="49">
         <v>10.337338</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="31">
         <v>128.029264</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="32">
         <v>168.35399</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30">
+      <c r="M14" s="32"/>
+      <c r="N14" s="32">
         <v>70.696563</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="32">
         <v>20</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="32">
         <v>17.316853</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="32">
         <v>233.731398</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="49">
         <v>9.745196</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="31">
         <v>128.029264</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="60">
         <v>168.35399</v>
       </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="58">
+      <c r="U14" s="32"/>
+      <c r="V14" s="60">
         <v>98.420706</v>
       </c>
-      <c r="W14" s="58">
+      <c r="W14" s="60">
         <v>20</v>
       </c>
-      <c r="X14" s="58">
+      <c r="X14" s="60">
         <v>16.264638</v>
       </c>
-      <c r="Y14" s="58">
+      <c r="Y14" s="60">
         <v>219.529303</v>
       </c>
-      <c r="Z14" s="47">
+      <c r="Z14" s="49">
         <v>9.153053</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30">
         <v>25</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="31">
         <v>158.512422</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="32">
         <v>206.532766</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32">
         <v>43.35128</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="32">
         <v>25</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="32">
         <v>22.990208</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="32">
         <v>310.306584</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="49">
         <v>12.937921</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="31">
         <v>158.512422</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="32">
         <v>206.532766</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30">
+      <c r="M15" s="32"/>
+      <c r="N15" s="32">
         <v>71.319848</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="32">
         <v>25</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="32">
         <v>21.693568</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="32">
         <v>292.805395</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="49">
         <v>12.208226</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="31">
         <v>158.512422</v>
       </c>
-      <c r="T15" s="58">
+      <c r="T15" s="60">
         <v>206.532766</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="V15" s="58">
+      <c r="U15" s="32"/>
+      <c r="V15" s="60">
         <v>99.288416</v>
       </c>
-      <c r="W15" s="58">
+      <c r="W15" s="60">
         <v>25</v>
       </c>
-      <c r="X15" s="58">
+      <c r="X15" s="60">
         <v>20.396927</v>
       </c>
-      <c r="Y15" s="58">
+      <c r="Y15" s="60">
         <v>275.304206</v>
       </c>
-      <c r="Z15" s="47">
+      <c r="Z15" s="49">
         <v>11.478532</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30">
         <v>30</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="31">
         <v>188.99558</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="32">
         <v>244.711354</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32">
         <v>43.733466</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="32">
         <v>30</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="32">
         <v>27.608022</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="32">
         <v>372.634779</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="49">
         <v>15.536632</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="31">
         <v>188.99558</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="32">
         <v>244.711354</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32">
         <v>71.948605</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="32">
         <v>30</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="32">
         <v>26.06481</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="32">
         <v>351.805532</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="49">
         <v>14.668178</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="31">
         <v>188.99558</v>
       </c>
-      <c r="T16" s="58">
+      <c r="T16" s="60">
         <v>244.711354</v>
       </c>
-      <c r="U16" s="30"/>
-      <c r="V16" s="58">
+      <c r="U16" s="32"/>
+      <c r="V16" s="60">
         <v>100.163745</v>
       </c>
-      <c r="W16" s="58">
+      <c r="W16" s="60">
         <v>30</v>
       </c>
-      <c r="X16" s="58">
+      <c r="X16" s="60">
         <v>24.521599</v>
       </c>
-      <c r="Y16" s="58">
+      <c r="Y16" s="60">
         <v>330.976284</v>
       </c>
-      <c r="Z16" s="47">
+      <c r="Z16" s="49">
         <v>13.799723</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30">
         <v>35</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="31">
         <v>219.478738</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="32">
         <v>282.889757</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32">
         <v>44.118978</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="32">
         <v>35</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="32">
         <v>32.22251</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="32">
         <v>434.91808</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="49">
         <v>18.133472</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="31">
         <v>219.478738</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="32">
         <v>282.889757</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32">
         <v>72.582835</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="32">
         <v>35</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="32">
         <v>30.430581</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="32">
         <v>410.73181</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="49">
         <v>17.12505</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="31">
         <v>219.478738</v>
       </c>
-      <c r="T17" s="58">
+      <c r="T17" s="60">
         <v>282.889757</v>
       </c>
-      <c r="U17" s="30"/>
-      <c r="V17" s="58">
+      <c r="U17" s="32"/>
+      <c r="V17" s="60">
         <v>101.046692</v>
       </c>
-      <c r="W17" s="58">
+      <c r="W17" s="60">
         <v>35</v>
       </c>
-      <c r="X17" s="58">
+      <c r="X17" s="60">
         <v>28.638652</v>
       </c>
-      <c r="Y17" s="58">
+      <c r="Y17" s="60">
         <v>386.54554</v>
       </c>
-      <c r="Z17" s="47">
+      <c r="Z17" s="49">
         <v>16.116627</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30">
         <v>40</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="31">
         <v>249.961896</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="32">
         <v>321.067976</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32">
         <v>44.507816</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="32">
         <v>40</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="32">
         <v>36.833672</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="32">
         <v>497.156486</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="49">
         <v>20.72844</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="31">
         <v>249.961896</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="32">
         <v>321.067976</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30">
+      <c r="M18" s="32"/>
+      <c r="N18" s="32">
         <v>73.222536</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="32">
         <v>40</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="32">
         <v>34.79088</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="32">
         <v>469.584229</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="49">
         <v>19.578842</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="31">
         <v>249.961896</v>
       </c>
-      <c r="T18" s="58">
+      <c r="T18" s="60">
         <v>321.067976</v>
       </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="58">
+      <c r="U18" s="32"/>
+      <c r="V18" s="60">
         <v>101.937256</v>
       </c>
-      <c r="W18" s="58">
+      <c r="W18" s="60">
         <v>40</v>
       </c>
-      <c r="X18" s="58">
+      <c r="X18" s="60">
         <v>32.748087</v>
       </c>
-      <c r="Y18" s="58">
+      <c r="Y18" s="60">
         <v>442.011973</v>
       </c>
-      <c r="Z18" s="47">
+      <c r="Z18" s="49">
         <v>18.429245</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30">
         <v>45</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="31">
         <v>280.445054</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="32">
         <v>359.246015</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32">
         <v>44.89998</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="32">
         <v>44.89998</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="32">
         <v>41.341488</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="50">
         <v>558</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="31">
         <v>280.445054</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="32">
         <v>359.246015</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30">
+      <c r="M19" s="32"/>
+      <c r="N19" s="32">
         <v>73.86771</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="32">
         <v>45</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="32">
         <v>39.145706</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="32">
         <v>528.362791</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R19" s="49">
         <v>22.029555</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="31">
         <v>280.445054</v>
       </c>
-      <c r="T19" s="58">
+      <c r="T19" s="60">
         <v>359.246015</v>
       </c>
-      <c r="U19" s="30"/>
-      <c r="V19" s="58">
+      <c r="U19" s="32"/>
+      <c r="V19" s="60">
         <v>102.835439</v>
       </c>
-      <c r="W19" s="58">
+      <c r="W19" s="60">
         <v>45</v>
       </c>
-      <c r="X19" s="58">
+      <c r="X19" s="60">
         <v>36.849905</v>
       </c>
-      <c r="Y19" s="58">
+      <c r="Y19" s="60">
         <v>497.375584</v>
       </c>
-      <c r="Z19" s="47">
+      <c r="Z19" s="49">
         <v>20.737575</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34">
         <v>50</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="35">
         <v>310.928212</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="36">
         <v>397.423876</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36">
         <v>45.295471</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="36">
         <v>45.295471</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="36">
         <v>41.341488</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="51">
         <v>558</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="52">
         <v>23.265249</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="35">
         <v>310.928212</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="36">
         <v>397.423876</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34">
+      <c r="M20" s="36"/>
+      <c r="N20" s="36">
         <v>74.518355</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="36">
         <v>50</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="36">
         <v>43.495061</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q20" s="61">
         <v>587.067495</v>
       </c>
-      <c r="R20" s="50">
+      <c r="R20" s="52">
         <v>24.477189</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="35">
         <v>310.928212</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20" s="36">
         <v>397.423876</v>
       </c>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34">
+      <c r="U20" s="36"/>
+      <c r="V20" s="36">
         <v>103.74124</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20" s="36">
         <v>50</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X20" s="36">
         <v>40.944104</v>
       </c>
-      <c r="Y20" s="34">
+      <c r="Y20" s="36">
         <v>552.636374</v>
       </c>
-      <c r="Z20" s="50">
+      <c r="Z20" s="52">
         <v>23.041618</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:26">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="19" t="s">
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="46"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="48"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="38">
         <v>5</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="39">
         <v>36.57979</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="40">
         <v>53.96177</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="40">
         <v>30.978339</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="40">
         <v>31.383966</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="40">
         <v>5</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="40">
         <v>4.594373</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="40">
         <v>62.734801</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="53">
         <v>2.615664</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="39">
         <v>36.57979</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="40">
         <v>53.96177</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="40">
         <v>57.342883</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="40">
         <v>58.093724</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="40">
         <v>5</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="40">
         <v>4.249159</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="40">
         <v>58.021004</v>
       </c>
-      <c r="R22" s="51">
+      <c r="R22" s="53">
         <v>2.419127</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="39">
         <v>36.57979</v>
       </c>
-      <c r="T22" s="60">
+      <c r="T22" s="62">
         <v>53.96177</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="40">
         <v>83.707427</v>
       </c>
-      <c r="V22" s="60">
+      <c r="V22" s="62">
         <v>84.803482</v>
       </c>
-      <c r="W22" s="60">
+      <c r="W22" s="62">
         <v>5</v>
       </c>
-      <c r="X22" s="60">
+      <c r="X22" s="62">
         <v>3.903945</v>
       </c>
-      <c r="Y22" s="60">
+      <c r="Y22" s="62">
         <v>53.307207</v>
       </c>
-      <c r="Z22" s="51">
+      <c r="Z22" s="53">
         <v>2.22259</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="39"/>
-      <c r="B23" s="36">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38">
         <v>10</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="39">
         <v>67.062948</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="40">
         <v>92.174688</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40">
         <v>31.674407</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="40">
         <v>10</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="40">
         <v>9.303932</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="40">
         <v>127.042418</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="53">
         <v>5.296906</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="39">
         <v>67.062948</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="40">
         <v>92.174688</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40">
         <v>58.63135</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="40">
         <v>10</v>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="40">
         <v>8.711533</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="40">
         <v>118.953393</v>
       </c>
-      <c r="R23" s="51">
+      <c r="R23" s="53">
         <v>4.959642</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="39">
         <v>67.062948</v>
       </c>
-      <c r="T23" s="60">
+      <c r="T23" s="62">
         <v>92.174688</v>
       </c>
-      <c r="U23" s="38"/>
-      <c r="V23" s="60">
+      <c r="U23" s="40"/>
+      <c r="V23" s="62">
         <v>85.588292</v>
       </c>
-      <c r="W23" s="60">
+      <c r="W23" s="62">
         <v>10</v>
       </c>
-      <c r="X23" s="60">
+      <c r="X23" s="62">
         <v>8.119135</v>
       </c>
-      <c r="Y23" s="60">
+      <c r="Y23" s="62">
         <v>110.864367</v>
       </c>
-      <c r="Z23" s="51">
+      <c r="Z23" s="53">
         <v>4.622378</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="39"/>
-      <c r="B24" s="36">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38">
         <v>15</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="39">
         <v>97.546106</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="40">
         <v>130.355561</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40">
         <v>31.967254</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="40">
         <v>15</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="40">
         <v>14.011085</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="40">
         <v>191.317201</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="53">
         <v>7.976778</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="39">
         <v>97.546106</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="40">
         <v>130.355561</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38">
+      <c r="M24" s="40"/>
+      <c r="N24" s="40">
         <v>59.173427</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="40">
         <v>15</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="40">
         <v>13.169456</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="40">
         <v>179.825002</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="53">
         <v>7.497623</v>
       </c>
-      <c r="S24" s="37">
+      <c r="S24" s="39">
         <v>97.546106</v>
       </c>
-      <c r="T24" s="60">
+      <c r="T24" s="62">
         <v>130.355561</v>
       </c>
-      <c r="U24" s="38"/>
-      <c r="V24" s="60">
+      <c r="U24" s="40"/>
+      <c r="V24" s="62">
         <v>86.3796</v>
       </c>
-      <c r="W24" s="60">
+      <c r="W24" s="62">
         <v>15</v>
       </c>
-      <c r="X24" s="60">
+      <c r="X24" s="62">
         <v>12.327827</v>
       </c>
-      <c r="Y24" s="60">
+      <c r="Y24" s="62">
         <v>168.332803</v>
       </c>
-      <c r="Z24" s="51">
+      <c r="Z24" s="53">
         <v>7.018467</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="39"/>
-      <c r="B25" s="36">
+      <c r="A25" s="41"/>
+      <c r="B25" s="38">
         <v>20</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="39">
         <v>128.029264</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="40">
         <v>168.536171</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40">
         <v>32.262745</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="40">
         <v>20</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="40">
         <v>18.715594</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="40">
         <v>255.555867</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="53">
         <v>10.655145</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="39">
         <v>128.029264</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="40">
         <v>168.536171</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38">
+      <c r="M25" s="40"/>
+      <c r="N25" s="40">
         <v>59.7204</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="40">
         <v>20</v>
       </c>
-      <c r="P25" s="38">
+      <c r="P25" s="40">
         <v>17.622483</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="40">
         <v>240.629756</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="53">
         <v>10.032816</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="39">
         <v>128.029264</v>
       </c>
-      <c r="T25" s="60">
+      <c r="T25" s="62">
         <v>168.536171</v>
       </c>
-      <c r="U25" s="38"/>
-      <c r="V25" s="60">
+      <c r="U25" s="40"/>
+      <c r="V25" s="62">
         <v>87.178056</v>
       </c>
-      <c r="W25" s="60">
+      <c r="W25" s="62">
         <v>20</v>
       </c>
-      <c r="X25" s="60">
+      <c r="X25" s="62">
         <v>16.529371</v>
       </c>
-      <c r="Y25" s="60">
+      <c r="Y25" s="62">
         <v>225.703645</v>
       </c>
-      <c r="Z25" s="51">
+      <c r="Z25" s="53">
         <v>9.410486</v>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="39"/>
-      <c r="B26" s="36">
+      <c r="A26" s="41"/>
+      <c r="B26" s="38">
         <v>25</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="39">
         <v>158.512422</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="40">
         <v>206.716587</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40">
         <v>32.560882</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="40">
         <v>25</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="40">
         <v>23.417457</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="40">
         <v>319.758408</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="53">
         <v>13.332005</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="39">
         <v>158.512422</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="40">
         <v>206.716587</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38">
+      <c r="M26" s="40"/>
+      <c r="N26" s="40">
         <v>60.272271</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="40">
         <v>25</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="40">
         <v>22.070612</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="40">
         <v>301.367642</v>
       </c>
-      <c r="R26" s="51">
+      <c r="R26" s="53">
         <v>12.565221</v>
       </c>
-      <c r="S26" s="37">
+      <c r="S26" s="39">
         <v>158.512422</v>
       </c>
-      <c r="T26" s="60">
+      <c r="T26" s="62">
         <v>206.716587</v>
       </c>
-      <c r="U26" s="38"/>
-      <c r="V26" s="60">
+      <c r="U26" s="40"/>
+      <c r="V26" s="62">
         <v>87.98366</v>
       </c>
-      <c r="W26" s="60">
+      <c r="W26" s="62">
         <v>25</v>
       </c>
-      <c r="X26" s="60">
+      <c r="X26" s="62">
         <v>20.723767</v>
       </c>
-      <c r="Y26" s="60">
+      <c r="Y26" s="62">
         <v>282.976875</v>
       </c>
-      <c r="Z26" s="51">
+      <c r="Z26" s="53">
         <v>11.798436</v>
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="39"/>
-      <c r="B27" s="36">
+      <c r="A27" s="41"/>
+      <c r="B27" s="38">
         <v>30</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="39">
         <v>188.99558</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="40">
         <v>244.89681</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40">
         <v>32.861664</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="40">
         <v>30</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="40">
         <v>28.116675</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="40">
         <v>383.924826</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="53">
         <v>16.007359</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="39">
         <v>188.99558</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="40">
         <v>244.89681</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38">
+      <c r="M27" s="40"/>
+      <c r="N27" s="40">
         <v>60.829038</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="40">
         <v>30</v>
       </c>
-      <c r="P27" s="38">
+      <c r="P27" s="40">
         <v>26.513845</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="40">
         <v>362.03866</v>
       </c>
-      <c r="R27" s="51">
+      <c r="R27" s="53">
         <v>15.094838</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="39">
         <v>188.99558</v>
       </c>
-      <c r="T27" s="60">
+      <c r="T27" s="62">
         <v>244.89681</v>
       </c>
-      <c r="U27" s="38"/>
-      <c r="V27" s="60">
+      <c r="U27" s="40"/>
+      <c r="V27" s="62">
         <v>88.796412</v>
       </c>
-      <c r="W27" s="60">
+      <c r="W27" s="62">
         <v>30</v>
       </c>
-      <c r="X27" s="60">
+      <c r="X27" s="62">
         <v>24.911015</v>
       </c>
-      <c r="Y27" s="60">
+      <c r="Y27" s="62">
         <v>340.152495</v>
       </c>
-      <c r="Z27" s="51">
+      <c r="Z27" s="53">
         <v>14.182316</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="39"/>
-      <c r="B28" s="36">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38">
         <v>35</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="39">
         <v>219.478738</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="40">
         <v>283.076843</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40">
         <v>33.165092</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="40">
         <v>33.165092</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="40">
         <v>30.978339</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="54">
         <v>423</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="39">
         <v>219.478738</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="40">
         <v>283.076843</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38">
+      <c r="M28" s="40"/>
+      <c r="N28" s="40">
         <v>61.390703</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="40">
         <v>35</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="40">
         <v>30.95218</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="40">
         <v>422.642812</v>
       </c>
-      <c r="R28" s="51">
+      <c r="R28" s="53">
         <v>17.621667</v>
       </c>
-      <c r="S28" s="37">
+      <c r="S28" s="39">
         <v>219.478738</v>
       </c>
-      <c r="T28" s="60">
+      <c r="T28" s="62">
         <v>283.076843</v>
       </c>
-      <c r="U28" s="38"/>
-      <c r="V28" s="60">
+      <c r="U28" s="40"/>
+      <c r="V28" s="62">
         <v>89.616313</v>
       </c>
-      <c r="W28" s="60">
+      <c r="W28" s="62">
         <v>35</v>
       </c>
-      <c r="X28" s="60">
+      <c r="X28" s="62">
         <v>29.091114</v>
       </c>
-      <c r="Y28" s="60">
+      <c r="Y28" s="62">
         <v>397.230504</v>
       </c>
-      <c r="Z28" s="51">
+      <c r="Z28" s="53">
         <v>16.562126</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="39"/>
-      <c r="B29" s="36">
+      <c r="A29" s="41"/>
+      <c r="B29" s="38">
         <v>40</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="39">
         <v>249.961896</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="40">
         <v>321.25669</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40">
         <v>33.471166</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="40">
         <v>33.471166</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="40">
         <v>30.978339</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="54">
         <v>423</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="39">
         <v>249.961896</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="40">
         <v>321.25669</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38">
+      <c r="M29" s="40"/>
+      <c r="N29" s="40">
         <v>61.957264</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="40">
         <v>40</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="40">
         <v>35.385619</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="40">
         <v>483.180097</v>
       </c>
-      <c r="R29" s="51">
+      <c r="R29" s="53">
         <v>20.145708</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="39">
         <v>249.961896</v>
       </c>
-      <c r="T29" s="60">
+      <c r="T29" s="62">
         <v>321.25669</v>
       </c>
-      <c r="U29" s="38"/>
-      <c r="V29" s="60">
+      <c r="U29" s="40"/>
+      <c r="V29" s="62">
         <v>90.443362</v>
       </c>
-      <c r="W29" s="60">
+      <c r="W29" s="62">
         <v>40</v>
       </c>
-      <c r="X29" s="60">
+      <c r="X29" s="62">
         <v>33.264065</v>
       </c>
-      <c r="Y29" s="60">
+      <c r="Y29" s="62">
         <v>454.210903</v>
       </c>
-      <c r="Z29" s="51">
+      <c r="Z29" s="53">
         <v>18.937867</v>
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="39"/>
-      <c r="B30" s="36">
+      <c r="A30" s="41"/>
+      <c r="B30" s="38">
         <v>45</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="39">
         <v>280.445054</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="40">
         <v>359.436352</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38">
+      <c r="E30" s="40"/>
+      <c r="F30" s="40">
         <v>33.779884</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="40">
         <v>33.779884</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="40">
         <v>30.978339</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="54">
         <v>423</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="39">
         <v>280.445054</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="40">
         <v>359.436352</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38">
+      <c r="M30" s="40"/>
+      <c r="N30" s="40">
         <v>62.528722</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="40">
         <v>45</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="40">
         <v>39.814161</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="40">
         <v>543.650517</v>
       </c>
-      <c r="R30" s="51">
+      <c r="R30" s="53">
         <v>22.666961</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="39">
         <v>280.445054</v>
       </c>
-      <c r="T30" s="60">
+      <c r="T30" s="62">
         <v>359.436352</v>
       </c>
-      <c r="U30" s="38"/>
-      <c r="V30" s="60">
+      <c r="U30" s="40"/>
+      <c r="V30" s="62">
         <v>91.27756</v>
       </c>
-      <c r="W30" s="60">
+      <c r="W30" s="62">
         <v>45</v>
       </c>
-      <c r="X30" s="60">
+      <c r="X30" s="62">
         <v>37.429867</v>
       </c>
-      <c r="Y30" s="60">
+      <c r="Y30" s="62">
         <v>511.093694</v>
       </c>
-      <c r="Z30" s="51">
+      <c r="Z30" s="53">
         <v>21.309537</v>
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43">
         <v>50</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="44">
         <v>310.928212</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="45">
         <v>397.615832</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43">
+      <c r="E31" s="45"/>
+      <c r="F31" s="45">
         <v>34.091249</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="45">
         <v>34.091249</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="45">
         <v>30.978339</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="55">
         <v>423</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="56">
         <v>17.63656</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="44">
         <v>310.928212</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="45">
         <v>397.615832</v>
       </c>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43">
+      <c r="M31" s="45"/>
+      <c r="N31" s="45">
         <v>63.105077</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="45">
         <v>50</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="45">
         <v>44.237806</v>
       </c>
-      <c r="Q31" s="61">
+      <c r="Q31" s="63">
         <v>604.054071</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31" s="56">
         <v>25.185427</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="44">
         <v>310.928212</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="45">
         <v>397.615832</v>
       </c>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43">
+      <c r="U31" s="45"/>
+      <c r="V31" s="45">
         <v>92.118906</v>
       </c>
-      <c r="W31" s="43">
+      <c r="W31" s="45">
         <v>50</v>
       </c>
-      <c r="X31" s="43">
+      <c r="X31" s="45">
         <v>41.588521</v>
       </c>
-      <c r="Y31" s="43">
+      <c r="Y31" s="45">
         <v>567.878876</v>
       </c>
-      <c r="Z31" s="54">
+      <c r="Z31" s="56">
         <v>23.677139</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:26">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="46"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="48"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:26">
-      <c r="A36" s="21"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="19" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="19" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="56" t="s">
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="18"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="20"/>
     </row>
     <row r="37" ht="60" customHeight="1" spans="1:26">
-      <c r="A37" s="23"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="26" t="s">
+      <c r="N37" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="26" t="s">
+      <c r="P37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q37" s="26" t="s">
+      <c r="Q37" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="24" t="s">
+      <c r="R37" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="S37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="26" t="s">
+      <c r="T37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="U37" s="26" t="s">
+      <c r="U37" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V37" s="26" t="s">
+      <c r="V37" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="W37" s="26" t="s">
+      <c r="W37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="X37" s="26" t="s">
+      <c r="X37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y37" s="26" t="s">
+      <c r="Y37" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z37" s="24" t="s">
+      <c r="Z37" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="30">
         <v>5</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="31">
         <v>36.57979</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="32">
         <v>66.661213</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="32">
         <v>26.022308</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="32">
         <v>26.813008</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="32">
         <v>5</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="32">
         <v>4.2093</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="32">
         <v>90.260605</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J38" s="49">
         <v>3.763325</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="31">
         <v>36.57979</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="32">
         <v>66.661213</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="32">
         <v>42.810893</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="32">
         <v>44.111723</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="32">
         <v>5</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="32">
         <v>3.69917</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="32">
         <v>79.321832</v>
       </c>
-      <c r="R38" s="47">
+      <c r="R38" s="49">
         <v>3.307244</v>
       </c>
-      <c r="S38" s="29">
+      <c r="S38" s="31">
         <v>36.57979</v>
       </c>
-      <c r="T38" s="58">
+      <c r="T38" s="60">
         <v>66.661213</v>
       </c>
-      <c r="U38" s="30">
+      <c r="U38" s="32">
         <v>59.599479</v>
       </c>
-      <c r="V38" s="58">
+      <c r="V38" s="60">
         <v>61.410438</v>
       </c>
-      <c r="W38" s="58">
+      <c r="W38" s="60">
         <v>5</v>
       </c>
-      <c r="X38" s="58">
+      <c r="X38" s="60">
         <v>3.189041</v>
       </c>
-      <c r="Y38" s="58">
+      <c r="Y38" s="60">
         <v>68.383059</v>
       </c>
-      <c r="Z38" s="47">
+      <c r="Z38" s="49">
         <v>2.851163</v>
       </c>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30">
         <v>10</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="31">
         <v>67.062948</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="32">
         <v>105.216818</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30">
+      <c r="E39" s="32"/>
+      <c r="F39" s="32">
         <v>27.278596</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="32">
         <v>10</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="32">
         <v>8.743712</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="32">
         <v>187.492644</v>
       </c>
-      <c r="J39" s="47">
+      <c r="J39" s="49">
         <v>7.817317</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="31">
         <v>67.062948</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="32">
         <v>105.216818</v>
       </c>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30">
+      <c r="M39" s="32"/>
+      <c r="N39" s="32">
         <v>44.87769</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="32">
         <v>10</v>
       </c>
-      <c r="P39" s="30">
+      <c r="P39" s="32">
         <v>7.933204</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="32">
         <v>170.112798</v>
       </c>
-      <c r="R39" s="47">
+      <c r="R39" s="49">
         <v>7.092682</v>
       </c>
-      <c r="S39" s="29">
+      <c r="S39" s="31">
         <v>67.062948</v>
       </c>
-      <c r="T39" s="58">
+      <c r="T39" s="60">
         <v>105.216818</v>
       </c>
-      <c r="U39" s="30"/>
-      <c r="V39" s="58">
+      <c r="U39" s="32"/>
+      <c r="V39" s="60">
         <v>62.476784</v>
       </c>
-      <c r="W39" s="58">
+      <c r="W39" s="60">
         <v>10</v>
       </c>
-      <c r="X39" s="58">
+      <c r="X39" s="60">
         <v>7.122695</v>
       </c>
-      <c r="Y39" s="58">
+      <c r="Y39" s="60">
         <v>152.732952</v>
       </c>
-      <c r="Z39" s="47">
+      <c r="Z39" s="49">
         <v>6.368047</v>
       </c>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30">
         <v>15</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="31">
         <v>97.546106</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="32">
         <v>143.580773</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30">
+      <c r="E40" s="32"/>
+      <c r="F40" s="32">
         <v>27.747879</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="32">
         <v>15</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="32">
         <v>13.274429</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="32">
         <v>284.645447</v>
       </c>
-      <c r="J40" s="47">
+      <c r="J40" s="49">
         <v>11.868006</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="31">
         <v>97.546106</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="32">
         <v>143.580773</v>
       </c>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30">
+      <c r="M40" s="32"/>
+      <c r="N40" s="32">
         <v>45.649736</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="32">
         <v>15</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="32">
         <v>12.161157</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="32">
         <v>260.773407</v>
       </c>
-      <c r="R40" s="47">
+      <c r="R40" s="49">
         <v>10.872685</v>
       </c>
-      <c r="S40" s="29">
+      <c r="S40" s="31">
         <v>97.546106</v>
       </c>
-      <c r="T40" s="58">
+      <c r="T40" s="60">
         <v>143.580773</v>
       </c>
-      <c r="U40" s="30"/>
-      <c r="V40" s="58">
+      <c r="U40" s="32"/>
+      <c r="V40" s="60">
         <v>63.551593</v>
       </c>
-      <c r="W40" s="58">
+      <c r="W40" s="60">
         <v>15</v>
       </c>
-      <c r="X40" s="58">
+      <c r="X40" s="60">
         <v>11.047886</v>
       </c>
-      <c r="Y40" s="58">
+      <c r="Y40" s="60">
         <v>236.901368</v>
       </c>
-      <c r="Z40" s="47">
+      <c r="Z40" s="49">
         <v>9.877364</v>
       </c>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30">
         <v>20</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="31">
         <v>128.029264</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="32">
         <v>181.942567</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30">
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>28.223129</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="32">
         <v>20</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="32">
         <v>17.799178</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="32">
         <v>381.670285</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="49">
         <v>15.913359</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="31">
         <v>128.029264</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="32">
         <v>181.942567</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30">
+      <c r="M41" s="32"/>
+      <c r="N41" s="32">
         <v>46.4316</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="32">
         <v>20</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P41" s="32">
         <v>16.379294</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="32">
         <v>351.223495</v>
       </c>
-      <c r="R41" s="47">
+      <c r="R41" s="49">
         <v>14.64391</v>
       </c>
-      <c r="S41" s="29">
+      <c r="S41" s="31">
         <v>128.029264</v>
       </c>
-      <c r="T41" s="58">
+      <c r="T41" s="60">
         <v>181.942567</v>
       </c>
-      <c r="U41" s="30"/>
-      <c r="V41" s="58">
+      <c r="U41" s="32"/>
+      <c r="V41" s="60">
         <v>64.64007</v>
       </c>
-      <c r="W41" s="58">
+      <c r="W41" s="60">
         <v>20</v>
       </c>
-      <c r="X41" s="58">
+      <c r="X41" s="60">
         <v>14.959409</v>
       </c>
-      <c r="Y41" s="58">
+      <c r="Y41" s="60">
         <v>320.776704</v>
       </c>
-      <c r="Z41" s="47">
+      <c r="Z41" s="49">
         <v>13.374462</v>
       </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30">
         <v>25</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="31">
         <v>158.512422</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="32">
         <v>220.303495</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30">
+      <c r="E42" s="32"/>
+      <c r="F42" s="32">
         <v>28.704363</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="32">
         <v>25</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="32">
         <v>22.317945</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="32">
         <v>478.56683</v>
       </c>
-      <c r="J42" s="47">
+      <c r="J42" s="49">
         <v>19.953363</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="31">
         <v>158.512422</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="32">
         <v>220.303495</v>
       </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30">
+      <c r="M42" s="32"/>
+      <c r="N42" s="32">
         <v>47.223306</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="32">
         <v>25</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="32">
         <v>20.587587</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="32">
         <v>441.462519</v>
       </c>
-      <c r="R42" s="47">
+      <c r="R42" s="49">
         <v>18.406336</v>
       </c>
-      <c r="S42" s="29">
+      <c r="S42" s="31">
         <v>158.512422</v>
       </c>
-      <c r="T42" s="58">
+      <c r="T42" s="60">
         <v>220.303495</v>
       </c>
-      <c r="U42" s="30"/>
-      <c r="V42" s="58">
+      <c r="U42" s="32"/>
+      <c r="V42" s="60">
         <v>65.74225</v>
       </c>
-      <c r="W42" s="58">
+      <c r="W42" s="60">
         <v>25</v>
       </c>
-      <c r="X42" s="58">
+      <c r="X42" s="60">
         <v>18.857229</v>
       </c>
-      <c r="Y42" s="58">
+      <c r="Y42" s="60">
         <v>404.358207</v>
       </c>
-      <c r="Z42" s="47">
+      <c r="Z42" s="49">
         <v>16.859309</v>
       </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30">
         <v>30</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="31">
         <v>188.99558</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="32">
         <v>258.663582</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30">
+      <c r="E43" s="32"/>
+      <c r="F43" s="32">
         <v>29.191579</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="32">
         <v>29.191579</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="32">
         <v>26.022308</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="50">
         <v>558</v>
       </c>
-      <c r="J43" s="47">
+      <c r="J43" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="31">
         <v>188.99558</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="32">
         <v>258.663582</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30">
+      <c r="M43" s="32"/>
+      <c r="N43" s="32">
         <v>48.024856</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="32">
         <v>30</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="32">
         <v>24.786037</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="32">
         <v>531.490483</v>
       </c>
-      <c r="R43" s="47">
+      <c r="R43" s="49">
         <v>22.159961</v>
       </c>
-      <c r="S43" s="29">
+      <c r="S43" s="31">
         <v>188.99558</v>
       </c>
-      <c r="T43" s="58">
+      <c r="T43" s="60">
         <v>258.663582</v>
       </c>
-      <c r="U43" s="30"/>
-      <c r="V43" s="58">
+      <c r="U43" s="32"/>
+      <c r="V43" s="60">
         <v>66.858133</v>
       </c>
-      <c r="W43" s="58">
+      <c r="W43" s="60">
         <v>30</v>
       </c>
-      <c r="X43" s="58">
+      <c r="X43" s="60">
         <v>22.741346</v>
       </c>
-      <c r="Y43" s="58">
+      <c r="Y43" s="60">
         <v>487.645882</v>
       </c>
-      <c r="Z43" s="47">
+      <c r="Z43" s="49">
         <v>20.331905</v>
       </c>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30">
         <v>35</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="31">
         <v>219.478738</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="32">
         <v>297.022843</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>29.684778</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="32">
         <v>29.684778</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="32">
         <v>26.022308</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="50">
         <v>558</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J44" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="31">
         <v>219.478738</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L44" s="32">
         <v>297.022843</v>
       </c>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30">
+      <c r="M44" s="32"/>
+      <c r="N44" s="32">
         <v>48.836248</v>
       </c>
-      <c r="O44" s="30">
+      <c r="O44" s="32">
         <v>35</v>
       </c>
-      <c r="P44" s="30">
+      <c r="P44" s="32">
         <v>28.974646</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="32">
         <v>621.307395</v>
       </c>
-      <c r="R44" s="47">
+      <c r="R44" s="49">
         <v>25.904787</v>
       </c>
-      <c r="S44" s="29">
+      <c r="S44" s="31">
         <v>219.478738</v>
       </c>
-      <c r="T44" s="58">
+      <c r="T44" s="60">
         <v>297.022843</v>
       </c>
-      <c r="U44" s="30"/>
-      <c r="V44" s="58">
+      <c r="U44" s="32"/>
+      <c r="V44" s="60">
         <v>67.987717</v>
       </c>
-      <c r="W44" s="58">
+      <c r="W44" s="60">
         <v>35</v>
       </c>
-      <c r="X44" s="58">
+      <c r="X44" s="60">
         <v>26.611761</v>
       </c>
-      <c r="Y44" s="58">
+      <c r="Y44" s="60">
         <v>570.639739</v>
       </c>
-      <c r="Z44" s="47">
+      <c r="Z44" s="49">
         <v>23.79225</v>
       </c>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30">
         <v>40</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="31">
         <v>249.961896</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="32">
         <v>335.381292</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32">
         <v>30.18396</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="32">
         <v>30.18396</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="32">
         <v>26.022308</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I45" s="50">
         <v>558</v>
       </c>
-      <c r="J45" s="47">
+      <c r="J45" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="31">
         <v>249.961896</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="32">
         <v>335.381292</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30">
+      <c r="M45" s="32"/>
+      <c r="N45" s="32">
         <v>49.657482</v>
       </c>
-      <c r="O45" s="30">
+      <c r="O45" s="32">
         <v>40</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="32">
         <v>33.153411</v>
       </c>
-      <c r="Q45" s="30">
+      <c r="Q45" s="32">
         <v>710.913261</v>
       </c>
-      <c r="R45" s="47">
+      <c r="R45" s="49">
         <v>29.640813</v>
       </c>
-      <c r="S45" s="29">
+      <c r="S45" s="31">
         <v>249.961896</v>
       </c>
-      <c r="T45" s="58">
+      <c r="T45" s="60">
         <v>335.381292</v>
       </c>
-      <c r="U45" s="30"/>
-      <c r="V45" s="58">
+      <c r="U45" s="32"/>
+      <c r="V45" s="60">
         <v>69.131004</v>
       </c>
-      <c r="W45" s="58">
+      <c r="W45" s="60">
         <v>40</v>
       </c>
-      <c r="X45" s="58">
+      <c r="X45" s="60">
         <v>30.468475</v>
       </c>
-      <c r="Y45" s="58">
+      <c r="Y45" s="60">
         <v>653.339787</v>
       </c>
-      <c r="Z45" s="47">
+      <c r="Z45" s="49">
         <v>27.240345</v>
       </c>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30">
         <v>45</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="31">
         <v>280.445054</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="32">
         <v>373.738943</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32">
         <v>30.689123</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="32">
         <v>30.689123</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="32">
         <v>26.022308</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="50">
         <v>558</v>
       </c>
-      <c r="J46" s="47">
+      <c r="J46" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="31">
         <v>280.445054</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="32">
         <v>373.738943</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30">
+      <c r="M46" s="32"/>
+      <c r="N46" s="32">
         <v>50.488558</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="32">
         <v>45</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="32">
         <v>37.322336</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46" s="32">
         <v>800.308088</v>
       </c>
-      <c r="R46" s="47">
+      <c r="R46" s="49">
         <v>33.368041</v>
       </c>
-      <c r="S46" s="29">
+      <c r="S46" s="31">
         <v>280.445054</v>
       </c>
-      <c r="T46" s="58">
+      <c r="T46" s="60">
         <v>373.738943</v>
       </c>
-      <c r="U46" s="30"/>
-      <c r="V46" s="58">
+      <c r="U46" s="32"/>
+      <c r="V46" s="60">
         <v>70.287992</v>
       </c>
-      <c r="W46" s="58">
+      <c r="W46" s="60">
         <v>45</v>
       </c>
-      <c r="X46" s="58">
+      <c r="X46" s="60">
         <v>34.311487</v>
       </c>
-      <c r="Y46" s="58">
+      <c r="Y46" s="60">
         <v>735.746035</v>
       </c>
-      <c r="Z46" s="47">
+      <c r="Z46" s="49">
         <v>30.676191</v>
       </c>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34">
         <v>50</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="35">
         <v>310.928212</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="36">
         <v>412.095811</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34">
+      <c r="E47" s="36"/>
+      <c r="F47" s="36">
         <v>31.200269</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="36">
         <v>31.200269</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="36">
         <v>26.022308</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="51">
         <v>558</v>
       </c>
-      <c r="J47" s="50">
+      <c r="J47" s="52">
         <v>23.265249</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="35">
         <v>310.928212</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="36">
         <v>412.095811</v>
       </c>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34">
+      <c r="M47" s="36"/>
+      <c r="N47" s="36">
         <v>51.329475</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="36">
         <v>50</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="36">
         <v>41.481418</v>
       </c>
-      <c r="Q47" s="34">
+      <c r="Q47" s="36">
         <v>889.491883</v>
       </c>
-      <c r="R47" s="50">
+      <c r="R47" s="52">
         <v>37.086469</v>
       </c>
-      <c r="S47" s="33">
+      <c r="S47" s="35">
         <v>310.928212</v>
       </c>
-      <c r="T47" s="34">
+      <c r="T47" s="36">
         <v>412.095811</v>
       </c>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34">
+      <c r="U47" s="36"/>
+      <c r="V47" s="36">
         <v>71.458681</v>
       </c>
-      <c r="W47" s="34">
+      <c r="W47" s="36">
         <v>50</v>
       </c>
-      <c r="X47" s="34">
+      <c r="X47" s="36">
         <v>38.140798</v>
       </c>
-      <c r="Y47" s="34">
+      <c r="Y47" s="36">
         <v>817.858493</v>
       </c>
-      <c r="Z47" s="50">
+      <c r="Z47" s="52">
         <v>34.099787</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:26">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="19" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="19" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="19" t="s">
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="46"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="48"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="38">
         <v>5</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="39">
         <v>36.57979</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="40">
         <v>67.119862</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="40">
         <v>19.841049</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="40">
         <v>20.469429</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="40">
         <v>5</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="40">
         <v>4.37162</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="40">
         <v>93.200477</v>
       </c>
-      <c r="J49" s="51">
+      <c r="J49" s="53">
         <v>3.8859</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="39">
         <v>36.57979</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="40">
         <v>67.119862</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="40">
         <v>36.727049</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="40">
         <v>37.89022</v>
       </c>
-      <c r="O49" s="38">
+      <c r="O49" s="40">
         <v>5</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="40">
         <v>3.836828</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="40">
         <v>81.799022</v>
       </c>
-      <c r="R49" s="51">
+      <c r="R49" s="53">
         <v>3.410528</v>
       </c>
-      <c r="S49" s="37">
+      <c r="S49" s="39">
         <v>36.57979</v>
       </c>
-      <c r="T49" s="60">
+      <c r="T49" s="62">
         <v>67.119862</v>
       </c>
-      <c r="U49" s="38">
+      <c r="U49" s="40">
         <v>53.613048</v>
       </c>
-      <c r="V49" s="60">
+      <c r="V49" s="62">
         <v>55.311011</v>
       </c>
-      <c r="W49" s="60">
+      <c r="W49" s="62">
         <v>5</v>
       </c>
-      <c r="X49" s="60">
+      <c r="X49" s="62">
         <v>3.302037</v>
       </c>
-      <c r="Y49" s="60">
+      <c r="Y49" s="62">
         <v>70.397568</v>
       </c>
-      <c r="Z49" s="51">
+      <c r="Z49" s="53">
         <v>2.935156</v>
       </c>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="39"/>
-      <c r="B50" s="36">
+      <c r="A50" s="41"/>
+      <c r="B50" s="38">
         <v>10</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="39">
         <v>67.062948</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="40">
         <v>105.688535</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38">
+      <c r="E50" s="40"/>
+      <c r="F50" s="40">
         <v>20.837113</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="40">
         <v>10</v>
       </c>
-      <c r="H50" s="38">
+      <c r="H50" s="40">
         <v>9.003936</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="40">
         <v>191.958845</v>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="53">
         <v>8.003531</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="39">
         <v>67.062948</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L50" s="40">
         <v>105.688535</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38">
+      <c r="M50" s="40"/>
+      <c r="N50" s="40">
         <v>38.570827</v>
       </c>
-      <c r="O50" s="38">
+      <c r="O50" s="40">
         <v>10</v>
       </c>
-      <c r="P50" s="38">
+      <c r="P50" s="40">
         <v>8.156222</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="Q50" s="40">
         <v>173.886058</v>
       </c>
-      <c r="R50" s="51">
+      <c r="R50" s="53">
         <v>7.250004</v>
       </c>
-      <c r="S50" s="37">
+      <c r="S50" s="39">
         <v>67.062948</v>
       </c>
-      <c r="T50" s="60">
+      <c r="T50" s="62">
         <v>105.688535</v>
       </c>
-      <c r="U50" s="38"/>
-      <c r="V50" s="60">
+      <c r="U50" s="40"/>
+      <c r="V50" s="62">
         <v>56.30454</v>
       </c>
-      <c r="W50" s="60">
+      <c r="W50" s="62">
         <v>10</v>
       </c>
-      <c r="X50" s="60">
+      <c r="X50" s="62">
         <v>7.308508</v>
       </c>
-      <c r="Y50" s="60">
+      <c r="Y50" s="62">
         <v>155.81327</v>
       </c>
-      <c r="Z50" s="51">
+      <c r="Z50" s="53">
         <v>6.496478</v>
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="39"/>
-      <c r="B51" s="36">
+      <c r="A51" s="41"/>
+      <c r="B51" s="38">
         <v>15</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="39">
         <v>97.546106</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="40">
         <v>144.058269</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38">
+      <c r="E51" s="40"/>
+      <c r="F51" s="40">
         <v>21.207682</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="40">
         <v>15</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="40">
         <v>13.633367</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="40">
         <v>290.655714</v>
       </c>
-      <c r="J51" s="51">
+      <c r="J51" s="53">
         <v>12.118598</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="39">
         <v>97.546106</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="40">
         <v>144.058269</v>
       </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38">
+      <c r="M51" s="40"/>
+      <c r="N51" s="40">
         <v>39.256773</v>
       </c>
-      <c r="O51" s="38">
+      <c r="O51" s="40">
         <v>15</v>
       </c>
-      <c r="P51" s="38">
+      <c r="P51" s="40">
         <v>12.470275</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q51" s="40">
         <v>265.859253</v>
       </c>
-      <c r="R51" s="51">
+      <c r="R51" s="53">
         <v>11.084734</v>
       </c>
-      <c r="S51" s="37">
+      <c r="S51" s="39">
         <v>97.546106</v>
       </c>
-      <c r="T51" s="60">
+      <c r="T51" s="62">
         <v>144.058269</v>
       </c>
-      <c r="U51" s="38"/>
-      <c r="V51" s="60">
+      <c r="U51" s="40"/>
+      <c r="V51" s="62">
         <v>57.305864</v>
       </c>
-      <c r="W51" s="60">
+      <c r="W51" s="62">
         <v>15</v>
       </c>
-      <c r="X51" s="60">
+      <c r="X51" s="62">
         <v>11.307184</v>
       </c>
-      <c r="Y51" s="60">
+      <c r="Y51" s="62">
         <v>241.062791</v>
       </c>
-      <c r="Z51" s="51">
+      <c r="Z51" s="53">
         <v>10.050871</v>
       </c>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="39"/>
-      <c r="B52" s="36">
+      <c r="A52" s="41"/>
+      <c r="B52" s="38">
         <v>20</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="39">
         <v>128.029264</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="40">
         <v>182.425744</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38">
+      <c r="E52" s="40"/>
+      <c r="F52" s="40">
         <v>21.582997</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="40">
         <v>20</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="40">
         <v>18.258052</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52" s="40">
         <v>389.251388</v>
       </c>
-      <c r="J52" s="51">
+      <c r="J52" s="53">
         <v>16.229445</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="39">
         <v>128.029264</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="40">
         <v>182.425744</v>
       </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38">
+      <c r="M52" s="40"/>
+      <c r="N52" s="40">
         <v>39.951506</v>
       </c>
-      <c r="O52" s="38">
+      <c r="O52" s="40">
         <v>20</v>
       </c>
-      <c r="P52" s="38">
+      <c r="P52" s="40">
         <v>16.775543</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="Q52" s="40">
         <v>357.645129</v>
       </c>
-      <c r="R52" s="51">
+      <c r="R52" s="53">
         <v>14.911654</v>
       </c>
-      <c r="S52" s="37">
+      <c r="S52" s="39">
         <v>128.029264</v>
       </c>
-      <c r="T52" s="60">
+      <c r="T52" s="62">
         <v>182.425744</v>
       </c>
-      <c r="U52" s="38"/>
-      <c r="V52" s="60">
+      <c r="U52" s="40"/>
+      <c r="V52" s="62">
         <v>58.320014</v>
       </c>
-      <c r="W52" s="60">
+      <c r="W52" s="62">
         <v>20</v>
       </c>
-      <c r="X52" s="60">
+      <c r="X52" s="62">
         <v>15.293034</v>
       </c>
-      <c r="Y52" s="60">
+      <c r="Y52" s="62">
         <v>326.038871</v>
       </c>
-      <c r="Z52" s="51">
+      <c r="Z52" s="53">
         <v>13.593863</v>
       </c>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="39"/>
-      <c r="B53" s="36">
+      <c r="A53" s="41"/>
+      <c r="B53" s="38">
         <v>25</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="39">
         <v>158.512422</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="40">
         <v>220.792333</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38">
+      <c r="E53" s="40"/>
+      <c r="F53" s="40">
         <v>21.963072</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="40">
         <v>21.963072</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="40">
         <v>19.841049</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="54">
         <v>423</v>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="39">
         <v>158.512422</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="40">
         <v>220.792333</v>
       </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38">
+      <c r="M53" s="40"/>
+      <c r="N53" s="40">
         <v>40.655048</v>
       </c>
-      <c r="O53" s="38">
+      <c r="O53" s="40">
         <v>25</v>
       </c>
-      <c r="P53" s="38">
+      <c r="P53" s="40">
         <v>21.072</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="Q53" s="40">
         <v>449.24318</v>
       </c>
-      <c r="R53" s="51">
+      <c r="R53" s="53">
         <v>18.730742</v>
       </c>
-      <c r="S53" s="37">
+      <c r="S53" s="39">
         <v>158.512422</v>
       </c>
-      <c r="T53" s="60">
+      <c r="T53" s="62">
         <v>220.792333</v>
       </c>
-      <c r="U53" s="38"/>
-      <c r="V53" s="60">
+      <c r="U53" s="40"/>
+      <c r="V53" s="62">
         <v>59.347025</v>
       </c>
-      <c r="W53" s="60">
+      <c r="W53" s="62">
         <v>25</v>
       </c>
-      <c r="X53" s="60">
+      <c r="X53" s="62">
         <v>19.266023</v>
       </c>
-      <c r="Y53" s="60">
+      <c r="Y53" s="62">
         <v>410.740767</v>
       </c>
-      <c r="Z53" s="51">
+      <c r="Z53" s="53">
         <v>17.125423</v>
       </c>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="39"/>
-      <c r="B54" s="36">
+      <c r="A54" s="41"/>
+      <c r="B54" s="38">
         <v>30</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="39">
         <v>188.99558</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="40">
         <v>259.158063</v>
       </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38">
+      <c r="E54" s="40"/>
+      <c r="F54" s="40">
         <v>22.347906</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54" s="40">
         <v>22.347906</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="40">
         <v>19.841049</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="54">
         <v>423</v>
       </c>
-      <c r="J54" s="51">
+      <c r="J54" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="39">
         <v>188.99558</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54" s="40">
         <v>259.158063</v>
       </c>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38">
+      <c r="M54" s="40"/>
+      <c r="N54" s="40">
         <v>41.367401</v>
       </c>
-      <c r="O54" s="38">
+      <c r="O54" s="40">
         <v>30</v>
       </c>
-      <c r="P54" s="38">
+      <c r="P54" s="40">
         <v>25.359647</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="Q54" s="40">
         <v>540.653408</v>
       </c>
-      <c r="R54" s="51">
+      <c r="R54" s="53">
         <v>22.542</v>
       </c>
-      <c r="S54" s="37">
+      <c r="S54" s="39">
         <v>188.99558</v>
       </c>
-      <c r="T54" s="60">
+      <c r="T54" s="62">
         <v>259.158063</v>
       </c>
-      <c r="U54" s="38"/>
-      <c r="V54" s="60">
+      <c r="U54" s="40"/>
+      <c r="V54" s="62">
         <v>60.386896</v>
       </c>
-      <c r="W54" s="60">
+      <c r="W54" s="62">
         <v>30</v>
       </c>
-      <c r="X54" s="60">
+      <c r="X54" s="62">
         <v>23.226152</v>
       </c>
-      <c r="Y54" s="60">
+      <c r="Y54" s="62">
         <v>495.168486</v>
       </c>
-      <c r="Z54" s="51">
+      <c r="Z54" s="53">
         <v>20.645552</v>
       </c>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="39"/>
-      <c r="B55" s="36">
+      <c r="A55" s="41"/>
+      <c r="B55" s="38">
         <v>35</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="39">
         <v>219.478738</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="40">
         <v>297.522948</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38">
+      <c r="E55" s="40"/>
+      <c r="F55" s="40">
         <v>22.7375</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="40">
         <v>22.7375</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="40">
         <v>19.841049</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="54">
         <v>423</v>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="39">
         <v>219.478738</v>
       </c>
-      <c r="L55" s="38">
+      <c r="L55" s="40">
         <v>297.522948</v>
       </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38">
+      <c r="M55" s="40"/>
+      <c r="N55" s="40">
         <v>42.088563</v>
       </c>
-      <c r="O55" s="38">
+      <c r="O55" s="40">
         <v>35</v>
       </c>
-      <c r="P55" s="38">
+      <c r="P55" s="40">
         <v>29.638485</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55" s="40">
         <v>631.875819</v>
       </c>
-      <c r="R55" s="51">
+      <c r="R55" s="53">
         <v>26.345427</v>
       </c>
-      <c r="S55" s="37">
+      <c r="S55" s="39">
         <v>219.478738</v>
       </c>
-      <c r="T55" s="60">
+      <c r="T55" s="62">
         <v>297.522948</v>
       </c>
-      <c r="U55" s="38"/>
-      <c r="V55" s="60">
+      <c r="U55" s="40"/>
+      <c r="V55" s="62">
         <v>61.439627</v>
       </c>
-      <c r="W55" s="60">
+      <c r="W55" s="62">
         <v>35</v>
       </c>
-      <c r="X55" s="60">
+      <c r="X55" s="62">
         <v>27.173421</v>
       </c>
-      <c r="Y55" s="60">
+      <c r="Y55" s="62">
         <v>579.322036</v>
       </c>
-      <c r="Z55" s="51">
+      <c r="Z55" s="53">
         <v>24.15425</v>
       </c>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="39"/>
-      <c r="B56" s="36">
+      <c r="A56" s="41"/>
+      <c r="B56" s="38">
         <v>40</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="39">
         <v>249.961896</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="40">
         <v>335.887004</v>
       </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38">
+      <c r="E56" s="40"/>
+      <c r="F56" s="40">
         <v>23.131852</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="40">
         <v>23.131852</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="40">
         <v>19.841049</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="54">
         <v>423</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K56" s="37">
+      <c r="K56" s="39">
         <v>249.961896</v>
       </c>
-      <c r="L56" s="38">
+      <c r="L56" s="40">
         <v>335.887004</v>
       </c>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38">
+      <c r="M56" s="40"/>
+      <c r="N56" s="40">
         <v>42.818535</v>
       </c>
-      <c r="O56" s="38">
+      <c r="O56" s="40">
         <v>40</v>
       </c>
-      <c r="P56" s="38">
+      <c r="P56" s="40">
         <v>33.908514</v>
       </c>
-      <c r="Q56" s="38">
+      <c r="Q56" s="40">
         <v>722.910421</v>
       </c>
-      <c r="R56" s="51">
+      <c r="R56" s="53">
         <v>30.141023</v>
       </c>
-      <c r="S56" s="37">
+      <c r="S56" s="39">
         <v>249.961896</v>
       </c>
-      <c r="T56" s="60">
+      <c r="T56" s="62">
         <v>335.887004</v>
       </c>
-      <c r="U56" s="38"/>
-      <c r="V56" s="60">
+      <c r="U56" s="40"/>
+      <c r="V56" s="62">
         <v>62.505218</v>
       </c>
-      <c r="W56" s="60">
+      <c r="W56" s="62">
         <v>40</v>
       </c>
-      <c r="X56" s="60">
+      <c r="X56" s="62">
         <v>31.10783</v>
       </c>
-      <c r="Y56" s="60">
+      <c r="Y56" s="62">
         <v>663.201427</v>
       </c>
-      <c r="Z56" s="51">
+      <c r="Z56" s="53">
         <v>27.651516</v>
       </c>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="39"/>
-      <c r="B57" s="36">
+      <c r="A57" s="41"/>
+      <c r="B57" s="38">
         <v>45</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="39">
         <v>280.445054</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="40">
         <v>374.250244</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38">
+      <c r="E57" s="40"/>
+      <c r="F57" s="40">
         <v>23.530964</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="40">
         <v>23.530964</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="40">
         <v>19.841049</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="54">
         <v>423</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K57" s="37">
+      <c r="K57" s="39">
         <v>280.445054</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57" s="40">
         <v>374.250244</v>
       </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38">
+      <c r="M57" s="40"/>
+      <c r="N57" s="40">
         <v>43.557316</v>
       </c>
-      <c r="O57" s="38">
+      <c r="O57" s="40">
         <v>43.557316</v>
       </c>
-      <c r="P57" s="38">
+      <c r="P57" s="40">
         <v>36.727049</v>
       </c>
-      <c r="Q57" s="52">
+      <c r="Q57" s="54">
         <v>783</v>
       </c>
-      <c r="R57" s="51">
+      <c r="R57" s="53">
         <v>32.646397</v>
       </c>
-      <c r="S57" s="37">
+      <c r="S57" s="39">
         <v>280.445054</v>
       </c>
-      <c r="T57" s="60">
+      <c r="T57" s="62">
         <v>374.250244</v>
       </c>
-      <c r="U57" s="38"/>
-      <c r="V57" s="60">
+      <c r="U57" s="40"/>
+      <c r="V57" s="62">
         <v>63.583668</v>
       </c>
-      <c r="W57" s="60">
+      <c r="W57" s="62">
         <v>45</v>
       </c>
-      <c r="X57" s="60">
+      <c r="X57" s="62">
         <v>35.02938</v>
       </c>
-      <c r="Y57" s="60">
+      <c r="Y57" s="62">
         <v>746.806667</v>
       </c>
-      <c r="Z57" s="51">
+      <c r="Z57" s="53">
         <v>31.137353</v>
       </c>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="40"/>
-      <c r="B58" s="41">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43">
         <v>50</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="44">
         <v>310.928212</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="45">
         <v>412.612683</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43">
+      <c r="E58" s="45"/>
+      <c r="F58" s="45">
         <v>23.934834</v>
       </c>
-      <c r="G58" s="43">
+      <c r="G58" s="45">
         <v>23.934834</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="45">
         <v>19.841049</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="55">
         <v>423</v>
       </c>
-      <c r="J58" s="54">
+      <c r="J58" s="56">
         <v>17.63656</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="44">
         <v>310.928212</v>
       </c>
-      <c r="L58" s="43">
+      <c r="L58" s="45">
         <v>412.612683</v>
       </c>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43">
+      <c r="M58" s="45"/>
+      <c r="N58" s="45">
         <v>44.304905</v>
       </c>
-      <c r="O58" s="43">
+      <c r="O58" s="45">
         <v>44.304905</v>
       </c>
-      <c r="P58" s="43">
+      <c r="P58" s="45">
         <v>36.727049</v>
       </c>
-      <c r="Q58" s="53">
+      <c r="Q58" s="55">
         <v>783</v>
       </c>
-      <c r="R58" s="54">
+      <c r="R58" s="56">
         <v>32.646397</v>
       </c>
-      <c r="S58" s="42">
+      <c r="S58" s="44">
         <v>310.928212</v>
       </c>
-      <c r="T58" s="43">
+      <c r="T58" s="45">
         <v>412.612683</v>
       </c>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43">
+      <c r="U58" s="45"/>
+      <c r="V58" s="45">
         <v>64.674976</v>
       </c>
-      <c r="W58" s="43">
+      <c r="W58" s="45">
         <v>50</v>
       </c>
-      <c r="X58" s="43">
+      <c r="X58" s="45">
         <v>38.938072</v>
       </c>
-      <c r="Y58" s="43">
+      <c r="Y58" s="45">
         <v>830.137766</v>
       </c>
-      <c r="Z58" s="54">
+      <c r="Z58" s="56">
         <v>34.611759</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="18"/>
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:26">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="46"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="48"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:26">
-      <c r="A63" s="21"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="19" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="19" t="s">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="56" t="s">
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="18"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="20"/>
     </row>
     <row r="64" ht="60" customHeight="1" spans="1:26">
-      <c r="A64" s="23"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="25" t="s">
+      <c r="K64" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L64" s="26" t="s">
+      <c r="L64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="26" t="s">
+      <c r="M64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N64" s="26" t="s">
+      <c r="N64" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O64" s="26" t="s">
+      <c r="O64" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P64" s="26" t="s">
+      <c r="P64" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q64" s="26" t="s">
+      <c r="Q64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R64" s="24" t="s">
+      <c r="R64" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S64" s="25" t="s">
+      <c r="S64" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="26" t="s">
+      <c r="T64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="U64" s="26" t="s">
+      <c r="U64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V64" s="26" t="s">
+      <c r="V64" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="W64" s="26" t="s">
+      <c r="W64" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="X64" s="26" t="s">
+      <c r="X64" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y64" s="26" t="s">
+      <c r="Y64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="24" t="s">
+      <c r="Z64" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="30">
         <v>5</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="31">
         <v>36.57979</v>
       </c>
-      <c r="D65" s="30">
+      <c r="D65" s="32">
         <v>63.361081</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="32">
         <v>41.05615</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="32">
         <v>41.770826</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="32">
         <v>5</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H65" s="32">
         <v>4.285324</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="32">
         <v>58.24245</v>
       </c>
-      <c r="J65" s="47">
+      <c r="J65" s="49">
         <v>2.42836</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="31">
         <v>36.57979</v>
       </c>
-      <c r="L65" s="30">
+      <c r="L65" s="32">
         <v>63.361081</v>
       </c>
-      <c r="M65" s="30">
+      <c r="M65" s="32">
         <v>67.543989</v>
       </c>
-      <c r="N65" s="30">
+      <c r="N65" s="32">
         <v>68.719746</v>
       </c>
-      <c r="O65" s="30">
+      <c r="O65" s="32">
         <v>5</v>
       </c>
-      <c r="P65" s="30">
+      <c r="P65" s="32">
         <v>3.824243</v>
       </c>
-      <c r="Q65" s="30">
+      <c r="Q65" s="32">
         <v>51.975828</v>
       </c>
-      <c r="R65" s="47">
+      <c r="R65" s="49">
         <v>2.16708</v>
       </c>
-      <c r="S65" s="29">
+      <c r="S65" s="31">
         <v>36.57979</v>
       </c>
-      <c r="T65" s="58">
+      <c r="T65" s="60">
         <v>63.361081</v>
       </c>
-      <c r="U65" s="30">
+      <c r="U65" s="32">
         <v>94.031828</v>
       </c>
-      <c r="V65" s="58">
+      <c r="V65" s="60">
         <v>95.668666</v>
       </c>
-      <c r="W65" s="58">
+      <c r="W65" s="60">
         <v>5</v>
       </c>
-      <c r="X65" s="58">
+      <c r="X65" s="60">
         <v>3.363161</v>
       </c>
-      <c r="Y65" s="58">
+      <c r="Y65" s="60">
         <v>45.709206</v>
       </c>
-      <c r="Z65" s="47">
+      <c r="Z65" s="49">
         <v>1.905799</v>
       </c>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28">
+      <c r="A66" s="29"/>
+      <c r="B66" s="30">
         <v>10</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="31">
         <v>67.062948</v>
       </c>
-      <c r="D66" s="30">
+      <c r="D66" s="32">
         <v>101.736942</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30">
+      <c r="E66" s="32"/>
+      <c r="F66" s="32">
         <v>42.208235</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="32">
         <v>10</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H66" s="32">
         <v>8.847915</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="32">
         <v>120.253273</v>
       </c>
-      <c r="J66" s="47">
+      <c r="J66" s="49">
         <v>5.013839</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="31">
         <v>67.062948</v>
       </c>
-      <c r="L66" s="30">
+      <c r="L66" s="32">
         <v>101.736942</v>
       </c>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30">
+      <c r="M66" s="32"/>
+      <c r="N66" s="32">
         <v>69.439355</v>
       </c>
-      <c r="O66" s="30">
+      <c r="O66" s="32">
         <v>10</v>
       </c>
-      <c r="P66" s="30">
+      <c r="P66" s="32">
         <v>8.104634</v>
       </c>
-      <c r="Q66" s="30">
+      <c r="Q66" s="32">
         <v>110.151238</v>
       </c>
-      <c r="R66" s="47">
+      <c r="R66" s="49">
         <v>4.592645</v>
       </c>
-      <c r="S66" s="29">
+      <c r="S66" s="31">
         <v>67.062948</v>
       </c>
-      <c r="T66" s="58">
+      <c r="T66" s="60">
         <v>101.736942</v>
       </c>
-      <c r="U66" s="30"/>
-      <c r="V66" s="58">
+      <c r="U66" s="32"/>
+      <c r="V66" s="60">
         <v>96.670475</v>
       </c>
-      <c r="W66" s="58">
+      <c r="W66" s="60">
         <v>10</v>
       </c>
-      <c r="X66" s="58">
+      <c r="X66" s="60">
         <v>7.361353</v>
       </c>
-      <c r="Y66" s="58">
+      <c r="Y66" s="60">
         <v>100.049203</v>
       </c>
-      <c r="Z66" s="47">
+      <c r="Z66" s="49">
         <v>4.171451</v>
       </c>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28">
+      <c r="A67" s="29"/>
+      <c r="B67" s="30">
         <v>15</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="31">
         <v>97.546106</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D67" s="32">
         <v>140.005015</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30">
+      <c r="E67" s="32"/>
+      <c r="F67" s="32">
         <v>42.647836</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="32">
         <v>15</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H67" s="32">
         <v>13.408315</v>
       </c>
-      <c r="I67" s="30">
+      <c r="I67" s="32">
         <v>182.234319</v>
       </c>
-      <c r="J67" s="47">
+      <c r="J67" s="49">
         <v>7.598077</v>
       </c>
-      <c r="K67" s="29">
+      <c r="K67" s="31">
         <v>97.546106</v>
       </c>
-      <c r="L67" s="30">
+      <c r="L67" s="32">
         <v>140.005015</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30">
+      <c r="M67" s="32"/>
+      <c r="N67" s="32">
         <v>70.162568</v>
       </c>
-      <c r="O67" s="30">
+      <c r="O67" s="32">
         <v>15</v>
       </c>
-      <c r="P67" s="30">
+      <c r="P67" s="32">
         <v>12.381421</v>
       </c>
-      <c r="Q67" s="30">
+      <c r="Q67" s="32">
         <v>168.277658</v>
       </c>
-      <c r="R67" s="47">
+      <c r="R67" s="49">
         <v>7.016168</v>
       </c>
-      <c r="S67" s="29">
+      <c r="S67" s="31">
         <v>97.546106</v>
       </c>
-      <c r="T67" s="58">
+      <c r="T67" s="60">
         <v>140.005015</v>
       </c>
-      <c r="U67" s="30"/>
-      <c r="V67" s="58">
+      <c r="U67" s="32"/>
+      <c r="V67" s="60">
         <v>97.677301</v>
       </c>
-      <c r="W67" s="58">
+      <c r="W67" s="60">
         <v>15</v>
       </c>
-      <c r="X67" s="58">
+      <c r="X67" s="60">
         <v>11.354527</v>
       </c>
-      <c r="Y67" s="58">
+      <c r="Y67" s="60">
         <v>154.320998</v>
       </c>
-      <c r="Z67" s="47">
+      <c r="Z67" s="49">
         <v>6.434259</v>
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28">
+      <c r="A68" s="29"/>
+      <c r="B68" s="30">
         <v>20</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="31">
         <v>128.029264</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="32">
         <v>178.272211</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30">
+      <c r="E68" s="32"/>
+      <c r="F68" s="32">
         <v>43.09084</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="32">
         <v>20</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H68" s="32">
         <v>17.96531</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="32">
         <v>244.169092</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J68" s="49">
         <v>10.180385</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="31">
         <v>128.029264</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L68" s="32">
         <v>178.272211</v>
       </c>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30">
+      <c r="M68" s="32"/>
+      <c r="N68" s="32">
         <v>70.891382</v>
       </c>
-      <c r="O68" s="30">
+      <c r="O68" s="32">
         <v>20</v>
       </c>
-      <c r="P68" s="30">
+      <c r="P68" s="32">
         <v>16.652607</v>
       </c>
-      <c r="Q68" s="30">
+      <c r="Q68" s="32">
         <v>226.327955</v>
       </c>
-      <c r="R68" s="47">
+      <c r="R68" s="49">
         <v>9.436516</v>
       </c>
-      <c r="S68" s="29">
+      <c r="S68" s="31">
         <v>128.029264</v>
       </c>
-      <c r="T68" s="58">
+      <c r="T68" s="60">
         <v>178.272211</v>
       </c>
-      <c r="U68" s="30"/>
-      <c r="V68" s="58">
+      <c r="U68" s="32"/>
+      <c r="V68" s="60">
         <v>98.691924</v>
       </c>
-      <c r="W68" s="58">
+      <c r="W68" s="60">
         <v>20</v>
       </c>
-      <c r="X68" s="58">
+      <c r="X68" s="60">
         <v>15.339903</v>
       </c>
-      <c r="Y68" s="58">
+      <c r="Y68" s="60">
         <v>208.486817</v>
       </c>
-      <c r="Z68" s="47">
+      <c r="Z68" s="49">
         <v>8.692648</v>
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="27"/>
-      <c r="B69" s="28">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30">
         <v>25</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="31">
         <v>158.512422</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="32">
         <v>216.538993</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30">
+      <c r="E69" s="32"/>
+      <c r="F69" s="32">
         <v>43.537255</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="32">
         <v>25</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H69" s="32">
         <v>22.518895</v>
       </c>
-      <c r="I69" s="30">
+      <c r="I69" s="32">
         <v>306.057524</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="49">
         <v>12.760761</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="31">
         <v>158.512422</v>
       </c>
-      <c r="L69" s="30">
+      <c r="L69" s="32">
         <v>216.538993</v>
       </c>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30">
+      <c r="M69" s="32"/>
+      <c r="N69" s="32">
         <v>71.625806</v>
       </c>
-      <c r="O69" s="30">
+      <c r="O69" s="32">
         <v>25</v>
       </c>
-      <c r="P69" s="30">
+      <c r="P69" s="32">
         <v>20.918183</v>
       </c>
-      <c r="Q69" s="30">
+      <c r="Q69" s="32">
         <v>284.302011</v>
       </c>
-      <c r="R69" s="47">
+      <c r="R69" s="49">
         <v>11.853686</v>
       </c>
-      <c r="S69" s="29">
+      <c r="S69" s="31">
         <v>158.512422</v>
       </c>
-      <c r="T69" s="58">
+      <c r="T69" s="60">
         <v>216.538993</v>
       </c>
-      <c r="U69" s="30"/>
-      <c r="V69" s="58">
+      <c r="U69" s="32"/>
+      <c r="V69" s="60">
         <v>99.714358</v>
       </c>
-      <c r="W69" s="58">
+      <c r="W69" s="60">
         <v>25</v>
       </c>
-      <c r="X69" s="58">
+      <c r="X69" s="60">
         <v>19.31747</v>
       </c>
-      <c r="Y69" s="58">
+      <c r="Y69" s="60">
         <v>262.546497</v>
       </c>
-      <c r="Z69" s="47">
+      <c r="Z69" s="49">
         <v>10.946612</v>
       </c>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="27"/>
-      <c r="B70" s="28">
+      <c r="A70" s="29"/>
+      <c r="B70" s="30">
         <v>30</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="31">
         <v>188.99558</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="32">
         <v>254.805369</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30">
+      <c r="E70" s="32"/>
+      <c r="F70" s="32">
         <v>43.987079</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G70" s="32">
         <v>30</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H70" s="32">
         <v>27.069071</v>
       </c>
-      <c r="I70" s="30">
+      <c r="I70" s="32">
         <v>367.899614</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="49">
         <v>15.339204</v>
       </c>
-      <c r="K70" s="29">
+      <c r="K70" s="31">
         <v>188.99558</v>
       </c>
-      <c r="L70" s="30">
+      <c r="L70" s="32">
         <v>254.805369</v>
       </c>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30">
+      <c r="M70" s="32"/>
+      <c r="N70" s="32">
         <v>72.365839</v>
       </c>
-      <c r="O70" s="30">
+      <c r="O70" s="32">
         <v>30</v>
       </c>
-      <c r="P70" s="30">
+      <c r="P70" s="32">
         <v>25.17815</v>
       </c>
-      <c r="Q70" s="30">
+      <c r="Q70" s="32">
         <v>342.199827</v>
       </c>
-      <c r="R70" s="47">
+      <c r="R70" s="49">
         <v>14.267678</v>
       </c>
-      <c r="S70" s="29">
+      <c r="S70" s="31">
         <v>188.99558</v>
       </c>
-      <c r="T70" s="58">
+      <c r="T70" s="60">
         <v>254.805369</v>
       </c>
-      <c r="U70" s="30"/>
-      <c r="V70" s="58">
+      <c r="U70" s="32"/>
+      <c r="V70" s="60">
         <v>100.7446</v>
       </c>
-      <c r="W70" s="58">
+      <c r="W70" s="60">
         <v>30</v>
       </c>
-      <c r="X70" s="58">
+      <c r="X70" s="60">
         <v>23.287228</v>
       </c>
-      <c r="Y70" s="58">
+      <c r="Y70" s="60">
         <v>316.50004</v>
       </c>
-      <c r="Z70" s="47">
+      <c r="Z70" s="49">
         <v>13.196151</v>
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28">
+      <c r="A71" s="29"/>
+      <c r="B71" s="30">
         <v>35</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="31">
         <v>219.478738</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71" s="32">
         <v>293.071345</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30">
+      <c r="E71" s="32"/>
+      <c r="F71" s="32">
         <v>44.440313</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="32">
         <v>35</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="32">
         <v>31.615838</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I71" s="32">
         <v>429.695363</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="49">
         <v>17.915716</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K71" s="31">
         <v>219.478738</v>
       </c>
-      <c r="L71" s="30">
+      <c r="L71" s="32">
         <v>293.071345</v>
       </c>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30">
+      <c r="M71" s="32"/>
+      <c r="N71" s="32">
         <v>73.111482</v>
       </c>
-      <c r="O71" s="30">
+      <c r="O71" s="32">
         <v>35</v>
       </c>
-      <c r="P71" s="30">
+      <c r="P71" s="32">
         <v>29.432507</v>
       </c>
-      <c r="Q71" s="30">
+      <c r="Q71" s="32">
         <v>400.021405</v>
       </c>
-      <c r="R71" s="47">
+      <c r="R71" s="49">
         <v>16.67849</v>
       </c>
-      <c r="S71" s="29">
+      <c r="S71" s="31">
         <v>219.478738</v>
       </c>
-      <c r="T71" s="58">
+      <c r="T71" s="60">
         <v>293.071345</v>
       </c>
-      <c r="U71" s="30"/>
-      <c r="V71" s="58">
+      <c r="U71" s="32"/>
+      <c r="V71" s="60">
         <v>101.782652</v>
       </c>
-      <c r="W71" s="58">
+      <c r="W71" s="60">
         <v>35</v>
       </c>
-      <c r="X71" s="58">
+      <c r="X71" s="60">
         <v>27.249176</v>
       </c>
-      <c r="Y71" s="58">
+      <c r="Y71" s="60">
         <v>370.347447</v>
       </c>
-      <c r="Z71" s="47">
+      <c r="Z71" s="49">
         <v>15.441264</v>
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="27"/>
-      <c r="B72" s="28">
+      <c r="A72" s="29"/>
+      <c r="B72" s="30">
         <v>40</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="31">
         <v>249.961896</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72" s="32">
         <v>331.336925</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30">
+      <c r="E72" s="32"/>
+      <c r="F72" s="32">
         <v>44.896956</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="32">
         <v>40</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H72" s="32">
         <v>36.159194</v>
       </c>
-      <c r="I72" s="30">
+      <c r="I72" s="32">
         <v>491.444771</v>
       </c>
-      <c r="J72" s="47">
+      <c r="J72" s="49">
         <v>20.490295</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="31">
         <v>249.961896</v>
       </c>
-      <c r="L72" s="30">
+      <c r="L72" s="32">
         <v>331.336925</v>
       </c>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30">
+      <c r="M72" s="32"/>
+      <c r="N72" s="32">
         <v>73.862734</v>
       </c>
-      <c r="O72" s="30">
+      <c r="O72" s="32">
         <v>40</v>
       </c>
-      <c r="P72" s="30">
+      <c r="P72" s="32">
         <v>33.681255</v>
       </c>
-      <c r="Q72" s="30">
+      <c r="Q72" s="32">
         <v>457.766744</v>
       </c>
-      <c r="R72" s="47">
+      <c r="R72" s="49">
         <v>19.086124</v>
       </c>
-      <c r="S72" s="29">
+      <c r="S72" s="31">
         <v>249.961896</v>
       </c>
-      <c r="T72" s="58">
+      <c r="T72" s="60">
         <v>331.336925</v>
       </c>
-      <c r="U72" s="30"/>
-      <c r="V72" s="58">
+      <c r="U72" s="32"/>
+      <c r="V72" s="60">
         <v>102.828512</v>
       </c>
-      <c r="W72" s="58">
+      <c r="W72" s="60">
         <v>40</v>
       </c>
-      <c r="X72" s="58">
+      <c r="X72" s="60">
         <v>31.203316</v>
       </c>
-      <c r="Y72" s="58">
+      <c r="Y72" s="60">
         <v>424.088718</v>
       </c>
-      <c r="Z72" s="47">
+      <c r="Z72" s="49">
         <v>17.681953</v>
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="27"/>
-      <c r="B73" s="28">
+      <c r="A73" s="29"/>
+      <c r="B73" s="30">
         <v>45</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="31">
         <v>280.445054</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D73" s="32">
         <v>369.602115</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30">
+      <c r="E73" s="32"/>
+      <c r="F73" s="32">
         <v>45.357009</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="32">
         <v>45</v>
       </c>
-      <c r="H73" s="30">
+      <c r="H73" s="32">
         <v>40.699141</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I73" s="32">
         <v>553.147839</v>
       </c>
-      <c r="J73" s="47">
+      <c r="J73" s="49">
         <v>23.062943</v>
       </c>
-      <c r="K73" s="29">
+      <c r="K73" s="31">
         <v>280.445054</v>
       </c>
-      <c r="L73" s="30">
+      <c r="L73" s="32">
         <v>369.602115</v>
       </c>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30">
+      <c r="M73" s="32"/>
+      <c r="N73" s="32">
         <v>74.619596</v>
       </c>
-      <c r="O73" s="30">
+      <c r="O73" s="32">
         <v>45</v>
       </c>
-      <c r="P73" s="30">
+      <c r="P73" s="32">
         <v>37.924393</v>
       </c>
-      <c r="Q73" s="30">
+      <c r="Q73" s="32">
         <v>515.435847</v>
       </c>
-      <c r="R73" s="47">
+      <c r="R73" s="49">
         <v>21.490579</v>
       </c>
-      <c r="S73" s="29">
+      <c r="S73" s="31">
         <v>280.445054</v>
       </c>
-      <c r="T73" s="58">
+      <c r="T73" s="60">
         <v>369.602115</v>
       </c>
-      <c r="U73" s="30"/>
-      <c r="V73" s="58">
+      <c r="U73" s="32"/>
+      <c r="V73" s="60">
         <v>103.882182</v>
       </c>
-      <c r="W73" s="58">
+      <c r="W73" s="60">
         <v>45</v>
       </c>
-      <c r="X73" s="58">
+      <c r="X73" s="60">
         <v>35.149646</v>
       </c>
-      <c r="Y73" s="58">
+      <c r="Y73" s="60">
         <v>477.723856</v>
       </c>
-      <c r="Z73" s="47">
+      <c r="Z73" s="49">
         <v>19.918216</v>
       </c>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34">
         <v>50</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="35">
         <v>310.928212</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D74" s="36">
         <v>407.866921</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34">
+      <c r="E74" s="36"/>
+      <c r="F74" s="36">
         <v>45.820472</v>
       </c>
-      <c r="G74" s="34">
+      <c r="G74" s="36">
         <v>45.820472</v>
       </c>
-      <c r="H74" s="34">
+      <c r="H74" s="36">
         <v>41.05615</v>
       </c>
-      <c r="I74" s="49">
+      <c r="I74" s="51">
         <v>558</v>
       </c>
-      <c r="J74" s="50">
+      <c r="J74" s="52">
         <v>23.265249</v>
       </c>
-      <c r="K74" s="33">
+      <c r="K74" s="35">
         <v>310.928212</v>
       </c>
-      <c r="L74" s="34">
+      <c r="L74" s="36">
         <v>407.866921</v>
       </c>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34">
+      <c r="M74" s="36"/>
+      <c r="N74" s="36">
         <v>75.382066</v>
       </c>
-      <c r="O74" s="34">
+      <c r="O74" s="36">
         <v>50</v>
       </c>
-      <c r="P74" s="34">
+      <c r="P74" s="36">
         <v>42.161923</v>
       </c>
-      <c r="Q74" s="34">
+      <c r="Q74" s="36">
         <v>573.028714</v>
       </c>
-      <c r="R74" s="50">
+      <c r="R74" s="52">
         <v>23.891856</v>
       </c>
-      <c r="S74" s="33">
+      <c r="S74" s="35">
         <v>310.928212</v>
       </c>
-      <c r="T74" s="34">
+      <c r="T74" s="36">
         <v>407.866921</v>
       </c>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34">
+      <c r="U74" s="36"/>
+      <c r="V74" s="36">
         <v>104.943661</v>
       </c>
-      <c r="W74" s="34">
+      <c r="W74" s="36">
         <v>50</v>
       </c>
-      <c r="X74" s="34">
+      <c r="X74" s="36">
         <v>39.088167</v>
       </c>
-      <c r="Y74" s="34">
+      <c r="Y74" s="36">
         <v>531.252861</v>
       </c>
-      <c r="Z74" s="50">
+      <c r="Z74" s="52">
         <v>22.150054</v>
       </c>
     </row>
     <row r="75" ht="27" customHeight="1" spans="1:26">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="19" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="19" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="19" t="s">
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20"/>
-      <c r="X75" s="20"/>
-      <c r="Y75" s="20"/>
-      <c r="Z75" s="46"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="22"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="48"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="38">
         <v>5</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="39">
         <v>36.57979</v>
       </c>
-      <c r="D76" s="38">
+      <c r="D76" s="40">
         <v>63.747467</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="40">
         <v>30.986</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="40">
         <v>31.54898</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="40">
         <v>5</v>
       </c>
-      <c r="H76" s="38">
+      <c r="H76" s="40">
         <v>4.43702</v>
       </c>
-      <c r="I76" s="38">
+      <c r="I76" s="40">
         <v>60.571214</v>
       </c>
-      <c r="J76" s="51">
+      <c r="J76" s="53">
         <v>2.525456</v>
       </c>
-      <c r="K76" s="37">
+      <c r="K76" s="39">
         <v>36.57979</v>
       </c>
-      <c r="L76" s="38">
+      <c r="L76" s="40">
         <v>63.747467</v>
       </c>
-      <c r="M76" s="38">
+      <c r="M76" s="40">
         <v>57.357064</v>
       </c>
-      <c r="N76" s="38">
+      <c r="N76" s="40">
         <v>58.399175</v>
       </c>
-      <c r="O76" s="38">
+      <c r="O76" s="40">
         <v>5</v>
       </c>
-      <c r="P76" s="38">
+      <c r="P76" s="40">
         <v>3.957889</v>
       </c>
-      <c r="Q76" s="38">
+      <c r="Q76" s="40">
         <v>54.030433</v>
       </c>
-      <c r="R76" s="51">
+      <c r="R76" s="53">
         <v>2.252745</v>
       </c>
-      <c r="S76" s="37">
+      <c r="S76" s="39">
         <v>36.57979</v>
       </c>
-      <c r="T76" s="60">
+      <c r="T76" s="62">
         <v>63.747467</v>
       </c>
-      <c r="U76" s="38">
+      <c r="U76" s="40">
         <v>83.728128</v>
       </c>
-      <c r="V76" s="60">
+      <c r="V76" s="62">
         <v>85.249371</v>
       </c>
-      <c r="W76" s="60">
+      <c r="W76" s="62">
         <v>5</v>
       </c>
-      <c r="X76" s="60">
+      <c r="X76" s="62">
         <v>3.478757</v>
       </c>
-      <c r="Y76" s="60">
+      <c r="Y76" s="62">
         <v>47.489652</v>
       </c>
-      <c r="Z76" s="51">
+      <c r="Z76" s="53">
         <v>1.980033</v>
       </c>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="39"/>
-      <c r="B77" s="36">
+      <c r="A77" s="41"/>
+      <c r="B77" s="38">
         <v>10</v>
       </c>
-      <c r="C77" s="37">
+      <c r="C77" s="39">
         <v>67.062948</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="40">
         <v>102.13098</v>
       </c>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38">
+      <c r="E77" s="40"/>
+      <c r="F77" s="40">
         <v>31.891595</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="40">
         <v>10</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77" s="40">
         <v>9.094405</v>
       </c>
-      <c r="I77" s="38">
+      <c r="I77" s="40">
         <v>124.150695</v>
       </c>
-      <c r="J77" s="51">
+      <c r="J77" s="53">
         <v>5.176338</v>
       </c>
-      <c r="K77" s="37">
+      <c r="K77" s="39">
         <v>67.062948</v>
       </c>
-      <c r="L77" s="38">
+      <c r="L77" s="40">
         <v>102.13098</v>
       </c>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38">
+      <c r="M77" s="40"/>
+      <c r="N77" s="40">
         <v>59.033378</v>
       </c>
-      <c r="O77" s="38">
+      <c r="O77" s="40">
         <v>10</v>
       </c>
-      <c r="P77" s="38">
+      <c r="P77" s="40">
         <v>8.323687</v>
       </c>
-      <c r="Q77" s="38">
+      <c r="Q77" s="40">
         <v>113.629361</v>
       </c>
-      <c r="R77" s="51">
+      <c r="R77" s="53">
         <v>4.737662</v>
       </c>
-      <c r="S77" s="37">
+      <c r="S77" s="39">
         <v>67.062948</v>
       </c>
-      <c r="T77" s="60">
+      <c r="T77" s="62">
         <v>102.13098</v>
       </c>
-      <c r="U77" s="38"/>
-      <c r="V77" s="60">
+      <c r="U77" s="40"/>
+      <c r="V77" s="62">
         <v>86.17516</v>
       </c>
-      <c r="W77" s="60">
+      <c r="W77" s="62">
         <v>10</v>
       </c>
-      <c r="X77" s="60">
+      <c r="X77" s="62">
         <v>7.552968</v>
       </c>
-      <c r="Y77" s="60">
+      <c r="Y77" s="62">
         <v>103.108027</v>
       </c>
-      <c r="Z77" s="51">
+      <c r="Z77" s="53">
         <v>4.298985</v>
       </c>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="39"/>
-      <c r="B78" s="36">
+      <c r="A78" s="41"/>
+      <c r="B78" s="38">
         <v>15</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="39">
         <v>97.546106</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="40">
         <v>140.40268</v>
       </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38">
+      <c r="E78" s="40"/>
+      <c r="F78" s="40">
         <v>32.235932</v>
       </c>
-      <c r="G78" s="38">
+      <c r="G78" s="40">
         <v>15</v>
       </c>
-      <c r="H78" s="38">
+      <c r="H78" s="40">
         <v>13.750068</v>
       </c>
-      <c r="I78" s="38">
+      <c r="I78" s="40">
         <v>187.706667</v>
       </c>
-      <c r="J78" s="51">
+      <c r="J78" s="53">
         <v>7.826241</v>
       </c>
-      <c r="K78" s="37">
+      <c r="K78" s="39">
         <v>97.546106</v>
       </c>
-      <c r="L78" s="38">
+      <c r="L78" s="40">
         <v>140.40268</v>
       </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38">
+      <c r="M78" s="40"/>
+      <c r="N78" s="40">
         <v>59.670768</v>
       </c>
-      <c r="O78" s="38">
+      <c r="O78" s="40">
         <v>15</v>
       </c>
-      <c r="P78" s="38">
+      <c r="P78" s="40">
         <v>12.686296</v>
       </c>
-      <c r="Q78" s="38">
+      <c r="Q78" s="40">
         <v>173.184772</v>
       </c>
-      <c r="R78" s="51">
+      <c r="R78" s="53">
         <v>7.220765</v>
       </c>
-      <c r="S78" s="37">
+      <c r="S78" s="39">
         <v>97.546106</v>
       </c>
-      <c r="T78" s="60">
+      <c r="T78" s="62">
         <v>140.40268</v>
       </c>
-      <c r="U78" s="38"/>
-      <c r="V78" s="60">
+      <c r="U78" s="40"/>
+      <c r="V78" s="62">
         <v>87.105604</v>
       </c>
-      <c r="W78" s="60">
+      <c r="W78" s="62">
         <v>15</v>
       </c>
-      <c r="X78" s="60">
+      <c r="X78" s="62">
         <v>11.622525</v>
       </c>
-      <c r="Y78" s="60">
+      <c r="Y78" s="62">
         <v>158.662876</v>
       </c>
-      <c r="Z78" s="51">
+      <c r="Z78" s="53">
         <v>6.615289</v>
       </c>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="39"/>
-      <c r="B79" s="36">
+      <c r="A79" s="41"/>
+      <c r="B79" s="38">
         <v>20</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="39">
         <v>128.029264</v>
       </c>
-      <c r="D79" s="38">
+      <c r="D79" s="40">
         <v>178.673466</v>
       </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38">
+      <c r="E79" s="40"/>
+      <c r="F79" s="40">
         <v>32.582977</v>
       </c>
-      <c r="G79" s="38">
+      <c r="G79" s="40">
         <v>20</v>
       </c>
-      <c r="H79" s="38">
+      <c r="H79" s="40">
         <v>18.403023</v>
       </c>
-      <c r="I79" s="38">
+      <c r="I79" s="40">
         <v>251.225673</v>
       </c>
-      <c r="J79" s="51">
+      <c r="J79" s="53">
         <v>10.474602</v>
       </c>
-      <c r="K79" s="37">
+      <c r="K79" s="39">
         <v>128.029264</v>
       </c>
-      <c r="L79" s="38">
+      <c r="L79" s="40">
         <v>178.673466</v>
       </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38">
+      <c r="M79" s="40"/>
+      <c r="N79" s="40">
         <v>60.31317</v>
       </c>
-      <c r="O79" s="38">
+      <c r="O79" s="40">
         <v>20</v>
       </c>
-      <c r="P79" s="38">
+      <c r="P79" s="40">
         <v>17.043894</v>
       </c>
-      <c r="Q79" s="38">
+      <c r="Q79" s="40">
         <v>232.671755</v>
       </c>
-      <c r="R79" s="51">
+      <c r="R79" s="53">
         <v>9.701015</v>
       </c>
-      <c r="S79" s="37">
+      <c r="S79" s="39">
         <v>128.029264</v>
       </c>
-      <c r="T79" s="60">
+      <c r="T79" s="62">
         <v>178.673466</v>
       </c>
-      <c r="U79" s="38"/>
-      <c r="V79" s="60">
+      <c r="U79" s="40"/>
+      <c r="V79" s="62">
         <v>88.043364</v>
       </c>
-      <c r="W79" s="60">
+      <c r="W79" s="62">
         <v>20</v>
       </c>
-      <c r="X79" s="60">
+      <c r="X79" s="62">
         <v>15.684764</v>
       </c>
-      <c r="Y79" s="60">
+      <c r="Y79" s="62">
         <v>214.117837</v>
       </c>
-      <c r="Z79" s="51">
+      <c r="Z79" s="53">
         <v>8.927428</v>
       </c>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="39"/>
-      <c r="B80" s="36">
+      <c r="A80" s="41"/>
+      <c r="B80" s="38">
         <v>25</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="39">
         <v>158.512422</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="40">
         <v>216.94383</v>
       </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38">
+      <c r="E80" s="40"/>
+      <c r="F80" s="40">
         <v>32.932734</v>
       </c>
-      <c r="G80" s="38">
+      <c r="G80" s="40">
         <v>25</v>
       </c>
-      <c r="H80" s="38">
+      <c r="H80" s="40">
         <v>23.053266</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="40">
         <v>314.707654</v>
       </c>
-      <c r="J80" s="51">
+      <c r="J80" s="53">
         <v>13.121419</v>
       </c>
-      <c r="K80" s="37">
+      <c r="K80" s="39">
         <v>158.512422</v>
       </c>
-      <c r="L80" s="38">
+      <c r="L80" s="40">
         <v>216.94383</v>
       </c>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38">
+      <c r="M80" s="40"/>
+      <c r="N80" s="40">
         <v>60.960594</v>
       </c>
-      <c r="O80" s="38">
+      <c r="O80" s="40">
         <v>25</v>
       </c>
-      <c r="P80" s="38">
+      <c r="P80" s="40">
         <v>21.396471</v>
       </c>
-      <c r="Q80" s="38">
+      <c r="Q80" s="40">
         <v>292.090203</v>
       </c>
-      <c r="R80" s="51">
+      <c r="R80" s="53">
         <v>12.178407</v>
       </c>
-      <c r="S80" s="37">
+      <c r="S80" s="39">
         <v>158.512422</v>
       </c>
-      <c r="T80" s="60">
+      <c r="T80" s="62">
         <v>216.94383</v>
       </c>
-      <c r="U80" s="38"/>
-      <c r="V80" s="60">
+      <c r="U80" s="40"/>
+      <c r="V80" s="62">
         <v>88.988453</v>
       </c>
-      <c r="W80" s="60">
+      <c r="W80" s="62">
         <v>25</v>
       </c>
-      <c r="X80" s="60">
+      <c r="X80" s="62">
         <v>19.739676</v>
       </c>
-      <c r="Y80" s="60">
+      <c r="Y80" s="62">
         <v>269.472752</v>
       </c>
-      <c r="Z80" s="51">
+      <c r="Z80" s="53">
         <v>11.235395</v>
       </c>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="39"/>
-      <c r="B81" s="36">
+      <c r="A81" s="41"/>
+      <c r="B81" s="38">
         <v>30</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81" s="39">
         <v>188.99558</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="40">
         <v>255.213778</v>
       </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38">
+      <c r="E81" s="40"/>
+      <c r="F81" s="40">
         <v>33.285204</v>
       </c>
-      <c r="G81" s="38">
+      <c r="G81" s="40">
         <v>30</v>
       </c>
-      <c r="H81" s="38">
+      <c r="H81" s="40">
         <v>27.700796</v>
       </c>
-      <c r="I81" s="38">
+      <c r="I81" s="40">
         <v>378.152609</v>
       </c>
-      <c r="J81" s="51">
+      <c r="J81" s="53">
         <v>15.766693</v>
       </c>
-      <c r="K81" s="37">
+      <c r="K81" s="39">
         <v>188.99558</v>
       </c>
-      <c r="L81" s="38">
+      <c r="L81" s="40">
         <v>255.213778</v>
       </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38">
+      <c r="M81" s="40"/>
+      <c r="N81" s="40">
         <v>61.613037</v>
       </c>
-      <c r="O81" s="38">
+      <c r="O81" s="40">
         <v>30</v>
       </c>
-      <c r="P81" s="38">
+      <c r="P81" s="40">
         <v>25.744027</v>
       </c>
-      <c r="Q81" s="38">
+      <c r="Q81" s="40">
         <v>351.440115</v>
       </c>
-      <c r="R81" s="51">
+      <c r="R81" s="53">
         <v>14.652942</v>
       </c>
-      <c r="S81" s="37">
+      <c r="S81" s="39">
         <v>188.99558</v>
       </c>
-      <c r="T81" s="60">
+      <c r="T81" s="62">
         <v>255.213778</v>
       </c>
-      <c r="U81" s="38"/>
-      <c r="V81" s="60">
+      <c r="U81" s="40"/>
+      <c r="V81" s="62">
         <v>89.94087</v>
       </c>
-      <c r="W81" s="60">
+      <c r="W81" s="62">
         <v>30</v>
       </c>
-      <c r="X81" s="60">
+      <c r="X81" s="62">
         <v>23.787258</v>
       </c>
-      <c r="Y81" s="60">
+      <c r="Y81" s="62">
         <v>324.72762</v>
       </c>
-      <c r="Z81" s="51">
+      <c r="Z81" s="53">
         <v>13.539191</v>
       </c>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="39"/>
-      <c r="B82" s="36">
+      <c r="A82" s="41"/>
+      <c r="B82" s="38">
         <v>35</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="39">
         <v>219.478738</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="40">
         <v>293.483316</v>
       </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38">
+      <c r="E82" s="40"/>
+      <c r="F82" s="40">
         <v>33.640386</v>
       </c>
-      <c r="G82" s="38">
+      <c r="G82" s="40">
         <v>33.640386</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="40">
         <v>30.986</v>
       </c>
-      <c r="I82" s="52">
+      <c r="I82" s="54">
         <v>423</v>
       </c>
-      <c r="J82" s="51">
+      <c r="J82" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K82" s="37">
+      <c r="K82" s="39">
         <v>219.478738</v>
       </c>
-      <c r="L82" s="38">
+      <c r="L82" s="40">
         <v>293.483316</v>
       </c>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38">
+      <c r="M82" s="40"/>
+      <c r="N82" s="40">
         <v>62.270501</v>
       </c>
-      <c r="O82" s="38">
+      <c r="O82" s="40">
         <v>35</v>
       </c>
-      <c r="P82" s="38">
+      <c r="P82" s="40">
         <v>30.086563</v>
       </c>
-      <c r="Q82" s="38">
+      <c r="Q82" s="40">
         <v>410.721492</v>
       </c>
-      <c r="R82" s="51">
+      <c r="R82" s="53">
         <v>17.124619</v>
       </c>
-      <c r="S82" s="37">
+      <c r="S82" s="39">
         <v>219.478738</v>
       </c>
-      <c r="T82" s="60">
+      <c r="T82" s="62">
         <v>293.483316</v>
       </c>
-      <c r="U82" s="38"/>
-      <c r="V82" s="60">
+      <c r="U82" s="40"/>
+      <c r="V82" s="62">
         <v>90.900616</v>
       </c>
-      <c r="W82" s="60">
+      <c r="W82" s="62">
         <v>35</v>
       </c>
-      <c r="X82" s="60">
+      <c r="X82" s="62">
         <v>27.827512</v>
       </c>
-      <c r="Y82" s="60">
+      <c r="Y82" s="62">
         <v>379.882444</v>
       </c>
-      <c r="Z82" s="51">
+      <c r="Z82" s="53">
         <v>15.838816</v>
       </c>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="39"/>
-      <c r="B83" s="36">
+      <c r="A83" s="41"/>
+      <c r="B83" s="38">
         <v>40</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="39">
         <v>249.961896</v>
       </c>
-      <c r="D83" s="38">
+      <c r="D83" s="40">
         <v>331.752451</v>
       </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38">
+      <c r="E83" s="40"/>
+      <c r="F83" s="40">
         <v>33.998279</v>
       </c>
-      <c r="G83" s="38">
+      <c r="G83" s="40">
         <v>33.998279</v>
       </c>
-      <c r="H83" s="38">
+      <c r="H83" s="40">
         <v>30.986</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="54">
         <v>423</v>
       </c>
-      <c r="J83" s="51">
+      <c r="J83" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K83" s="37">
+      <c r="K83" s="39">
         <v>249.961896</v>
       </c>
-      <c r="L83" s="38">
+      <c r="L83" s="40">
         <v>331.752451</v>
       </c>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38">
+      <c r="M83" s="40"/>
+      <c r="N83" s="40">
         <v>62.932985</v>
       </c>
-      <c r="O83" s="38">
+      <c r="O83" s="40">
         <v>40</v>
       </c>
-      <c r="P83" s="38">
+      <c r="P83" s="40">
         <v>34.424079</v>
       </c>
-      <c r="Q83" s="38">
+      <c r="Q83" s="40">
         <v>469.934335</v>
       </c>
-      <c r="R83" s="51">
+      <c r="R83" s="53">
         <v>19.593439</v>
       </c>
-      <c r="S83" s="37">
+      <c r="S83" s="39">
         <v>249.961896</v>
       </c>
-      <c r="T83" s="60">
+      <c r="T83" s="62">
         <v>331.752451</v>
       </c>
-      <c r="U83" s="38"/>
-      <c r="V83" s="60">
+      <c r="U83" s="40"/>
+      <c r="V83" s="62">
         <v>91.867691</v>
       </c>
-      <c r="W83" s="60">
+      <c r="W83" s="62">
         <v>40</v>
       </c>
-      <c r="X83" s="60">
+      <c r="X83" s="62">
         <v>31.860437</v>
       </c>
-      <c r="Y83" s="60">
+      <c r="Y83" s="62">
         <v>434.937223</v>
       </c>
-      <c r="Z83" s="51">
+      <c r="Z83" s="53">
         <v>18.13427</v>
       </c>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="39"/>
-      <c r="B84" s="36">
+      <c r="A84" s="41"/>
+      <c r="B84" s="38">
         <v>45</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="39">
         <v>280.445054</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="40">
         <v>370.021188</v>
       </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38">
+      <c r="E84" s="40"/>
+      <c r="F84" s="40">
         <v>34.358885</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="40">
         <v>34.358885</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="40">
         <v>30.986</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="54">
         <v>423</v>
       </c>
-      <c r="J84" s="51">
+      <c r="J84" s="53">
         <v>17.63656</v>
       </c>
-      <c r="K84" s="37">
+      <c r="K84" s="39">
         <v>280.445054</v>
       </c>
-      <c r="L84" s="38">
+      <c r="L84" s="40">
         <v>370.021188</v>
       </c>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38">
+      <c r="M84" s="40"/>
+      <c r="N84" s="40">
         <v>63.60049</v>
       </c>
-      <c r="O84" s="38">
+      <c r="O84" s="40">
         <v>45</v>
       </c>
-      <c r="P84" s="38">
+      <c r="P84" s="40">
         <v>38.756574</v>
       </c>
-      <c r="Q84" s="38">
+      <c r="Q84" s="40">
         <v>529.078645</v>
       </c>
-      <c r="R84" s="51">
+      <c r="R84" s="53">
         <v>22.059402</v>
       </c>
-      <c r="S84" s="37">
+      <c r="S84" s="39">
         <v>280.445054</v>
       </c>
-      <c r="T84" s="60">
+      <c r="T84" s="62">
         <v>370.021188</v>
       </c>
-      <c r="U84" s="38"/>
-      <c r="V84" s="60">
+      <c r="U84" s="40"/>
+      <c r="V84" s="62">
         <v>92.842094</v>
       </c>
-      <c r="W84" s="60">
+      <c r="W84" s="62">
         <v>45</v>
       </c>
-      <c r="X84" s="60">
+      <c r="X84" s="62">
         <v>35.886034</v>
       </c>
-      <c r="Y84" s="60">
+      <c r="Y84" s="62">
         <v>489.89196</v>
       </c>
-      <c r="Z84" s="51">
+      <c r="Z84" s="53">
         <v>20.425553</v>
       </c>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="40"/>
-      <c r="B85" s="41">
+      <c r="A85" s="42"/>
+      <c r="B85" s="43">
         <v>50</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="44">
         <v>310.928212</v>
       </c>
-      <c r="D85" s="43">
+      <c r="D85" s="45">
         <v>408.289531</v>
       </c>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43">
+      <c r="E85" s="45"/>
+      <c r="F85" s="45">
         <v>34.722203</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="45">
         <v>34.722203</v>
       </c>
-      <c r="H85" s="43">
+      <c r="H85" s="45">
         <v>30.986</v>
       </c>
-      <c r="I85" s="53">
+      <c r="I85" s="55">
         <v>423</v>
       </c>
-      <c r="J85" s="54">
+      <c r="J85" s="56">
         <v>17.63656</v>
       </c>
-      <c r="K85" s="42">
+      <c r="K85" s="44">
         <v>310.928212</v>
       </c>
-      <c r="L85" s="43">
+      <c r="L85" s="45">
         <v>408.289531</v>
       </c>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43">
+      <c r="M85" s="45"/>
+      <c r="N85" s="45">
         <v>64.273014</v>
       </c>
-      <c r="O85" s="43">
+      <c r="O85" s="45">
         <v>50</v>
       </c>
-      <c r="P85" s="43">
+      <c r="P85" s="45">
         <v>43.08405</v>
       </c>
-      <c r="Q85" s="43">
+      <c r="Q85" s="45">
         <v>588.154423</v>
       </c>
-      <c r="R85" s="54">
+      <c r="R85" s="56">
         <v>24.522507</v>
       </c>
-      <c r="S85" s="42">
+      <c r="S85" s="44">
         <v>310.928212</v>
       </c>
-      <c r="T85" s="43">
+      <c r="T85" s="45">
         <v>408.289531</v>
       </c>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43">
+      <c r="U85" s="45"/>
+      <c r="V85" s="45">
         <v>93.823826</v>
       </c>
-      <c r="W85" s="43">
+      <c r="W85" s="45">
         <v>50</v>
       </c>
-      <c r="X85" s="43">
+      <c r="X85" s="45">
         <v>39.904303</v>
       </c>
-      <c r="Y85" s="43">
+      <c r="Y85" s="45">
         <v>544.746656</v>
       </c>
-      <c r="Z85" s="54">
+      <c r="Z85" s="56">
         <v>22.712664</v>
       </c>
     </row>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
@@ -14428,8 +14428,8 @@
   <sheetPr/>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="17771" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1261,7 +1261,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -1291,8 +1291,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.209292010753586"/>
+          <c:y val="0.0372906867122624"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2111,7 +2111,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -2121,8 +2121,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806524"/>
+              <c:y val="0.328165488964025"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2415,7 +2415,15 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" altLang="en-US" sz="1800"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr sz="1800"/>
+              <a:t>vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -2445,7 +2453,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.199805935459152"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -3265,7 +3273,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -3275,8 +3283,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.0110395268871397"/>
+              <c:y val="0.327272280650746"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3567,7 +3575,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -3597,7 +3605,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.213383229051962"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -4417,7 +4425,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -4427,8 +4435,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806524"/>
+              <c:y val="0.324900568705943"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4719,7 +4727,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -4749,7 +4757,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.234616889250484"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -5242,7 +5250,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -5252,8 +5260,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.332770407854658"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5434,7 +5442,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -5464,7 +5472,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.243007870546923"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -5957,7 +5965,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -5967,8 +5975,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.332770407854658"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6149,7 +6157,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -6179,8 +6187,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.204347610602774"/>
+          <c:y val="0.0298402221189407"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6686,7 +6694,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -6696,8 +6704,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.334399079880497"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6878,7 +6886,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -6908,8 +6916,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.216506409420108"/>
+          <c:y val="0.0381054342494894"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7401,7 +7409,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -7411,8 +7419,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.334291321259808"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7593,7 +7601,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -8116,7 +8124,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -8126,8 +8134,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.324900568705943"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8308,7 +8316,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -8338,8 +8346,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.22476166723312"/>
+          <c:y val="0.0380976800032642"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8831,7 +8839,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -8841,8 +8849,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.322507867851144"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -14428,8 +14436,8 @@
   <sheetPr/>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AA101" sqref="AA101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17771" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -156,8 +156,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -186,13 +186,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -971,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1012,10 +1012,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1063,10 +1066,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1075,10 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,10 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,10 +1102,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,28 +1117,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1150,19 +1153,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,31 +1391,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.524524</c:v>
+                  <c:v>2.066272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.130556</c:v>
+                  <c:v>4.667269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.734883</c:v>
+                  <c:v>7.267476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.337338</c:v>
+                  <c:v>9.865813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.937921</c:v>
+                  <c:v>12.462278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.536632</c:v>
+                  <c:v>15.056872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.133472</c:v>
+                  <c:v>17.649593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.72844</c:v>
+                  <c:v>20.240443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.265249</c:v>
+                  <c:v>22.829421</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.265249</c:v>
@@ -1494,34 +1500,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.337901</c:v>
+                  <c:v>1.584002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.809896</c:v>
+                  <c:v>4.047715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.279085</c:v>
+                  <c:v>6.510126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.745196</c:v>
+                  <c:v>8.969462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.208226</c:v>
+                  <c:v>11.425718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.668178</c:v>
+                  <c:v>13.878894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.12505</c:v>
+                  <c:v>16.328991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.578842</c:v>
+                  <c:v>18.776009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.029555</c:v>
+                  <c:v>21.219947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.477189</c:v>
+                  <c:v>23.660806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,34 +1609,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.151278</c:v>
+                  <c:v>1.101733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.489236</c:v>
+                  <c:v>3.42816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.823288</c:v>
+                  <c:v>5.752776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.153053</c:v>
+                  <c:v>8.07311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.478532</c:v>
+                  <c:v>10.389157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.799723</c:v>
+                  <c:v>12.700917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.116627</c:v>
+                  <c:v>15.008389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.429245</c:v>
+                  <c:v>17.311575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.737575</c:v>
+                  <c:v>19.610474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.041618</c:v>
+                  <c:v>21.905085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,22 +1718,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.615664</c:v>
+                  <c:v>2.250946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.296906</c:v>
+                  <c:v>4.928129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.976778</c:v>
+                  <c:v>7.604687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.655145</c:v>
+                  <c:v>10.27974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.332005</c:v>
+                  <c:v>12.953287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.007359</c:v>
+                  <c:v>15.625327</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17.63656</c:v>
@@ -1821,34 +1827,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.419127</c:v>
+                  <c:v>1.744011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.959642</c:v>
+                  <c:v>4.277013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.497623</c:v>
+                  <c:v>6.808857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.032816</c:v>
+                  <c:v>9.337917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.565221</c:v>
+                  <c:v>11.864188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.094838</c:v>
+                  <c:v>14.387672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.621667</c:v>
+                  <c:v>16.908368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.145708</c:v>
+                  <c:v>19.426276</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.666961</c:v>
+                  <c:v>21.941395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.185427</c:v>
+                  <c:v>24.453728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,34 +1936,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.22259</c:v>
+                  <c:v>1.237076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.622378</c:v>
+                  <c:v>3.625897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.018467</c:v>
+                  <c:v>6.013028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.410486</c:v>
+                  <c:v>8.396094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.798436</c:v>
+                  <c:v>10.77509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.182316</c:v>
+                  <c:v>13.150017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.562126</c:v>
+                  <c:v>15.520873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.937867</c:v>
+                  <c:v>17.88766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.309537</c:v>
+                  <c:v>20.250378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.677139</c:v>
+                  <c:v>22.609026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,22 +2553,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.763325</c:v>
+                  <c:v>2.851374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.817317</c:v>
+                  <c:v>6.887293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.868006</c:v>
+                  <c:v>10.92617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.913359</c:v>
+                  <c:v>14.959755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.953363</c:v>
+                  <c:v>18.987991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.265249</c:v>
+                  <c:v>23.010879</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.265249</c:v>
@@ -2656,34 +2662,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.307244</c:v>
+                  <c:v>1.806937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.092682</c:v>
+                  <c:v>5.562642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.872685</c:v>
+                  <c:v>9.323213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.64391</c:v>
+                  <c:v>13.075078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.406336</c:v>
+                  <c:v>16.818144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.159961</c:v>
+                  <c:v>20.552411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.904787</c:v>
+                  <c:v>24.277878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.640813</c:v>
+                  <c:v>27.994547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.368041</c:v>
+                  <c:v>31.702418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.086469</c:v>
+                  <c:v>35.40149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,34 +2771,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.851163</c:v>
+                  <c:v>0.7625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.368047</c:v>
+                  <c:v>4.237991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.877364</c:v>
+                  <c:v>7.720257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.374462</c:v>
+                  <c:v>11.190402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.859309</c:v>
+                  <c:v>14.648297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.331905</c:v>
+                  <c:v>18.093942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.79225</c:v>
+                  <c:v>21.527338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.240345</c:v>
+                  <c:v>24.948485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.676191</c:v>
+                  <c:v>28.357382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.099787</c:v>
+                  <c:v>31.754032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,16 +2880,16 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.8859</c:v>
+                  <c:v>3.170072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.003531</c:v>
+                  <c:v>7.273337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.118598</c:v>
+                  <c:v>11.379061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.229445</c:v>
+                  <c:v>15.4806</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.63656</c:v>
@@ -2983,31 +2989,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.410528</c:v>
+                  <c:v>2.085485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.250004</c:v>
+                  <c:v>5.898368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.084734</c:v>
+                  <c:v>9.715804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.911654</c:v>
+                  <c:v>13.525494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.730742</c:v>
+                  <c:v>17.327355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.542</c:v>
+                  <c:v>21.121385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.345427</c:v>
+                  <c:v>24.907585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.141023</c:v>
+                  <c:v>28.685955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.646397</c:v>
+                  <c:v>32.456495</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32.646397</c:v>
@@ -3092,34 +3098,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.935156</c:v>
+                  <c:v>1.000898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.496478</c:v>
+                  <c:v>4.523399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.050871</c:v>
+                  <c:v>8.052547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.593863</c:v>
+                  <c:v>11.570389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.125423</c:v>
+                  <c:v>15.0768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.645552</c:v>
+                  <c:v>18.571781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.15425</c:v>
+                  <c:v>22.055331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.651516</c:v>
+                  <c:v>25.527451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.137353</c:v>
+                  <c:v>28.988142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.611759</c:v>
+                  <c:v>32.437404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,34 +3705,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.42836</c:v>
+                  <c:v>1.61581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.013839</c:v>
+                  <c:v>3.89115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.598077</c:v>
+                  <c:v>6.168236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.180385</c:v>
+                  <c:v>8.443627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.760761</c:v>
+                  <c:v>10.717305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.339204</c:v>
+                  <c:v>12.98927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.915716</c:v>
+                  <c:v>15.259522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.490295</c:v>
+                  <c:v>17.52806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.062943</c:v>
+                  <c:v>19.794886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.265249</c:v>
+                  <c:v>22.059999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,34 +3814,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.16708</c:v>
+                  <c:v>1.039859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.592645</c:v>
+                  <c:v>3.164751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.016168</c:v>
+                  <c:v>5.292516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.436516</c:v>
+                  <c:v>7.417492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.853686</c:v>
+                  <c:v>9.53965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.267678</c:v>
+                  <c:v>11.658989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.67849</c:v>
+                  <c:v>13.77551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.086124</c:v>
+                  <c:v>15.889213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.490579</c:v>
+                  <c:v>18.000098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.891856</c:v>
+                  <c:v>20.108164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3917,34 +3923,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.905799</c:v>
+                  <c:v>0.463909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.171451</c:v>
+                  <c:v>2.438353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.434259</c:v>
+                  <c:v>4.416796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.692648</c:v>
+                  <c:v>6.391357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.946612</c:v>
+                  <c:v>8.361994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.196151</c:v>
+                  <c:v>10.328708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.441264</c:v>
+                  <c:v>12.291499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.681953</c:v>
+                  <c:v>14.250366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.918216</c:v>
+                  <c:v>16.205309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.150054</c:v>
+                  <c:v>18.15633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,25 +4032,25 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.525456</c:v>
+                  <c:v>1.81841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.176338</c:v>
+                  <c:v>4.158919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.826241</c:v>
+                  <c:v>6.500855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.474602</c:v>
+                  <c:v>8.841435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.121419</c:v>
+                  <c:v>11.180644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.766693</c:v>
+                  <c:v>13.518481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.63656</c:v>
+                  <c:v>15.854947</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.63656</c:v>
@@ -4135,34 +4141,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.252745</c:v>
+                  <c:v>1.217463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.737662</c:v>
+                  <c:v>3.401364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.220765</c:v>
+                  <c:v>5.587909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.701015</c:v>
+                  <c:v>7.771942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.178407</c:v>
+                  <c:v>9.953437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.652942</c:v>
+                  <c:v>12.132393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.124619</c:v>
+                  <c:v>14.308811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.593439</c:v>
+                  <c:v>16.482691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.059402</c:v>
+                  <c:v>18.654032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.522507</c:v>
+                  <c:v>20.822835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,34 +4250,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.980033</c:v>
+                  <c:v>0.616517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.298985</c:v>
+                  <c:v>2.64381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.615289</c:v>
+                  <c:v>4.674963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.927428</c:v>
+                  <c:v>6.702449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.235395</c:v>
+                  <c:v>8.72623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.539191</c:v>
+                  <c:v>10.746306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.838816</c:v>
+                  <c:v>12.762676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.13427</c:v>
+                  <c:v>14.77534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.425553</c:v>
+                  <c:v>16.784299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.712664</c:v>
+                  <c:v>18.789552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4851,31 +4857,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.524524</c:v>
+                  <c:v>2.066272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.130556</c:v>
+                  <c:v>4.667269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.734883</c:v>
+                  <c:v>7.267476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.337338</c:v>
+                  <c:v>9.865813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.937921</c:v>
+                  <c:v>12.462278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.536632</c:v>
+                  <c:v>15.056872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.133472</c:v>
+                  <c:v>17.649593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.72844</c:v>
+                  <c:v>20.240443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.265249</c:v>
+                  <c:v>22.829421</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.265249</c:v>
@@ -4960,22 +4966,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.763325</c:v>
+                  <c:v>2.851374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.817317</c:v>
+                  <c:v>6.887293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.868006</c:v>
+                  <c:v>10.92617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.913359</c:v>
+                  <c:v>14.959755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.953363</c:v>
+                  <c:v>18.987991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.265249</c:v>
+                  <c:v>23.010879</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.265249</c:v>
@@ -5069,34 +5075,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.42836</c:v>
+                  <c:v>1.61581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.013839</c:v>
+                  <c:v>3.89115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.598077</c:v>
+                  <c:v>6.168236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.180385</c:v>
+                  <c:v>8.443627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.760761</c:v>
+                  <c:v>10.717305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.339204</c:v>
+                  <c:v>12.98927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.915716</c:v>
+                  <c:v>15.259522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.490295</c:v>
+                  <c:v>17.52806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.062943</c:v>
+                  <c:v>19.794886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.265249</c:v>
+                  <c:v>22.059999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5566,22 +5572,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.615664</c:v>
+                  <c:v>2.250946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.296906</c:v>
+                  <c:v>4.928129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.976778</c:v>
+                  <c:v>7.604687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.655145</c:v>
+                  <c:v>10.27974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.332005</c:v>
+                  <c:v>12.953287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.007359</c:v>
+                  <c:v>15.625327</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17.63656</c:v>
@@ -5675,16 +5681,16 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.8859</c:v>
+                  <c:v>3.170072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.003531</c:v>
+                  <c:v>7.273337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.118598</c:v>
+                  <c:v>11.379061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.229445</c:v>
+                  <c:v>15.4806</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.63656</c:v>
@@ -5784,25 +5790,25 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.525456</c:v>
+                  <c:v>1.81841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.176338</c:v>
+                  <c:v>4.158919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.826241</c:v>
+                  <c:v>6.500855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.474602</c:v>
+                  <c:v>8.841435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.121419</c:v>
+                  <c:v>11.180644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.766693</c:v>
+                  <c:v>13.518481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.63656</c:v>
+                  <c:v>15.854947</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.63656</c:v>
@@ -6281,34 +6287,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.337901</c:v>
+                  <c:v>1.584002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.809896</c:v>
+                  <c:v>4.047715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.279085</c:v>
+                  <c:v>6.510126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.745196</c:v>
+                  <c:v>8.969462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.208226</c:v>
+                  <c:v>11.425718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.668178</c:v>
+                  <c:v>13.878894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.12505</c:v>
+                  <c:v>16.328991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.578842</c:v>
+                  <c:v>18.776009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.029555</c:v>
+                  <c:v>21.219947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.477189</c:v>
+                  <c:v>23.660806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6404,34 +6410,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.307244</c:v>
+                  <c:v>1.806937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.092682</c:v>
+                  <c:v>5.562642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.872685</c:v>
+                  <c:v>9.323213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.64391</c:v>
+                  <c:v>13.075078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.406336</c:v>
+                  <c:v>16.818144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.159961</c:v>
+                  <c:v>20.552411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.904787</c:v>
+                  <c:v>24.277878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.640813</c:v>
+                  <c:v>27.994547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.368041</c:v>
+                  <c:v>31.702418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.086469</c:v>
+                  <c:v>35.40149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6513,34 +6519,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.16708</c:v>
+                  <c:v>1.039859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.592645</c:v>
+                  <c:v>3.164751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.016168</c:v>
+                  <c:v>5.292516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.436516</c:v>
+                  <c:v>7.417492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.853686</c:v>
+                  <c:v>9.53965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.267678</c:v>
+                  <c:v>11.658989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.67849</c:v>
+                  <c:v>13.77551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.086124</c:v>
+                  <c:v>15.889213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.490579</c:v>
+                  <c:v>18.000098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.891856</c:v>
+                  <c:v>20.108164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6783,6 +6789,10 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7010,34 +7020,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.419127</c:v>
+                  <c:v>1.744011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.959642</c:v>
+                  <c:v>4.277013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.497623</c:v>
+                  <c:v>6.808857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.032816</c:v>
+                  <c:v>9.337917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.565221</c:v>
+                  <c:v>11.864188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.094838</c:v>
+                  <c:v>14.387672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.621667</c:v>
+                  <c:v>16.908368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.145708</c:v>
+                  <c:v>19.426276</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.666961</c:v>
+                  <c:v>21.941395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.185427</c:v>
+                  <c:v>24.453728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,31 +7129,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.410528</c:v>
+                  <c:v>2.085485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.250004</c:v>
+                  <c:v>5.898368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.084734</c:v>
+                  <c:v>9.715804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.911654</c:v>
+                  <c:v>13.525494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.730742</c:v>
+                  <c:v>17.327355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.542</c:v>
+                  <c:v>21.121385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.345427</c:v>
+                  <c:v>24.907585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.141023</c:v>
+                  <c:v>28.685955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.646397</c:v>
+                  <c:v>32.456495</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32.646397</c:v>
@@ -7228,34 +7238,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.252745</c:v>
+                  <c:v>1.217463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.737662</c:v>
+                  <c:v>3.401364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.220765</c:v>
+                  <c:v>5.587909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.701015</c:v>
+                  <c:v>7.771942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.178407</c:v>
+                  <c:v>9.953437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.652942</c:v>
+                  <c:v>12.132393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.124619</c:v>
+                  <c:v>14.308811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.593439</c:v>
+                  <c:v>16.482691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.059402</c:v>
+                  <c:v>18.654032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.522507</c:v>
+                  <c:v>20.822835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7725,34 +7735,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.151278</c:v>
+                  <c:v>1.101733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.489236</c:v>
+                  <c:v>3.42816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.823288</c:v>
+                  <c:v>5.752776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.153053</c:v>
+                  <c:v>8.07311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.478532</c:v>
+                  <c:v>10.389157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.799723</c:v>
+                  <c:v>12.700917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.116627</c:v>
+                  <c:v>15.008389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.429245</c:v>
+                  <c:v>17.311575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.737575</c:v>
+                  <c:v>19.610474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.041618</c:v>
+                  <c:v>21.905085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7834,34 +7844,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.851163</c:v>
+                  <c:v>0.7625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.368047</c:v>
+                  <c:v>4.237991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.877364</c:v>
+                  <c:v>7.720257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.374462</c:v>
+                  <c:v>11.190402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.859309</c:v>
+                  <c:v>14.648297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.331905</c:v>
+                  <c:v>18.093942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.79225</c:v>
+                  <c:v>21.527338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.240345</c:v>
+                  <c:v>24.948485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.676191</c:v>
+                  <c:v>28.357382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.099787</c:v>
+                  <c:v>31.754032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7943,34 +7953,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.905799</c:v>
+                  <c:v>0.463909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.171451</c:v>
+                  <c:v>2.438353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.434259</c:v>
+                  <c:v>4.416796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.692648</c:v>
+                  <c:v>6.391357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.946612</c:v>
+                  <c:v>8.361994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.196151</c:v>
+                  <c:v>10.328708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.441264</c:v>
+                  <c:v>12.291499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.681953</c:v>
+                  <c:v>14.250366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.918216</c:v>
+                  <c:v>16.205309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.150054</c:v>
+                  <c:v>18.15633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8440,34 +8450,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.22259</c:v>
+                  <c:v>1.237076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.622378</c:v>
+                  <c:v>3.625897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.018467</c:v>
+                  <c:v>6.013028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.410486</c:v>
+                  <c:v>8.396094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.798436</c:v>
+                  <c:v>10.77509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.182316</c:v>
+                  <c:v>13.150017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.562126</c:v>
+                  <c:v>15.520873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.937867</c:v>
+                  <c:v>17.88766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.309537</c:v>
+                  <c:v>20.250378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.677139</c:v>
+                  <c:v>22.609026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8549,34 +8559,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.935156</c:v>
+                  <c:v>1.000898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.496478</c:v>
+                  <c:v>4.523399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.050871</c:v>
+                  <c:v>8.052547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.593863</c:v>
+                  <c:v>11.570389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.125423</c:v>
+                  <c:v>15.0768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.645552</c:v>
+                  <c:v>18.571781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.15425</c:v>
+                  <c:v>22.055331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.651516</c:v>
+                  <c:v>25.527451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.137353</c:v>
+                  <c:v>28.988142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.611759</c:v>
+                  <c:v>32.437404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8658,34 +8668,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.980033</c:v>
+                  <c:v>0.616517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.298985</c:v>
+                  <c:v>2.64381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.615289</c:v>
+                  <c:v>4.674963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.927428</c:v>
+                  <c:v>6.702449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.235395</c:v>
+                  <c:v>8.72623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.539191</c:v>
+                  <c:v>10.746306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.838816</c:v>
+                  <c:v>12.762676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.13427</c:v>
+                  <c:v>14.77534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.425553</c:v>
+                  <c:v>16.784299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.712664</c:v>
+                  <c:v>18.789552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14436,8 +14446,8 @@
   <sheetPr/>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AA101" sqref="AA101"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14473,7 +14483,7 @@
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:17">
       <c r="A3" s="7" t="s">
@@ -14497,7 +14507,7 @@
       <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:8">
       <c r="A4" s="11" t="s">
@@ -14506,18 +14516,17 @@
       <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
-        <f>1*B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="13">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14">
         <v>0.2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>0.05</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14532,837 +14541,837 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:26">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
       <c r="Z8" s="48"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:26">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
       <c r="R9" s="48"/>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="20"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="21"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:26">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="28" t="s">
+      <c r="U10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="V10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="X10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="28" t="s">
+      <c r="Y10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>5</v>
       </c>
-      <c r="C11" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="D11" s="32">
-        <v>53.785563</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="C11" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="D11" s="33">
+        <v>137.614247</v>
+      </c>
+      <c r="E11" s="33">
         <v>41.341488</v>
       </c>
-      <c r="F11" s="32">
-        <v>41.855502</v>
-      </c>
-      <c r="G11" s="32">
+      <c r="F11" s="33">
+        <v>42.6698</v>
+      </c>
+      <c r="G11" s="33">
         <v>5</v>
       </c>
-      <c r="H11" s="32">
-        <v>4.485986</v>
-      </c>
-      <c r="I11" s="32">
-        <v>60.548867</v>
+      <c r="H11" s="33">
+        <v>3.671689</v>
+      </c>
+      <c r="I11" s="33">
+        <v>49.558018</v>
       </c>
       <c r="J11" s="49">
-        <v>2.524524</v>
-      </c>
-      <c r="K11" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="L11" s="32">
-        <v>53.785563</v>
-      </c>
-      <c r="M11" s="32">
+        <v>2.066272</v>
+      </c>
+      <c r="K11" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="L11" s="33">
+        <v>137.614247</v>
+      </c>
+      <c r="M11" s="33">
         <v>68.013416</v>
       </c>
-      <c r="N11" s="32">
-        <v>68.859052</v>
-      </c>
-      <c r="O11" s="32">
+      <c r="N11" s="33">
+        <v>70.198702</v>
+      </c>
+      <c r="O11" s="33">
         <v>5</v>
       </c>
-      <c r="P11" s="32">
-        <v>4.154364</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>56.072854</v>
+      <c r="P11" s="33">
+        <v>2.814713</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>37.991135</v>
       </c>
       <c r="R11" s="49">
-        <v>2.337901</v>
-      </c>
-      <c r="S11" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="T11" s="60">
-        <v>53.785563</v>
-      </c>
-      <c r="U11" s="32">
+        <v>1.584002</v>
+      </c>
+      <c r="S11" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="T11" s="61">
+        <v>137.614247</v>
+      </c>
+      <c r="U11" s="33">
         <v>94.685344</v>
       </c>
-      <c r="V11" s="60">
-        <v>95.862601</v>
-      </c>
-      <c r="W11" s="60">
+      <c r="V11" s="61">
+        <v>97.727605</v>
+      </c>
+      <c r="W11" s="61">
         <v>5</v>
       </c>
-      <c r="X11" s="60">
-        <v>3.822742</v>
-      </c>
-      <c r="Y11" s="60">
-        <v>51.596842</v>
+      <c r="X11" s="61">
+        <v>1.957738</v>
+      </c>
+      <c r="Y11" s="61">
+        <v>26.424253</v>
       </c>
       <c r="Z11" s="49">
-        <v>2.151278</v>
+        <v>1.101733</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="D12" s="32">
-        <v>91.995801</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32">
-        <v>42.22468</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="C12" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="D12" s="33">
+        <v>175.989375</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33">
+        <v>43.047923</v>
+      </c>
+      <c r="G12" s="33">
         <v>10</v>
       </c>
-      <c r="H12" s="32">
-        <v>9.116808</v>
-      </c>
-      <c r="I12" s="32">
-        <v>123.052635</v>
+      <c r="H12" s="33">
+        <v>8.293565</v>
+      </c>
+      <c r="I12" s="33">
+        <v>111.941047</v>
       </c>
       <c r="J12" s="49">
-        <v>5.130556</v>
-      </c>
-      <c r="K12" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="L12" s="32">
-        <v>91.995801</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32">
-        <v>69.466409</v>
-      </c>
-      <c r="O12" s="32">
+        <v>4.667269</v>
+      </c>
+      <c r="K12" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="L12" s="33">
+        <v>175.989375</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33">
+        <v>70.820776</v>
+      </c>
+      <c r="O12" s="33">
         <v>10</v>
       </c>
-      <c r="P12" s="32">
-        <v>8.547007</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>115.361837</v>
+      <c r="P12" s="33">
+        <v>7.19264</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>97.081483</v>
       </c>
       <c r="R12" s="49">
-        <v>4.809896</v>
-      </c>
-      <c r="S12" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="T12" s="60">
-        <v>91.995801</v>
-      </c>
-      <c r="U12" s="32"/>
-      <c r="V12" s="60">
-        <v>96.708137</v>
-      </c>
-      <c r="W12" s="60">
+        <v>4.047715</v>
+      </c>
+      <c r="S12" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="T12" s="61">
+        <v>175.989375</v>
+      </c>
+      <c r="U12" s="33"/>
+      <c r="V12" s="61">
+        <v>98.593629</v>
+      </c>
+      <c r="W12" s="61">
         <v>10</v>
       </c>
-      <c r="X12" s="60">
-        <v>7.977206</v>
-      </c>
-      <c r="Y12" s="60">
-        <v>107.67104</v>
+      <c r="X12" s="61">
+        <v>6.091714</v>
+      </c>
+      <c r="Y12" s="61">
+        <v>82.221919</v>
       </c>
       <c r="Z12" s="49">
-        <v>4.489236</v>
+        <v>3.42816</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31">
         <v>15</v>
       </c>
-      <c r="C13" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="D13" s="32">
-        <v>130.175022</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32">
-        <v>42.596887</v>
-      </c>
-      <c r="G13" s="32">
+      <c r="C13" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="D13" s="33">
+        <v>214.168498</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33">
+        <v>43.427451</v>
+      </c>
+      <c r="G13" s="33">
         <v>15</v>
       </c>
-      <c r="H13" s="32">
-        <v>13.744601</v>
-      </c>
-      <c r="I13" s="32">
-        <v>185.515508</v>
+      <c r="H13" s="33">
+        <v>12.914037</v>
+      </c>
+      <c r="I13" s="33">
+        <v>174.305107</v>
       </c>
       <c r="J13" s="49">
-        <v>7.734883</v>
-      </c>
-      <c r="K13" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="L13" s="32">
-        <v>130.175022</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32">
-        <v>70.07875</v>
-      </c>
-      <c r="O13" s="32">
+        <v>7.267476</v>
+      </c>
+      <c r="K13" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="L13" s="33">
+        <v>214.168498</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33">
+        <v>71.445162</v>
+      </c>
+      <c r="O13" s="33">
         <v>15</v>
       </c>
-      <c r="P13" s="32">
-        <v>12.934666</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>174.583542</v>
+      <c r="P13" s="33">
+        <v>11.568254</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>156.140623</v>
       </c>
       <c r="R13" s="49">
-        <v>7.279085</v>
-      </c>
-      <c r="S13" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="T13" s="60">
-        <v>130.175022</v>
-      </c>
-      <c r="U13" s="32"/>
-      <c r="V13" s="60">
-        <v>97.560613</v>
-      </c>
-      <c r="W13" s="60">
+        <v>6.510126</v>
+      </c>
+      <c r="S13" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="T13" s="61">
+        <v>214.168498</v>
+      </c>
+      <c r="U13" s="33"/>
+      <c r="V13" s="61">
+        <v>99.462872</v>
+      </c>
+      <c r="W13" s="61">
         <v>15</v>
       </c>
-      <c r="X13" s="60">
-        <v>12.124731</v>
-      </c>
-      <c r="Y13" s="60">
-        <v>163.651575</v>
+      <c r="X13" s="61">
+        <v>10.222471</v>
+      </c>
+      <c r="Y13" s="61">
+        <v>137.97614</v>
       </c>
       <c r="Z13" s="49">
-        <v>6.823288</v>
+        <v>5.752776</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31">
         <v>20</v>
       </c>
-      <c r="C14" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="D14" s="32">
-        <v>168.35399</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32">
-        <v>42.972421</v>
-      </c>
-      <c r="G14" s="32">
+      <c r="C14" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="D14" s="33">
+        <v>252.347049</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33">
+        <v>43.810302</v>
+      </c>
+      <c r="G14" s="33">
         <v>20</v>
       </c>
-      <c r="H14" s="32">
-        <v>18.369067</v>
-      </c>
-      <c r="I14" s="32">
-        <v>247.933494</v>
+      <c r="H14" s="33">
+        <v>17.531186</v>
+      </c>
+      <c r="I14" s="33">
+        <v>236.624323</v>
       </c>
       <c r="J14" s="49">
-        <v>10.337338</v>
-      </c>
-      <c r="K14" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="L14" s="32">
-        <v>168.35399</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32">
-        <v>70.696563</v>
-      </c>
-      <c r="O14" s="32">
+        <v>9.865813</v>
+      </c>
+      <c r="K14" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="L14" s="33">
+        <v>252.347049</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33">
+        <v>72.075014</v>
+      </c>
+      <c r="O14" s="33">
         <v>20</v>
       </c>
-      <c r="P14" s="32">
-        <v>17.316853</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>233.731398</v>
+      <c r="P14" s="33">
+        <v>15.938402</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>215.125988</v>
       </c>
       <c r="R14" s="49">
-        <v>9.745196</v>
-      </c>
-      <c r="S14" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="T14" s="60">
-        <v>168.35399</v>
-      </c>
-      <c r="U14" s="32"/>
-      <c r="V14" s="60">
-        <v>98.420706</v>
-      </c>
-      <c r="W14" s="60">
+        <v>8.969462</v>
+      </c>
+      <c r="S14" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="T14" s="61">
+        <v>252.347049</v>
+      </c>
+      <c r="U14" s="33"/>
+      <c r="V14" s="61">
+        <v>100.339725</v>
+      </c>
+      <c r="W14" s="61">
         <v>20</v>
       </c>
-      <c r="X14" s="60">
-        <v>16.264638</v>
-      </c>
-      <c r="Y14" s="60">
-        <v>219.529303</v>
+      <c r="X14" s="61">
+        <v>14.345619</v>
+      </c>
+      <c r="Y14" s="61">
+        <v>193.627653</v>
       </c>
       <c r="Z14" s="49">
-        <v>9.153053</v>
+        <v>8.07311</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31">
         <v>25</v>
       </c>
-      <c r="C15" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="D15" s="32">
-        <v>206.532766</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32">
-        <v>43.35128</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="C15" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="D15" s="33">
+        <v>290.525415</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33">
+        <v>44.19648</v>
+      </c>
+      <c r="G15" s="33">
         <v>25</v>
       </c>
-      <c r="H15" s="32">
-        <v>22.990208</v>
-      </c>
-      <c r="I15" s="32">
-        <v>310.306584</v>
+      <c r="H15" s="33">
+        <v>22.145009</v>
+      </c>
+      <c r="I15" s="33">
+        <v>298.898645</v>
       </c>
       <c r="J15" s="49">
-        <v>12.937921</v>
-      </c>
-      <c r="K15" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="L15" s="32">
-        <v>206.532766</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32">
-        <v>71.319848</v>
-      </c>
-      <c r="O15" s="32">
+        <v>12.462278</v>
+      </c>
+      <c r="K15" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="L15" s="33">
+        <v>290.525415</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33">
+        <v>72.710337</v>
+      </c>
+      <c r="O15" s="33">
         <v>25</v>
       </c>
-      <c r="P15" s="32">
-        <v>21.693568</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>292.805395</v>
+      <c r="P15" s="33">
+        <v>20.303079</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>274.037495</v>
       </c>
       <c r="R15" s="49">
-        <v>12.208226</v>
-      </c>
-      <c r="S15" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="T15" s="60">
-        <v>206.532766</v>
-      </c>
-      <c r="U15" s="32"/>
-      <c r="V15" s="60">
-        <v>99.288416</v>
-      </c>
-      <c r="W15" s="60">
+        <v>11.425718</v>
+      </c>
+      <c r="S15" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="T15" s="61">
+        <v>290.525415</v>
+      </c>
+      <c r="U15" s="33"/>
+      <c r="V15" s="61">
+        <v>101.224195</v>
+      </c>
+      <c r="W15" s="61">
         <v>25</v>
       </c>
-      <c r="X15" s="60">
-        <v>20.396927</v>
-      </c>
-      <c r="Y15" s="60">
-        <v>275.304206</v>
+      <c r="X15" s="61">
+        <v>18.461149</v>
+      </c>
+      <c r="Y15" s="61">
+        <v>249.176344</v>
       </c>
       <c r="Z15" s="49">
-        <v>11.478532</v>
+        <v>10.389157</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31">
         <v>30</v>
       </c>
-      <c r="C16" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="D16" s="32">
-        <v>244.711354</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32">
-        <v>43.733466</v>
-      </c>
-      <c r="G16" s="32">
+      <c r="C16" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="D16" s="33">
+        <v>328.703598</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
+        <v>44.585983</v>
+      </c>
+      <c r="G16" s="33">
         <v>30</v>
       </c>
-      <c r="H16" s="32">
-        <v>27.608022</v>
-      </c>
-      <c r="I16" s="32">
-        <v>372.634779</v>
+      <c r="H16" s="33">
+        <v>26.755505</v>
+      </c>
+      <c r="I16" s="33">
+        <v>361.128072</v>
       </c>
       <c r="J16" s="49">
-        <v>15.536632</v>
-      </c>
-      <c r="K16" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="L16" s="32">
-        <v>244.711354</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32">
-        <v>71.948605</v>
-      </c>
-      <c r="O16" s="32">
+        <v>15.056872</v>
+      </c>
+      <c r="K16" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="L16" s="33">
+        <v>328.703598</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33">
+        <v>73.351133</v>
+      </c>
+      <c r="O16" s="33">
         <v>30</v>
       </c>
-      <c r="P16" s="32">
-        <v>26.06481</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>351.805532</v>
+      <c r="P16" s="33">
+        <v>24.662283</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>332.875142</v>
       </c>
       <c r="R16" s="49">
-        <v>14.668178</v>
-      </c>
-      <c r="S16" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="T16" s="60">
-        <v>244.711354</v>
-      </c>
-      <c r="U16" s="32"/>
-      <c r="V16" s="60">
-        <v>100.163745</v>
-      </c>
-      <c r="W16" s="60">
+        <v>13.878894</v>
+      </c>
+      <c r="S16" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="T16" s="61">
+        <v>328.703598</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="61">
+        <v>102.116283</v>
+      </c>
+      <c r="W16" s="61">
         <v>30</v>
       </c>
-      <c r="X16" s="60">
-        <v>24.521599</v>
-      </c>
-      <c r="Y16" s="60">
-        <v>330.976284</v>
+      <c r="X16" s="61">
+        <v>22.56906</v>
+      </c>
+      <c r="Y16" s="61">
+        <v>304.622213</v>
       </c>
       <c r="Z16" s="49">
-        <v>13.799723</v>
+        <v>12.700917</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31">
         <v>35</v>
       </c>
-      <c r="C17" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="D17" s="32">
-        <v>282.889757</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32">
-        <v>44.118978</v>
-      </c>
-      <c r="G17" s="32">
+      <c r="C17" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="D17" s="33">
+        <v>366.881602</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33">
+        <v>44.978812</v>
+      </c>
+      <c r="G17" s="33">
         <v>35</v>
       </c>
-      <c r="H17" s="32">
-        <v>32.22251</v>
-      </c>
-      <c r="I17" s="32">
-        <v>434.91808</v>
+      <c r="H17" s="33">
+        <v>31.362676</v>
+      </c>
+      <c r="I17" s="33">
+        <v>423.312605</v>
       </c>
       <c r="J17" s="49">
-        <v>18.133472</v>
-      </c>
-      <c r="K17" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="L17" s="32">
-        <v>282.889757</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32">
-        <v>72.582835</v>
-      </c>
-      <c r="O17" s="32">
+        <v>17.649593</v>
+      </c>
+      <c r="K17" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="L17" s="33">
+        <v>366.881602</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33">
+        <v>73.997401</v>
+      </c>
+      <c r="O17" s="33">
         <v>35</v>
       </c>
-      <c r="P17" s="32">
-        <v>30.430581</v>
-      </c>
-      <c r="Q17" s="32">
-        <v>410.73181</v>
+      <c r="P17" s="33">
+        <v>29.016015</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>391.638932</v>
       </c>
       <c r="R17" s="49">
-        <v>17.12505</v>
-      </c>
-      <c r="S17" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="T17" s="60">
-        <v>282.889757</v>
-      </c>
-      <c r="U17" s="32"/>
-      <c r="V17" s="60">
-        <v>101.046692</v>
-      </c>
-      <c r="W17" s="60">
+        <v>16.328991</v>
+      </c>
+      <c r="S17" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="T17" s="61">
+        <v>366.881602</v>
+      </c>
+      <c r="U17" s="33"/>
+      <c r="V17" s="61">
+        <v>103.01599</v>
+      </c>
+      <c r="W17" s="61">
         <v>35</v>
       </c>
-      <c r="X17" s="60">
-        <v>28.638652</v>
-      </c>
-      <c r="Y17" s="60">
-        <v>386.54554</v>
+      <c r="X17" s="61">
+        <v>26.669354</v>
+      </c>
+      <c r="Y17" s="61">
+        <v>359.96526</v>
       </c>
       <c r="Z17" s="49">
-        <v>16.116627</v>
+        <v>15.008389</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31">
         <v>40</v>
       </c>
-      <c r="C18" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="D18" s="32">
-        <v>321.067976</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32">
-        <v>44.507816</v>
-      </c>
-      <c r="G18" s="32">
+      <c r="C18" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="D18" s="33">
+        <v>405.059427</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33">
+        <v>45.374968</v>
+      </c>
+      <c r="G18" s="33">
         <v>40</v>
       </c>
-      <c r="H18" s="32">
-        <v>36.833672</v>
-      </c>
-      <c r="I18" s="32">
-        <v>497.156486</v>
+      <c r="H18" s="33">
+        <v>35.96652</v>
+      </c>
+      <c r="I18" s="33">
+        <v>485.452245</v>
       </c>
       <c r="J18" s="49">
-        <v>20.72844</v>
-      </c>
-      <c r="K18" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="L18" s="32">
-        <v>321.067976</v>
-      </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32">
-        <v>73.222536</v>
-      </c>
-      <c r="O18" s="32">
+        <v>20.240443</v>
+      </c>
+      <c r="K18" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="L18" s="33">
+        <v>405.059427</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33">
+        <v>74.649141</v>
+      </c>
+      <c r="O18" s="33">
         <v>40</v>
       </c>
-      <c r="P18" s="32">
-        <v>34.79088</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>469.584229</v>
+      <c r="P18" s="33">
+        <v>33.364275</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>450.328865</v>
       </c>
       <c r="R18" s="49">
-        <v>19.578842</v>
-      </c>
-      <c r="S18" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="T18" s="60">
-        <v>321.067976</v>
-      </c>
-      <c r="U18" s="32"/>
-      <c r="V18" s="60">
-        <v>101.937256</v>
-      </c>
-      <c r="W18" s="60">
+        <v>18.776009</v>
+      </c>
+      <c r="S18" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="T18" s="61">
+        <v>405.059427</v>
+      </c>
+      <c r="U18" s="33"/>
+      <c r="V18" s="61">
+        <v>103.923314</v>
+      </c>
+      <c r="W18" s="61">
         <v>40</v>
       </c>
-      <c r="X18" s="60">
-        <v>32.748087</v>
-      </c>
-      <c r="Y18" s="60">
-        <v>442.011973</v>
+      <c r="X18" s="61">
+        <v>30.76203</v>
+      </c>
+      <c r="Y18" s="61">
+        <v>415.205485</v>
       </c>
       <c r="Z18" s="49">
-        <v>18.429245</v>
+        <v>17.311575</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31">
         <v>45</v>
       </c>
-      <c r="C19" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="D19" s="32">
-        <v>359.246015</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32">
-        <v>44.89998</v>
-      </c>
-      <c r="G19" s="32">
-        <v>44.89998</v>
-      </c>
-      <c r="H19" s="32">
-        <v>41.341488</v>
+      <c r="C19" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="D19" s="33">
+        <v>443.237077</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
+        <v>45.77445</v>
+      </c>
+      <c r="G19" s="33">
+        <v>45</v>
+      </c>
+      <c r="H19" s="33">
+        <v>40.567038</v>
       </c>
       <c r="I19" s="50">
-        <v>558</v>
+        <v>547.546991</v>
       </c>
       <c r="J19" s="49">
-        <v>23.265249</v>
-      </c>
-      <c r="K19" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="L19" s="32">
-        <v>359.246015</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32">
-        <v>73.86771</v>
-      </c>
-      <c r="O19" s="32">
+        <v>22.829421</v>
+      </c>
+      <c r="K19" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="L19" s="33">
+        <v>443.237077</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33">
+        <v>75.306353</v>
+      </c>
+      <c r="O19" s="33">
         <v>45</v>
       </c>
-      <c r="P19" s="32">
-        <v>39.145706</v>
-      </c>
-      <c r="Q19" s="32">
-        <v>528.362791</v>
+      <c r="P19" s="33">
+        <v>37.707063</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>508.944941</v>
       </c>
       <c r="R19" s="49">
-        <v>22.029555</v>
-      </c>
-      <c r="S19" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="T19" s="60">
-        <v>359.246015</v>
-      </c>
-      <c r="U19" s="32"/>
-      <c r="V19" s="60">
-        <v>102.835439</v>
-      </c>
-      <c r="W19" s="60">
+        <v>21.219947</v>
+      </c>
+      <c r="S19" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="T19" s="61">
+        <v>443.237077</v>
+      </c>
+      <c r="U19" s="33"/>
+      <c r="V19" s="61">
+        <v>104.838256</v>
+      </c>
+      <c r="W19" s="61">
         <v>45</v>
       </c>
-      <c r="X19" s="60">
-        <v>36.849905</v>
-      </c>
-      <c r="Y19" s="60">
-        <v>497.375584</v>
+      <c r="X19" s="61">
+        <v>34.847088</v>
+      </c>
+      <c r="Y19" s="61">
+        <v>470.34289</v>
       </c>
       <c r="Z19" s="49">
-        <v>20.737575</v>
+        <v>19.610474</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35">
         <v>50</v>
       </c>
-      <c r="C20" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="D20" s="36">
-        <v>397.423876</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36">
-        <v>45.295471</v>
-      </c>
-      <c r="G20" s="36">
-        <v>45.295471</v>
-      </c>
-      <c r="H20" s="36">
+      <c r="C20" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="D20" s="13">
+        <v>481.414554</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
+        <v>46.177258</v>
+      </c>
+      <c r="G20" s="13">
+        <v>46.177258</v>
+      </c>
+      <c r="H20" s="13">
         <v>41.341488</v>
       </c>
       <c r="I20" s="51">
@@ -15371,83 +15380,83 @@
       <c r="J20" s="52">
         <v>23.265249</v>
       </c>
-      <c r="K20" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="L20" s="36">
-        <v>397.423876</v>
-      </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36">
-        <v>74.518355</v>
-      </c>
-      <c r="O20" s="36">
+      <c r="K20" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="L20" s="13">
+        <v>481.414554</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13">
+        <v>75.969037</v>
+      </c>
+      <c r="O20" s="13">
         <v>50</v>
       </c>
-      <c r="P20" s="36">
-        <v>43.495061</v>
-      </c>
-      <c r="Q20" s="61">
-        <v>587.067495</v>
+      <c r="P20" s="13">
+        <v>42.044379</v>
+      </c>
+      <c r="Q20" s="62">
+        <v>567.48716</v>
       </c>
       <c r="R20" s="52">
-        <v>24.477189</v>
-      </c>
-      <c r="S20" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="T20" s="36">
-        <v>397.423876</v>
-      </c>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36">
-        <v>103.74124</v>
-      </c>
-      <c r="W20" s="36">
+        <v>23.660806</v>
+      </c>
+      <c r="S20" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="T20" s="13">
+        <v>481.414554</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13">
+        <v>105.760816</v>
+      </c>
+      <c r="W20" s="13">
         <v>50</v>
       </c>
-      <c r="X20" s="36">
-        <v>40.944104</v>
-      </c>
-      <c r="Y20" s="36">
-        <v>552.636374</v>
+      <c r="X20" s="13">
+        <v>38.924528</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>525.377476</v>
       </c>
       <c r="Z20" s="52">
-        <v>23.041618</v>
+        <v>21.905085</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:26">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
       <c r="R21" s="48"/>
-      <c r="S21" s="21" t="s">
+      <c r="S21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
       <c r="Z21" s="48"/>
     </row>
     <row r="22" spans="1:26">
@@ -15458,76 +15467,76 @@
         <v>5</v>
       </c>
       <c r="C22" s="39">
-        <v>36.57979</v>
+        <v>103.642737</v>
       </c>
       <c r="D22" s="40">
-        <v>53.96177</v>
+        <v>137.790454</v>
       </c>
       <c r="E22" s="40">
         <v>30.978339</v>
       </c>
       <c r="F22" s="40">
-        <v>31.383966</v>
+        <v>32.024587</v>
       </c>
       <c r="G22" s="40">
         <v>5</v>
       </c>
       <c r="H22" s="40">
-        <v>4.594373</v>
+        <v>3.953752</v>
       </c>
       <c r="I22" s="40">
-        <v>62.734801</v>
+        <v>53.987308</v>
       </c>
       <c r="J22" s="53">
-        <v>2.615664</v>
+        <v>2.250946</v>
       </c>
       <c r="K22" s="39">
-        <v>36.57979</v>
+        <v>103.642737</v>
       </c>
       <c r="L22" s="40">
-        <v>53.96177</v>
+        <v>137.790454</v>
       </c>
       <c r="M22" s="40">
         <v>57.342883</v>
       </c>
       <c r="N22" s="40">
-        <v>58.093724</v>
+        <v>59.279555</v>
       </c>
       <c r="O22" s="40">
         <v>5</v>
       </c>
       <c r="P22" s="40">
-        <v>4.249159</v>
+        <v>3.063328</v>
       </c>
       <c r="Q22" s="40">
-        <v>58.021004</v>
+        <v>41.828836</v>
       </c>
       <c r="R22" s="53">
-        <v>2.419127</v>
+        <v>1.744011</v>
       </c>
       <c r="S22" s="39">
-        <v>36.57979</v>
-      </c>
-      <c r="T22" s="62">
-        <v>53.96177</v>
+        <v>103.642737</v>
+      </c>
+      <c r="T22" s="63">
+        <v>137.790454</v>
       </c>
       <c r="U22" s="40">
         <v>83.707427</v>
       </c>
-      <c r="V22" s="62">
-        <v>84.803482</v>
-      </c>
-      <c r="W22" s="62">
+      <c r="V22" s="63">
+        <v>86.534522</v>
+      </c>
+      <c r="W22" s="63">
         <v>5</v>
       </c>
-      <c r="X22" s="62">
-        <v>3.903945</v>
-      </c>
-      <c r="Y22" s="62">
-        <v>53.307207</v>
+      <c r="X22" s="63">
+        <v>2.172905</v>
+      </c>
+      <c r="Y22" s="63">
+        <v>29.670365</v>
       </c>
       <c r="Z22" s="53">
-        <v>2.22259</v>
+        <v>1.237076</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -15536,70 +15545,70 @@
         <v>10</v>
       </c>
       <c r="C23" s="39">
-        <v>67.062948</v>
+        <v>134.125895</v>
       </c>
       <c r="D23" s="40">
-        <v>92.174688</v>
+        <v>176.171866</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40">
-        <v>31.674407</v>
+        <v>32.322158</v>
       </c>
       <c r="G23" s="40">
         <v>10</v>
       </c>
       <c r="H23" s="40">
-        <v>9.303932</v>
+        <v>8.656182</v>
       </c>
       <c r="I23" s="40">
-        <v>127.042418</v>
+        <v>118.197582</v>
       </c>
       <c r="J23" s="53">
-        <v>5.296906</v>
+        <v>4.928129</v>
       </c>
       <c r="K23" s="39">
-        <v>67.062948</v>
+        <v>134.125895</v>
       </c>
       <c r="L23" s="40">
-        <v>92.174688</v>
+        <v>176.171866</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40">
-        <v>58.63135</v>
+        <v>59.830377</v>
       </c>
       <c r="O23" s="40">
         <v>10</v>
       </c>
       <c r="P23" s="40">
-        <v>8.711533</v>
+        <v>7.512506</v>
       </c>
       <c r="Q23" s="40">
-        <v>118.953393</v>
+        <v>102.581036</v>
       </c>
       <c r="R23" s="53">
-        <v>4.959642</v>
+        <v>4.277013</v>
       </c>
       <c r="S23" s="39">
-        <v>67.062948</v>
-      </c>
-      <c r="T23" s="62">
-        <v>92.174688</v>
+        <v>134.125895</v>
+      </c>
+      <c r="T23" s="63">
+        <v>176.171866</v>
       </c>
       <c r="U23" s="40"/>
-      <c r="V23" s="62">
-        <v>85.588292</v>
-      </c>
-      <c r="W23" s="62">
+      <c r="V23" s="63">
+        <v>87.338596</v>
+      </c>
+      <c r="W23" s="63">
         <v>10</v>
       </c>
-      <c r="X23" s="62">
-        <v>8.119135</v>
-      </c>
-      <c r="Y23" s="62">
-        <v>110.864367</v>
+      <c r="X23" s="63">
+        <v>6.368831</v>
+      </c>
+      <c r="Y23" s="63">
+        <v>86.96449</v>
       </c>
       <c r="Z23" s="53">
-        <v>4.622378</v>
+        <v>3.625897</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -15608,70 +15617,70 @@
         <v>15</v>
       </c>
       <c r="C24" s="39">
-        <v>97.546106</v>
+        <v>164.609053</v>
       </c>
       <c r="D24" s="40">
-        <v>130.355561</v>
+        <v>214.352646</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40">
-        <v>31.967254</v>
+        <v>32.620827</v>
       </c>
       <c r="G24" s="40">
         <v>15</v>
       </c>
       <c r="H24" s="40">
-        <v>14.011085</v>
+        <v>13.357512</v>
       </c>
       <c r="I24" s="40">
-        <v>191.317201</v>
+        <v>182.392856</v>
       </c>
       <c r="J24" s="53">
-        <v>7.976778</v>
+        <v>7.604687</v>
       </c>
       <c r="K24" s="39">
-        <v>97.546106</v>
+        <v>164.609053</v>
       </c>
       <c r="L24" s="40">
-        <v>130.355561</v>
+        <v>214.352646</v>
       </c>
       <c r="M24" s="40"/>
       <c r="N24" s="40">
-        <v>59.173427</v>
+        <v>60.383232</v>
       </c>
       <c r="O24" s="40">
         <v>15</v>
       </c>
       <c r="P24" s="40">
-        <v>13.169456</v>
+        <v>11.959651</v>
       </c>
       <c r="Q24" s="40">
-        <v>179.825002</v>
+        <v>163.305469</v>
       </c>
       <c r="R24" s="53">
-        <v>7.497623</v>
+        <v>6.808857</v>
       </c>
       <c r="S24" s="39">
-        <v>97.546106</v>
-      </c>
-      <c r="T24" s="62">
-        <v>130.355561</v>
+        <v>164.609053</v>
+      </c>
+      <c r="T24" s="63">
+        <v>214.352646</v>
       </c>
       <c r="U24" s="40"/>
-      <c r="V24" s="62">
-        <v>86.3796</v>
-      </c>
-      <c r="W24" s="62">
+      <c r="V24" s="63">
+        <v>88.145638</v>
+      </c>
+      <c r="W24" s="63">
         <v>15</v>
       </c>
-      <c r="X24" s="62">
-        <v>12.327827</v>
-      </c>
-      <c r="Y24" s="62">
-        <v>168.332803</v>
+      <c r="X24" s="63">
+        <v>10.561789</v>
+      </c>
+      <c r="Y24" s="63">
+        <v>144.218082</v>
       </c>
       <c r="Z24" s="53">
-        <v>7.018467</v>
+        <v>6.013028</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -15680,70 +15689,70 @@
         <v>20</v>
       </c>
       <c r="C25" s="39">
-        <v>128.029264</v>
+        <v>195.092212</v>
       </c>
       <c r="D25" s="40">
-        <v>168.536171</v>
+        <v>252.532832</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40">
-        <v>32.262745</v>
+        <v>32.922138</v>
       </c>
       <c r="G25" s="40">
         <v>20</v>
       </c>
       <c r="H25" s="40">
-        <v>18.715594</v>
+        <v>18.056201</v>
       </c>
       <c r="I25" s="40">
-        <v>255.555867</v>
+        <v>246.552049</v>
       </c>
       <c r="J25" s="53">
-        <v>10.655145</v>
+        <v>10.27974</v>
       </c>
       <c r="K25" s="39">
-        <v>128.029264</v>
+        <v>195.092212</v>
       </c>
       <c r="L25" s="40">
-        <v>168.536171</v>
+        <v>252.532832</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="40">
-        <v>59.7204</v>
+        <v>60.940979</v>
       </c>
       <c r="O25" s="40">
         <v>20</v>
       </c>
       <c r="P25" s="40">
-        <v>17.622483</v>
+        <v>16.401904</v>
       </c>
       <c r="Q25" s="40">
-        <v>240.629756</v>
+        <v>223.963114</v>
       </c>
       <c r="R25" s="53">
-        <v>10.032816</v>
+        <v>9.337917</v>
       </c>
       <c r="S25" s="39">
-        <v>128.029264</v>
-      </c>
-      <c r="T25" s="62">
-        <v>168.536171</v>
+        <v>195.092212</v>
+      </c>
+      <c r="T25" s="63">
+        <v>252.532832</v>
       </c>
       <c r="U25" s="40"/>
-      <c r="V25" s="62">
-        <v>87.178056</v>
-      </c>
-      <c r="W25" s="62">
+      <c r="V25" s="63">
+        <v>88.95982</v>
+      </c>
+      <c r="W25" s="63">
         <v>20</v>
       </c>
-      <c r="X25" s="62">
-        <v>16.529371</v>
-      </c>
-      <c r="Y25" s="62">
-        <v>225.703645</v>
+      <c r="X25" s="63">
+        <v>14.747607</v>
+      </c>
+      <c r="Y25" s="63">
+        <v>201.374179</v>
       </c>
       <c r="Z25" s="53">
-        <v>9.410486</v>
+        <v>8.396094</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -15752,70 +15761,70 @@
         <v>25</v>
       </c>
       <c r="C26" s="39">
-        <v>158.512422</v>
+        <v>225.57537</v>
       </c>
       <c r="D26" s="40">
-        <v>206.716587</v>
+        <v>290.712827</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40">
-        <v>32.560882</v>
+        <v>33.226095</v>
       </c>
       <c r="G26" s="40">
         <v>25</v>
       </c>
       <c r="H26" s="40">
-        <v>23.417457</v>
+        <v>22.752244</v>
       </c>
       <c r="I26" s="40">
-        <v>319.758408</v>
+        <v>310.675119</v>
       </c>
       <c r="J26" s="53">
-        <v>13.332005</v>
+        <v>12.953287</v>
       </c>
       <c r="K26" s="39">
-        <v>158.512422</v>
+        <v>225.57537</v>
       </c>
       <c r="L26" s="40">
-        <v>206.716587</v>
+        <v>290.712827</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40">
-        <v>60.272271</v>
+        <v>61.503623</v>
       </c>
       <c r="O26" s="40">
         <v>25</v>
       </c>
       <c r="P26" s="40">
-        <v>22.070612</v>
+        <v>20.83926</v>
       </c>
       <c r="Q26" s="40">
-        <v>301.367642</v>
+        <v>284.553892</v>
       </c>
       <c r="R26" s="53">
-        <v>12.565221</v>
+        <v>11.864188</v>
       </c>
       <c r="S26" s="39">
-        <v>158.512422</v>
-      </c>
-      <c r="T26" s="62">
-        <v>206.716587</v>
+        <v>225.57537</v>
+      </c>
+      <c r="T26" s="63">
+        <v>290.712827</v>
       </c>
       <c r="U26" s="40"/>
-      <c r="V26" s="62">
-        <v>87.98366</v>
-      </c>
-      <c r="W26" s="62">
+      <c r="V26" s="63">
+        <v>89.781151</v>
+      </c>
+      <c r="W26" s="63">
         <v>25</v>
       </c>
-      <c r="X26" s="62">
-        <v>20.723767</v>
-      </c>
-      <c r="Y26" s="62">
-        <v>282.976875</v>
+      <c r="X26" s="63">
+        <v>18.926276</v>
+      </c>
+      <c r="Y26" s="63">
+        <v>258.432666</v>
       </c>
       <c r="Z26" s="53">
-        <v>11.798436</v>
+        <v>10.77509</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -15824,70 +15833,70 @@
         <v>30</v>
       </c>
       <c r="C27" s="39">
-        <v>188.99558</v>
+        <v>256.058528</v>
       </c>
       <c r="D27" s="40">
-        <v>244.89681</v>
+        <v>328.892637</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40">
-        <v>32.861664</v>
+        <v>33.532698</v>
       </c>
       <c r="G27" s="40">
         <v>30</v>
       </c>
       <c r="H27" s="40">
-        <v>28.116675</v>
+        <v>27.445641</v>
       </c>
       <c r="I27" s="40">
-        <v>383.924826</v>
+        <v>374.762065</v>
       </c>
       <c r="J27" s="53">
-        <v>16.007359</v>
+        <v>15.625327</v>
       </c>
       <c r="K27" s="39">
-        <v>188.99558</v>
+        <v>256.058528</v>
       </c>
       <c r="L27" s="40">
-        <v>244.89681</v>
+        <v>328.892637</v>
       </c>
       <c r="M27" s="40"/>
       <c r="N27" s="40">
-        <v>60.829038</v>
+        <v>62.071164</v>
       </c>
       <c r="O27" s="40">
         <v>30</v>
       </c>
       <c r="P27" s="40">
-        <v>26.513845</v>
+        <v>25.271719</v>
       </c>
       <c r="Q27" s="40">
-        <v>362.03866</v>
+        <v>345.077805</v>
       </c>
       <c r="R27" s="53">
-        <v>15.094838</v>
+        <v>14.387672</v>
       </c>
       <c r="S27" s="39">
-        <v>188.99558</v>
-      </c>
-      <c r="T27" s="62">
-        <v>244.89681</v>
+        <v>256.058528</v>
+      </c>
+      <c r="T27" s="63">
+        <v>328.892637</v>
       </c>
       <c r="U27" s="40"/>
-      <c r="V27" s="62">
-        <v>88.796412</v>
-      </c>
-      <c r="W27" s="62">
+      <c r="V27" s="63">
+        <v>90.60963</v>
+      </c>
+      <c r="W27" s="63">
         <v>30</v>
       </c>
-      <c r="X27" s="62">
-        <v>24.911015</v>
-      </c>
-      <c r="Y27" s="62">
-        <v>340.152495</v>
+      <c r="X27" s="63">
+        <v>23.097797</v>
+      </c>
+      <c r="Y27" s="63">
+        <v>315.393544</v>
       </c>
       <c r="Z27" s="53">
-        <v>14.182316</v>
+        <v>13.150017</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -15896,17 +15905,17 @@
         <v>35</v>
       </c>
       <c r="C28" s="39">
-        <v>219.478738</v>
+        <v>286.541686</v>
       </c>
       <c r="D28" s="40">
-        <v>283.076843</v>
+        <v>367.072262</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40">
-        <v>33.165092</v>
+        <v>33.841946</v>
       </c>
       <c r="G28" s="40">
-        <v>33.165092</v>
+        <v>33.841946</v>
       </c>
       <c r="H28" s="40">
         <v>30.978339</v>
@@ -15918,48 +15927,48 @@
         <v>17.63656</v>
       </c>
       <c r="K28" s="39">
-        <v>219.478738</v>
+        <v>286.541686</v>
       </c>
       <c r="L28" s="40">
-        <v>283.076843</v>
+        <v>367.072262</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40">
-        <v>61.390703</v>
+        <v>62.643601</v>
       </c>
       <c r="O28" s="40">
         <v>35</v>
       </c>
       <c r="P28" s="40">
-        <v>30.95218</v>
+        <v>29.699282</v>
       </c>
       <c r="Q28" s="40">
-        <v>422.642812</v>
+        <v>405.534851</v>
       </c>
       <c r="R28" s="53">
-        <v>17.621667</v>
+        <v>16.908368</v>
       </c>
       <c r="S28" s="39">
-        <v>219.478738</v>
-      </c>
-      <c r="T28" s="62">
-        <v>283.076843</v>
+        <v>286.541686</v>
+      </c>
+      <c r="T28" s="63">
+        <v>367.072262</v>
       </c>
       <c r="U28" s="40"/>
-      <c r="V28" s="62">
-        <v>89.616313</v>
-      </c>
-      <c r="W28" s="62">
+      <c r="V28" s="63">
+        <v>91.445257</v>
+      </c>
+      <c r="W28" s="63">
         <v>35</v>
       </c>
-      <c r="X28" s="62">
-        <v>29.091114</v>
-      </c>
-      <c r="Y28" s="62">
-        <v>397.230504</v>
+      <c r="X28" s="63">
+        <v>27.26217</v>
+      </c>
+      <c r="Y28" s="63">
+        <v>372.256813</v>
       </c>
       <c r="Z28" s="53">
-        <v>16.562126</v>
+        <v>15.520873</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -15968,17 +15977,17 @@
         <v>40</v>
       </c>
       <c r="C29" s="39">
-        <v>249.961896</v>
+        <v>317.024844</v>
       </c>
       <c r="D29" s="40">
-        <v>321.25669</v>
+        <v>405.251706</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40">
-        <v>33.471166</v>
+        <v>34.153839</v>
       </c>
       <c r="G29" s="40">
-        <v>33.471166</v>
+        <v>34.153839</v>
       </c>
       <c r="H29" s="40">
         <v>30.978339</v>
@@ -15990,48 +15999,48 @@
         <v>17.63656</v>
       </c>
       <c r="K29" s="39">
-        <v>249.961896</v>
+        <v>317.024844</v>
       </c>
       <c r="L29" s="40">
-        <v>321.25669</v>
+        <v>405.251706</v>
       </c>
       <c r="M29" s="40"/>
       <c r="N29" s="40">
-        <v>61.957264</v>
+        <v>63.220936</v>
       </c>
       <c r="O29" s="40">
         <v>40</v>
       </c>
       <c r="P29" s="40">
-        <v>35.385619</v>
+        <v>34.121947</v>
       </c>
       <c r="Q29" s="40">
-        <v>483.180097</v>
+        <v>465.925032</v>
       </c>
       <c r="R29" s="53">
-        <v>20.145708</v>
+        <v>19.426276</v>
       </c>
       <c r="S29" s="39">
-        <v>249.961896</v>
-      </c>
-      <c r="T29" s="62">
-        <v>321.25669</v>
+        <v>317.024844</v>
+      </c>
+      <c r="T29" s="63">
+        <v>405.251706</v>
       </c>
       <c r="U29" s="40"/>
-      <c r="V29" s="62">
-        <v>90.443362</v>
-      </c>
-      <c r="W29" s="62">
+      <c r="V29" s="63">
+        <v>92.288033</v>
+      </c>
+      <c r="W29" s="63">
         <v>40</v>
       </c>
-      <c r="X29" s="62">
-        <v>33.264065</v>
-      </c>
-      <c r="Y29" s="62">
-        <v>454.210903</v>
+      <c r="X29" s="63">
+        <v>31.419394</v>
+      </c>
+      <c r="Y29" s="63">
+        <v>429.022474</v>
       </c>
       <c r="Z29" s="53">
-        <v>18.937867</v>
+        <v>17.88766</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -16040,17 +16049,17 @@
         <v>45</v>
       </c>
       <c r="C30" s="39">
-        <v>280.445054</v>
+        <v>347.508002</v>
       </c>
       <c r="D30" s="40">
-        <v>359.436352</v>
+        <v>443.430971</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="40">
-        <v>33.779884</v>
+        <v>34.468378</v>
       </c>
       <c r="G30" s="40">
-        <v>33.779884</v>
+        <v>34.468378</v>
       </c>
       <c r="H30" s="40">
         <v>30.978339</v>
@@ -16062,48 +16071,48 @@
         <v>17.63656</v>
       </c>
       <c r="K30" s="39">
-        <v>280.445054</v>
+        <v>347.508002</v>
       </c>
       <c r="L30" s="40">
-        <v>359.436352</v>
+        <v>443.430971</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40">
-        <v>62.528722</v>
+        <v>63.803167</v>
       </c>
       <c r="O30" s="40">
         <v>45</v>
       </c>
       <c r="P30" s="40">
-        <v>39.814161</v>
+        <v>38.539716</v>
       </c>
       <c r="Q30" s="40">
-        <v>543.650517</v>
+        <v>526.248347</v>
       </c>
       <c r="R30" s="53">
-        <v>22.666961</v>
+        <v>21.941395</v>
       </c>
       <c r="S30" s="39">
-        <v>280.445054</v>
-      </c>
-      <c r="T30" s="62">
-        <v>359.436352</v>
+        <v>347.508002</v>
+      </c>
+      <c r="T30" s="63">
+        <v>443.430971</v>
       </c>
       <c r="U30" s="40"/>
-      <c r="V30" s="62">
-        <v>91.27756</v>
-      </c>
-      <c r="W30" s="62">
+      <c r="V30" s="63">
+        <v>93.137957</v>
+      </c>
+      <c r="W30" s="63">
         <v>45</v>
       </c>
-      <c r="X30" s="62">
-        <v>37.429867</v>
-      </c>
-      <c r="Y30" s="62">
-        <v>511.093694</v>
+      <c r="X30" s="63">
+        <v>35.56947</v>
+      </c>
+      <c r="Y30" s="63">
+        <v>485.690527</v>
       </c>
       <c r="Z30" s="53">
-        <v>21.309537</v>
+        <v>20.250378</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -16112,17 +16121,17 @@
         <v>50</v>
       </c>
       <c r="C31" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="D31" s="45">
-        <v>397.615832</v>
+        <v>481.610058</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45">
-        <v>34.091249</v>
+        <v>34.785562</v>
       </c>
       <c r="G31" s="45">
-        <v>34.091249</v>
+        <v>34.785562</v>
       </c>
       <c r="H31" s="45">
         <v>30.978339</v>
@@ -16134,877 +16143,877 @@
         <v>17.63656</v>
       </c>
       <c r="K31" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="L31" s="45">
-        <v>397.615832</v>
+        <v>481.610058</v>
       </c>
       <c r="M31" s="45"/>
       <c r="N31" s="45">
-        <v>63.105077</v>
+        <v>64.390295</v>
       </c>
       <c r="O31" s="45">
         <v>50</v>
       </c>
       <c r="P31" s="45">
-        <v>44.237806</v>
-      </c>
-      <c r="Q31" s="63">
-        <v>604.054071</v>
+        <v>42.952588</v>
+      </c>
+      <c r="Q31" s="64">
+        <v>586.504799</v>
       </c>
       <c r="R31" s="56">
-        <v>25.185427</v>
+        <v>24.453728</v>
       </c>
       <c r="S31" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="T31" s="45">
-        <v>397.615832</v>
+        <v>481.610058</v>
       </c>
       <c r="U31" s="45"/>
       <c r="V31" s="45">
-        <v>92.118906</v>
+        <v>93.995029</v>
       </c>
       <c r="W31" s="45">
         <v>50</v>
       </c>
       <c r="X31" s="45">
-        <v>41.588521</v>
+        <v>39.712398</v>
       </c>
       <c r="Y31" s="45">
-        <v>567.878876</v>
+        <v>542.260974</v>
       </c>
       <c r="Z31" s="56">
-        <v>23.677139</v>
+        <v>22.609026</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:26">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
       <c r="Z35" s="48"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:26">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="48"/>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
       <c r="R36" s="48"/>
-      <c r="S36" s="58" t="s">
+      <c r="S36" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="20"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="21"/>
     </row>
     <row r="37" ht="60" customHeight="1" spans="1:26">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="28" t="s">
+      <c r="M37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="28" t="s">
+      <c r="N37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O37" s="28" t="s">
+      <c r="O37" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="28" t="s">
+      <c r="P37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q37" s="28" t="s">
+      <c r="Q37" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="26" t="s">
+      <c r="R37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S37" s="27" t="s">
+      <c r="S37" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="28" t="s">
+      <c r="T37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U37" s="28" t="s">
+      <c r="U37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="V37" s="28" t="s">
+      <c r="V37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="W37" s="28" t="s">
+      <c r="W37" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="X37" s="28" t="s">
+      <c r="X37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y37" s="28" t="s">
+      <c r="Y37" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z37" s="26" t="s">
+      <c r="Z37" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="31">
         <v>5</v>
       </c>
-      <c r="C38" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="D38" s="32">
-        <v>66.661213</v>
-      </c>
-      <c r="E38" s="32">
+      <c r="C38" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="D38" s="33">
+        <v>150.489897</v>
+      </c>
+      <c r="E38" s="33">
         <v>26.022308</v>
       </c>
-      <c r="F38" s="32">
-        <v>26.813008</v>
-      </c>
-      <c r="G38" s="32">
+      <c r="F38" s="33">
+        <v>27.833031</v>
+      </c>
+      <c r="G38" s="33">
         <v>5</v>
       </c>
-      <c r="H38" s="32">
-        <v>4.2093</v>
-      </c>
-      <c r="I38" s="32">
-        <v>90.260605</v>
+      <c r="H38" s="33">
+        <v>3.189277</v>
+      </c>
+      <c r="I38" s="33">
+        <v>68.388113</v>
       </c>
       <c r="J38" s="49">
-        <v>3.763325</v>
-      </c>
-      <c r="K38" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="L38" s="32">
-        <v>66.661213</v>
-      </c>
-      <c r="M38" s="32">
+        <v>2.851374</v>
+      </c>
+      <c r="K38" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="L38" s="33">
+        <v>150.489897</v>
+      </c>
+      <c r="M38" s="33">
         <v>42.810893</v>
       </c>
-      <c r="N38" s="32">
-        <v>44.111723</v>
-      </c>
-      <c r="O38" s="32">
+      <c r="N38" s="33">
+        <v>45.789825</v>
+      </c>
+      <c r="O38" s="33">
         <v>5</v>
       </c>
-      <c r="P38" s="32">
-        <v>3.69917</v>
-      </c>
-      <c r="Q38" s="32">
-        <v>79.321832</v>
+      <c r="P38" s="33">
+        <v>2.021068</v>
+      </c>
+      <c r="Q38" s="33">
+        <v>43.338055</v>
       </c>
       <c r="R38" s="49">
-        <v>3.307244</v>
-      </c>
-      <c r="S38" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="T38" s="60">
-        <v>66.661213</v>
-      </c>
-      <c r="U38" s="32">
+        <v>1.806937</v>
+      </c>
+      <c r="S38" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="T38" s="61">
+        <v>150.489897</v>
+      </c>
+      <c r="U38" s="33">
         <v>59.599479</v>
       </c>
-      <c r="V38" s="60">
-        <v>61.410438</v>
-      </c>
-      <c r="W38" s="60">
+      <c r="V38" s="61">
+        <v>63.746619</v>
+      </c>
+      <c r="W38" s="61">
         <v>5</v>
       </c>
-      <c r="X38" s="60">
-        <v>3.189041</v>
-      </c>
-      <c r="Y38" s="60">
-        <v>68.383059</v>
+      <c r="X38" s="61">
+        <v>0.85286</v>
+      </c>
+      <c r="Y38" s="61">
+        <v>18.287997</v>
       </c>
       <c r="Z38" s="49">
-        <v>2.851163</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31">
         <v>10</v>
       </c>
-      <c r="C39" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="D39" s="32">
-        <v>105.216818</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32">
-        <v>27.278596</v>
-      </c>
-      <c r="G39" s="32">
+      <c r="C39" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="D39" s="33">
+        <v>189.609702</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33">
+        <v>28.318833</v>
+      </c>
+      <c r="G39" s="33">
         <v>10</v>
       </c>
-      <c r="H39" s="32">
-        <v>8.743712</v>
-      </c>
-      <c r="I39" s="32">
-        <v>187.492644</v>
+      <c r="H39" s="33">
+        <v>7.703474</v>
+      </c>
+      <c r="I39" s="33">
+        <v>165.186684</v>
       </c>
       <c r="J39" s="49">
-        <v>7.817317</v>
-      </c>
-      <c r="K39" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="L39" s="32">
-        <v>105.216818</v>
-      </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32">
-        <v>44.87769</v>
-      </c>
-      <c r="O39" s="32">
+        <v>6.887293</v>
+      </c>
+      <c r="K39" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="L39" s="33">
+        <v>189.609702</v>
+      </c>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33">
+        <v>46.589048</v>
+      </c>
+      <c r="O39" s="33">
         <v>10</v>
       </c>
-      <c r="P39" s="32">
-        <v>7.933204</v>
-      </c>
-      <c r="Q39" s="32">
-        <v>170.112798</v>
+      <c r="P39" s="33">
+        <v>6.221845</v>
+      </c>
+      <c r="Q39" s="33">
+        <v>133.415896</v>
       </c>
       <c r="R39" s="49">
-        <v>7.092682</v>
-      </c>
-      <c r="S39" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="T39" s="60">
-        <v>105.216818</v>
-      </c>
-      <c r="U39" s="32"/>
-      <c r="V39" s="60">
-        <v>62.476784</v>
-      </c>
-      <c r="W39" s="60">
+        <v>5.562642</v>
+      </c>
+      <c r="S39" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="T39" s="61">
+        <v>189.609702</v>
+      </c>
+      <c r="U39" s="33"/>
+      <c r="V39" s="61">
+        <v>64.859263</v>
+      </c>
+      <c r="W39" s="61">
         <v>10</v>
       </c>
-      <c r="X39" s="60">
-        <v>7.122695</v>
-      </c>
-      <c r="Y39" s="60">
-        <v>152.732952</v>
+      <c r="X39" s="61">
+        <v>4.740216</v>
+      </c>
+      <c r="Y39" s="61">
+        <v>101.645108</v>
       </c>
       <c r="Z39" s="49">
-        <v>6.368047</v>
+        <v>4.237991</v>
       </c>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31">
         <v>15</v>
       </c>
-      <c r="C40" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="D40" s="32">
-        <v>143.580773</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32">
-        <v>27.747879</v>
-      </c>
-      <c r="G40" s="32">
+      <c r="C40" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="D40" s="33">
+        <v>227.975545</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33">
+        <v>28.801327</v>
+      </c>
+      <c r="G40" s="33">
         <v>15</v>
       </c>
-      <c r="H40" s="32">
-        <v>13.274429</v>
-      </c>
-      <c r="I40" s="32">
-        <v>284.645447</v>
+      <c r="H40" s="33">
+        <v>12.220981</v>
+      </c>
+      <c r="I40" s="33">
+        <v>262.056208</v>
       </c>
       <c r="J40" s="49">
-        <v>11.868006</v>
-      </c>
-      <c r="K40" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="L40" s="32">
-        <v>143.580773</v>
-      </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32">
-        <v>45.649736</v>
-      </c>
-      <c r="O40" s="32">
+        <v>10.92617</v>
+      </c>
+      <c r="K40" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="L40" s="33">
+        <v>227.975545</v>
+      </c>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33">
+        <v>47.382828</v>
+      </c>
+      <c r="O40" s="33">
         <v>15</v>
       </c>
-      <c r="P40" s="32">
-        <v>12.161157</v>
-      </c>
-      <c r="Q40" s="32">
-        <v>260.773407</v>
+      <c r="P40" s="33">
+        <v>10.428065</v>
+      </c>
+      <c r="Q40" s="33">
+        <v>223.610466</v>
       </c>
       <c r="R40" s="49">
-        <v>10.872685</v>
-      </c>
-      <c r="S40" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="T40" s="60">
-        <v>143.580773</v>
-      </c>
-      <c r="U40" s="32"/>
-      <c r="V40" s="60">
-        <v>63.551593</v>
-      </c>
-      <c r="W40" s="60">
+        <v>9.323213</v>
+      </c>
+      <c r="S40" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="T40" s="61">
+        <v>227.975545</v>
+      </c>
+      <c r="U40" s="33"/>
+      <c r="V40" s="61">
+        <v>65.964329</v>
+      </c>
+      <c r="W40" s="61">
         <v>15</v>
       </c>
-      <c r="X40" s="60">
-        <v>11.047886</v>
-      </c>
-      <c r="Y40" s="60">
-        <v>236.901368</v>
+      <c r="X40" s="61">
+        <v>8.635149</v>
+      </c>
+      <c r="Y40" s="61">
+        <v>185.164724</v>
       </c>
       <c r="Z40" s="49">
-        <v>9.877364</v>
+        <v>7.720257</v>
       </c>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31">
         <v>20</v>
       </c>
-      <c r="C41" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="D41" s="32">
-        <v>181.942567</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32">
-        <v>28.223129</v>
-      </c>
-      <c r="G41" s="32">
+      <c r="C41" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="D41" s="33">
+        <v>266.3355</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33">
+        <v>29.28974</v>
+      </c>
+      <c r="G41" s="33">
         <v>20</v>
       </c>
-      <c r="H41" s="32">
-        <v>17.799178</v>
-      </c>
-      <c r="I41" s="32">
-        <v>381.670285</v>
+      <c r="H41" s="33">
+        <v>16.732567</v>
+      </c>
+      <c r="I41" s="33">
+        <v>358.798795</v>
       </c>
       <c r="J41" s="49">
-        <v>15.913359</v>
-      </c>
-      <c r="K41" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="L41" s="32">
-        <v>181.942567</v>
-      </c>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32">
-        <v>46.4316</v>
-      </c>
-      <c r="O41" s="32">
+        <v>14.959755</v>
+      </c>
+      <c r="K41" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="L41" s="33">
+        <v>266.3355</v>
+      </c>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33">
+        <v>48.186347</v>
+      </c>
+      <c r="O41" s="33">
         <v>20</v>
       </c>
-      <c r="P41" s="32">
-        <v>16.379294</v>
-      </c>
-      <c r="Q41" s="32">
-        <v>351.223495</v>
+      <c r="P41" s="33">
+        <v>14.624546</v>
+      </c>
+      <c r="Q41" s="33">
+        <v>313.596204</v>
       </c>
       <c r="R41" s="49">
-        <v>14.64391</v>
-      </c>
-      <c r="S41" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="T41" s="60">
-        <v>181.942567</v>
-      </c>
-      <c r="U41" s="32"/>
-      <c r="V41" s="60">
-        <v>64.64007</v>
-      </c>
-      <c r="W41" s="60">
+        <v>13.075078</v>
+      </c>
+      <c r="S41" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="T41" s="61">
+        <v>266.3355</v>
+      </c>
+      <c r="U41" s="33"/>
+      <c r="V41" s="61">
+        <v>67.082953</v>
+      </c>
+      <c r="W41" s="61">
         <v>20</v>
       </c>
-      <c r="X41" s="60">
-        <v>14.959409</v>
-      </c>
-      <c r="Y41" s="60">
-        <v>320.776704</v>
+      <c r="X41" s="61">
+        <v>12.516525</v>
+      </c>
+      <c r="Y41" s="61">
+        <v>268.393613</v>
       </c>
       <c r="Z41" s="49">
-        <v>13.374462</v>
+        <v>11.190402</v>
       </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31">
         <v>25</v>
       </c>
-      <c r="C42" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="D42" s="32">
-        <v>220.303495</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32">
-        <v>28.704363</v>
-      </c>
-      <c r="G42" s="32">
+      <c r="C42" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="D42" s="33">
+        <v>304.694597</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33">
+        <v>29.784136</v>
+      </c>
+      <c r="G42" s="33">
         <v>25</v>
       </c>
-      <c r="H42" s="32">
-        <v>22.317945</v>
-      </c>
-      <c r="I42" s="32">
-        <v>478.56683</v>
+      <c r="H42" s="33">
+        <v>21.238172</v>
+      </c>
+      <c r="I42" s="33">
+        <v>455.413105</v>
       </c>
       <c r="J42" s="49">
-        <v>19.953363</v>
-      </c>
-      <c r="K42" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="L42" s="32">
-        <v>220.303495</v>
-      </c>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32">
-        <v>47.223306</v>
-      </c>
-      <c r="O42" s="32">
+        <v>18.987991</v>
+      </c>
+      <c r="K42" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="L42" s="33">
+        <v>304.694597</v>
+      </c>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33">
+        <v>48.999707</v>
+      </c>
+      <c r="O42" s="33">
         <v>25</v>
       </c>
-      <c r="P42" s="32">
-        <v>20.587587</v>
-      </c>
-      <c r="Q42" s="32">
-        <v>441.462519</v>
+      <c r="P42" s="33">
+        <v>18.811186</v>
+      </c>
+      <c r="Q42" s="33">
+        <v>403.370906</v>
       </c>
       <c r="R42" s="49">
-        <v>18.406336</v>
-      </c>
-      <c r="S42" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="T42" s="60">
-        <v>220.303495</v>
-      </c>
-      <c r="U42" s="32"/>
-      <c r="V42" s="60">
-        <v>65.74225</v>
-      </c>
-      <c r="W42" s="60">
+        <v>16.818144</v>
+      </c>
+      <c r="S42" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="T42" s="61">
+        <v>304.694597</v>
+      </c>
+      <c r="U42" s="33"/>
+      <c r="V42" s="61">
+        <v>68.215279</v>
+      </c>
+      <c r="W42" s="61">
         <v>25</v>
       </c>
-      <c r="X42" s="60">
-        <v>18.857229</v>
-      </c>
-      <c r="Y42" s="60">
-        <v>404.358207</v>
+      <c r="X42" s="61">
+        <v>16.3842</v>
+      </c>
+      <c r="Y42" s="61">
+        <v>351.328707</v>
       </c>
       <c r="Z42" s="49">
-        <v>16.859309</v>
+        <v>14.648297</v>
       </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31">
         <v>30</v>
       </c>
-      <c r="C43" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="D43" s="32">
-        <v>258.663582</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32">
-        <v>29.191579</v>
-      </c>
-      <c r="G43" s="32">
-        <v>29.191579</v>
-      </c>
-      <c r="H43" s="32">
-        <v>26.022308</v>
+      <c r="C43" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="D43" s="33">
+        <v>343.052885</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33">
+        <v>30.284514</v>
+      </c>
+      <c r="G43" s="33">
+        <v>30</v>
+      </c>
+      <c r="H43" s="33">
+        <v>25.737794</v>
       </c>
       <c r="I43" s="50">
-        <v>558</v>
+        <v>551.899133</v>
       </c>
       <c r="J43" s="49">
-        <v>23.265249</v>
-      </c>
-      <c r="K43" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="L43" s="32">
-        <v>258.663582</v>
-      </c>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32">
-        <v>48.024856</v>
-      </c>
-      <c r="O43" s="32">
+        <v>23.010879</v>
+      </c>
+      <c r="K43" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="L43" s="33">
+        <v>343.052885</v>
+      </c>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33">
+        <v>49.82291</v>
+      </c>
+      <c r="O43" s="33">
         <v>30</v>
       </c>
-      <c r="P43" s="32">
-        <v>24.786037</v>
-      </c>
-      <c r="Q43" s="32">
-        <v>531.490483</v>
+      <c r="P43" s="33">
+        <v>22.987984</v>
+      </c>
+      <c r="Q43" s="33">
+        <v>492.934564</v>
       </c>
       <c r="R43" s="49">
-        <v>22.159961</v>
-      </c>
-      <c r="S43" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="T43" s="60">
-        <v>258.663582</v>
-      </c>
-      <c r="U43" s="32"/>
-      <c r="V43" s="60">
-        <v>66.858133</v>
-      </c>
-      <c r="W43" s="60">
+        <v>20.552411</v>
+      </c>
+      <c r="S43" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="T43" s="61">
+        <v>343.052885</v>
+      </c>
+      <c r="U43" s="33"/>
+      <c r="V43" s="61">
+        <v>69.361306</v>
+      </c>
+      <c r="W43" s="61">
         <v>30</v>
       </c>
-      <c r="X43" s="60">
-        <v>22.741346</v>
-      </c>
-      <c r="Y43" s="60">
-        <v>487.645882</v>
+      <c r="X43" s="61">
+        <v>20.238173</v>
+      </c>
+      <c r="Y43" s="61">
+        <v>433.969994</v>
       </c>
       <c r="Z43" s="49">
-        <v>20.331905</v>
+        <v>18.093942</v>
       </c>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31">
         <v>35</v>
       </c>
-      <c r="C44" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="D44" s="32">
-        <v>297.022843</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32">
-        <v>29.684778</v>
-      </c>
-      <c r="G44" s="32">
-        <v>29.684778</v>
-      </c>
-      <c r="H44" s="32">
+      <c r="C44" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="D44" s="33">
+        <v>381.410379</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33">
+        <v>30.790874</v>
+      </c>
+      <c r="G44" s="33">
+        <v>30.790874</v>
+      </c>
+      <c r="H44" s="33">
         <v>26.022308</v>
       </c>
-      <c r="I44" s="50">
+      <c r="I44" s="57">
         <v>558</v>
       </c>
       <c r="J44" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K44" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="L44" s="32">
-        <v>297.022843</v>
-      </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32">
-        <v>48.836248</v>
-      </c>
-      <c r="O44" s="32">
+      <c r="K44" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="L44" s="33">
+        <v>381.410379</v>
+      </c>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33">
+        <v>50.655954</v>
+      </c>
+      <c r="O44" s="33">
         <v>35</v>
       </c>
-      <c r="P44" s="32">
-        <v>28.974646</v>
-      </c>
-      <c r="Q44" s="32">
-        <v>621.307395</v>
+      <c r="P44" s="33">
+        <v>27.15494</v>
+      </c>
+      <c r="Q44" s="33">
+        <v>582.287184</v>
       </c>
       <c r="R44" s="49">
-        <v>25.904787</v>
-      </c>
-      <c r="S44" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="T44" s="60">
-        <v>297.022843</v>
-      </c>
-      <c r="U44" s="32"/>
-      <c r="V44" s="60">
-        <v>67.987717</v>
-      </c>
-      <c r="W44" s="60">
+        <v>24.277878</v>
+      </c>
+      <c r="S44" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="T44" s="61">
+        <v>381.410379</v>
+      </c>
+      <c r="U44" s="33"/>
+      <c r="V44" s="61">
+        <v>70.521034</v>
+      </c>
+      <c r="W44" s="61">
         <v>35</v>
       </c>
-      <c r="X44" s="60">
-        <v>26.611761</v>
-      </c>
-      <c r="Y44" s="60">
-        <v>570.639739</v>
+      <c r="X44" s="61">
+        <v>24.078445</v>
+      </c>
+      <c r="Y44" s="61">
+        <v>516.317484</v>
       </c>
       <c r="Z44" s="49">
-        <v>23.79225</v>
+        <v>21.527338</v>
       </c>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31">
         <v>40</v>
       </c>
-      <c r="C45" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="D45" s="32">
-        <v>335.381292</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32">
-        <v>30.18396</v>
-      </c>
-      <c r="G45" s="32">
-        <v>30.18396</v>
-      </c>
-      <c r="H45" s="32">
+      <c r="C45" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="D45" s="33">
+        <v>419.767091</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33">
+        <v>31.303216</v>
+      </c>
+      <c r="G45" s="33">
+        <v>31.303216</v>
+      </c>
+      <c r="H45" s="33">
         <v>26.022308</v>
       </c>
-      <c r="I45" s="50">
+      <c r="I45" s="57">
         <v>558</v>
       </c>
       <c r="J45" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K45" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="L45" s="32">
-        <v>335.381292</v>
-      </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32">
-        <v>49.657482</v>
-      </c>
-      <c r="O45" s="32">
+      <c r="K45" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="L45" s="33">
+        <v>419.767091</v>
+      </c>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33">
+        <v>51.498839</v>
+      </c>
+      <c r="O45" s="33">
         <v>40</v>
       </c>
-      <c r="P45" s="32">
-        <v>33.153411</v>
-      </c>
-      <c r="Q45" s="32">
-        <v>710.913261</v>
+      <c r="P45" s="33">
+        <v>31.312054</v>
+      </c>
+      <c r="Q45" s="33">
+        <v>671.428773</v>
       </c>
       <c r="R45" s="49">
-        <v>29.640813</v>
-      </c>
-      <c r="S45" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="T45" s="60">
-        <v>335.381292</v>
-      </c>
-      <c r="U45" s="32"/>
-      <c r="V45" s="60">
-        <v>69.131004</v>
-      </c>
-      <c r="W45" s="60">
+        <v>27.994547</v>
+      </c>
+      <c r="S45" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="T45" s="61">
+        <v>419.767091</v>
+      </c>
+      <c r="U45" s="33"/>
+      <c r="V45" s="61">
+        <v>71.694463</v>
+      </c>
+      <c r="W45" s="61">
         <v>40</v>
       </c>
-      <c r="X45" s="60">
-        <v>30.468475</v>
-      </c>
-      <c r="Y45" s="60">
-        <v>653.339787</v>
+      <c r="X45" s="61">
+        <v>27.905016</v>
+      </c>
+      <c r="Y45" s="61">
+        <v>598.371185</v>
       </c>
       <c r="Z45" s="49">
-        <v>27.240345</v>
+        <v>24.948485</v>
       </c>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31">
         <v>45</v>
       </c>
-      <c r="C46" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="D46" s="32">
-        <v>373.738943</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32">
-        <v>30.689123</v>
-      </c>
-      <c r="G46" s="32">
-        <v>30.689123</v>
-      </c>
-      <c r="H46" s="32">
+      <c r="C46" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="D46" s="33">
+        <v>458.123035</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33">
+        <v>31.82154</v>
+      </c>
+      <c r="G46" s="33">
+        <v>31.82154</v>
+      </c>
+      <c r="H46" s="33">
         <v>26.022308</v>
       </c>
-      <c r="I46" s="50">
+      <c r="I46" s="57">
         <v>558</v>
       </c>
       <c r="J46" s="49">
         <v>23.265249</v>
       </c>
-      <c r="K46" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="L46" s="32">
-        <v>373.738943</v>
-      </c>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32">
-        <v>50.488558</v>
-      </c>
-      <c r="O46" s="32">
+      <c r="K46" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="L46" s="33">
+        <v>458.123035</v>
+      </c>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33">
+        <v>52.351566</v>
+      </c>
+      <c r="O46" s="33">
         <v>45</v>
       </c>
-      <c r="P46" s="32">
-        <v>37.322336</v>
-      </c>
-      <c r="Q46" s="32">
-        <v>800.308088</v>
+      <c r="P46" s="33">
+        <v>35.459327</v>
+      </c>
+      <c r="Q46" s="33">
+        <v>760.359338</v>
       </c>
       <c r="R46" s="49">
-        <v>33.368041</v>
-      </c>
-      <c r="S46" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="T46" s="60">
-        <v>373.738943</v>
-      </c>
-      <c r="U46" s="32"/>
-      <c r="V46" s="60">
-        <v>70.287992</v>
-      </c>
-      <c r="W46" s="60">
+        <v>31.702418</v>
+      </c>
+      <c r="S46" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="T46" s="61">
+        <v>458.123035</v>
+      </c>
+      <c r="U46" s="33"/>
+      <c r="V46" s="61">
+        <v>72.881592</v>
+      </c>
+      <c r="W46" s="61">
         <v>45</v>
       </c>
-      <c r="X46" s="60">
-        <v>34.311487</v>
-      </c>
-      <c r="Y46" s="60">
-        <v>735.746035</v>
+      <c r="X46" s="61">
+        <v>31.717887</v>
+      </c>
+      <c r="Y46" s="61">
+        <v>680.131108</v>
       </c>
       <c r="Z46" s="49">
-        <v>30.676191</v>
+        <v>28.357382</v>
       </c>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35">
         <v>50</v>
       </c>
-      <c r="C47" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="D47" s="36">
-        <v>412.095811</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36">
-        <v>31.200269</v>
-      </c>
-      <c r="G47" s="36">
-        <v>31.200269</v>
-      </c>
-      <c r="H47" s="36">
+      <c r="C47" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="D47" s="13">
+        <v>496.478224</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13">
+        <v>32.345846</v>
+      </c>
+      <c r="G47" s="13">
+        <v>32.345846</v>
+      </c>
+      <c r="H47" s="13">
         <v>26.022308</v>
       </c>
       <c r="I47" s="51">
@@ -17013,83 +17022,83 @@
       <c r="J47" s="52">
         <v>23.265249</v>
       </c>
-      <c r="K47" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="L47" s="36">
-        <v>412.095811</v>
-      </c>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36">
-        <v>51.329475</v>
-      </c>
-      <c r="O47" s="36">
+      <c r="K47" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="L47" s="13">
+        <v>496.478224</v>
+      </c>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13">
+        <v>53.214133</v>
+      </c>
+      <c r="O47" s="13">
         <v>50</v>
       </c>
-      <c r="P47" s="36">
-        <v>41.481418</v>
-      </c>
-      <c r="Q47" s="36">
-        <v>889.491883</v>
+      <c r="P47" s="13">
+        <v>39.59676</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>849.078885</v>
       </c>
       <c r="R47" s="52">
-        <v>37.086469</v>
-      </c>
-      <c r="S47" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="T47" s="36">
-        <v>412.095811</v>
-      </c>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36">
-        <v>71.458681</v>
-      </c>
-      <c r="W47" s="36">
+        <v>35.40149</v>
+      </c>
+      <c r="S47" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="T47" s="13">
+        <v>496.478224</v>
+      </c>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13">
+        <v>74.082421</v>
+      </c>
+      <c r="W47" s="13">
         <v>50</v>
       </c>
-      <c r="X47" s="36">
-        <v>38.140798</v>
-      </c>
-      <c r="Y47" s="36">
-        <v>817.858493</v>
+      <c r="X47" s="13">
+        <v>35.517058</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>761.597261</v>
       </c>
       <c r="Z47" s="52">
-        <v>34.099787</v>
+        <v>31.754032</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:26">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="21" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
       <c r="R48" s="48"/>
-      <c r="S48" s="21" t="s">
+      <c r="S48" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
       <c r="Z48" s="48"/>
     </row>
     <row r="49" spans="1:26">
@@ -17100,76 +17109,76 @@
         <v>5</v>
       </c>
       <c r="C49" s="39">
-        <v>36.57979</v>
+        <v>103.642737</v>
       </c>
       <c r="D49" s="40">
-        <v>67.119862</v>
+        <v>150.948547</v>
       </c>
       <c r="E49" s="40">
         <v>19.841049</v>
       </c>
       <c r="F49" s="40">
-        <v>20.469429</v>
+        <v>21.274732</v>
       </c>
       <c r="G49" s="40">
         <v>5</v>
       </c>
       <c r="H49" s="40">
-        <v>4.37162</v>
+        <v>3.566317</v>
       </c>
       <c r="I49" s="40">
-        <v>93.200477</v>
+        <v>76.031869</v>
       </c>
       <c r="J49" s="53">
-        <v>3.8859</v>
+        <v>3.170072</v>
       </c>
       <c r="K49" s="39">
-        <v>36.57979</v>
+        <v>103.642737</v>
       </c>
       <c r="L49" s="40">
-        <v>67.119862</v>
+        <v>150.948547</v>
       </c>
       <c r="M49" s="40">
         <v>36.727049</v>
       </c>
       <c r="N49" s="40">
-        <v>37.89022</v>
+        <v>39.380887</v>
       </c>
       <c r="O49" s="40">
         <v>5</v>
       </c>
       <c r="P49" s="40">
-        <v>3.836828</v>
+        <v>2.346161</v>
       </c>
       <c r="Q49" s="40">
-        <v>81.799022</v>
+        <v>50.018834</v>
       </c>
       <c r="R49" s="53">
-        <v>3.410528</v>
+        <v>2.085485</v>
       </c>
       <c r="S49" s="39">
-        <v>36.57979</v>
-      </c>
-      <c r="T49" s="62">
-        <v>67.119862</v>
+        <v>103.642737</v>
+      </c>
+      <c r="T49" s="63">
+        <v>150.948547</v>
       </c>
       <c r="U49" s="40">
         <v>53.613048</v>
       </c>
-      <c r="V49" s="62">
-        <v>55.311011</v>
-      </c>
-      <c r="W49" s="62">
+      <c r="V49" s="63">
+        <v>57.487043</v>
+      </c>
+      <c r="W49" s="63">
         <v>5</v>
       </c>
-      <c r="X49" s="62">
-        <v>3.302037</v>
-      </c>
-      <c r="Y49" s="62">
-        <v>70.397568</v>
+      <c r="X49" s="63">
+        <v>1.126005</v>
+      </c>
+      <c r="Y49" s="63">
+        <v>24.005799</v>
       </c>
       <c r="Z49" s="53">
-        <v>2.935156</v>
+        <v>1.000898</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -17178,70 +17187,70 @@
         <v>10</v>
       </c>
       <c r="C50" s="39">
-        <v>67.062948</v>
+        <v>134.125895</v>
       </c>
       <c r="D50" s="40">
-        <v>105.688535</v>
+        <v>190.093764</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40">
-        <v>20.837113</v>
+        <v>21.658579</v>
       </c>
       <c r="G50" s="40">
         <v>10</v>
       </c>
       <c r="H50" s="40">
-        <v>9.003936</v>
+        <v>8.182471</v>
       </c>
       <c r="I50" s="40">
-        <v>191.958845</v>
+        <v>174.445668</v>
       </c>
       <c r="J50" s="53">
-        <v>8.003531</v>
+        <v>7.273337</v>
       </c>
       <c r="K50" s="39">
-        <v>67.062948</v>
+        <v>134.125895</v>
       </c>
       <c r="L50" s="40">
-        <v>105.688535</v>
+        <v>190.093764</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="40">
-        <v>38.570827</v>
+        <v>40.091411</v>
       </c>
       <c r="O50" s="40">
         <v>10</v>
       </c>
       <c r="P50" s="40">
-        <v>8.156222</v>
+        <v>6.635637</v>
       </c>
       <c r="Q50" s="40">
-        <v>173.886058</v>
+        <v>141.468048</v>
       </c>
       <c r="R50" s="53">
-        <v>7.250004</v>
+        <v>5.898368</v>
       </c>
       <c r="S50" s="39">
-        <v>67.062948</v>
-      </c>
-      <c r="T50" s="62">
-        <v>105.688535</v>
+        <v>134.125895</v>
+      </c>
+      <c r="T50" s="63">
+        <v>190.093764</v>
       </c>
       <c r="U50" s="40"/>
-      <c r="V50" s="62">
-        <v>56.30454</v>
-      </c>
-      <c r="W50" s="62">
+      <c r="V50" s="63">
+        <v>58.524244</v>
+      </c>
+      <c r="W50" s="63">
         <v>10</v>
       </c>
-      <c r="X50" s="62">
-        <v>7.308508</v>
-      </c>
-      <c r="Y50" s="62">
-        <v>155.81327</v>
+      <c r="X50" s="63">
+        <v>5.088804</v>
+      </c>
+      <c r="Y50" s="63">
+        <v>108.490428</v>
       </c>
       <c r="Z50" s="53">
-        <v>6.496478</v>
+        <v>4.523399</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -17250,70 +17259,70 @@
         <v>15</v>
       </c>
       <c r="C51" s="39">
-        <v>97.546106</v>
+        <v>164.609053</v>
       </c>
       <c r="D51" s="40">
-        <v>144.058269</v>
+        <v>228.465511</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40">
-        <v>21.207682</v>
+        <v>22.039658</v>
       </c>
       <c r="G51" s="40">
         <v>15</v>
       </c>
       <c r="H51" s="40">
-        <v>13.633367</v>
+        <v>12.801391</v>
       </c>
       <c r="I51" s="40">
-        <v>290.655714</v>
+        <v>272.918457</v>
       </c>
       <c r="J51" s="53">
-        <v>12.118598</v>
+        <v>11.379061</v>
       </c>
       <c r="K51" s="39">
-        <v>97.546106</v>
+        <v>164.609053</v>
       </c>
       <c r="L51" s="40">
-        <v>144.058269</v>
+        <v>228.465511</v>
       </c>
       <c r="M51" s="40"/>
       <c r="N51" s="40">
-        <v>39.256773</v>
+        <v>40.796814</v>
       </c>
       <c r="O51" s="40">
         <v>15</v>
       </c>
       <c r="P51" s="40">
-        <v>12.470275</v>
+        <v>10.930235</v>
       </c>
       <c r="Q51" s="40">
-        <v>265.859253</v>
+        <v>233.026458</v>
       </c>
       <c r="R51" s="53">
-        <v>11.084734</v>
+        <v>9.715804</v>
       </c>
       <c r="S51" s="39">
-        <v>97.546106</v>
-      </c>
-      <c r="T51" s="62">
-        <v>144.058269</v>
+        <v>164.609053</v>
+      </c>
+      <c r="T51" s="63">
+        <v>228.465511</v>
       </c>
       <c r="U51" s="40"/>
-      <c r="V51" s="62">
-        <v>57.305864</v>
-      </c>
-      <c r="W51" s="62">
+      <c r="V51" s="63">
+        <v>59.553969</v>
+      </c>
+      <c r="W51" s="63">
         <v>15</v>
       </c>
-      <c r="X51" s="62">
-        <v>11.307184</v>
-      </c>
-      <c r="Y51" s="62">
-        <v>241.062791</v>
+      <c r="X51" s="63">
+        <v>9.059079</v>
+      </c>
+      <c r="Y51" s="63">
+        <v>193.134458</v>
       </c>
       <c r="Z51" s="53">
-        <v>10.050871</v>
+        <v>8.052547</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -17322,70 +17331,70 @@
         <v>20</v>
       </c>
       <c r="C52" s="39">
-        <v>128.029264</v>
+        <v>195.092212</v>
       </c>
       <c r="D52" s="40">
-        <v>182.425744</v>
+        <v>266.831107</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40">
-        <v>21.582997</v>
+        <v>22.425444</v>
       </c>
       <c r="G52" s="40">
         <v>20</v>
       </c>
       <c r="H52" s="40">
-        <v>18.258052</v>
+        <v>17.415605</v>
       </c>
       <c r="I52" s="40">
-        <v>389.251388</v>
+        <v>371.290893</v>
       </c>
       <c r="J52" s="53">
-        <v>16.229445</v>
+        <v>15.4806</v>
       </c>
       <c r="K52" s="39">
-        <v>128.029264</v>
+        <v>195.092212</v>
       </c>
       <c r="L52" s="40">
-        <v>182.425744</v>
+        <v>266.831107</v>
       </c>
       <c r="M52" s="40"/>
       <c r="N52" s="40">
-        <v>39.951506</v>
+        <v>41.510929</v>
       </c>
       <c r="O52" s="40">
         <v>20</v>
       </c>
       <c r="P52" s="40">
-        <v>16.775543</v>
+        <v>15.21612</v>
       </c>
       <c r="Q52" s="40">
-        <v>357.645129</v>
+        <v>324.399108</v>
       </c>
       <c r="R52" s="53">
-        <v>14.911654</v>
+        <v>13.525494</v>
       </c>
       <c r="S52" s="39">
-        <v>128.029264</v>
-      </c>
-      <c r="T52" s="62">
-        <v>182.425744</v>
+        <v>195.092212</v>
+      </c>
+      <c r="T52" s="63">
+        <v>266.831107</v>
       </c>
       <c r="U52" s="40"/>
-      <c r="V52" s="62">
-        <v>58.320014</v>
-      </c>
-      <c r="W52" s="62">
+      <c r="V52" s="63">
+        <v>60.596413</v>
+      </c>
+      <c r="W52" s="63">
         <v>20</v>
       </c>
-      <c r="X52" s="62">
-        <v>15.293034</v>
-      </c>
-      <c r="Y52" s="62">
-        <v>326.038871</v>
+      <c r="X52" s="63">
+        <v>13.016635</v>
+      </c>
+      <c r="Y52" s="63">
+        <v>277.507322</v>
       </c>
       <c r="Z52" s="53">
-        <v>13.593863</v>
+        <v>11.570389</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -17394,17 +17403,17 @@
         <v>25</v>
       </c>
       <c r="C53" s="39">
-        <v>158.512422</v>
+        <v>225.57537</v>
       </c>
       <c r="D53" s="40">
-        <v>220.792333</v>
+        <v>305.195825</v>
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40">
-        <v>21.963072</v>
+        <v>22.81599</v>
       </c>
       <c r="G53" s="40">
-        <v>21.963072</v>
+        <v>22.81599</v>
       </c>
       <c r="H53" s="40">
         <v>19.841049</v>
@@ -17416,48 +17425,48 @@
         <v>17.63656</v>
       </c>
       <c r="K53" s="39">
-        <v>158.512422</v>
+        <v>225.57537</v>
       </c>
       <c r="L53" s="40">
-        <v>220.792333</v>
+        <v>305.195825</v>
       </c>
       <c r="M53" s="40"/>
       <c r="N53" s="40">
-        <v>40.655048</v>
+        <v>42.233853</v>
       </c>
       <c r="O53" s="40">
         <v>25</v>
       </c>
       <c r="P53" s="40">
-        <v>21.072</v>
+        <v>19.493196</v>
       </c>
       <c r="Q53" s="40">
-        <v>449.24318</v>
+        <v>415.583956</v>
       </c>
       <c r="R53" s="53">
-        <v>18.730742</v>
+        <v>17.327355</v>
       </c>
       <c r="S53" s="39">
-        <v>158.512422</v>
-      </c>
-      <c r="T53" s="62">
-        <v>220.792333</v>
+        <v>225.57537</v>
+      </c>
+      <c r="T53" s="63">
+        <v>305.195825</v>
       </c>
       <c r="U53" s="40"/>
-      <c r="V53" s="62">
-        <v>59.347025</v>
-      </c>
-      <c r="W53" s="62">
+      <c r="V53" s="63">
+        <v>61.651716</v>
+      </c>
+      <c r="W53" s="63">
         <v>25</v>
       </c>
-      <c r="X53" s="62">
-        <v>19.266023</v>
-      </c>
-      <c r="Y53" s="62">
-        <v>410.740767</v>
+      <c r="X53" s="63">
+        <v>16.961331</v>
+      </c>
+      <c r="Y53" s="63">
+        <v>361.606039</v>
       </c>
       <c r="Z53" s="53">
-        <v>17.125423</v>
+        <v>15.0768</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -17466,17 +17475,17 @@
         <v>30</v>
       </c>
       <c r="C54" s="39">
-        <v>188.99558</v>
+        <v>256.058528</v>
       </c>
       <c r="D54" s="40">
-        <v>259.158063</v>
+        <v>343.559716</v>
       </c>
       <c r="E54" s="40"/>
       <c r="F54" s="40">
-        <v>22.347906</v>
+        <v>23.211294</v>
       </c>
       <c r="G54" s="40">
-        <v>22.347906</v>
+        <v>23.211294</v>
       </c>
       <c r="H54" s="40">
         <v>19.841049</v>
@@ -17488,48 +17497,48 @@
         <v>17.63656</v>
       </c>
       <c r="K54" s="39">
-        <v>188.99558</v>
+        <v>256.058528</v>
       </c>
       <c r="L54" s="40">
-        <v>259.158063</v>
+        <v>343.559716</v>
       </c>
       <c r="M54" s="40"/>
       <c r="N54" s="40">
-        <v>41.367401</v>
+        <v>42.965586</v>
       </c>
       <c r="O54" s="40">
         <v>30</v>
       </c>
       <c r="P54" s="40">
-        <v>25.359647</v>
+        <v>23.761462</v>
       </c>
       <c r="Q54" s="40">
-        <v>540.653408</v>
+        <v>506.580997</v>
       </c>
       <c r="R54" s="53">
-        <v>22.542</v>
+        <v>21.121385</v>
       </c>
       <c r="S54" s="39">
-        <v>188.99558</v>
-      </c>
-      <c r="T54" s="62">
-        <v>259.158063</v>
+        <v>256.058528</v>
+      </c>
+      <c r="T54" s="63">
+        <v>343.559716</v>
       </c>
       <c r="U54" s="40"/>
-      <c r="V54" s="62">
-        <v>60.386896</v>
-      </c>
-      <c r="W54" s="62">
+      <c r="V54" s="63">
+        <v>62.719879</v>
+      </c>
+      <c r="W54" s="63">
         <v>30</v>
       </c>
-      <c r="X54" s="62">
-        <v>23.226152</v>
-      </c>
-      <c r="Y54" s="62">
-        <v>495.168486</v>
+      <c r="X54" s="63">
+        <v>20.893169</v>
+      </c>
+      <c r="Y54" s="63">
+        <v>445.430599</v>
       </c>
       <c r="Z54" s="53">
-        <v>20.645552</v>
+        <v>18.571781</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -17538,17 +17547,17 @@
         <v>35</v>
       </c>
       <c r="C55" s="39">
-        <v>219.478738</v>
+        <v>286.541686</v>
       </c>
       <c r="D55" s="40">
-        <v>297.522948</v>
+        <v>381.922796</v>
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40">
-        <v>22.7375</v>
+        <v>23.611357</v>
       </c>
       <c r="G55" s="40">
-        <v>22.7375</v>
+        <v>23.611357</v>
       </c>
       <c r="H55" s="40">
         <v>19.841049</v>
@@ -17560,48 +17569,48 @@
         <v>17.63656</v>
       </c>
       <c r="K55" s="39">
-        <v>219.478738</v>
+        <v>286.541686</v>
       </c>
       <c r="L55" s="40">
-        <v>297.522948</v>
+        <v>381.922796</v>
       </c>
       <c r="M55" s="40"/>
       <c r="N55" s="40">
-        <v>42.088563</v>
+        <v>43.706129</v>
       </c>
       <c r="O55" s="40">
         <v>35</v>
       </c>
       <c r="P55" s="40">
-        <v>29.638485</v>
+        <v>28.02092</v>
       </c>
       <c r="Q55" s="40">
-        <v>631.875819</v>
+        <v>597.390234</v>
       </c>
       <c r="R55" s="53">
-        <v>26.345427</v>
+        <v>24.907585</v>
       </c>
       <c r="S55" s="39">
-        <v>219.478738</v>
-      </c>
-      <c r="T55" s="62">
-        <v>297.522948</v>
+        <v>286.541686</v>
+      </c>
+      <c r="T55" s="63">
+        <v>381.922796</v>
       </c>
       <c r="U55" s="40"/>
-      <c r="V55" s="62">
-        <v>61.439627</v>
-      </c>
-      <c r="W55" s="62">
+      <c r="V55" s="63">
+        <v>63.800901</v>
+      </c>
+      <c r="W55" s="63">
         <v>35</v>
       </c>
-      <c r="X55" s="62">
-        <v>27.173421</v>
-      </c>
-      <c r="Y55" s="62">
-        <v>579.322036</v>
+      <c r="X55" s="63">
+        <v>24.812147</v>
+      </c>
+      <c r="Y55" s="63">
+        <v>528.98101</v>
       </c>
       <c r="Z55" s="53">
-        <v>24.15425</v>
+        <v>22.055331</v>
       </c>
     </row>
     <row r="56" spans="1:26">
@@ -17610,17 +17619,17 @@
         <v>40</v>
       </c>
       <c r="C56" s="39">
-        <v>249.961896</v>
+        <v>317.024844</v>
       </c>
       <c r="D56" s="40">
-        <v>335.887004</v>
+        <v>420.285076</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40">
-        <v>23.131852</v>
+        <v>24.016179</v>
       </c>
       <c r="G56" s="40">
-        <v>23.131852</v>
+        <v>24.016179</v>
       </c>
       <c r="H56" s="40">
         <v>19.841049</v>
@@ -17632,48 +17641,48 @@
         <v>17.63656</v>
       </c>
       <c r="K56" s="39">
-        <v>249.961896</v>
+        <v>317.024844</v>
       </c>
       <c r="L56" s="40">
-        <v>335.887004</v>
+        <v>420.285076</v>
       </c>
       <c r="M56" s="40"/>
       <c r="N56" s="40">
-        <v>42.818535</v>
+        <v>44.45548</v>
       </c>
       <c r="O56" s="40">
         <v>40</v>
       </c>
       <c r="P56" s="40">
-        <v>33.908514</v>
+        <v>32.271569</v>
       </c>
       <c r="Q56" s="40">
-        <v>722.910421</v>
+        <v>688.011676</v>
       </c>
       <c r="R56" s="53">
-        <v>30.141023</v>
+        <v>28.685955</v>
       </c>
       <c r="S56" s="39">
-        <v>249.961896</v>
-      </c>
-      <c r="T56" s="62">
-        <v>335.887004</v>
+        <v>317.024844</v>
+      </c>
+      <c r="T56" s="63">
+        <v>420.285076</v>
       </c>
       <c r="U56" s="40"/>
-      <c r="V56" s="62">
-        <v>62.505218</v>
-      </c>
-      <c r="W56" s="62">
+      <c r="V56" s="63">
+        <v>64.894781</v>
+      </c>
+      <c r="W56" s="63">
         <v>40</v>
       </c>
-      <c r="X56" s="62">
-        <v>31.10783</v>
-      </c>
-      <c r="Y56" s="62">
-        <v>663.201427</v>
+      <c r="X56" s="63">
+        <v>28.718267</v>
+      </c>
+      <c r="Y56" s="63">
+        <v>612.257282</v>
       </c>
       <c r="Z56" s="53">
-        <v>27.651516</v>
+        <v>25.527451</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -17682,17 +17691,17 @@
         <v>45</v>
       </c>
       <c r="C57" s="39">
-        <v>280.445054</v>
+        <v>347.508002</v>
       </c>
       <c r="D57" s="40">
-        <v>374.250244</v>
+        <v>458.646572</v>
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40">
-        <v>23.530964</v>
+        <v>24.425759</v>
       </c>
       <c r="G57" s="40">
-        <v>23.530964</v>
+        <v>24.425759</v>
       </c>
       <c r="H57" s="40">
         <v>19.841049</v>
@@ -17704,48 +17713,48 @@
         <v>17.63656</v>
       </c>
       <c r="K57" s="39">
-        <v>280.445054</v>
+        <v>347.508002</v>
       </c>
       <c r="L57" s="40">
-        <v>374.250244</v>
+        <v>458.646572</v>
       </c>
       <c r="M57" s="40"/>
       <c r="N57" s="40">
-        <v>43.557316</v>
+        <v>45.213639</v>
       </c>
       <c r="O57" s="40">
-        <v>43.557316</v>
+        <v>45</v>
       </c>
       <c r="P57" s="40">
-        <v>36.727049</v>
-      </c>
-      <c r="Q57" s="54">
-        <v>783</v>
+        <v>36.513409</v>
+      </c>
+      <c r="Q57" s="65">
+        <v>778.445327</v>
       </c>
       <c r="R57" s="53">
-        <v>32.646397</v>
+        <v>32.456495</v>
       </c>
       <c r="S57" s="39">
-        <v>280.445054</v>
-      </c>
-      <c r="T57" s="62">
-        <v>374.250244</v>
+        <v>347.508002</v>
+      </c>
+      <c r="T57" s="63">
+        <v>458.646572</v>
       </c>
       <c r="U57" s="40"/>
-      <c r="V57" s="62">
-        <v>63.583668</v>
-      </c>
-      <c r="W57" s="62">
+      <c r="V57" s="63">
+        <v>66.00152</v>
+      </c>
+      <c r="W57" s="63">
         <v>45</v>
       </c>
-      <c r="X57" s="62">
-        <v>35.02938</v>
-      </c>
-      <c r="Y57" s="62">
-        <v>746.806667</v>
+      <c r="X57" s="63">
+        <v>32.611528</v>
+      </c>
+      <c r="Y57" s="63">
+        <v>695.259423</v>
       </c>
       <c r="Z57" s="53">
-        <v>31.137353</v>
+        <v>28.988142</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -17754,17 +17763,17 @@
         <v>50</v>
       </c>
       <c r="C58" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="D58" s="45">
-        <v>412.612683</v>
+        <v>497.007295</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="45">
-        <v>23.934834</v>
+        <v>24.840098</v>
       </c>
       <c r="G58" s="45">
-        <v>23.934834</v>
+        <v>24.840098</v>
       </c>
       <c r="H58" s="45">
         <v>19.841049</v>
@@ -17776,17 +17785,17 @@
         <v>17.63656</v>
       </c>
       <c r="K58" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="L58" s="45">
-        <v>412.612683</v>
+        <v>497.007295</v>
       </c>
       <c r="M58" s="45"/>
       <c r="N58" s="45">
-        <v>44.304905</v>
+        <v>45.980607</v>
       </c>
       <c r="O58" s="45">
-        <v>44.304905</v>
+        <v>45.980607</v>
       </c>
       <c r="P58" s="45">
         <v>36.727049</v>
@@ -17798,940 +17807,940 @@
         <v>32.646397</v>
       </c>
       <c r="S58" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="T58" s="45">
-        <v>412.612683</v>
+        <v>497.007295</v>
       </c>
       <c r="U58" s="45"/>
       <c r="V58" s="45">
-        <v>64.674976</v>
+        <v>67.121116</v>
       </c>
       <c r="W58" s="45">
         <v>50</v>
       </c>
       <c r="X58" s="45">
-        <v>38.938072</v>
+        <v>36.491932</v>
       </c>
       <c r="Y58" s="45">
-        <v>830.137766</v>
+        <v>777.987441</v>
       </c>
       <c r="Z58" s="56">
-        <v>34.611759</v>
+        <v>32.437404</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:26">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
       <c r="Z62" s="48"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:26">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="46"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="48"/>
-      <c r="K63" s="21" t="s">
+      <c r="K63" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
       <c r="R63" s="48"/>
-      <c r="S63" s="58" t="s">
+      <c r="S63" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="20"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="60"/>
+      <c r="Y63" s="60"/>
+      <c r="Z63" s="21"/>
     </row>
     <row r="64" ht="60" customHeight="1" spans="1:26">
-      <c r="A64" s="25"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="G64" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H64" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="28" t="s">
+      <c r="I64" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="27" t="s">
+      <c r="K64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L64" s="28" t="s">
+      <c r="L64" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="28" t="s">
+      <c r="M64" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N64" s="28" t="s">
+      <c r="N64" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O64" s="28" t="s">
+      <c r="O64" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P64" s="28" t="s">
+      <c r="P64" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q64" s="28" t="s">
+      <c r="Q64" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R64" s="26" t="s">
+      <c r="R64" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S64" s="27" t="s">
+      <c r="S64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="28" t="s">
+      <c r="T64" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="U64" s="28" t="s">
+      <c r="U64" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="V64" s="28" t="s">
+      <c r="V64" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="W64" s="28" t="s">
+      <c r="W64" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="X64" s="28" t="s">
+      <c r="X64" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y64" s="28" t="s">
+      <c r="Y64" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z64" s="26" t="s">
+      <c r="Z64" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="31">
         <v>5</v>
       </c>
-      <c r="C65" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="D65" s="32">
-        <v>63.361081</v>
-      </c>
-      <c r="E65" s="32">
-        <v>41.05615</v>
-      </c>
-      <c r="F65" s="32">
-        <v>41.770826</v>
-      </c>
-      <c r="G65" s="32">
+      <c r="C65" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="D65" s="33">
+        <v>151.66666</v>
+      </c>
+      <c r="E65" s="33">
+        <v>46.372197</v>
+      </c>
+      <c r="F65" s="33">
+        <v>48.151571</v>
+      </c>
+      <c r="G65" s="33">
         <v>5</v>
       </c>
-      <c r="H65" s="32">
-        <v>4.285324</v>
-      </c>
-      <c r="I65" s="32">
-        <v>58.24245</v>
+      <c r="H65" s="33">
+        <v>3.220626</v>
+      </c>
+      <c r="I65" s="33">
+        <v>38.754031</v>
       </c>
       <c r="J65" s="49">
-        <v>2.42836</v>
-      </c>
-      <c r="K65" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="L65" s="32">
-        <v>63.361081</v>
-      </c>
-      <c r="M65" s="32">
-        <v>67.543989</v>
-      </c>
-      <c r="N65" s="32">
-        <v>68.719746</v>
-      </c>
-      <c r="O65" s="32">
+        <v>1.61581</v>
+      </c>
+      <c r="K65" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="L65" s="33">
+        <v>151.66666</v>
+      </c>
+      <c r="M65" s="33">
+        <v>76.289744</v>
+      </c>
+      <c r="N65" s="33">
+        <v>79.217101</v>
+      </c>
+      <c r="O65" s="33">
         <v>5</v>
       </c>
-      <c r="P65" s="32">
-        <v>3.824243</v>
-      </c>
-      <c r="Q65" s="32">
-        <v>51.975828</v>
+      <c r="P65" s="33">
+        <v>2.072644</v>
+      </c>
+      <c r="Q65" s="33">
+        <v>24.94027</v>
       </c>
       <c r="R65" s="49">
-        <v>2.16708</v>
-      </c>
-      <c r="S65" s="31">
-        <v>36.57979</v>
-      </c>
-      <c r="T65" s="60">
-        <v>63.361081</v>
-      </c>
-      <c r="U65" s="32">
-        <v>94.031828</v>
-      </c>
-      <c r="V65" s="60">
-        <v>95.668666</v>
-      </c>
-      <c r="W65" s="60">
+        <v>1.039859</v>
+      </c>
+      <c r="S65" s="32">
+        <v>103.642737</v>
+      </c>
+      <c r="T65" s="61">
+        <v>151.66666</v>
+      </c>
+      <c r="U65" s="33">
+        <v>106.207291</v>
+      </c>
+      <c r="V65" s="61">
+        <v>110.28263</v>
+      </c>
+      <c r="W65" s="61">
         <v>5</v>
       </c>
-      <c r="X65" s="60">
-        <v>3.363161</v>
-      </c>
-      <c r="Y65" s="60">
-        <v>45.709206</v>
+      <c r="X65" s="61">
+        <v>0.924661</v>
+      </c>
+      <c r="Y65" s="61">
+        <v>11.126508</v>
       </c>
       <c r="Z65" s="49">
-        <v>1.905799</v>
+        <v>0.463909</v>
       </c>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="29"/>
-      <c r="B66" s="30">
+      <c r="A66" s="30"/>
+      <c r="B66" s="31">
         <v>10</v>
       </c>
-      <c r="C66" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="D66" s="32">
-        <v>101.736942</v>
-      </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32">
-        <v>42.208235</v>
-      </c>
-      <c r="G66" s="32">
+      <c r="C66" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="D66" s="33">
+        <v>190.548255</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33">
+        <v>48.616373</v>
+      </c>
+      <c r="G66" s="33">
         <v>10</v>
       </c>
-      <c r="H66" s="32">
-        <v>8.847915</v>
-      </c>
-      <c r="I66" s="32">
-        <v>120.253273</v>
+      <c r="H66" s="33">
+        <v>7.755825</v>
+      </c>
+      <c r="I66" s="33">
+        <v>93.326398</v>
       </c>
       <c r="J66" s="49">
-        <v>5.013839</v>
-      </c>
-      <c r="K66" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="L66" s="32">
-        <v>101.736942</v>
-      </c>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32">
-        <v>69.439355</v>
-      </c>
-      <c r="O66" s="32">
+        <v>3.89115</v>
+      </c>
+      <c r="K66" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="L66" s="33">
+        <v>190.548255</v>
+      </c>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33">
+        <v>79.981775</v>
+      </c>
+      <c r="O66" s="33">
         <v>10</v>
       </c>
-      <c r="P66" s="32">
-        <v>8.104634</v>
-      </c>
-      <c r="Q66" s="32">
-        <v>110.151238</v>
+      <c r="P66" s="33">
+        <v>6.30797</v>
+      </c>
+      <c r="Q66" s="33">
+        <v>75.904253</v>
       </c>
       <c r="R66" s="49">
-        <v>4.592645</v>
-      </c>
-      <c r="S66" s="31">
-        <v>67.062948</v>
-      </c>
-      <c r="T66" s="60">
-        <v>101.736942</v>
-      </c>
-      <c r="U66" s="32"/>
-      <c r="V66" s="60">
-        <v>96.670475</v>
-      </c>
-      <c r="W66" s="60">
+        <v>3.164751</v>
+      </c>
+      <c r="S66" s="32">
+        <v>134.125895</v>
+      </c>
+      <c r="T66" s="61">
+        <v>190.548255</v>
+      </c>
+      <c r="U66" s="33"/>
+      <c r="V66" s="61">
+        <v>111.347176</v>
+      </c>
+      <c r="W66" s="61">
         <v>10</v>
       </c>
-      <c r="X66" s="60">
-        <v>7.361353</v>
-      </c>
-      <c r="Y66" s="60">
-        <v>100.049203</v>
+      <c r="X66" s="61">
+        <v>4.860114</v>
+      </c>
+      <c r="Y66" s="61">
+        <v>58.482109</v>
       </c>
       <c r="Z66" s="49">
-        <v>4.171451</v>
+        <v>2.438353</v>
       </c>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30">
+      <c r="A67" s="30"/>
+      <c r="B67" s="31">
         <v>15</v>
       </c>
-      <c r="C67" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="D67" s="32">
-        <v>140.005015</v>
-      </c>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32">
-        <v>42.647836</v>
-      </c>
-      <c r="G67" s="32">
+      <c r="C67" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="D67" s="33">
+        <v>228.850362</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33">
+        <v>49.077694</v>
+      </c>
+      <c r="G67" s="33">
         <v>15</v>
       </c>
-      <c r="H67" s="32">
-        <v>13.408315</v>
-      </c>
-      <c r="I67" s="32">
-        <v>182.234319</v>
+      <c r="H67" s="33">
+        <v>12.294503</v>
+      </c>
+      <c r="I67" s="33">
+        <v>147.940648</v>
       </c>
       <c r="J67" s="49">
-        <v>7.598077</v>
-      </c>
-      <c r="K67" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="L67" s="32">
-        <v>140.005015</v>
-      </c>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32">
-        <v>70.162568</v>
-      </c>
-      <c r="O67" s="32">
+        <v>6.168236</v>
+      </c>
+      <c r="K67" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="L67" s="33">
+        <v>228.850362</v>
+      </c>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33">
+        <v>80.740722</v>
+      </c>
+      <c r="O67" s="33">
         <v>15</v>
       </c>
-      <c r="P67" s="32">
-        <v>12.381421</v>
-      </c>
-      <c r="Q67" s="32">
-        <v>168.277658</v>
+      <c r="P67" s="33">
+        <v>10.549022</v>
+      </c>
+      <c r="Q67" s="33">
+        <v>126.937141</v>
       </c>
       <c r="R67" s="49">
-        <v>7.016168</v>
-      </c>
-      <c r="S67" s="31">
-        <v>97.546106</v>
-      </c>
-      <c r="T67" s="60">
-        <v>140.005015</v>
-      </c>
-      <c r="U67" s="32"/>
-      <c r="V67" s="60">
-        <v>97.677301</v>
-      </c>
-      <c r="W67" s="60">
+        <v>5.292516</v>
+      </c>
+      <c r="S67" s="32">
+        <v>164.609053</v>
+      </c>
+      <c r="T67" s="61">
+        <v>228.850362</v>
+      </c>
+      <c r="U67" s="33"/>
+      <c r="V67" s="61">
+        <v>112.403751</v>
+      </c>
+      <c r="W67" s="61">
         <v>15</v>
       </c>
-      <c r="X67" s="60">
-        <v>11.354527</v>
-      </c>
-      <c r="Y67" s="60">
-        <v>154.320998</v>
+      <c r="X67" s="61">
+        <v>8.80354</v>
+      </c>
+      <c r="Y67" s="61">
+        <v>105.933635</v>
       </c>
       <c r="Z67" s="49">
-        <v>6.434259</v>
+        <v>4.416796</v>
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31">
         <v>20</v>
       </c>
-      <c r="C68" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="D68" s="32">
-        <v>178.272211</v>
-      </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32">
-        <v>43.09084</v>
-      </c>
-      <c r="G68" s="32">
+      <c r="C68" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="D68" s="33">
+        <v>267.14905</v>
+      </c>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33">
+        <v>49.542394</v>
+      </c>
+      <c r="G68" s="33">
         <v>20</v>
       </c>
-      <c r="H68" s="32">
-        <v>17.96531</v>
-      </c>
-      <c r="I68" s="32">
-        <v>244.169092</v>
+      <c r="H68" s="33">
+        <v>16.829803</v>
+      </c>
+      <c r="I68" s="33">
+        <v>202.514236</v>
       </c>
       <c r="J68" s="49">
-        <v>10.180385</v>
-      </c>
-      <c r="K68" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="L68" s="32">
-        <v>178.272211</v>
-      </c>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32">
-        <v>70.891382</v>
-      </c>
-      <c r="O68" s="32">
+        <v>8.443627</v>
+      </c>
+      <c r="K68" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="L68" s="33">
+        <v>267.14905</v>
+      </c>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33">
+        <v>81.505229</v>
+      </c>
+      <c r="O68" s="33">
         <v>20</v>
       </c>
-      <c r="P68" s="32">
-        <v>16.652607</v>
-      </c>
-      <c r="Q68" s="32">
-        <v>226.327955</v>
+      <c r="P68" s="33">
+        <v>14.784515</v>
+      </c>
+      <c r="Q68" s="33">
+        <v>177.903134</v>
       </c>
       <c r="R68" s="49">
-        <v>9.436516</v>
-      </c>
-      <c r="S68" s="31">
-        <v>128.029264</v>
-      </c>
-      <c r="T68" s="60">
-        <v>178.272211</v>
-      </c>
-      <c r="U68" s="32"/>
-      <c r="V68" s="60">
-        <v>98.691924</v>
-      </c>
-      <c r="W68" s="60">
+        <v>7.417492</v>
+      </c>
+      <c r="S68" s="32">
+        <v>195.092212</v>
+      </c>
+      <c r="T68" s="61">
+        <v>267.14905</v>
+      </c>
+      <c r="U68" s="33"/>
+      <c r="V68" s="61">
+        <v>113.468064</v>
+      </c>
+      <c r="W68" s="61">
         <v>20</v>
       </c>
-      <c r="X68" s="60">
-        <v>15.339903</v>
-      </c>
-      <c r="Y68" s="60">
-        <v>208.486817</v>
+      <c r="X68" s="61">
+        <v>12.739227</v>
+      </c>
+      <c r="Y68" s="61">
+        <v>153.292033</v>
       </c>
       <c r="Z68" s="49">
-        <v>8.692648</v>
+        <v>6.391357</v>
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31">
         <v>25</v>
       </c>
-      <c r="C69" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="D69" s="32">
-        <v>216.538993</v>
-      </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32">
-        <v>43.537255</v>
-      </c>
-      <c r="G69" s="32">
+      <c r="C69" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="D69" s="33">
+        <v>305.447264</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33">
+        <v>50.010509</v>
+      </c>
+      <c r="G69" s="33">
         <v>25</v>
       </c>
-      <c r="H69" s="32">
-        <v>22.518895</v>
-      </c>
-      <c r="I69" s="32">
-        <v>306.057524</v>
+      <c r="H69" s="33">
+        <v>21.361688</v>
+      </c>
+      <c r="I69" s="33">
+        <v>257.046739</v>
       </c>
       <c r="J69" s="49">
-        <v>12.760761</v>
-      </c>
-      <c r="K69" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="L69" s="32">
-        <v>216.538993</v>
-      </c>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32">
-        <v>71.625806</v>
-      </c>
-      <c r="O69" s="32">
+        <v>10.717305</v>
+      </c>
+      <c r="K69" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="L69" s="33">
+        <v>305.447264</v>
+      </c>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33">
+        <v>82.275354</v>
+      </c>
+      <c r="O69" s="33">
         <v>25</v>
       </c>
-      <c r="P69" s="32">
-        <v>20.918183</v>
-      </c>
-      <c r="Q69" s="32">
-        <v>284.302011</v>
+      <c r="P69" s="33">
+        <v>19.014391</v>
+      </c>
+      <c r="Q69" s="33">
+        <v>228.801535</v>
       </c>
       <c r="R69" s="49">
-        <v>11.853686</v>
-      </c>
-      <c r="S69" s="31">
-        <v>158.512422</v>
-      </c>
-      <c r="T69" s="60">
-        <v>216.538993</v>
-      </c>
-      <c r="U69" s="32"/>
-      <c r="V69" s="60">
-        <v>99.714358</v>
-      </c>
-      <c r="W69" s="60">
+        <v>9.53965</v>
+      </c>
+      <c r="S69" s="32">
+        <v>225.57537</v>
+      </c>
+      <c r="T69" s="61">
+        <v>305.447264</v>
+      </c>
+      <c r="U69" s="33"/>
+      <c r="V69" s="61">
+        <v>114.540198</v>
+      </c>
+      <c r="W69" s="61">
         <v>25</v>
       </c>
-      <c r="X69" s="60">
-        <v>19.31747</v>
-      </c>
-      <c r="Y69" s="60">
-        <v>262.546497</v>
+      <c r="X69" s="61">
+        <v>16.667093</v>
+      </c>
+      <c r="Y69" s="61">
+        <v>200.556331</v>
       </c>
       <c r="Z69" s="49">
-        <v>10.946612</v>
+        <v>8.361994</v>
       </c>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30">
+      <c r="A70" s="30"/>
+      <c r="B70" s="31">
         <v>30</v>
       </c>
-      <c r="C70" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="D70" s="32">
-        <v>254.805369</v>
-      </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32">
-        <v>43.987079</v>
-      </c>
-      <c r="G70" s="32">
+      <c r="C70" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="D70" s="33">
+        <v>343.745025</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33">
+        <v>50.482038</v>
+      </c>
+      <c r="G70" s="33">
         <v>30</v>
       </c>
-      <c r="H70" s="32">
-        <v>27.069071</v>
-      </c>
-      <c r="I70" s="32">
-        <v>367.899614</v>
+      <c r="H70" s="33">
+        <v>25.890159</v>
+      </c>
+      <c r="I70" s="33">
+        <v>311.538155</v>
       </c>
       <c r="J70" s="49">
-        <v>15.339204</v>
-      </c>
-      <c r="K70" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="L70" s="32">
-        <v>254.805369</v>
-      </c>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32">
-        <v>72.365839</v>
-      </c>
-      <c r="O70" s="32">
+        <v>12.98927</v>
+      </c>
+      <c r="K70" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="L70" s="33">
+        <v>343.745025</v>
+      </c>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33">
+        <v>83.051095</v>
+      </c>
+      <c r="O70" s="33">
         <v>30</v>
       </c>
-      <c r="P70" s="32">
-        <v>25.17815</v>
-      </c>
-      <c r="Q70" s="32">
-        <v>342.199827</v>
+      <c r="P70" s="33">
+        <v>23.238649</v>
+      </c>
+      <c r="Q70" s="33">
+        <v>279.632341</v>
       </c>
       <c r="R70" s="49">
-        <v>14.267678</v>
-      </c>
-      <c r="S70" s="31">
-        <v>188.99558</v>
-      </c>
-      <c r="T70" s="60">
-        <v>254.805369</v>
-      </c>
-      <c r="U70" s="32"/>
-      <c r="V70" s="60">
-        <v>100.7446</v>
-      </c>
-      <c r="W70" s="60">
+        <v>11.658989</v>
+      </c>
+      <c r="S70" s="32">
+        <v>256.058528</v>
+      </c>
+      <c r="T70" s="61">
+        <v>343.745025</v>
+      </c>
+      <c r="U70" s="33"/>
+      <c r="V70" s="61">
+        <v>115.620152</v>
+      </c>
+      <c r="W70" s="61">
         <v>30</v>
       </c>
-      <c r="X70" s="60">
-        <v>23.287228</v>
-      </c>
-      <c r="Y70" s="60">
-        <v>316.50004</v>
+      <c r="X70" s="61">
+        <v>20.587139</v>
+      </c>
+      <c r="Y70" s="61">
+        <v>247.726527</v>
       </c>
       <c r="Z70" s="49">
-        <v>13.196151</v>
+        <v>10.328708</v>
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31">
         <v>35</v>
       </c>
-      <c r="C71" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="D71" s="32">
-        <v>293.071345</v>
-      </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32">
-        <v>44.440313</v>
-      </c>
-      <c r="G71" s="32">
+      <c r="C71" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="D71" s="33">
+        <v>382.042339</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33">
+        <v>50.956982</v>
+      </c>
+      <c r="G71" s="33">
         <v>35</v>
       </c>
-      <c r="H71" s="32">
-        <v>31.615838</v>
-      </c>
-      <c r="I71" s="32">
-        <v>429.695363</v>
+      <c r="H71" s="33">
+        <v>30.415215</v>
+      </c>
+      <c r="I71" s="33">
+        <v>365.988484</v>
       </c>
       <c r="J71" s="49">
-        <v>17.915716</v>
-      </c>
-      <c r="K71" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="L71" s="32">
-        <v>293.071345</v>
-      </c>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32">
-        <v>73.111482</v>
-      </c>
-      <c r="O71" s="32">
+        <v>15.259522</v>
+      </c>
+      <c r="K71" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="L71" s="33">
+        <v>382.042339</v>
+      </c>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33">
+        <v>83.832454</v>
+      </c>
+      <c r="O71" s="33">
         <v>35</v>
       </c>
-      <c r="P71" s="32">
-        <v>29.432507</v>
-      </c>
-      <c r="Q71" s="32">
-        <v>400.021405</v>
+      <c r="P71" s="33">
+        <v>27.45729</v>
+      </c>
+      <c r="Q71" s="33">
+        <v>330.395553</v>
       </c>
       <c r="R71" s="49">
-        <v>16.67849</v>
-      </c>
-      <c r="S71" s="31">
-        <v>219.478738</v>
-      </c>
-      <c r="T71" s="60">
-        <v>293.071345</v>
-      </c>
-      <c r="U71" s="32"/>
-      <c r="V71" s="60">
-        <v>101.782652</v>
-      </c>
-      <c r="W71" s="60">
+        <v>13.77551</v>
+      </c>
+      <c r="S71" s="32">
+        <v>286.541686</v>
+      </c>
+      <c r="T71" s="61">
+        <v>382.042339</v>
+      </c>
+      <c r="U71" s="33"/>
+      <c r="V71" s="61">
+        <v>116.707926</v>
+      </c>
+      <c r="W71" s="61">
         <v>35</v>
       </c>
-      <c r="X71" s="60">
-        <v>27.249176</v>
-      </c>
-      <c r="Y71" s="60">
-        <v>370.347447</v>
+      <c r="X71" s="61">
+        <v>24.499365</v>
+      </c>
+      <c r="Y71" s="61">
+        <v>294.802622</v>
       </c>
       <c r="Z71" s="49">
-        <v>15.441264</v>
+        <v>12.291499</v>
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31">
         <v>40</v>
       </c>
-      <c r="C72" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="D72" s="32">
-        <v>331.336925</v>
-      </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32">
-        <v>44.896956</v>
-      </c>
-      <c r="G72" s="32">
+      <c r="C72" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="D72" s="33">
+        <v>420.339211</v>
+      </c>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33">
+        <v>51.43534</v>
+      </c>
+      <c r="G72" s="33">
         <v>40</v>
       </c>
-      <c r="H72" s="32">
-        <v>36.159194</v>
-      </c>
-      <c r="I72" s="32">
-        <v>491.444771</v>
+      <c r="H72" s="33">
+        <v>34.936857</v>
+      </c>
+      <c r="I72" s="33">
+        <v>420.397727</v>
       </c>
       <c r="J72" s="49">
-        <v>20.490295</v>
-      </c>
-      <c r="K72" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="L72" s="32">
-        <v>331.336925</v>
-      </c>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32">
-        <v>73.862734</v>
-      </c>
-      <c r="O72" s="32">
+        <v>17.52806</v>
+      </c>
+      <c r="K72" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="L72" s="33">
+        <v>420.339211</v>
+      </c>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33">
+        <v>84.61943</v>
+      </c>
+      <c r="O72" s="33">
         <v>40</v>
       </c>
-      <c r="P72" s="32">
-        <v>33.681255</v>
-      </c>
-      <c r="Q72" s="32">
-        <v>457.766744</v>
+      <c r="P72" s="33">
+        <v>31.670314</v>
+      </c>
+      <c r="Q72" s="33">
+        <v>381.091172</v>
       </c>
       <c r="R72" s="49">
-        <v>19.086124</v>
-      </c>
-      <c r="S72" s="31">
-        <v>249.961896</v>
-      </c>
-      <c r="T72" s="60">
-        <v>331.336925</v>
-      </c>
-      <c r="U72" s="32"/>
-      <c r="V72" s="60">
-        <v>102.828512</v>
-      </c>
-      <c r="W72" s="60">
+        <v>15.889213</v>
+      </c>
+      <c r="S72" s="32">
+        <v>317.024844</v>
+      </c>
+      <c r="T72" s="61">
+        <v>420.339211</v>
+      </c>
+      <c r="U72" s="33"/>
+      <c r="V72" s="61">
+        <v>117.803521</v>
+      </c>
+      <c r="W72" s="61">
         <v>40</v>
       </c>
-      <c r="X72" s="60">
-        <v>31.203316</v>
-      </c>
-      <c r="Y72" s="60">
-        <v>424.088718</v>
+      <c r="X72" s="61">
+        <v>28.40377</v>
+      </c>
+      <c r="Y72" s="61">
+        <v>341.784617</v>
       </c>
       <c r="Z72" s="49">
-        <v>17.681953</v>
+        <v>14.250366</v>
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31">
         <v>45</v>
       </c>
-      <c r="C73" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="D73" s="32">
-        <v>369.602115</v>
-      </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32">
-        <v>45.357009</v>
-      </c>
-      <c r="G73" s="32">
+      <c r="C73" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="D73" s="33">
+        <v>458.635648</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33">
+        <v>51.917113</v>
+      </c>
+      <c r="G73" s="33">
         <v>45</v>
       </c>
-      <c r="H73" s="32">
-        <v>40.699141</v>
-      </c>
-      <c r="I73" s="32">
-        <v>553.147839</v>
+      <c r="H73" s="33">
+        <v>39.455085</v>
+      </c>
+      <c r="I73" s="33">
+        <v>474.765885</v>
       </c>
       <c r="J73" s="49">
-        <v>23.062943</v>
-      </c>
-      <c r="K73" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="L73" s="32">
-        <v>369.602115</v>
-      </c>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32">
-        <v>74.619596</v>
-      </c>
-      <c r="O73" s="32">
+        <v>19.794886</v>
+      </c>
+      <c r="K73" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="L73" s="33">
+        <v>458.635648</v>
+      </c>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33">
+        <v>85.412024</v>
+      </c>
+      <c r="O73" s="33">
         <v>45</v>
       </c>
-      <c r="P73" s="32">
-        <v>37.924393</v>
-      </c>
-      <c r="Q73" s="32">
-        <v>515.435847</v>
+      <c r="P73" s="33">
+        <v>35.87772</v>
+      </c>
+      <c r="Q73" s="33">
+        <v>431.719199</v>
       </c>
       <c r="R73" s="49">
-        <v>21.490579</v>
-      </c>
-      <c r="S73" s="31">
-        <v>280.445054</v>
-      </c>
-      <c r="T73" s="60">
-        <v>369.602115</v>
-      </c>
-      <c r="U73" s="32"/>
-      <c r="V73" s="60">
-        <v>103.882182</v>
-      </c>
-      <c r="W73" s="60">
+        <v>18.000098</v>
+      </c>
+      <c r="S73" s="32">
+        <v>347.508002</v>
+      </c>
+      <c r="T73" s="61">
+        <v>458.635648</v>
+      </c>
+      <c r="U73" s="33"/>
+      <c r="V73" s="61">
+        <v>118.906935</v>
+      </c>
+      <c r="W73" s="61">
         <v>45</v>
       </c>
-      <c r="X73" s="60">
-        <v>35.149646</v>
-      </c>
-      <c r="Y73" s="60">
-        <v>477.723856</v>
+      <c r="X73" s="61">
+        <v>32.300356</v>
+      </c>
+      <c r="Y73" s="61">
+        <v>388.672513</v>
       </c>
       <c r="Z73" s="49">
-        <v>19.918216</v>
+        <v>16.205309</v>
       </c>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="33"/>
-      <c r="B74" s="34">
+      <c r="A74" s="34"/>
+      <c r="B74" s="35">
         <v>50</v>
       </c>
-      <c r="C74" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="D74" s="36">
-        <v>407.866921</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36">
-        <v>45.820472</v>
-      </c>
-      <c r="G74" s="36">
-        <v>45.820472</v>
-      </c>
-      <c r="H74" s="36">
-        <v>41.05615</v>
-      </c>
-      <c r="I74" s="51">
-        <v>558</v>
+      <c r="C74" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="D74" s="13">
+        <v>496.931655</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13">
+        <v>52.402299</v>
+      </c>
+      <c r="G74" s="13">
+        <v>50</v>
+      </c>
+      <c r="H74" s="13">
+        <v>43.969898</v>
+      </c>
+      <c r="I74" s="62">
+        <v>529.092958</v>
       </c>
       <c r="J74" s="52">
-        <v>23.265249</v>
-      </c>
-      <c r="K74" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="L74" s="36">
-        <v>407.866921</v>
-      </c>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36">
-        <v>75.382066</v>
-      </c>
-      <c r="O74" s="36">
+        <v>22.059999</v>
+      </c>
+      <c r="K74" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="L74" s="13">
+        <v>496.931655</v>
+      </c>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13">
+        <v>86.210234</v>
+      </c>
+      <c r="O74" s="13">
         <v>50</v>
       </c>
-      <c r="P74" s="36">
-        <v>42.161923</v>
-      </c>
-      <c r="Q74" s="36">
-        <v>573.028714</v>
+      <c r="P74" s="13">
+        <v>40.07951</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>482.279635</v>
       </c>
       <c r="R74" s="52">
-        <v>23.891856</v>
-      </c>
-      <c r="S74" s="35">
-        <v>310.928212</v>
-      </c>
-      <c r="T74" s="36">
-        <v>407.866921</v>
-      </c>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36">
-        <v>104.943661</v>
-      </c>
-      <c r="W74" s="36">
+        <v>20.108164</v>
+      </c>
+      <c r="S74" s="36">
+        <v>377.99116</v>
+      </c>
+      <c r="T74" s="13">
+        <v>496.931655</v>
+      </c>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13">
+        <v>120.01817</v>
+      </c>
+      <c r="W74" s="13">
         <v>50</v>
       </c>
-      <c r="X74" s="36">
-        <v>39.088167</v>
-      </c>
-      <c r="Y74" s="36">
-        <v>531.252861</v>
+      <c r="X74" s="13">
+        <v>36.189121</v>
+      </c>
+      <c r="Y74" s="13">
+        <v>435.466311</v>
       </c>
       <c r="Z74" s="52">
-        <v>22.150054</v>
+        <v>18.15633</v>
       </c>
     </row>
     <row r="75" ht="27" customHeight="1" spans="1:26">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="21" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
       <c r="J75" s="48"/>
-      <c r="K75" s="21" t="s">
+      <c r="K75" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
       <c r="R75" s="48"/>
-      <c r="S75" s="21" t="s">
+      <c r="S75" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="23"/>
       <c r="Z75" s="48"/>
     </row>
     <row r="76" spans="1:26">
@@ -18742,76 +18751,76 @@
         <v>5</v>
       </c>
       <c r="C76" s="39">
-        <v>36.57979</v>
+        <v>103.642737</v>
       </c>
       <c r="D76" s="40">
-        <v>63.747467</v>
+        <v>152.151576</v>
       </c>
       <c r="E76" s="40">
-        <v>30.986</v>
+        <v>34.930488</v>
       </c>
       <c r="F76" s="40">
-        <v>31.54898</v>
+        <v>36.328995</v>
       </c>
       <c r="G76" s="40">
         <v>5</v>
       </c>
       <c r="H76" s="40">
-        <v>4.43702</v>
+        <v>3.601493</v>
       </c>
       <c r="I76" s="40">
-        <v>60.571214</v>
+        <v>43.613238</v>
       </c>
       <c r="J76" s="53">
-        <v>2.525456</v>
+        <v>1.81841</v>
       </c>
       <c r="K76" s="39">
-        <v>36.57979</v>
+        <v>103.642737</v>
       </c>
       <c r="L76" s="40">
-        <v>63.747467</v>
+        <v>152.151576</v>
       </c>
       <c r="M76" s="40">
-        <v>57.357064</v>
+        <v>64.658563</v>
       </c>
       <c r="N76" s="40">
-        <v>58.399175</v>
+        <v>67.247288</v>
       </c>
       <c r="O76" s="40">
         <v>5</v>
       </c>
       <c r="P76" s="40">
-        <v>3.957889</v>
+        <v>2.411275</v>
       </c>
       <c r="Q76" s="40">
-        <v>54.030433</v>
+        <v>29.199972</v>
       </c>
       <c r="R76" s="53">
-        <v>2.252745</v>
+        <v>1.217463</v>
       </c>
       <c r="S76" s="39">
-        <v>36.57979</v>
-      </c>
-      <c r="T76" s="62">
-        <v>63.747467</v>
+        <v>103.642737</v>
+      </c>
+      <c r="T76" s="63">
+        <v>152.151576</v>
       </c>
       <c r="U76" s="40">
-        <v>83.728128</v>
-      </c>
-      <c r="V76" s="62">
-        <v>85.249371</v>
-      </c>
-      <c r="W76" s="62">
+        <v>94.386638</v>
+      </c>
+      <c r="V76" s="63">
+        <v>98.165582</v>
+      </c>
+      <c r="W76" s="63">
         <v>5</v>
       </c>
-      <c r="X76" s="62">
-        <v>3.478757</v>
-      </c>
-      <c r="Y76" s="62">
-        <v>47.489652</v>
+      <c r="X76" s="63">
+        <v>1.221056</v>
+      </c>
+      <c r="Y76" s="63">
+        <v>14.786706</v>
       </c>
       <c r="Z76" s="53">
-        <v>1.980033</v>
+        <v>0.616517</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -18820,70 +18829,70 @@
         <v>10</v>
       </c>
       <c r="C77" s="39">
-        <v>67.062948</v>
+        <v>134.125895</v>
       </c>
       <c r="D77" s="40">
-        <v>102.13098</v>
+        <v>191.052763</v>
       </c>
       <c r="E77" s="40"/>
       <c r="F77" s="40">
-        <v>31.891595</v>
+        <v>36.693448</v>
       </c>
       <c r="G77" s="40">
         <v>10</v>
       </c>
       <c r="H77" s="40">
-        <v>9.094405</v>
+        <v>8.23704</v>
       </c>
       <c r="I77" s="40">
-        <v>124.150695</v>
+        <v>99.748623</v>
       </c>
       <c r="J77" s="53">
-        <v>5.176338</v>
+        <v>4.158919</v>
       </c>
       <c r="K77" s="39">
-        <v>67.062948</v>
+        <v>134.125895</v>
       </c>
       <c r="L77" s="40">
-        <v>102.13098</v>
+        <v>191.052763</v>
       </c>
       <c r="M77" s="40"/>
       <c r="N77" s="40">
-        <v>59.033378</v>
+        <v>67.921914</v>
       </c>
       <c r="O77" s="40">
         <v>10</v>
       </c>
       <c r="P77" s="40">
-        <v>8.323687</v>
+        <v>6.736649</v>
       </c>
       <c r="Q77" s="40">
-        <v>113.629361</v>
+        <v>81.57924</v>
       </c>
       <c r="R77" s="53">
-        <v>4.737662</v>
+        <v>3.401364</v>
       </c>
       <c r="S77" s="39">
-        <v>67.062948</v>
-      </c>
-      <c r="T77" s="62">
-        <v>102.13098</v>
+        <v>134.125895</v>
+      </c>
+      <c r="T77" s="63">
+        <v>191.052763</v>
       </c>
       <c r="U77" s="40"/>
-      <c r="V77" s="62">
-        <v>86.17516</v>
-      </c>
-      <c r="W77" s="62">
+      <c r="V77" s="63">
+        <v>99.15038</v>
+      </c>
+      <c r="W77" s="63">
         <v>10</v>
       </c>
-      <c r="X77" s="62">
-        <v>7.552968</v>
-      </c>
-      <c r="Y77" s="62">
-        <v>103.108027</v>
+      <c r="X77" s="63">
+        <v>5.236258</v>
+      </c>
+      <c r="Y77" s="63">
+        <v>63.409857</v>
       </c>
       <c r="Z77" s="53">
-        <v>4.298985</v>
+        <v>2.64381</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -18892,70 +18901,70 @@
         <v>15</v>
       </c>
       <c r="C78" s="39">
-        <v>97.546106</v>
+        <v>164.609053</v>
       </c>
       <c r="D78" s="40">
-        <v>140.40268</v>
+        <v>229.359314</v>
       </c>
       <c r="E78" s="40"/>
       <c r="F78" s="40">
-        <v>32.235932</v>
+        <v>37.055072</v>
       </c>
       <c r="G78" s="40">
         <v>15</v>
       </c>
       <c r="H78" s="40">
-        <v>13.750068</v>
+        <v>12.875416</v>
       </c>
       <c r="I78" s="40">
-        <v>187.706667</v>
+        <v>155.918264</v>
       </c>
       <c r="J78" s="53">
-        <v>7.826241</v>
+        <v>6.500855</v>
       </c>
       <c r="K78" s="39">
-        <v>97.546106</v>
+        <v>164.609053</v>
       </c>
       <c r="L78" s="40">
-        <v>140.40268</v>
+        <v>229.359314</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40">
-        <v>59.670768</v>
+        <v>68.591303</v>
       </c>
       <c r="O78" s="40">
         <v>15</v>
       </c>
       <c r="P78" s="40">
-        <v>12.686296</v>
+        <v>11.06726</v>
       </c>
       <c r="Q78" s="40">
-        <v>173.184772</v>
+        <v>134.021915</v>
       </c>
       <c r="R78" s="53">
-        <v>7.220765</v>
+        <v>5.587909</v>
       </c>
       <c r="S78" s="39">
-        <v>97.546106</v>
-      </c>
-      <c r="T78" s="62">
-        <v>140.40268</v>
+        <v>164.609053</v>
+      </c>
+      <c r="T78" s="63">
+        <v>229.359314</v>
       </c>
       <c r="U78" s="40"/>
-      <c r="V78" s="62">
-        <v>87.105604</v>
-      </c>
-      <c r="W78" s="62">
+      <c r="V78" s="63">
+        <v>100.127535</v>
+      </c>
+      <c r="W78" s="63">
         <v>15</v>
       </c>
-      <c r="X78" s="62">
-        <v>11.622525</v>
-      </c>
-      <c r="Y78" s="62">
-        <v>158.662876</v>
+      <c r="X78" s="63">
+        <v>9.259104</v>
+      </c>
+      <c r="Y78" s="63">
+        <v>112.125567</v>
       </c>
       <c r="Z78" s="53">
-        <v>6.615289</v>
+        <v>4.674963</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -18964,70 +18973,70 @@
         <v>20</v>
       </c>
       <c r="C79" s="39">
-        <v>128.029264</v>
+        <v>195.092212</v>
       </c>
       <c r="D79" s="40">
-        <v>178.673466</v>
+        <v>267.662292</v>
       </c>
       <c r="E79" s="40"/>
       <c r="F79" s="40">
-        <v>32.582977</v>
+        <v>37.419383</v>
       </c>
       <c r="G79" s="40">
         <v>20</v>
       </c>
       <c r="H79" s="40">
-        <v>18.403023</v>
+        <v>17.511105</v>
       </c>
       <c r="I79" s="40">
-        <v>251.225673</v>
+        <v>212.055365</v>
       </c>
       <c r="J79" s="53">
-        <v>10.474602</v>
+        <v>8.841435</v>
       </c>
       <c r="K79" s="39">
-        <v>128.029264</v>
+        <v>195.092212</v>
       </c>
       <c r="L79" s="40">
-        <v>178.673466</v>
+        <v>267.662292</v>
       </c>
       <c r="M79" s="40"/>
       <c r="N79" s="40">
-        <v>60.31317</v>
+        <v>69.265667</v>
       </c>
       <c r="O79" s="40">
         <v>20</v>
       </c>
       <c r="P79" s="40">
-        <v>17.043894</v>
+        <v>15.392897</v>
       </c>
       <c r="Q79" s="40">
-        <v>232.671755</v>
+        <v>186.404358</v>
       </c>
       <c r="R79" s="53">
-        <v>9.701015</v>
+        <v>7.771942</v>
       </c>
       <c r="S79" s="39">
-        <v>128.029264</v>
-      </c>
-      <c r="T79" s="62">
-        <v>178.673466</v>
+        <v>195.092212</v>
+      </c>
+      <c r="T79" s="63">
+        <v>267.662292</v>
       </c>
       <c r="U79" s="40"/>
-      <c r="V79" s="62">
-        <v>88.043364</v>
-      </c>
-      <c r="W79" s="62">
+      <c r="V79" s="63">
+        <v>101.11195</v>
+      </c>
+      <c r="W79" s="63">
         <v>20</v>
       </c>
-      <c r="X79" s="62">
-        <v>15.684764</v>
-      </c>
-      <c r="Y79" s="62">
-        <v>214.117837</v>
+      <c r="X79" s="63">
+        <v>13.274688</v>
+      </c>
+      <c r="Y79" s="63">
+        <v>160.753351</v>
       </c>
       <c r="Z79" s="53">
-        <v>8.927428</v>
+        <v>6.702449</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -19036,70 +19045,70 @@
         <v>25</v>
       </c>
       <c r="C80" s="39">
-        <v>158.512422</v>
+        <v>225.57537</v>
       </c>
       <c r="D80" s="40">
-        <v>216.94383</v>
+        <v>305.964785</v>
       </c>
       <c r="E80" s="40"/>
       <c r="F80" s="40">
-        <v>32.932734</v>
+        <v>37.78641</v>
       </c>
       <c r="G80" s="40">
         <v>25</v>
       </c>
       <c r="H80" s="40">
-        <v>23.053266</v>
+        <v>22.144078</v>
       </c>
       <c r="I80" s="40">
-        <v>314.707654</v>
+        <v>268.159576</v>
       </c>
       <c r="J80" s="53">
-        <v>13.121419</v>
+        <v>11.180644</v>
       </c>
       <c r="K80" s="39">
-        <v>158.512422</v>
+        <v>225.57537</v>
       </c>
       <c r="L80" s="40">
-        <v>216.94383</v>
+        <v>305.964785</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40">
-        <v>60.960594</v>
+        <v>69.945058</v>
       </c>
       <c r="O80" s="40">
         <v>25</v>
       </c>
       <c r="P80" s="40">
-        <v>21.396471</v>
+        <v>19.713506</v>
       </c>
       <c r="Q80" s="40">
-        <v>292.090203</v>
+        <v>238.725919</v>
       </c>
       <c r="R80" s="53">
-        <v>12.178407</v>
+        <v>9.953437</v>
       </c>
       <c r="S80" s="39">
-        <v>158.512422</v>
-      </c>
-      <c r="T80" s="62">
-        <v>216.94383</v>
+        <v>225.57537</v>
+      </c>
+      <c r="T80" s="63">
+        <v>305.964785</v>
       </c>
       <c r="U80" s="40"/>
-      <c r="V80" s="62">
-        <v>88.988453</v>
-      </c>
-      <c r="W80" s="62">
+      <c r="V80" s="63">
+        <v>102.103705</v>
+      </c>
+      <c r="W80" s="63">
         <v>25</v>
       </c>
-      <c r="X80" s="62">
-        <v>19.739676</v>
-      </c>
-      <c r="Y80" s="62">
-        <v>269.472752</v>
+      <c r="X80" s="63">
+        <v>17.282934</v>
+      </c>
+      <c r="Y80" s="63">
+        <v>209.292262</v>
       </c>
       <c r="Z80" s="53">
-        <v>11.235395</v>
+        <v>8.72623</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -19108,70 +19117,70 @@
         <v>30</v>
       </c>
       <c r="C81" s="39">
-        <v>188.99558</v>
+        <v>256.058528</v>
       </c>
       <c r="D81" s="40">
-        <v>255.213778</v>
+        <v>344.266815</v>
       </c>
       <c r="E81" s="40"/>
       <c r="F81" s="40">
-        <v>33.285204</v>
+        <v>38.156154</v>
       </c>
       <c r="G81" s="40">
         <v>30</v>
       </c>
       <c r="H81" s="40">
-        <v>27.700796</v>
+        <v>26.774334</v>
       </c>
       <c r="I81" s="40">
-        <v>378.152609</v>
+        <v>324.230895</v>
       </c>
       <c r="J81" s="53">
-        <v>15.766693</v>
+        <v>13.518481</v>
       </c>
       <c r="K81" s="39">
-        <v>188.99558</v>
+        <v>256.058528</v>
       </c>
       <c r="L81" s="40">
-        <v>255.213778</v>
+        <v>344.266815</v>
       </c>
       <c r="M81" s="40"/>
       <c r="N81" s="40">
-        <v>61.613037</v>
+        <v>70.629476</v>
       </c>
       <c r="O81" s="40">
         <v>30</v>
       </c>
       <c r="P81" s="40">
-        <v>25.744027</v>
+        <v>24.029087</v>
       </c>
       <c r="Q81" s="40">
-        <v>351.440115</v>
+        <v>290.986596</v>
       </c>
       <c r="R81" s="53">
-        <v>14.652942</v>
+        <v>12.132393</v>
       </c>
       <c r="S81" s="39">
-        <v>188.99558</v>
-      </c>
-      <c r="T81" s="62">
-        <v>255.213778</v>
+        <v>256.058528</v>
+      </c>
+      <c r="T81" s="63">
+        <v>344.266815</v>
       </c>
       <c r="U81" s="40"/>
-      <c r="V81" s="62">
-        <v>89.94087</v>
-      </c>
-      <c r="W81" s="62">
+      <c r="V81" s="63">
+        <v>103.102799</v>
+      </c>
+      <c r="W81" s="63">
         <v>30</v>
       </c>
-      <c r="X81" s="62">
-        <v>23.787258</v>
-      </c>
-      <c r="Y81" s="62">
-        <v>324.72762</v>
+      <c r="X81" s="63">
+        <v>21.28384</v>
+      </c>
+      <c r="Y81" s="63">
+        <v>257.742296</v>
       </c>
       <c r="Z81" s="53">
-        <v>13.539191</v>
+        <v>10.746306</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -19180,70 +19189,70 @@
         <v>35</v>
       </c>
       <c r="C82" s="39">
-        <v>219.478738</v>
+        <v>286.541686</v>
       </c>
       <c r="D82" s="40">
-        <v>293.483316</v>
+        <v>382.568388</v>
       </c>
       <c r="E82" s="40"/>
       <c r="F82" s="40">
-        <v>33.640386</v>
+        <v>38.528613</v>
       </c>
       <c r="G82" s="40">
-        <v>33.640386</v>
+        <v>35</v>
       </c>
       <c r="H82" s="40">
-        <v>30.986</v>
-      </c>
-      <c r="I82" s="54">
-        <v>423</v>
+        <v>31.401875</v>
+      </c>
+      <c r="I82" s="65">
+        <v>380.269324</v>
       </c>
       <c r="J82" s="53">
-        <v>17.63656</v>
+        <v>15.854947</v>
       </c>
       <c r="K82" s="39">
-        <v>219.478738</v>
+        <v>286.541686</v>
       </c>
       <c r="L82" s="40">
-        <v>293.483316</v>
+        <v>382.568388</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="40">
-        <v>62.270501</v>
+        <v>71.318922</v>
       </c>
       <c r="O82" s="40">
         <v>35</v>
       </c>
       <c r="P82" s="40">
-        <v>30.086563</v>
+        <v>28.339641</v>
       </c>
       <c r="Q82" s="40">
-        <v>410.721492</v>
+        <v>343.186389</v>
       </c>
       <c r="R82" s="53">
-        <v>17.124619</v>
+        <v>14.308811</v>
       </c>
       <c r="S82" s="39">
-        <v>219.478738</v>
-      </c>
-      <c r="T82" s="62">
-        <v>293.483316</v>
+        <v>286.541686</v>
+      </c>
+      <c r="T82" s="63">
+        <v>382.568388</v>
       </c>
       <c r="U82" s="40"/>
-      <c r="V82" s="62">
-        <v>90.900616</v>
-      </c>
-      <c r="W82" s="62">
+      <c r="V82" s="63">
+        <v>104.109231</v>
+      </c>
+      <c r="W82" s="63">
         <v>35</v>
       </c>
-      <c r="X82" s="62">
-        <v>27.827512</v>
-      </c>
-      <c r="Y82" s="62">
-        <v>379.882444</v>
+      <c r="X82" s="63">
+        <v>25.277407</v>
+      </c>
+      <c r="Y82" s="63">
+        <v>306.103455</v>
       </c>
       <c r="Z82" s="53">
-        <v>15.838816</v>
+        <v>12.762676</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -19252,20 +19261,20 @@
         <v>40</v>
       </c>
       <c r="C83" s="39">
-        <v>249.961896</v>
+        <v>317.024844</v>
       </c>
       <c r="D83" s="40">
-        <v>331.752451</v>
+        <v>420.86951</v>
       </c>
       <c r="E83" s="40"/>
       <c r="F83" s="40">
-        <v>33.998279</v>
+        <v>38.903789</v>
       </c>
       <c r="G83" s="40">
-        <v>33.998279</v>
+        <v>38.903789</v>
       </c>
       <c r="H83" s="40">
-        <v>30.986</v>
+        <v>34.930488</v>
       </c>
       <c r="I83" s="54">
         <v>423</v>
@@ -19274,48 +19283,48 @@
         <v>17.63656</v>
       </c>
       <c r="K83" s="39">
-        <v>249.961896</v>
+        <v>317.024844</v>
       </c>
       <c r="L83" s="40">
-        <v>331.752451</v>
+        <v>420.86951</v>
       </c>
       <c r="M83" s="40"/>
       <c r="N83" s="40">
-        <v>62.932985</v>
+        <v>72.013396</v>
       </c>
       <c r="O83" s="40">
         <v>40</v>
       </c>
       <c r="P83" s="40">
-        <v>34.424079</v>
+        <v>32.645167</v>
       </c>
       <c r="Q83" s="40">
-        <v>469.934335</v>
+        <v>395.3253</v>
       </c>
       <c r="R83" s="53">
-        <v>19.593439</v>
+        <v>16.482691</v>
       </c>
       <c r="S83" s="39">
-        <v>249.961896</v>
-      </c>
-      <c r="T83" s="62">
-        <v>331.752451</v>
+        <v>317.024844</v>
+      </c>
+      <c r="T83" s="63">
+        <v>420.86951</v>
       </c>
       <c r="U83" s="40"/>
-      <c r="V83" s="62">
-        <v>91.867691</v>
-      </c>
-      <c r="W83" s="62">
+      <c r="V83" s="63">
+        <v>105.123003</v>
+      </c>
+      <c r="W83" s="63">
         <v>40</v>
       </c>
-      <c r="X83" s="62">
-        <v>31.860437</v>
-      </c>
-      <c r="Y83" s="62">
-        <v>434.937223</v>
+      <c r="X83" s="63">
+        <v>29.263635</v>
+      </c>
+      <c r="Y83" s="63">
+        <v>354.375739</v>
       </c>
       <c r="Z83" s="53">
-        <v>18.13427</v>
+        <v>14.77534</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -19324,20 +19333,20 @@
         <v>45</v>
       </c>
       <c r="C84" s="39">
-        <v>280.445054</v>
+        <v>347.508002</v>
       </c>
       <c r="D84" s="40">
-        <v>370.021188</v>
+        <v>459.170187</v>
       </c>
       <c r="E84" s="40"/>
       <c r="F84" s="40">
-        <v>34.358885</v>
+        <v>39.28168</v>
       </c>
       <c r="G84" s="40">
-        <v>34.358885</v>
+        <v>39.28168</v>
       </c>
       <c r="H84" s="40">
-        <v>30.986</v>
+        <v>34.930488</v>
       </c>
       <c r="I84" s="54">
         <v>423</v>
@@ -19346,48 +19355,48 @@
         <v>17.63656</v>
       </c>
       <c r="K84" s="39">
-        <v>280.445054</v>
+        <v>347.508002</v>
       </c>
       <c r="L84" s="40">
-        <v>370.021188</v>
+        <v>459.170187</v>
       </c>
       <c r="M84" s="40"/>
       <c r="N84" s="40">
-        <v>63.60049</v>
+        <v>72.712897</v>
       </c>
       <c r="O84" s="40">
         <v>45</v>
       </c>
       <c r="P84" s="40">
-        <v>38.756574</v>
+        <v>36.945666</v>
       </c>
       <c r="Q84" s="40">
-        <v>529.078645</v>
+        <v>447.40333</v>
       </c>
       <c r="R84" s="53">
-        <v>22.059402</v>
+        <v>18.654032</v>
       </c>
       <c r="S84" s="39">
-        <v>280.445054</v>
-      </c>
-      <c r="T84" s="62">
-        <v>370.021188</v>
+        <v>347.508002</v>
+      </c>
+      <c r="T84" s="63">
+        <v>459.170187</v>
       </c>
       <c r="U84" s="40"/>
-      <c r="V84" s="62">
-        <v>92.842094</v>
-      </c>
-      <c r="W84" s="62">
+      <c r="V84" s="63">
+        <v>106.144114</v>
+      </c>
+      <c r="W84" s="63">
         <v>45</v>
       </c>
-      <c r="X84" s="62">
-        <v>35.886034</v>
-      </c>
-      <c r="Y84" s="62">
-        <v>489.89196</v>
+      <c r="X84" s="63">
+        <v>33.242524</v>
+      </c>
+      <c r="Y84" s="63">
+        <v>402.559151</v>
       </c>
       <c r="Z84" s="53">
-        <v>20.425553</v>
+        <v>16.784299</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -19396,20 +19405,20 @@
         <v>50</v>
       </c>
       <c r="C85" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="D85" s="45">
-        <v>408.289531</v>
+        <v>497.470423</v>
       </c>
       <c r="E85" s="45"/>
       <c r="F85" s="45">
-        <v>34.722203</v>
+        <v>39.662287</v>
       </c>
       <c r="G85" s="45">
-        <v>34.722203</v>
+        <v>39.662287</v>
       </c>
       <c r="H85" s="45">
-        <v>30.986</v>
+        <v>34.930488</v>
       </c>
       <c r="I85" s="55">
         <v>423</v>
@@ -19418,48 +19427,48 @@
         <v>17.63656</v>
       </c>
       <c r="K85" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="L85" s="45">
-        <v>408.289531</v>
+        <v>497.470423</v>
       </c>
       <c r="M85" s="45"/>
       <c r="N85" s="45">
-        <v>64.273014</v>
+        <v>73.417426</v>
       </c>
       <c r="O85" s="45">
         <v>50</v>
       </c>
       <c r="P85" s="45">
-        <v>43.08405</v>
+        <v>41.241138</v>
       </c>
       <c r="Q85" s="45">
-        <v>588.154423</v>
+        <v>499.42048</v>
       </c>
       <c r="R85" s="56">
-        <v>24.522507</v>
+        <v>20.822835</v>
       </c>
       <c r="S85" s="44">
-        <v>310.928212</v>
+        <v>377.99116</v>
       </c>
       <c r="T85" s="45">
-        <v>408.289531</v>
+        <v>497.470423</v>
       </c>
       <c r="U85" s="45"/>
       <c r="V85" s="45">
-        <v>93.823826</v>
+        <v>107.172564</v>
       </c>
       <c r="W85" s="45">
         <v>50</v>
       </c>
       <c r="X85" s="45">
-        <v>39.904303</v>
+        <v>37.214074</v>
       </c>
       <c r="Y85" s="45">
-        <v>544.746656</v>
+        <v>450.653691</v>
       </c>
       <c r="Z85" s="56">
-        <v>22.712664</v>
+        <v>18.789552</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_attached_till_end_1500_3000_ft.xlsx
@@ -186,13 +186,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -971,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1009,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1081,6 +1081,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,10 +1123,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1135,13 +1138,16 @@
     <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1156,16 +1162,16 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1391,31 +1397,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.066272</c:v>
+                  <c:v>2.09757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.667269</c:v>
+                  <c:v>4.726356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.267476</c:v>
+                  <c:v>7.354342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.865813</c:v>
+                  <c:v>9.980457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.462278</c:v>
+                  <c:v>12.604697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.056872</c:v>
+                  <c:v>15.227063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.649593</c:v>
+                  <c:v>17.847555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.240443</c:v>
+                  <c:v>20.466174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.829421</c:v>
+                  <c:v>23.082918</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.265249</c:v>
@@ -1500,34 +1506,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.584002</c:v>
+                  <c:v>1.618436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.047715</c:v>
+                  <c:v>4.110808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.510126</c:v>
+                  <c:v>6.601864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.969462</c:v>
+                  <c:v>9.089841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.425718</c:v>
+                  <c:v>11.574734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.878894</c:v>
+                  <c:v>14.056544</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.328991</c:v>
+                  <c:v>16.535272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.776009</c:v>
+                  <c:v>19.010916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.219947</c:v>
+                  <c:v>21.483477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.660806</c:v>
+                  <c:v>23.952955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,34 +1615,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.101733</c:v>
+                  <c:v>1.139302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.42816</c:v>
+                  <c:v>3.49526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.752776</c:v>
+                  <c:v>5.849386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.07311</c:v>
+                  <c:v>8.199224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.389157</c:v>
+                  <c:v>10.544771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.700917</c:v>
+                  <c:v>12.886025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.008389</c:v>
+                  <c:v>15.222988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.311575</c:v>
+                  <c:v>17.555658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.610474</c:v>
+                  <c:v>19.884036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.905085</c:v>
+                  <c:v>22.208122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,22 +1724,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.250946</c:v>
+                  <c:v>2.316205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.928129</c:v>
+                  <c:v>5.053245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.604687</c:v>
+                  <c:v>7.789644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.27974</c:v>
+                  <c:v>10.524533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.953287</c:v>
+                  <c:v>13.257912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.625327</c:v>
+                  <c:v>15.98978</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17.63656</c:v>
@@ -1827,34 +1833,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.744011</c:v>
+                  <c:v>1.815628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.277013</c:v>
+                  <c:v>4.410248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.808857</c:v>
+                  <c:v>7.003682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.337917</c:v>
+                  <c:v>9.594322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.864188</c:v>
+                  <c:v>12.182165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.387672</c:v>
+                  <c:v>14.767211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.908368</c:v>
+                  <c:v>17.34946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.426276</c:v>
+                  <c:v>19.928912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.941395</c:v>
+                  <c:v>22.505567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.453728</c:v>
+                  <c:v>25.079425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,34 +1942,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.237076</c:v>
+                  <c:v>1.31505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.625897</c:v>
+                  <c:v>3.767251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.013028</c:v>
+                  <c:v>6.21772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.396094</c:v>
+                  <c:v>8.66411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.77509</c:v>
+                  <c:v>11.106417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.150017</c:v>
+                  <c:v>13.544642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.520873</c:v>
+                  <c:v>15.978783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.88766</c:v>
+                  <c:v>18.408841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.250378</c:v>
+                  <c:v>20.834817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.609026</c:v>
+                  <c:v>23.25671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,22 +2559,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.851374</c:v>
+                  <c:v>2.897603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.887293</c:v>
+                  <c:v>6.97804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.92617</c:v>
+                  <c:v>11.061401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.959755</c:v>
+                  <c:v>15.139446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.987991</c:v>
+                  <c:v>19.21212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.010879</c:v>
+                  <c:v>23.265249</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.265249</c:v>
@@ -2662,34 +2668,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.806937</c:v>
+                  <c:v>1.854607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.562642</c:v>
+                  <c:v>5.655166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.323213</c:v>
+                  <c:v>9.460536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.075078</c:v>
+                  <c:v>13.257161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.818144</c:v>
+                  <c:v>17.044949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.552411</c:v>
+                  <c:v>20.823898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.277878</c:v>
+                  <c:v>24.594011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.994547</c:v>
+                  <c:v>28.355285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.702418</c:v>
+                  <c:v>32.107723</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.40149</c:v>
+                  <c:v>35.851325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,34 +2777,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7625</c:v>
+                  <c:v>0.811611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.237991</c:v>
+                  <c:v>4.332292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.720257</c:v>
+                  <c:v>7.859672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.190402</c:v>
+                  <c:v>11.374876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.648297</c:v>
+                  <c:v>14.877778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.093942</c:v>
+                  <c:v>18.368376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.527338</c:v>
+                  <c:v>21.84667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.948485</c:v>
+                  <c:v>25.312662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.357382</c:v>
+                  <c:v>28.766351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.754032</c:v>
+                  <c:v>32.207739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,16 +2886,16 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.170072</c:v>
+                  <c:v>3.265799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.273337</c:v>
+                  <c:v>7.462603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.379061</c:v>
+                  <c:v>11.661813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.4806</c:v>
+                  <c:v>15.856798</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.63656</c:v>
@@ -2989,31 +2995,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.085485</c:v>
+                  <c:v>2.183608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.898368</c:v>
+                  <c:v>6.090565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.715804</c:v>
+                  <c:v>10.001976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.525494</c:v>
+                  <c:v>13.905566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.327355</c:v>
+                  <c:v>17.801252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.121385</c:v>
+                  <c:v>21.689032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.907585</c:v>
+                  <c:v>25.568908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.685955</c:v>
+                  <c:v>29.440878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.456495</c:v>
+                  <c:v>32.646397</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32.646397</c:v>
@@ -3098,34 +3104,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.000898</c:v>
+                  <c:v>1.101417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.523399</c:v>
+                  <c:v>4.718527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.052547</c:v>
+                  <c:v>8.342138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.570389</c:v>
+                  <c:v>11.954335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0768</c:v>
+                  <c:v>15.554991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.571781</c:v>
+                  <c:v>19.144108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.055331</c:v>
+                  <c:v>22.721684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.527451</c:v>
+                  <c:v>26.287722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.988142</c:v>
+                  <c:v>29.84222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.437404</c:v>
+                  <c:v>33.38518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3705,34 +3711,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.61581</c:v>
+                  <c:v>1.653615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.89115</c:v>
+                  <c:v>3.963421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.168236</c:v>
+                  <c:v>6.274947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.443627</c:v>
+                  <c:v>8.584768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.717305</c:v>
+                  <c:v>10.892865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.98927</c:v>
+                  <c:v>13.199239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.259522</c:v>
+                  <c:v>15.50389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.52806</c:v>
+                  <c:v>17.806818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.794886</c:v>
+                  <c:v>20.108023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.059999</c:v>
+                  <c:v>22.407506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,34 +3820,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.039859</c:v>
+                  <c:v>1.080539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.164751</c:v>
+                  <c:v>3.240618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.292516</c:v>
+                  <c:v>5.403526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.417492</c:v>
+                  <c:v>7.563628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.53965</c:v>
+                  <c:v>9.720896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.658989</c:v>
+                  <c:v>11.875328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.77551</c:v>
+                  <c:v>14.026927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.889213</c:v>
+                  <c:v>16.17569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.000098</c:v>
+                  <c:v>18.321619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.108164</c:v>
+                  <c:v>20.464713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,34 +3929,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.463909</c:v>
+                  <c:v>0.507463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.438353</c:v>
+                  <c:v>2.517815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.416796</c:v>
+                  <c:v>4.532105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.391357</c:v>
+                  <c:v>6.542489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.361994</c:v>
+                  <c:v>8.548927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.328708</c:v>
+                  <c:v>10.551418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.291499</c:v>
+                  <c:v>12.549963</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.250366</c:v>
+                  <c:v>14.544562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.205309</c:v>
+                  <c:v>16.535214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.15633</c:v>
+                  <c:v>18.52192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,25 +4038,25 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.81841</c:v>
+                  <c:v>1.897299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.158919</c:v>
+                  <c:v>4.311738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.500855</c:v>
+                  <c:v>6.727562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.841435</c:v>
+                  <c:v>9.142012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.180644</c:v>
+                  <c:v>11.555072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.518481</c:v>
+                  <c:v>13.966743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.854947</c:v>
+                  <c:v>16.377024</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.63656</c:v>
@@ -4141,34 +4147,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.217463</c:v>
+                  <c:v>1.301969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.401364</c:v>
+                  <c:v>3.561198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.587909</c:v>
+                  <c:v>5.822991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.771942</c:v>
+                  <c:v>8.082239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.953437</c:v>
+                  <c:v>10.338916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.132393</c:v>
+                  <c:v>12.59302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.308811</c:v>
+                  <c:v>14.844553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.482691</c:v>
+                  <c:v>17.093514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.654032</c:v>
+                  <c:v>19.339904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.822835</c:v>
+                  <c:v>21.583721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,34 +4256,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.616517</c:v>
+                  <c:v>0.70664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.64381</c:v>
+                  <c:v>2.810659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.674963</c:v>
+                  <c:v>4.91842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.702449</c:v>
+                  <c:v>7.022467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.72623</c:v>
+                  <c:v>9.122759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.746306</c:v>
+                  <c:v>11.219297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.762676</c:v>
+                  <c:v>13.312081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.77534</c:v>
+                  <c:v>15.401112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.784299</c:v>
+                  <c:v>17.486388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.789552</c:v>
+                  <c:v>19.56791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,31 +4863,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.066272</c:v>
+                  <c:v>2.09757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.667269</c:v>
+                  <c:v>4.726356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.267476</c:v>
+                  <c:v>7.354342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.865813</c:v>
+                  <c:v>9.980457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.462278</c:v>
+                  <c:v>12.604697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.056872</c:v>
+                  <c:v>15.227063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.649593</c:v>
+                  <c:v>17.847555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.240443</c:v>
+                  <c:v>20.466174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.829421</c:v>
+                  <c:v>23.082918</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>23.265249</c:v>
@@ -4966,22 +4972,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.851374</c:v>
+                  <c:v>2.897603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.887293</c:v>
+                  <c:v>6.97804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.92617</c:v>
+                  <c:v>11.061401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.959755</c:v>
+                  <c:v>15.139446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.987991</c:v>
+                  <c:v>19.21212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.010879</c:v>
+                  <c:v>23.265249</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.265249</c:v>
@@ -5075,34 +5081,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.61581</c:v>
+                  <c:v>1.653615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.89115</c:v>
+                  <c:v>3.963421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.168236</c:v>
+                  <c:v>6.274947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.443627</c:v>
+                  <c:v>8.584768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.717305</c:v>
+                  <c:v>10.892865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.98927</c:v>
+                  <c:v>13.199239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.259522</c:v>
+                  <c:v>15.50389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.52806</c:v>
+                  <c:v>17.806818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.794886</c:v>
+                  <c:v>20.108023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.059999</c:v>
+                  <c:v>22.407506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,22 +5578,22 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.250946</c:v>
+                  <c:v>2.316205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.928129</c:v>
+                  <c:v>5.053245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.604687</c:v>
+                  <c:v>7.789644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.27974</c:v>
+                  <c:v>10.524533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.953287</c:v>
+                  <c:v>13.257912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.625327</c:v>
+                  <c:v>15.98978</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17.63656</c:v>
@@ -5681,16 +5687,16 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.170072</c:v>
+                  <c:v>3.265799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.273337</c:v>
+                  <c:v>7.462603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.379061</c:v>
+                  <c:v>11.661813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.4806</c:v>
+                  <c:v>15.856798</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.63656</c:v>
@@ -5790,25 +5796,25 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.81841</c:v>
+                  <c:v>1.897299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.158919</c:v>
+                  <c:v>4.311738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.500855</c:v>
+                  <c:v>6.727562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.841435</c:v>
+                  <c:v>9.142012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.180644</c:v>
+                  <c:v>11.555072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.518481</c:v>
+                  <c:v>13.966743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.854947</c:v>
+                  <c:v>16.377024</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.63656</c:v>
@@ -6287,34 +6293,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.584002</c:v>
+                  <c:v>1.618436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.047715</c:v>
+                  <c:v>4.110808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.510126</c:v>
+                  <c:v>6.601864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.969462</c:v>
+                  <c:v>9.089841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.425718</c:v>
+                  <c:v>11.574734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.878894</c:v>
+                  <c:v>14.056544</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.328991</c:v>
+                  <c:v>16.535272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.776009</c:v>
+                  <c:v>19.010916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.219947</c:v>
+                  <c:v>21.483477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.660806</c:v>
+                  <c:v>23.952955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6410,34 +6416,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.806937</c:v>
+                  <c:v>1.854607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.562642</c:v>
+                  <c:v>5.655166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.323213</c:v>
+                  <c:v>9.460536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.075078</c:v>
+                  <c:v>13.257161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.818144</c:v>
+                  <c:v>17.044949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.552411</c:v>
+                  <c:v>20.823898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.277878</c:v>
+                  <c:v>24.594011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.994547</c:v>
+                  <c:v>28.355285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.702418</c:v>
+                  <c:v>32.107723</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.40149</c:v>
+                  <c:v>35.851325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6519,34 +6525,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.039859</c:v>
+                  <c:v>1.080539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.164751</c:v>
+                  <c:v>3.240618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.292516</c:v>
+                  <c:v>5.403526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.417492</c:v>
+                  <c:v>7.563628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.53965</c:v>
+                  <c:v>9.720896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.658989</c:v>
+                  <c:v>11.875328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.77551</c:v>
+                  <c:v>14.026927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.889213</c:v>
+                  <c:v>16.17569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.000098</c:v>
+                  <c:v>18.321619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.108164</c:v>
+                  <c:v>20.464713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7020,34 +7026,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.744011</c:v>
+                  <c:v>1.815628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.277013</c:v>
+                  <c:v>4.410248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.808857</c:v>
+                  <c:v>7.003682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.337917</c:v>
+                  <c:v>9.594322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.864188</c:v>
+                  <c:v>12.182165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.387672</c:v>
+                  <c:v>14.767211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.908368</c:v>
+                  <c:v>17.34946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.426276</c:v>
+                  <c:v>19.928912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.941395</c:v>
+                  <c:v>22.505567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.453728</c:v>
+                  <c:v>25.079425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,31 +7135,31 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.085485</c:v>
+                  <c:v>2.183608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.898368</c:v>
+                  <c:v>6.090565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.715804</c:v>
+                  <c:v>10.001976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.525494</c:v>
+                  <c:v>13.905566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.327355</c:v>
+                  <c:v>17.801252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.121385</c:v>
+                  <c:v>21.689032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.907585</c:v>
+                  <c:v>25.568908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.685955</c:v>
+                  <c:v>29.440878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.456495</c:v>
+                  <c:v>32.646397</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32.646397</c:v>
@@ -7238,34 +7244,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.217463</c:v>
+                  <c:v>1.301969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.401364</c:v>
+                  <c:v>3.561198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.587909</c:v>
+                  <c:v>5.822991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.771942</c:v>
+                  <c:v>8.082239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.953437</c:v>
+                  <c:v>10.338916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.132393</c:v>
+                  <c:v>12.59302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.308811</c:v>
+                  <c:v>14.844553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.482691</c:v>
+                  <c:v>17.093514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.654032</c:v>
+                  <c:v>19.339904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.822835</c:v>
+                  <c:v>21.583721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7735,34 +7741,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.101733</c:v>
+                  <c:v>1.139302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.42816</c:v>
+                  <c:v>3.49526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.752776</c:v>
+                  <c:v>5.849386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.07311</c:v>
+                  <c:v>8.199224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.389157</c:v>
+                  <c:v>10.544771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.700917</c:v>
+                  <c:v>12.886025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.008389</c:v>
+                  <c:v>15.222988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.311575</c:v>
+                  <c:v>17.555658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.610474</c:v>
+                  <c:v>19.884036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.905085</c:v>
+                  <c:v>22.208122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7844,34 +7850,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.7625</c:v>
+                  <c:v>0.811611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.237991</c:v>
+                  <c:v>4.332292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.720257</c:v>
+                  <c:v>7.859672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.190402</c:v>
+                  <c:v>11.374876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.648297</c:v>
+                  <c:v>14.877778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.093942</c:v>
+                  <c:v>18.368376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.527338</c:v>
+                  <c:v>21.84667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.948485</c:v>
+                  <c:v>25.312662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.357382</c:v>
+                  <c:v>28.766351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.754032</c:v>
+                  <c:v>32.207739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7953,34 +7959,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.463909</c:v>
+                  <c:v>0.507463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.438353</c:v>
+                  <c:v>2.517815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.416796</c:v>
+                  <c:v>4.532105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.391357</c:v>
+                  <c:v>6.542489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.361994</c:v>
+                  <c:v>8.548927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.328708</c:v>
+                  <c:v>10.551418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.291499</c:v>
+                  <c:v>12.549963</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.250366</c:v>
+                  <c:v>14.544562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.205309</c:v>
+                  <c:v>16.535214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.15633</c:v>
+                  <c:v>18.52192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8450,34 +8456,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.237076</c:v>
+                  <c:v>1.31505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.625897</c:v>
+                  <c:v>3.767251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.013028</c:v>
+                  <c:v>6.21772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.396094</c:v>
+                  <c:v>8.66411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.77509</c:v>
+                  <c:v>11.106417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.150017</c:v>
+                  <c:v>13.544642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.520873</c:v>
+                  <c:v>15.978783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.88766</c:v>
+                  <c:v>18.408841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.250378</c:v>
+                  <c:v>20.834817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.609026</c:v>
+                  <c:v>23.25671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8559,34 +8565,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.000898</c:v>
+                  <c:v>1.101417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.523399</c:v>
+                  <c:v>4.718527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.052547</c:v>
+                  <c:v>8.342138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.570389</c:v>
+                  <c:v>11.954335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0768</c:v>
+                  <c:v>15.554991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.571781</c:v>
+                  <c:v>19.144108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.055331</c:v>
+                  <c:v>22.721684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.527451</c:v>
+                  <c:v>26.287722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.988142</c:v>
+                  <c:v>29.84222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.437404</c:v>
+                  <c:v>33.38518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8668,34 +8674,34 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.616517</c:v>
+                  <c:v>0.70664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.64381</c:v>
+                  <c:v>2.810659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.674963</c:v>
+                  <c:v>4.91842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.702449</c:v>
+                  <c:v>7.022467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.72623</c:v>
+                  <c:v>9.122759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.746306</c:v>
+                  <c:v>11.219297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.762676</c:v>
+                  <c:v>13.312081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.77534</c:v>
+                  <c:v>15.401112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.784299</c:v>
+                  <c:v>17.486388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.789552</c:v>
+                  <c:v>19.56791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14446,8 +14452,8 @@
   <sheetPr/>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14507,7 +14513,7 @@
       <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="58"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:8">
       <c r="A4" s="11" t="s">
@@ -14526,7 +14532,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="68" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14583,7 +14589,7 @@
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
-      <c r="Z8" s="48"/>
+      <c r="Z8" s="49"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:26">
       <c r="A9" s="24"/>
@@ -14597,7 +14603,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="22" t="s">
         <v>20</v>
       </c>
@@ -14607,16 +14613,16 @@
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="59" t="s">
+      <c r="R9" s="49"/>
+      <c r="S9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
       <c r="Z9" s="21"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:26">
@@ -14711,22 +14717,22 @@
         <v>137.614247</v>
       </c>
       <c r="E11" s="33">
-        <v>41.341488</v>
+        <v>40.956658</v>
       </c>
       <c r="F11" s="33">
-        <v>42.6698</v>
+        <v>42.264049</v>
       </c>
       <c r="G11" s="33">
         <v>5</v>
       </c>
       <c r="H11" s="33">
-        <v>3.671689</v>
+        <v>3.692608</v>
       </c>
       <c r="I11" s="33">
-        <v>49.558018</v>
-      </c>
-      <c r="J11" s="49">
-        <v>2.066272</v>
+        <v>50.308683</v>
+      </c>
+      <c r="J11" s="50">
+        <v>2.09757</v>
       </c>
       <c r="K11" s="32">
         <v>103.642737</v>
@@ -14735,46 +14741,46 @@
         <v>137.614247</v>
       </c>
       <c r="M11" s="33">
-        <v>68.013416</v>
+        <v>67.380308</v>
       </c>
       <c r="N11" s="33">
-        <v>70.198702</v>
+        <v>69.531178</v>
       </c>
       <c r="O11" s="33">
         <v>5</v>
       </c>
       <c r="P11" s="33">
-        <v>2.814713</v>
+        <v>2.84913</v>
       </c>
       <c r="Q11" s="33">
-        <v>37.991135</v>
-      </c>
-      <c r="R11" s="49">
-        <v>1.584002</v>
+        <v>38.817</v>
+      </c>
+      <c r="R11" s="50">
+        <v>1.618436</v>
       </c>
       <c r="S11" s="32">
         <v>103.642737</v>
       </c>
-      <c r="T11" s="61">
+      <c r="T11" s="63">
         <v>137.614247</v>
       </c>
       <c r="U11" s="33">
-        <v>94.685344</v>
-      </c>
-      <c r="V11" s="61">
-        <v>97.727605</v>
-      </c>
-      <c r="W11" s="61">
+        <v>93.803958</v>
+      </c>
+      <c r="V11" s="63">
+        <v>96.798306</v>
+      </c>
+      <c r="W11" s="63">
         <v>5</v>
       </c>
-      <c r="X11" s="61">
-        <v>1.957738</v>
-      </c>
-      <c r="Y11" s="61">
-        <v>26.424253</v>
-      </c>
-      <c r="Z11" s="49">
-        <v>1.101733</v>
+      <c r="X11" s="63">
+        <v>2.005652</v>
+      </c>
+      <c r="Y11" s="63">
+        <v>27.325316</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>1.139302</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -14790,19 +14796,19 @@
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33">
-        <v>43.047923</v>
+        <v>42.636276</v>
       </c>
       <c r="G12" s="33">
         <v>10</v>
       </c>
       <c r="H12" s="33">
-        <v>8.293565</v>
+        <v>8.320382</v>
       </c>
       <c r="I12" s="33">
-        <v>111.941047</v>
-      </c>
-      <c r="J12" s="49">
-        <v>4.667269</v>
+        <v>113.358202</v>
+      </c>
+      <c r="J12" s="50">
+        <v>4.726356</v>
       </c>
       <c r="K12" s="32">
         <v>134.125895</v>
@@ -14812,41 +14818,41 @@
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33">
-        <v>70.820776</v>
+        <v>70.143551</v>
       </c>
       <c r="O12" s="33">
         <v>10</v>
       </c>
       <c r="P12" s="33">
-        <v>7.19264</v>
+        <v>7.236757</v>
       </c>
       <c r="Q12" s="33">
-        <v>97.081483</v>
-      </c>
-      <c r="R12" s="49">
-        <v>4.047715</v>
+        <v>98.594728</v>
+      </c>
+      <c r="R12" s="50">
+        <v>4.110808</v>
       </c>
       <c r="S12" s="32">
         <v>134.125895</v>
       </c>
-      <c r="T12" s="61">
+      <c r="T12" s="63">
         <v>175.989375</v>
       </c>
       <c r="U12" s="33"/>
-      <c r="V12" s="61">
-        <v>98.593629</v>
-      </c>
-      <c r="W12" s="61">
+      <c r="V12" s="63">
+        <v>97.650825</v>
+      </c>
+      <c r="W12" s="63">
         <v>10</v>
       </c>
-      <c r="X12" s="61">
-        <v>6.091714</v>
-      </c>
-      <c r="Y12" s="61">
-        <v>82.221919</v>
-      </c>
-      <c r="Z12" s="49">
-        <v>3.42816</v>
+      <c r="X12" s="63">
+        <v>6.153133</v>
+      </c>
+      <c r="Y12" s="63">
+        <v>83.831254</v>
+      </c>
+      <c r="Z12" s="50">
+        <v>3.49526</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -14862,19 +14868,19 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33">
-        <v>43.427451</v>
+        <v>43.009911</v>
       </c>
       <c r="G13" s="33">
         <v>15</v>
       </c>
       <c r="H13" s="33">
-        <v>12.914037</v>
+        <v>12.946747</v>
       </c>
       <c r="I13" s="33">
-        <v>174.305107</v>
-      </c>
-      <c r="J13" s="49">
-        <v>7.267476</v>
+        <v>176.388532</v>
+      </c>
+      <c r="J13" s="50">
+        <v>7.354342</v>
       </c>
       <c r="K13" s="32">
         <v>164.609053</v>
@@ -14884,41 +14890,41 @@
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33">
-        <v>71.445162</v>
+        <v>70.75824</v>
       </c>
       <c r="O13" s="33">
         <v>15</v>
       </c>
       <c r="P13" s="33">
-        <v>11.568254</v>
+        <v>11.622067</v>
       </c>
       <c r="Q13" s="33">
-        <v>156.140623</v>
-      </c>
-      <c r="R13" s="49">
-        <v>6.510126</v>
+        <v>158.340889</v>
+      </c>
+      <c r="R13" s="50">
+        <v>6.601864</v>
       </c>
       <c r="S13" s="32">
         <v>164.609053</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="63">
         <v>214.168498</v>
       </c>
       <c r="U13" s="33"/>
-      <c r="V13" s="61">
-        <v>99.462872</v>
-      </c>
-      <c r="W13" s="61">
+      <c r="V13" s="63">
+        <v>98.50657</v>
+      </c>
+      <c r="W13" s="63">
         <v>15</v>
       </c>
-      <c r="X13" s="61">
-        <v>10.222471</v>
-      </c>
-      <c r="Y13" s="61">
-        <v>137.97614</v>
-      </c>
-      <c r="Z13" s="49">
-        <v>5.752776</v>
+      <c r="X13" s="63">
+        <v>10.297388</v>
+      </c>
+      <c r="Y13" s="63">
+        <v>140.293246</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>5.849386</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -14934,19 +14940,19 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33">
-        <v>43.810302</v>
+        <v>43.386841</v>
       </c>
       <c r="G14" s="33">
         <v>20</v>
       </c>
       <c r="H14" s="33">
-        <v>17.531186</v>
+        <v>17.569816</v>
       </c>
       <c r="I14" s="33">
-        <v>236.624323</v>
-      </c>
-      <c r="J14" s="49">
-        <v>9.865813</v>
+        <v>239.373966</v>
+      </c>
+      <c r="J14" s="50">
+        <v>9.980457</v>
       </c>
       <c r="K14" s="32">
         <v>195.092212</v>
@@ -14956,41 +14962,41 @@
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33">
-        <v>72.075014</v>
+        <v>71.378352</v>
       </c>
       <c r="O14" s="33">
         <v>20</v>
       </c>
       <c r="P14" s="33">
-        <v>15.938402</v>
+        <v>16.001956</v>
       </c>
       <c r="Q14" s="33">
-        <v>215.125988</v>
-      </c>
-      <c r="R14" s="49">
-        <v>8.969462</v>
+        <v>218.013188</v>
+      </c>
+      <c r="R14" s="50">
+        <v>9.089841</v>
       </c>
       <c r="S14" s="32">
         <v>195.092212</v>
       </c>
-      <c r="T14" s="61">
+      <c r="T14" s="63">
         <v>252.347049</v>
       </c>
       <c r="U14" s="33"/>
-      <c r="V14" s="61">
-        <v>100.339725</v>
-      </c>
-      <c r="W14" s="61">
+      <c r="V14" s="63">
+        <v>99.369862</v>
+      </c>
+      <c r="W14" s="63">
         <v>20</v>
       </c>
-      <c r="X14" s="61">
-        <v>14.345619</v>
-      </c>
-      <c r="Y14" s="61">
-        <v>193.627653</v>
-      </c>
-      <c r="Z14" s="49">
-        <v>8.07311</v>
+      <c r="X14" s="63">
+        <v>14.434096</v>
+      </c>
+      <c r="Y14" s="63">
+        <v>196.65241</v>
+      </c>
+      <c r="Z14" s="50">
+        <v>8.199224</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -15006,19 +15012,19 @@
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33">
-        <v>44.19648</v>
+        <v>43.767071</v>
       </c>
       <c r="G15" s="33">
         <v>25</v>
       </c>
       <c r="H15" s="33">
-        <v>22.145009</v>
+        <v>22.189587</v>
       </c>
       <c r="I15" s="33">
-        <v>298.898645</v>
-      </c>
-      <c r="J15" s="49">
-        <v>12.462278</v>
+        <v>302.314453</v>
+      </c>
+      <c r="J15" s="50">
+        <v>12.604697</v>
       </c>
       <c r="K15" s="32">
         <v>225.57537</v>
@@ -15028,41 +15034,41 @@
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33">
-        <v>72.710337</v>
+        <v>72.00389</v>
       </c>
       <c r="O15" s="33">
         <v>25</v>
       </c>
       <c r="P15" s="33">
-        <v>20.303079</v>
+        <v>20.376417</v>
       </c>
       <c r="Q15" s="33">
-        <v>274.037495</v>
-      </c>
-      <c r="R15" s="49">
-        <v>11.425718</v>
+        <v>277.611542</v>
+      </c>
+      <c r="R15" s="50">
+        <v>11.574734</v>
       </c>
       <c r="S15" s="32">
         <v>225.57537</v>
       </c>
-      <c r="T15" s="61">
+      <c r="T15" s="63">
         <v>290.525415</v>
       </c>
       <c r="U15" s="33"/>
-      <c r="V15" s="61">
-        <v>101.224195</v>
-      </c>
-      <c r="W15" s="61">
+      <c r="V15" s="63">
+        <v>100.24071</v>
+      </c>
+      <c r="W15" s="63">
         <v>25</v>
       </c>
-      <c r="X15" s="61">
-        <v>18.461149</v>
-      </c>
-      <c r="Y15" s="61">
-        <v>249.176344</v>
-      </c>
-      <c r="Z15" s="49">
-        <v>10.389157</v>
+      <c r="X15" s="63">
+        <v>18.563248</v>
+      </c>
+      <c r="Y15" s="63">
+        <v>252.908631</v>
+      </c>
+      <c r="Z15" s="50">
+        <v>10.544771</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -15078,19 +15084,19 @@
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33">
-        <v>44.585983</v>
+        <v>44.150599</v>
       </c>
       <c r="G16" s="33">
         <v>30</v>
       </c>
       <c r="H16" s="33">
-        <v>26.755505</v>
+        <v>26.806059</v>
       </c>
       <c r="I16" s="33">
-        <v>361.128072</v>
-      </c>
-      <c r="J16" s="49">
-        <v>15.056872</v>
+        <v>365.209992</v>
+      </c>
+      <c r="J16" s="50">
+        <v>15.227063</v>
       </c>
       <c r="K16" s="32">
         <v>256.058528</v>
@@ -15100,41 +15106,41 @@
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33">
-        <v>73.351133</v>
+        <v>72.634857</v>
       </c>
       <c r="O16" s="33">
         <v>30</v>
       </c>
       <c r="P16" s="33">
-        <v>24.662283</v>
+        <v>24.745451</v>
       </c>
       <c r="Q16" s="33">
-        <v>332.875142</v>
-      </c>
-      <c r="R16" s="49">
-        <v>13.878894</v>
+        <v>337.13595</v>
+      </c>
+      <c r="R16" s="50">
+        <v>14.056544</v>
       </c>
       <c r="S16" s="32">
         <v>256.058528</v>
       </c>
-      <c r="T16" s="61">
+      <c r="T16" s="63">
         <v>328.703598</v>
       </c>
       <c r="U16" s="33"/>
-      <c r="V16" s="61">
-        <v>102.116283</v>
-      </c>
-      <c r="W16" s="61">
+      <c r="V16" s="63">
+        <v>101.119114</v>
+      </c>
+      <c r="W16" s="63">
         <v>30</v>
       </c>
-      <c r="X16" s="61">
-        <v>22.56906</v>
-      </c>
-      <c r="Y16" s="61">
-        <v>304.622213</v>
-      </c>
-      <c r="Z16" s="49">
-        <v>12.700917</v>
+      <c r="X16" s="63">
+        <v>22.684844</v>
+      </c>
+      <c r="Y16" s="63">
+        <v>309.061908</v>
+      </c>
+      <c r="Z16" s="50">
+        <v>12.886025</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -15150,19 +15156,19 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33">
-        <v>44.978812</v>
+        <v>44.537427</v>
       </c>
       <c r="G17" s="33">
         <v>35</v>
       </c>
       <c r="H17" s="33">
-        <v>31.362676</v>
+        <v>31.419231</v>
       </c>
       <c r="I17" s="33">
-        <v>423.312605</v>
-      </c>
-      <c r="J17" s="49">
-        <v>17.649593</v>
+        <v>428.060585</v>
+      </c>
+      <c r="J17" s="50">
+        <v>17.847555</v>
       </c>
       <c r="K17" s="32">
         <v>286.541686</v>
@@ -15172,41 +15178,41 @@
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33">
-        <v>73.997401</v>
+        <v>73.271251</v>
       </c>
       <c r="O17" s="33">
         <v>35</v>
       </c>
       <c r="P17" s="33">
-        <v>29.016015</v>
+        <v>29.109057</v>
       </c>
       <c r="Q17" s="33">
-        <v>391.638932</v>
-      </c>
-      <c r="R17" s="49">
-        <v>16.328991</v>
+        <v>396.586413</v>
+      </c>
+      <c r="R17" s="50">
+        <v>16.535272</v>
       </c>
       <c r="S17" s="32">
         <v>286.541686</v>
       </c>
-      <c r="T17" s="61">
+      <c r="T17" s="63">
         <v>366.881602</v>
       </c>
       <c r="U17" s="33"/>
-      <c r="V17" s="61">
-        <v>103.01599</v>
-      </c>
-      <c r="W17" s="61">
+      <c r="V17" s="63">
+        <v>102.005074</v>
+      </c>
+      <c r="W17" s="63">
         <v>35</v>
       </c>
-      <c r="X17" s="61">
-        <v>26.669354</v>
-      </c>
-      <c r="Y17" s="61">
-        <v>359.96526</v>
-      </c>
-      <c r="Z17" s="49">
-        <v>15.008389</v>
+      <c r="X17" s="63">
+        <v>26.798884</v>
+      </c>
+      <c r="Y17" s="63">
+        <v>365.112242</v>
+      </c>
+      <c r="Z17" s="50">
+        <v>15.222988</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -15222,19 +15228,19 @@
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33">
-        <v>45.374968</v>
+        <v>44.927553</v>
       </c>
       <c r="G18" s="33">
         <v>40</v>
       </c>
       <c r="H18" s="33">
-        <v>35.96652</v>
+        <v>36.029104</v>
       </c>
       <c r="I18" s="33">
-        <v>485.452245</v>
-      </c>
-      <c r="J18" s="49">
-        <v>20.240443</v>
+        <v>490.866231</v>
+      </c>
+      <c r="J18" s="50">
+        <v>20.466174</v>
       </c>
       <c r="K18" s="32">
         <v>317.024844</v>
@@ -15244,41 +15250,41 @@
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33">
-        <v>74.649141</v>
+        <v>73.913072</v>
       </c>
       <c r="O18" s="33">
         <v>40</v>
       </c>
       <c r="P18" s="33">
-        <v>33.364275</v>
+        <v>33.467236</v>
       </c>
       <c r="Q18" s="33">
-        <v>450.328865</v>
-      </c>
-      <c r="R18" s="49">
-        <v>18.776009</v>
+        <v>455.962933</v>
+      </c>
+      <c r="R18" s="50">
+        <v>19.010916</v>
       </c>
       <c r="S18" s="32">
         <v>317.024844</v>
       </c>
-      <c r="T18" s="61">
+      <c r="T18" s="63">
         <v>405.059427</v>
       </c>
       <c r="U18" s="33"/>
-      <c r="V18" s="61">
-        <v>103.923314</v>
-      </c>
-      <c r="W18" s="61">
+      <c r="V18" s="63">
+        <v>102.89859</v>
+      </c>
+      <c r="W18" s="63">
         <v>40</v>
       </c>
-      <c r="X18" s="61">
-        <v>30.76203</v>
-      </c>
-      <c r="Y18" s="61">
-        <v>415.205485</v>
-      </c>
-      <c r="Z18" s="49">
-        <v>17.311575</v>
+      <c r="X18" s="63">
+        <v>30.905368</v>
+      </c>
+      <c r="Y18" s="63">
+        <v>421.059634</v>
+      </c>
+      <c r="Z18" s="50">
+        <v>17.555658</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -15294,19 +15300,19 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33">
-        <v>45.77445</v>
+        <v>45.320979</v>
       </c>
       <c r="G19" s="33">
         <v>45</v>
       </c>
       <c r="H19" s="33">
-        <v>40.567038</v>
-      </c>
-      <c r="I19" s="50">
-        <v>547.546991</v>
-      </c>
-      <c r="J19" s="49">
-        <v>22.829421</v>
+        <v>40.635679</v>
+      </c>
+      <c r="I19" s="51">
+        <v>553.626931</v>
+      </c>
+      <c r="J19" s="50">
+        <v>23.082918</v>
       </c>
       <c r="K19" s="32">
         <v>347.508002</v>
@@ -15316,41 +15322,41 @@
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33">
-        <v>75.306353</v>
+        <v>74.56032</v>
       </c>
       <c r="O19" s="33">
         <v>45</v>
       </c>
       <c r="P19" s="33">
-        <v>37.707063</v>
+        <v>37.819988</v>
       </c>
       <c r="Q19" s="33">
-        <v>508.944941</v>
-      </c>
-      <c r="R19" s="49">
-        <v>21.219947</v>
+        <v>515.265508</v>
+      </c>
+      <c r="R19" s="50">
+        <v>21.483477</v>
       </c>
       <c r="S19" s="32">
         <v>347.508002</v>
       </c>
-      <c r="T19" s="61">
+      <c r="T19" s="63">
         <v>443.237077</v>
       </c>
       <c r="U19" s="33"/>
-      <c r="V19" s="61">
-        <v>104.838256</v>
-      </c>
-      <c r="W19" s="61">
+      <c r="V19" s="63">
+        <v>103.799662</v>
+      </c>
+      <c r="W19" s="63">
         <v>45</v>
       </c>
-      <c r="X19" s="61">
-        <v>34.847088</v>
-      </c>
-      <c r="Y19" s="61">
-        <v>470.34289</v>
-      </c>
-      <c r="Z19" s="49">
-        <v>19.610474</v>
+      <c r="X19" s="63">
+        <v>35.004296</v>
+      </c>
+      <c r="Y19" s="63">
+        <v>476.904085</v>
+      </c>
+      <c r="Z19" s="50">
+        <v>19.884036</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -15361,68 +15367,68 @@
       <c r="C20" s="36">
         <v>377.99116</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="37">
         <v>481.414554</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
-        <v>46.177258</v>
-      </c>
-      <c r="G20" s="13">
-        <v>46.177258</v>
-      </c>
-      <c r="H20" s="13">
-        <v>41.341488</v>
-      </c>
-      <c r="I20" s="51">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37">
+        <v>45.717704</v>
+      </c>
+      <c r="G20" s="37">
+        <v>45.717704</v>
+      </c>
+      <c r="H20" s="37">
+        <v>40.956658</v>
+      </c>
+      <c r="I20" s="52">
         <v>558</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="53">
         <v>23.265249</v>
       </c>
       <c r="K20" s="36">
         <v>377.99116</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="37">
         <v>481.414554</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13">
-        <v>75.969037</v>
-      </c>
-      <c r="O20" s="13">
+      <c r="M20" s="37"/>
+      <c r="N20" s="37">
+        <v>75.212996</v>
+      </c>
+      <c r="O20" s="37">
         <v>50</v>
       </c>
-      <c r="P20" s="13">
-        <v>42.044379</v>
-      </c>
-      <c r="Q20" s="62">
-        <v>567.48716</v>
-      </c>
-      <c r="R20" s="52">
-        <v>23.660806</v>
+      <c r="P20" s="37">
+        <v>42.167312</v>
+      </c>
+      <c r="Q20" s="64">
+        <v>574.49414</v>
+      </c>
+      <c r="R20" s="53">
+        <v>23.952955</v>
       </c>
       <c r="S20" s="36">
         <v>377.99116</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="37">
         <v>481.414554</v>
       </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13">
-        <v>105.760816</v>
-      </c>
-      <c r="W20" s="13">
+      <c r="U20" s="37"/>
+      <c r="V20" s="37">
+        <v>104.708289</v>
+      </c>
+      <c r="W20" s="37">
         <v>50</v>
       </c>
-      <c r="X20" s="13">
-        <v>38.924528</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>525.377476</v>
-      </c>
-      <c r="Z20" s="52">
-        <v>21.905085</v>
+      <c r="X20" s="37">
+        <v>39.095669</v>
+      </c>
+      <c r="Y20" s="37">
+        <v>532.645595</v>
+      </c>
+      <c r="Z20" s="53">
+        <v>22.208122</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:26">
@@ -15437,7 +15443,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="48"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="22" t="s">
         <v>33</v>
       </c>
@@ -15447,7 +15453,7 @@
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="48"/>
+      <c r="R21" s="49"/>
       <c r="S21" s="22" t="s">
         <v>34</v>
       </c>
@@ -15457,734 +15463,734 @@
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
-      <c r="Z21" s="48"/>
+      <c r="Z21" s="49"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="39">
         <v>5</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="40">
         <v>103.642737</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="41">
         <v>137.790454</v>
       </c>
-      <c r="E22" s="40">
-        <v>30.978339</v>
-      </c>
-      <c r="F22" s="40">
-        <v>32.024587</v>
-      </c>
-      <c r="G22" s="40">
+      <c r="E22" s="41">
+        <v>30.361973</v>
+      </c>
+      <c r="F22" s="41">
+        <v>31.374543</v>
+      </c>
+      <c r="G22" s="41">
         <v>5</v>
       </c>
-      <c r="H22" s="40">
-        <v>3.953752</v>
-      </c>
-      <c r="I22" s="40">
-        <v>53.987308</v>
-      </c>
-      <c r="J22" s="53">
-        <v>2.250946</v>
-      </c>
-      <c r="K22" s="39">
+      <c r="H22" s="41">
+        <v>3.98743</v>
+      </c>
+      <c r="I22" s="41">
+        <v>55.552482</v>
+      </c>
+      <c r="J22" s="54">
+        <v>2.316205</v>
+      </c>
+      <c r="K22" s="40">
         <v>103.642737</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="41">
         <v>137.790454</v>
       </c>
-      <c r="M22" s="40">
-        <v>57.342883</v>
-      </c>
-      <c r="N22" s="40">
-        <v>59.279555</v>
-      </c>
-      <c r="O22" s="40">
+      <c r="M22" s="41">
+        <v>56.201949</v>
+      </c>
+      <c r="N22" s="41">
+        <v>58.076281</v>
+      </c>
+      <c r="O22" s="41">
         <v>5</v>
       </c>
-      <c r="P22" s="40">
-        <v>3.063328</v>
-      </c>
-      <c r="Q22" s="40">
-        <v>41.828836</v>
-      </c>
-      <c r="R22" s="53">
-        <v>1.744011</v>
-      </c>
-      <c r="S22" s="39">
+      <c r="P22" s="41">
+        <v>3.125668</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>43.546504</v>
+      </c>
+      <c r="R22" s="54">
+        <v>1.815628</v>
+      </c>
+      <c r="S22" s="40">
         <v>103.642737</v>
       </c>
-      <c r="T22" s="63">
+      <c r="T22" s="65">
         <v>137.790454</v>
       </c>
-      <c r="U22" s="40">
-        <v>83.707427</v>
-      </c>
-      <c r="V22" s="63">
-        <v>86.534522</v>
-      </c>
-      <c r="W22" s="63">
+      <c r="U22" s="41">
+        <v>82.041926</v>
+      </c>
+      <c r="V22" s="65">
+        <v>84.778019</v>
+      </c>
+      <c r="W22" s="65">
         <v>5</v>
       </c>
-      <c r="X22" s="63">
-        <v>2.172905</v>
-      </c>
-      <c r="Y22" s="63">
-        <v>29.670365</v>
-      </c>
-      <c r="Z22" s="53">
-        <v>1.237076</v>
+      <c r="X22" s="65">
+        <v>2.263907</v>
+      </c>
+      <c r="Y22" s="65">
+        <v>31.540526</v>
+      </c>
+      <c r="Z22" s="54">
+        <v>1.31505</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38">
+      <c r="A23" s="42"/>
+      <c r="B23" s="39">
         <v>10</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="40">
         <v>134.125895</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="41">
         <v>176.171866</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40">
-        <v>32.322158</v>
-      </c>
-      <c r="G23" s="40">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41">
+        <v>31.662629</v>
+      </c>
+      <c r="G23" s="41">
         <v>10</v>
       </c>
-      <c r="H23" s="40">
-        <v>8.656182</v>
-      </c>
-      <c r="I23" s="40">
-        <v>118.197582</v>
-      </c>
-      <c r="J23" s="53">
-        <v>4.928129</v>
-      </c>
-      <c r="K23" s="39">
+      <c r="H23" s="41">
+        <v>8.699343</v>
+      </c>
+      <c r="I23" s="41">
+        <v>121.198388</v>
+      </c>
+      <c r="J23" s="54">
+        <v>5.053245</v>
+      </c>
+      <c r="K23" s="40">
         <v>134.125895</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="41">
         <v>176.171866</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40">
-        <v>59.830377</v>
-      </c>
-      <c r="O23" s="40">
+      <c r="M23" s="41"/>
+      <c r="N23" s="41">
+        <v>58.609548</v>
+      </c>
+      <c r="O23" s="41">
         <v>10</v>
       </c>
-      <c r="P23" s="40">
-        <v>7.512506</v>
-      </c>
-      <c r="Q23" s="40">
-        <v>102.581036</v>
-      </c>
-      <c r="R23" s="53">
-        <v>4.277013</v>
-      </c>
-      <c r="S23" s="39">
+      <c r="P23" s="41">
+        <v>7.592401</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>105.776581</v>
+      </c>
+      <c r="R23" s="54">
+        <v>4.410248</v>
+      </c>
+      <c r="S23" s="40">
         <v>134.125895</v>
       </c>
-      <c r="T23" s="63">
+      <c r="T23" s="65">
         <v>176.171866</v>
       </c>
-      <c r="U23" s="40"/>
-      <c r="V23" s="63">
-        <v>87.338596</v>
-      </c>
-      <c r="W23" s="63">
+      <c r="U23" s="41"/>
+      <c r="V23" s="65">
+        <v>85.556467</v>
+      </c>
+      <c r="W23" s="65">
         <v>10</v>
       </c>
-      <c r="X23" s="63">
-        <v>6.368831</v>
-      </c>
-      <c r="Y23" s="63">
-        <v>86.96449</v>
-      </c>
-      <c r="Z23" s="53">
-        <v>3.625897</v>
+      <c r="X23" s="65">
+        <v>6.485459</v>
+      </c>
+      <c r="Y23" s="65">
+        <v>90.354774</v>
+      </c>
+      <c r="Z23" s="54">
+        <v>3.767251</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38">
+      <c r="A24" s="42"/>
+      <c r="B24" s="39">
         <v>15</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="40">
         <v>164.609053</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="41">
         <v>214.352646</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40">
-        <v>32.620827</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41">
+        <v>31.95182</v>
+      </c>
+      <c r="G24" s="41">
         <v>15</v>
       </c>
-      <c r="H24" s="40">
-        <v>13.357512</v>
-      </c>
-      <c r="I24" s="40">
-        <v>182.392856</v>
-      </c>
-      <c r="J24" s="53">
-        <v>7.604687</v>
-      </c>
-      <c r="K24" s="39">
+      <c r="H24" s="41">
+        <v>13.410152</v>
+      </c>
+      <c r="I24" s="41">
+        <v>186.828917</v>
+      </c>
+      <c r="J24" s="54">
+        <v>7.789644</v>
+      </c>
+      <c r="K24" s="40">
         <v>164.609053</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="41">
         <v>214.352646</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40">
-        <v>60.383232</v>
-      </c>
-      <c r="O24" s="40">
+      <c r="M24" s="41"/>
+      <c r="N24" s="41">
+        <v>59.144859</v>
+      </c>
+      <c r="O24" s="41">
         <v>15</v>
       </c>
-      <c r="P24" s="40">
-        <v>11.959651</v>
-      </c>
-      <c r="Q24" s="40">
-        <v>163.305469</v>
-      </c>
-      <c r="R24" s="53">
-        <v>6.808857</v>
-      </c>
-      <c r="S24" s="39">
+      <c r="P24" s="41">
+        <v>12.057091</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>167.978194</v>
+      </c>
+      <c r="R24" s="54">
+        <v>7.003682</v>
+      </c>
+      <c r="S24" s="40">
         <v>164.609053</v>
       </c>
-      <c r="T24" s="63">
+      <c r="T24" s="65">
         <v>214.352646</v>
       </c>
-      <c r="U24" s="40"/>
-      <c r="V24" s="63">
-        <v>88.145638</v>
-      </c>
-      <c r="W24" s="63">
+      <c r="U24" s="41"/>
+      <c r="V24" s="65">
+        <v>86.337897</v>
+      </c>
+      <c r="W24" s="65">
         <v>15</v>
       </c>
-      <c r="X24" s="63">
-        <v>10.561789</v>
-      </c>
-      <c r="Y24" s="63">
-        <v>144.218082</v>
-      </c>
-      <c r="Z24" s="53">
-        <v>6.013028</v>
+      <c r="X24" s="65">
+        <v>10.704029</v>
+      </c>
+      <c r="Y24" s="65">
+        <v>149.127471</v>
+      </c>
+      <c r="Z24" s="54">
+        <v>6.21772</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38">
+      <c r="A25" s="42"/>
+      <c r="B25" s="39">
         <v>20</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="40">
         <v>195.092212</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="41">
         <v>252.532832</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40">
-        <v>32.922138</v>
-      </c>
-      <c r="G25" s="40">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41">
+        <v>32.243609</v>
+      </c>
+      <c r="G25" s="41">
         <v>20</v>
       </c>
-      <c r="H25" s="40">
-        <v>18.056201</v>
-      </c>
-      <c r="I25" s="40">
-        <v>246.552049</v>
-      </c>
-      <c r="J25" s="53">
-        <v>10.27974</v>
-      </c>
-      <c r="K25" s="39">
+      <c r="H25" s="41">
+        <v>18.118363</v>
+      </c>
+      <c r="I25" s="41">
+        <v>252.423247</v>
+      </c>
+      <c r="J25" s="54">
+        <v>10.524533</v>
+      </c>
+      <c r="K25" s="40">
         <v>195.092212</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="41">
         <v>252.532832</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40">
-        <v>60.940979</v>
-      </c>
-      <c r="O25" s="40">
+      <c r="M25" s="41"/>
+      <c r="N25" s="41">
+        <v>59.684979</v>
+      </c>
+      <c r="O25" s="41">
         <v>20</v>
       </c>
-      <c r="P25" s="40">
-        <v>16.401904</v>
-      </c>
-      <c r="Q25" s="40">
-        <v>223.963114</v>
-      </c>
-      <c r="R25" s="53">
-        <v>9.337917</v>
-      </c>
-      <c r="S25" s="39">
+      <c r="P25" s="41">
+        <v>16.516971</v>
+      </c>
+      <c r="Q25" s="41">
+        <v>230.112801</v>
+      </c>
+      <c r="R25" s="54">
+        <v>9.594322</v>
+      </c>
+      <c r="S25" s="40">
         <v>195.092212</v>
       </c>
-      <c r="T25" s="63">
+      <c r="T25" s="65">
         <v>252.532832</v>
       </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="63">
-        <v>88.95982</v>
-      </c>
-      <c r="W25" s="63">
+      <c r="U25" s="41"/>
+      <c r="V25" s="65">
+        <v>87.126348</v>
+      </c>
+      <c r="W25" s="65">
         <v>20</v>
       </c>
-      <c r="X25" s="63">
-        <v>14.747607</v>
-      </c>
-      <c r="Y25" s="63">
-        <v>201.374179</v>
-      </c>
-      <c r="Z25" s="53">
-        <v>8.396094</v>
+      <c r="X25" s="65">
+        <v>14.915578</v>
+      </c>
+      <c r="Y25" s="65">
+        <v>207.802354</v>
+      </c>
+      <c r="Z25" s="54">
+        <v>8.66411</v>
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="41"/>
-      <c r="B26" s="38">
+      <c r="A26" s="42"/>
+      <c r="B26" s="39">
         <v>25</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="40">
         <v>225.57537</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="41">
         <v>290.712827</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40">
-        <v>33.226095</v>
-      </c>
-      <c r="G26" s="40">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41">
+        <v>32.537999</v>
+      </c>
+      <c r="G26" s="41">
         <v>25</v>
       </c>
-      <c r="H26" s="40">
-        <v>22.752244</v>
-      </c>
-      <c r="I26" s="40">
-        <v>310.675119</v>
-      </c>
-      <c r="J26" s="53">
-        <v>12.953287</v>
-      </c>
-      <c r="K26" s="39">
+      <c r="H26" s="41">
+        <v>22.823973</v>
+      </c>
+      <c r="I26" s="41">
+        <v>317.981337</v>
+      </c>
+      <c r="J26" s="54">
+        <v>13.257912</v>
+      </c>
+      <c r="K26" s="40">
         <v>225.57537</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="41">
         <v>290.712827</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40">
-        <v>61.503623</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="M26" s="41"/>
+      <c r="N26" s="41">
+        <v>60.229914</v>
+      </c>
+      <c r="O26" s="41">
         <v>25</v>
       </c>
-      <c r="P26" s="40">
-        <v>20.83926</v>
-      </c>
-      <c r="Q26" s="40">
-        <v>284.553892</v>
-      </c>
-      <c r="R26" s="53">
-        <v>11.864188</v>
-      </c>
-      <c r="S26" s="39">
+      <c r="P26" s="41">
+        <v>20.972035</v>
+      </c>
+      <c r="Q26" s="41">
+        <v>292.180323</v>
+      </c>
+      <c r="R26" s="54">
+        <v>12.182165</v>
+      </c>
+      <c r="S26" s="40">
         <v>225.57537</v>
       </c>
-      <c r="T26" s="63">
+      <c r="T26" s="65">
         <v>290.712827</v>
       </c>
-      <c r="U26" s="40"/>
-      <c r="V26" s="63">
-        <v>89.781151</v>
-      </c>
-      <c r="W26" s="63">
+      <c r="U26" s="41"/>
+      <c r="V26" s="65">
+        <v>87.921828</v>
+      </c>
+      <c r="W26" s="65">
         <v>25</v>
       </c>
-      <c r="X26" s="63">
-        <v>18.926276</v>
-      </c>
-      <c r="Y26" s="63">
-        <v>258.432666</v>
-      </c>
-      <c r="Z26" s="53">
-        <v>10.77509</v>
+      <c r="X26" s="65">
+        <v>19.120098</v>
+      </c>
+      <c r="Y26" s="65">
+        <v>266.379309</v>
+      </c>
+      <c r="Z26" s="54">
+        <v>11.106417</v>
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="41"/>
-      <c r="B27" s="38">
+      <c r="A27" s="42"/>
+      <c r="B27" s="39">
         <v>30</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="40">
         <v>256.058528</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="41">
         <v>328.892637</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40">
-        <v>33.532698</v>
-      </c>
-      <c r="G27" s="40">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41">
+        <v>32.834991</v>
+      </c>
+      <c r="G27" s="41">
         <v>30</v>
       </c>
-      <c r="H27" s="40">
-        <v>27.445641</v>
-      </c>
-      <c r="I27" s="40">
-        <v>374.762065</v>
-      </c>
-      <c r="J27" s="53">
-        <v>15.625327</v>
-      </c>
-      <c r="K27" s="39">
+      <c r="H27" s="41">
+        <v>27.526982</v>
+      </c>
+      <c r="I27" s="55">
+        <v>383.503186</v>
+      </c>
+      <c r="J27" s="54">
+        <v>15.98978</v>
+      </c>
+      <c r="K27" s="40">
         <v>256.058528</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="41">
         <v>328.892637</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40">
-        <v>62.071164</v>
-      </c>
-      <c r="O27" s="40">
+      <c r="M27" s="41"/>
+      <c r="N27" s="41">
+        <v>60.779664</v>
+      </c>
+      <c r="O27" s="41">
         <v>30</v>
       </c>
-      <c r="P27" s="40">
-        <v>25.271719</v>
-      </c>
-      <c r="Q27" s="40">
-        <v>345.077805</v>
-      </c>
-      <c r="R27" s="53">
-        <v>14.387672</v>
-      </c>
-      <c r="S27" s="39">
+      <c r="P27" s="41">
+        <v>25.422285</v>
+      </c>
+      <c r="Q27" s="41">
+        <v>354.180762</v>
+      </c>
+      <c r="R27" s="54">
+        <v>14.767211</v>
+      </c>
+      <c r="S27" s="40">
         <v>256.058528</v>
       </c>
-      <c r="T27" s="63">
+      <c r="T27" s="65">
         <v>328.892637</v>
       </c>
-      <c r="U27" s="40"/>
-      <c r="V27" s="63">
-        <v>90.60963</v>
-      </c>
-      <c r="W27" s="63">
+      <c r="U27" s="41"/>
+      <c r="V27" s="65">
+        <v>88.724337</v>
+      </c>
+      <c r="W27" s="65">
         <v>30</v>
       </c>
-      <c r="X27" s="63">
-        <v>23.097797</v>
-      </c>
-      <c r="Y27" s="63">
-        <v>315.393544</v>
-      </c>
-      <c r="Z27" s="53">
-        <v>13.150017</v>
+      <c r="X27" s="65">
+        <v>23.317589</v>
+      </c>
+      <c r="Y27" s="65">
+        <v>324.858338</v>
+      </c>
+      <c r="Z27" s="54">
+        <v>13.544642</v>
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="41"/>
-      <c r="B28" s="38">
+      <c r="A28" s="42"/>
+      <c r="B28" s="39">
         <v>35</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="40">
         <v>286.541686</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="41">
         <v>367.072262</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40">
-        <v>33.841946</v>
-      </c>
-      <c r="G28" s="40">
-        <v>33.841946</v>
-      </c>
-      <c r="H28" s="40">
-        <v>30.978339</v>
-      </c>
-      <c r="I28" s="54">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41">
+        <v>33.134584</v>
+      </c>
+      <c r="G28" s="41">
+        <v>33.134584</v>
+      </c>
+      <c r="H28" s="41">
+        <v>30.361973</v>
+      </c>
+      <c r="I28" s="56">
         <v>423</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="40">
         <v>286.541686</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="41">
         <v>367.072262</v>
       </c>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40">
-        <v>62.643601</v>
-      </c>
-      <c r="O28" s="40">
+      <c r="M28" s="41"/>
+      <c r="N28" s="41">
+        <v>61.33423</v>
+      </c>
+      <c r="O28" s="41">
         <v>35</v>
       </c>
-      <c r="P28" s="40">
-        <v>29.699282</v>
-      </c>
-      <c r="Q28" s="40">
-        <v>405.534851</v>
-      </c>
-      <c r="R28" s="53">
-        <v>16.908368</v>
-      </c>
-      <c r="S28" s="39">
+      <c r="P28" s="41">
+        <v>29.86772</v>
+      </c>
+      <c r="Q28" s="41">
+        <v>416.114117</v>
+      </c>
+      <c r="R28" s="54">
+        <v>17.34946</v>
+      </c>
+      <c r="S28" s="40">
         <v>286.541686</v>
       </c>
-      <c r="T28" s="63">
+      <c r="T28" s="65">
         <v>367.072262</v>
       </c>
-      <c r="U28" s="40"/>
-      <c r="V28" s="63">
-        <v>91.445257</v>
-      </c>
-      <c r="W28" s="63">
+      <c r="U28" s="41"/>
+      <c r="V28" s="65">
+        <v>89.533875</v>
+      </c>
+      <c r="W28" s="65">
         <v>35</v>
       </c>
-      <c r="X28" s="63">
-        <v>27.26217</v>
-      </c>
-      <c r="Y28" s="63">
-        <v>372.256813</v>
-      </c>
-      <c r="Z28" s="53">
-        <v>15.520873</v>
+      <c r="X28" s="65">
+        <v>27.508051</v>
+      </c>
+      <c r="Y28" s="65">
+        <v>383.239441</v>
+      </c>
+      <c r="Z28" s="54">
+        <v>15.978783</v>
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="41"/>
-      <c r="B29" s="38">
+      <c r="A29" s="42"/>
+      <c r="B29" s="39">
         <v>40</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="40">
         <v>317.024844</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="41">
         <v>405.251706</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40">
-        <v>34.153839</v>
-      </c>
-      <c r="G29" s="40">
-        <v>34.153839</v>
-      </c>
-      <c r="H29" s="40">
-        <v>30.978339</v>
-      </c>
-      <c r="I29" s="54">
+      <c r="E29" s="41"/>
+      <c r="F29" s="41">
+        <v>33.436778</v>
+      </c>
+      <c r="G29" s="41">
+        <v>33.436778</v>
+      </c>
+      <c r="H29" s="41">
+        <v>30.361973</v>
+      </c>
+      <c r="I29" s="56">
         <v>423</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="40">
         <v>317.024844</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="41">
         <v>405.251706</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40">
-        <v>63.220936</v>
-      </c>
-      <c r="O29" s="40">
+      <c r="M29" s="41"/>
+      <c r="N29" s="41">
+        <v>61.89361</v>
+      </c>
+      <c r="O29" s="41">
         <v>40</v>
       </c>
-      <c r="P29" s="40">
-        <v>34.121947</v>
-      </c>
-      <c r="Q29" s="40">
-        <v>465.925032</v>
-      </c>
-      <c r="R29" s="53">
-        <v>19.426276</v>
-      </c>
-      <c r="S29" s="39">
+      <c r="P29" s="41">
+        <v>34.308339</v>
+      </c>
+      <c r="Q29" s="41">
+        <v>477.98039</v>
+      </c>
+      <c r="R29" s="54">
+        <v>19.928912</v>
+      </c>
+      <c r="S29" s="40">
         <v>317.024844</v>
       </c>
-      <c r="T29" s="63">
+      <c r="T29" s="65">
         <v>405.251706</v>
       </c>
-      <c r="U29" s="40"/>
-      <c r="V29" s="63">
-        <v>92.288033</v>
-      </c>
-      <c r="W29" s="63">
+      <c r="U29" s="41"/>
+      <c r="V29" s="65">
+        <v>90.350442</v>
+      </c>
+      <c r="W29" s="65">
         <v>40</v>
       </c>
-      <c r="X29" s="63">
-        <v>31.419394</v>
-      </c>
-      <c r="Y29" s="63">
-        <v>429.022474</v>
-      </c>
-      <c r="Z29" s="53">
-        <v>17.88766</v>
+      <c r="X29" s="65">
+        <v>31.691484</v>
+      </c>
+      <c r="Y29" s="65">
+        <v>441.522618</v>
+      </c>
+      <c r="Z29" s="54">
+        <v>18.408841</v>
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="41"/>
-      <c r="B30" s="38">
+      <c r="A30" s="42"/>
+      <c r="B30" s="39">
         <v>45</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="40">
         <v>347.508002</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="41">
         <v>443.430971</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40">
-        <v>34.468378</v>
-      </c>
-      <c r="G30" s="40">
-        <v>34.468378</v>
-      </c>
-      <c r="H30" s="40">
-        <v>30.978339</v>
-      </c>
-      <c r="I30" s="54">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41">
+        <v>33.741573</v>
+      </c>
+      <c r="G30" s="41">
+        <v>33.741573</v>
+      </c>
+      <c r="H30" s="41">
+        <v>30.361973</v>
+      </c>
+      <c r="I30" s="56">
         <v>423</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="40">
         <v>347.508002</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="41">
         <v>443.430971</v>
       </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40">
-        <v>63.803167</v>
-      </c>
-      <c r="O30" s="40">
+      <c r="M30" s="41"/>
+      <c r="N30" s="41">
+        <v>62.457805</v>
+      </c>
+      <c r="O30" s="41">
         <v>45</v>
       </c>
-      <c r="P30" s="40">
-        <v>38.539716</v>
-      </c>
-      <c r="Q30" s="40">
-        <v>526.248347</v>
-      </c>
-      <c r="R30" s="53">
-        <v>21.941395</v>
-      </c>
-      <c r="S30" s="39">
+      <c r="P30" s="41">
+        <v>38.744144</v>
+      </c>
+      <c r="Q30" s="41">
+        <v>539.77958</v>
+      </c>
+      <c r="R30" s="54">
+        <v>22.505567</v>
+      </c>
+      <c r="S30" s="40">
         <v>347.508002</v>
       </c>
-      <c r="T30" s="63">
+      <c r="T30" s="65">
         <v>443.430971</v>
       </c>
-      <c r="U30" s="40"/>
-      <c r="V30" s="63">
-        <v>93.137957</v>
-      </c>
-      <c r="W30" s="63">
+      <c r="U30" s="41"/>
+      <c r="V30" s="65">
+        <v>91.174038</v>
+      </c>
+      <c r="W30" s="65">
         <v>45</v>
       </c>
-      <c r="X30" s="63">
-        <v>35.56947</v>
-      </c>
-      <c r="Y30" s="63">
-        <v>485.690527</v>
-      </c>
-      <c r="Z30" s="53">
-        <v>20.250378</v>
+      <c r="X30" s="65">
+        <v>35.867888</v>
+      </c>
+      <c r="Y30" s="65">
+        <v>499.70787</v>
+      </c>
+      <c r="Z30" s="54">
+        <v>20.834817</v>
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44">
         <v>50</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="45">
         <v>377.99116</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="46">
         <v>481.610058</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45">
-        <v>34.785562</v>
-      </c>
-      <c r="G31" s="45">
-        <v>34.785562</v>
-      </c>
-      <c r="H31" s="45">
-        <v>30.978339</v>
-      </c>
-      <c r="I31" s="55">
+      <c r="E31" s="46"/>
+      <c r="F31" s="46">
+        <v>34.04897</v>
+      </c>
+      <c r="G31" s="46">
+        <v>34.04897</v>
+      </c>
+      <c r="H31" s="46">
+        <v>30.361973</v>
+      </c>
+      <c r="I31" s="57">
         <v>423</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="58">
         <v>17.63656</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="45">
         <v>377.99116</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="46">
         <v>481.610058</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45">
-        <v>64.390295</v>
-      </c>
-      <c r="O31" s="45">
+      <c r="M31" s="46"/>
+      <c r="N31" s="46">
+        <v>63.026816</v>
+      </c>
+      <c r="O31" s="46">
         <v>50</v>
       </c>
-      <c r="P31" s="45">
-        <v>42.952588</v>
-      </c>
-      <c r="Q31" s="64">
-        <v>586.504799</v>
-      </c>
-      <c r="R31" s="56">
-        <v>24.453728</v>
-      </c>
-      <c r="S31" s="44">
+      <c r="P31" s="46">
+        <v>43.175133</v>
+      </c>
+      <c r="Q31" s="66">
+        <v>601.511689</v>
+      </c>
+      <c r="R31" s="58">
+        <v>25.079425</v>
+      </c>
+      <c r="S31" s="45">
         <v>377.99116</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="46">
         <v>481.610058</v>
       </c>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45">
-        <v>93.995029</v>
-      </c>
-      <c r="W31" s="45">
+      <c r="U31" s="46"/>
+      <c r="V31" s="46">
+        <v>92.004662</v>
+      </c>
+      <c r="W31" s="46">
         <v>50</v>
       </c>
-      <c r="X31" s="45">
-        <v>39.712398</v>
-      </c>
-      <c r="Y31" s="45">
-        <v>542.260974</v>
-      </c>
-      <c r="Z31" s="56">
-        <v>22.609026</v>
+      <c r="X31" s="46">
+        <v>40.037264</v>
+      </c>
+      <c r="Y31" s="46">
+        <v>557.795198</v>
+      </c>
+      <c r="Z31" s="58">
+        <v>23.25671</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -16225,11 +16231,11 @@
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
-      <c r="Z35" s="48"/>
+      <c r="Z35" s="49"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:26">
       <c r="A36" s="24"/>
-      <c r="B36" s="46"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="22" t="s">
         <v>19</v>
       </c>
@@ -16239,7 +16245,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="48"/>
+      <c r="J36" s="49"/>
       <c r="K36" s="22" t="s">
         <v>20</v>
       </c>
@@ -16249,21 +16255,21 @@
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="59" t="s">
+      <c r="R36" s="49"/>
+      <c r="S36" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
       <c r="Z36" s="21"/>
     </row>
     <row r="37" ht="60" customHeight="1" spans="1:26">
       <c r="A37" s="26"/>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -16353,22 +16359,22 @@
         <v>150.489897</v>
       </c>
       <c r="E38" s="33">
-        <v>26.022308</v>
+        <v>25.768693</v>
       </c>
       <c r="F38" s="33">
-        <v>27.833031</v>
+        <v>27.559295</v>
       </c>
       <c r="G38" s="33">
         <v>5</v>
       </c>
       <c r="H38" s="33">
-        <v>3.189277</v>
+        <v>3.209398</v>
       </c>
       <c r="I38" s="33">
-        <v>68.388113</v>
-      </c>
-      <c r="J38" s="49">
-        <v>2.851374</v>
+        <v>69.496889</v>
+      </c>
+      <c r="J38" s="50">
+        <v>2.897603</v>
       </c>
       <c r="K38" s="32">
         <v>103.642737</v>
@@ -16377,46 +16383,46 @@
         <v>150.489897</v>
       </c>
       <c r="M38" s="33">
-        <v>42.810893</v>
+        <v>42.393657</v>
       </c>
       <c r="N38" s="33">
-        <v>45.789825</v>
+        <v>45.339486</v>
       </c>
       <c r="O38" s="33">
         <v>5</v>
       </c>
       <c r="P38" s="33">
-        <v>2.021068</v>
+        <v>2.054171</v>
       </c>
       <c r="Q38" s="33">
-        <v>43.338055</v>
-      </c>
-      <c r="R38" s="49">
-        <v>1.806937</v>
+        <v>44.481389</v>
+      </c>
+      <c r="R38" s="50">
+        <v>1.854607</v>
       </c>
       <c r="S38" s="32">
         <v>103.642737</v>
       </c>
-      <c r="T38" s="61">
+      <c r="T38" s="63">
         <v>150.489897</v>
       </c>
       <c r="U38" s="33">
-        <v>59.599479</v>
-      </c>
-      <c r="V38" s="61">
-        <v>63.746619</v>
-      </c>
-      <c r="W38" s="61">
+        <v>59.01862</v>
+      </c>
+      <c r="V38" s="63">
+        <v>63.119677</v>
+      </c>
+      <c r="W38" s="63">
         <v>5</v>
       </c>
-      <c r="X38" s="61">
-        <v>0.85286</v>
-      </c>
-      <c r="Y38" s="61">
-        <v>18.287997</v>
-      </c>
-      <c r="Z38" s="49">
-        <v>0.7625</v>
+      <c r="X38" s="63">
+        <v>0.898944</v>
+      </c>
+      <c r="Y38" s="63">
+        <v>19.465888</v>
+      </c>
+      <c r="Z38" s="50">
+        <v>0.811611</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -16432,19 +16438,19 @@
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="33">
-        <v>28.318833</v>
+        <v>28.039786</v>
       </c>
       <c r="G39" s="33">
         <v>10</v>
       </c>
       <c r="H39" s="33">
-        <v>7.703474</v>
+        <v>7.728908</v>
       </c>
       <c r="I39" s="33">
-        <v>165.186684</v>
-      </c>
-      <c r="J39" s="49">
-        <v>6.887293</v>
+        <v>167.363182</v>
+      </c>
+      <c r="J39" s="50">
+        <v>6.97804</v>
       </c>
       <c r="K39" s="32">
         <v>134.125895</v>
@@ -16454,41 +16460,41 @@
       </c>
       <c r="M39" s="33"/>
       <c r="N39" s="33">
-        <v>46.589048</v>
+        <v>46.12997</v>
       </c>
       <c r="O39" s="33">
         <v>10</v>
       </c>
       <c r="P39" s="33">
-        <v>6.221845</v>
+        <v>6.263687</v>
       </c>
       <c r="Q39" s="33">
-        <v>133.415896</v>
-      </c>
-      <c r="R39" s="49">
-        <v>5.562642</v>
+        <v>135.635022</v>
+      </c>
+      <c r="R39" s="50">
+        <v>5.655166</v>
       </c>
       <c r="S39" s="32">
         <v>134.125895</v>
       </c>
-      <c r="T39" s="61">
+      <c r="T39" s="63">
         <v>189.609702</v>
       </c>
       <c r="U39" s="33"/>
-      <c r="V39" s="61">
-        <v>64.859263</v>
-      </c>
-      <c r="W39" s="61">
+      <c r="V39" s="63">
+        <v>64.220154</v>
+      </c>
+      <c r="W39" s="63">
         <v>10</v>
       </c>
-      <c r="X39" s="61">
-        <v>4.740216</v>
-      </c>
-      <c r="Y39" s="61">
-        <v>101.645108</v>
-      </c>
-      <c r="Z39" s="49">
-        <v>4.237991</v>
+      <c r="X39" s="63">
+        <v>4.798466</v>
+      </c>
+      <c r="Y39" s="63">
+        <v>103.906862</v>
+      </c>
+      <c r="Z39" s="50">
+        <v>4.332292</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -16504,19 +16510,19 @@
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="33">
-        <v>28.801327</v>
+        <v>28.517036</v>
       </c>
       <c r="G40" s="33">
         <v>15</v>
       </c>
       <c r="H40" s="33">
-        <v>12.220981</v>
+        <v>12.251657</v>
       </c>
       <c r="I40" s="33">
-        <v>262.056208</v>
-      </c>
-      <c r="J40" s="49">
-        <v>10.92617</v>
+        <v>265.29962</v>
+      </c>
+      <c r="J40" s="50">
+        <v>11.061401</v>
       </c>
       <c r="K40" s="32">
         <v>164.609053</v>
@@ -16526,41 +16532,41 @@
       </c>
       <c r="M40" s="33"/>
       <c r="N40" s="33">
-        <v>47.382828</v>
+        <v>46.915124</v>
       </c>
       <c r="O40" s="33">
         <v>15</v>
       </c>
       <c r="P40" s="33">
-        <v>10.428065</v>
+        <v>10.478532</v>
       </c>
       <c r="Q40" s="33">
-        <v>223.610466</v>
-      </c>
-      <c r="R40" s="49">
-        <v>9.323213</v>
+        <v>226.904056</v>
+      </c>
+      <c r="R40" s="50">
+        <v>9.460536</v>
       </c>
       <c r="S40" s="32">
         <v>164.609053</v>
       </c>
-      <c r="T40" s="61">
+      <c r="T40" s="63">
         <v>227.975545</v>
       </c>
       <c r="U40" s="33"/>
-      <c r="V40" s="61">
-        <v>65.964329</v>
-      </c>
-      <c r="W40" s="61">
+      <c r="V40" s="63">
+        <v>65.313212</v>
+      </c>
+      <c r="W40" s="63">
         <v>15</v>
       </c>
-      <c r="X40" s="61">
-        <v>8.635149</v>
-      </c>
-      <c r="Y40" s="61">
-        <v>185.164724</v>
-      </c>
-      <c r="Z40" s="49">
-        <v>7.720257</v>
+      <c r="X40" s="63">
+        <v>8.705408</v>
+      </c>
+      <c r="Y40" s="63">
+        <v>188.508492</v>
+      </c>
+      <c r="Z40" s="50">
+        <v>7.859672</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -16576,19 +16582,19 @@
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33">
-        <v>29.28974</v>
+        <v>29.000175</v>
       </c>
       <c r="G41" s="33">
         <v>20</v>
       </c>
       <c r="H41" s="33">
-        <v>16.732567</v>
+        <v>16.768518</v>
       </c>
       <c r="I41" s="33">
-        <v>358.798795</v>
-      </c>
-      <c r="J41" s="49">
-        <v>14.959755</v>
+        <v>363.108558</v>
+      </c>
+      <c r="J41" s="50">
+        <v>15.139446</v>
       </c>
       <c r="K41" s="32">
         <v>195.092212</v>
@@ -16598,41 +16604,41 @@
       </c>
       <c r="M41" s="33"/>
       <c r="N41" s="33">
-        <v>48.186347</v>
+        <v>47.709966</v>
       </c>
       <c r="O41" s="33">
         <v>20</v>
       </c>
       <c r="P41" s="33">
-        <v>14.624546</v>
+        <v>14.683691</v>
       </c>
       <c r="Q41" s="33">
-        <v>313.596204</v>
-      </c>
-      <c r="R41" s="49">
-        <v>13.075078</v>
+        <v>317.963331</v>
+      </c>
+      <c r="R41" s="50">
+        <v>13.257161</v>
       </c>
       <c r="S41" s="32">
         <v>195.092212</v>
       </c>
-      <c r="T41" s="61">
+      <c r="T41" s="63">
         <v>266.3355</v>
       </c>
       <c r="U41" s="33"/>
-      <c r="V41" s="61">
-        <v>67.082953</v>
-      </c>
-      <c r="W41" s="61">
+      <c r="V41" s="63">
+        <v>66.419756</v>
+      </c>
+      <c r="W41" s="63">
         <v>20</v>
       </c>
-      <c r="X41" s="61">
-        <v>12.516525</v>
-      </c>
-      <c r="Y41" s="61">
-        <v>268.393613</v>
-      </c>
-      <c r="Z41" s="49">
-        <v>11.190402</v>
+      <c r="X41" s="63">
+        <v>12.598864</v>
+      </c>
+      <c r="Y41" s="63">
+        <v>272.818104</v>
+      </c>
+      <c r="Z41" s="50">
+        <v>11.374876</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -16648,19 +16654,19 @@
       </c>
       <c r="E42" s="33"/>
       <c r="F42" s="33">
-        <v>29.784136</v>
+        <v>29.489264</v>
       </c>
       <c r="G42" s="33">
         <v>25</v>
       </c>
       <c r="H42" s="33">
-        <v>21.238172</v>
+        <v>21.279429</v>
       </c>
       <c r="I42" s="33">
-        <v>455.413105</v>
-      </c>
-      <c r="J42" s="49">
-        <v>18.987991</v>
+        <v>460.788658</v>
+      </c>
+      <c r="J42" s="50">
+        <v>19.21212</v>
       </c>
       <c r="K42" s="32">
         <v>225.57537</v>
@@ -16670,41 +16676,41 @@
       </c>
       <c r="M42" s="33"/>
       <c r="N42" s="33">
-        <v>48.999707</v>
+        <v>48.514595</v>
       </c>
       <c r="O42" s="33">
         <v>25</v>
       </c>
       <c r="P42" s="33">
-        <v>18.811186</v>
+        <v>18.879061</v>
       </c>
       <c r="Q42" s="33">
-        <v>403.370906</v>
-      </c>
-      <c r="R42" s="49">
-        <v>16.818144</v>
+        <v>408.810647</v>
+      </c>
+      <c r="R42" s="50">
+        <v>17.044949</v>
       </c>
       <c r="S42" s="32">
         <v>225.57537</v>
       </c>
-      <c r="T42" s="61">
+      <c r="T42" s="63">
         <v>304.694597</v>
       </c>
       <c r="U42" s="33"/>
-      <c r="V42" s="61">
-        <v>68.215279</v>
-      </c>
-      <c r="W42" s="61">
+      <c r="V42" s="63">
+        <v>67.539927</v>
+      </c>
+      <c r="W42" s="63">
         <v>25</v>
       </c>
-      <c r="X42" s="61">
-        <v>16.3842</v>
-      </c>
-      <c r="Y42" s="61">
-        <v>351.328707</v>
-      </c>
-      <c r="Z42" s="49">
-        <v>14.648297</v>
+      <c r="X42" s="63">
+        <v>16.478693</v>
+      </c>
+      <c r="Y42" s="63">
+        <v>356.832636</v>
+      </c>
+      <c r="Z42" s="50">
+        <v>14.877778</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -16720,19 +16726,19 @@
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="33">
-        <v>30.284514</v>
+        <v>29.984303</v>
       </c>
       <c r="G43" s="33">
-        <v>30</v>
+        <v>29.984303</v>
       </c>
       <c r="H43" s="33">
-        <v>25.737794</v>
-      </c>
-      <c r="I43" s="50">
-        <v>551.899133</v>
-      </c>
-      <c r="J43" s="49">
-        <v>23.010879</v>
+        <v>25.768693</v>
+      </c>
+      <c r="I43" s="59">
+        <v>558</v>
+      </c>
+      <c r="J43" s="50">
+        <v>23.265249</v>
       </c>
       <c r="K43" s="32">
         <v>256.058528</v>
@@ -16742,41 +16748,41 @@
       </c>
       <c r="M43" s="33"/>
       <c r="N43" s="33">
-        <v>49.82291</v>
+        <v>49.329014</v>
       </c>
       <c r="O43" s="33">
         <v>30</v>
       </c>
       <c r="P43" s="33">
-        <v>22.987984</v>
+        <v>23.064643</v>
       </c>
       <c r="Q43" s="33">
-        <v>492.934564</v>
-      </c>
-      <c r="R43" s="49">
-        <v>20.552411</v>
+        <v>499.445995</v>
+      </c>
+      <c r="R43" s="50">
+        <v>20.823898</v>
       </c>
       <c r="S43" s="32">
         <v>256.058528</v>
       </c>
-      <c r="T43" s="61">
+      <c r="T43" s="63">
         <v>343.052885</v>
       </c>
       <c r="U43" s="33"/>
-      <c r="V43" s="61">
-        <v>69.361306</v>
-      </c>
-      <c r="W43" s="61">
+      <c r="V43" s="63">
+        <v>68.673725</v>
+      </c>
+      <c r="W43" s="63">
         <v>30</v>
       </c>
-      <c r="X43" s="61">
-        <v>20.238173</v>
-      </c>
-      <c r="Y43" s="61">
-        <v>433.969994</v>
-      </c>
-      <c r="Z43" s="49">
-        <v>18.093942</v>
+      <c r="X43" s="63">
+        <v>20.344895</v>
+      </c>
+      <c r="Y43" s="63">
+        <v>440.552075</v>
+      </c>
+      <c r="Z43" s="50">
+        <v>18.368376</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -16792,18 +16798,18 @@
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33">
-        <v>30.790874</v>
+        <v>30.485291</v>
       </c>
       <c r="G44" s="33">
-        <v>30.790874</v>
+        <v>30.485291</v>
       </c>
       <c r="H44" s="33">
-        <v>26.022308</v>
-      </c>
-      <c r="I44" s="57">
+        <v>25.768693</v>
+      </c>
+      <c r="I44" s="59">
         <v>558</v>
       </c>
-      <c r="J44" s="49">
+      <c r="J44" s="50">
         <v>23.265249</v>
       </c>
       <c r="K44" s="32">
@@ -16814,41 +16820,41 @@
       </c>
       <c r="M44" s="33"/>
       <c r="N44" s="33">
-        <v>50.655954</v>
+        <v>50.153221</v>
       </c>
       <c r="O44" s="33">
         <v>35</v>
       </c>
       <c r="P44" s="33">
-        <v>27.15494</v>
+        <v>27.240436</v>
       </c>
       <c r="Q44" s="33">
-        <v>582.287184</v>
-      </c>
-      <c r="R44" s="49">
-        <v>24.277878</v>
+        <v>589.869382</v>
+      </c>
+      <c r="R44" s="50">
+        <v>24.594011</v>
       </c>
       <c r="S44" s="32">
         <v>286.541686</v>
       </c>
-      <c r="T44" s="61">
+      <c r="T44" s="63">
         <v>381.410379</v>
       </c>
       <c r="U44" s="33"/>
-      <c r="V44" s="61">
-        <v>70.521034</v>
-      </c>
-      <c r="W44" s="61">
+      <c r="V44" s="63">
+        <v>69.821151</v>
+      </c>
+      <c r="W44" s="63">
         <v>35</v>
       </c>
-      <c r="X44" s="61">
-        <v>24.078445</v>
-      </c>
-      <c r="Y44" s="61">
-        <v>516.317484</v>
-      </c>
-      <c r="Z44" s="49">
-        <v>21.527338</v>
+      <c r="X44" s="63">
+        <v>24.197469</v>
+      </c>
+      <c r="Y44" s="63">
+        <v>523.976431</v>
+      </c>
+      <c r="Z44" s="50">
+        <v>21.84667</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -16864,18 +16870,18 @@
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33">
-        <v>31.303216</v>
+        <v>30.992229</v>
       </c>
       <c r="G45" s="33">
-        <v>31.303216</v>
+        <v>30.992229</v>
       </c>
       <c r="H45" s="33">
-        <v>26.022308</v>
-      </c>
-      <c r="I45" s="57">
+        <v>25.768693</v>
+      </c>
+      <c r="I45" s="59">
         <v>558</v>
       </c>
-      <c r="J45" s="49">
+      <c r="J45" s="50">
         <v>23.265249</v>
       </c>
       <c r="K45" s="32">
@@ -16886,41 +16892,41 @@
       </c>
       <c r="M45" s="33"/>
       <c r="N45" s="33">
-        <v>51.498839</v>
+        <v>50.987216</v>
       </c>
       <c r="O45" s="33">
         <v>40</v>
       </c>
       <c r="P45" s="33">
-        <v>31.312054</v>
+        <v>31.406441</v>
       </c>
       <c r="Q45" s="33">
-        <v>671.428773</v>
-      </c>
-      <c r="R45" s="49">
-        <v>27.994547</v>
+        <v>680.080814</v>
+      </c>
+      <c r="R45" s="50">
+        <v>28.355285</v>
       </c>
       <c r="S45" s="32">
         <v>317.024844</v>
       </c>
-      <c r="T45" s="61">
+      <c r="T45" s="63">
         <v>419.767091</v>
       </c>
       <c r="U45" s="33"/>
-      <c r="V45" s="61">
-        <v>71.694463</v>
-      </c>
-      <c r="W45" s="61">
+      <c r="V45" s="63">
+        <v>70.982203</v>
+      </c>
+      <c r="W45" s="63">
         <v>40</v>
       </c>
-      <c r="X45" s="61">
-        <v>27.905016</v>
-      </c>
-      <c r="Y45" s="61">
-        <v>598.371185</v>
-      </c>
-      <c r="Z45" s="49">
-        <v>24.948485</v>
+      <c r="X45" s="63">
+        <v>28.036417</v>
+      </c>
+      <c r="Y45" s="63">
+        <v>607.105714</v>
+      </c>
+      <c r="Z45" s="50">
+        <v>25.312662</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -16936,18 +16942,18 @@
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33">
-        <v>31.82154</v>
+        <v>31.505117</v>
       </c>
       <c r="G46" s="33">
-        <v>31.82154</v>
+        <v>31.505117</v>
       </c>
       <c r="H46" s="33">
-        <v>26.022308</v>
-      </c>
-      <c r="I46" s="57">
+        <v>25.768693</v>
+      </c>
+      <c r="I46" s="59">
         <v>558</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46" s="50">
         <v>23.265249</v>
       </c>
       <c r="K46" s="32">
@@ -16958,41 +16964,41 @@
       </c>
       <c r="M46" s="33"/>
       <c r="N46" s="33">
-        <v>52.351566</v>
+        <v>51.830999</v>
       </c>
       <c r="O46" s="33">
         <v>45</v>
       </c>
       <c r="P46" s="33">
-        <v>35.459327</v>
+        <v>35.562658</v>
       </c>
       <c r="Q46" s="33">
-        <v>760.359338</v>
-      </c>
-      <c r="R46" s="49">
-        <v>31.702418</v>
+        <v>770.080299</v>
+      </c>
+      <c r="R46" s="50">
+        <v>32.107723</v>
       </c>
       <c r="S46" s="32">
         <v>347.508002</v>
       </c>
-      <c r="T46" s="61">
+      <c r="T46" s="63">
         <v>458.123035</v>
       </c>
       <c r="U46" s="33"/>
-      <c r="V46" s="61">
-        <v>72.881592</v>
-      </c>
-      <c r="W46" s="61">
+      <c r="V46" s="63">
+        <v>72.156881</v>
+      </c>
+      <c r="W46" s="63">
         <v>45</v>
       </c>
-      <c r="X46" s="61">
-        <v>31.717887</v>
-      </c>
-      <c r="Y46" s="61">
-        <v>680.131108</v>
-      </c>
-      <c r="Z46" s="49">
-        <v>28.357382</v>
+      <c r="X46" s="63">
+        <v>31.861739</v>
+      </c>
+      <c r="Y46" s="63">
+        <v>689.939932</v>
+      </c>
+      <c r="Z46" s="50">
+        <v>28.766351</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -17003,68 +17009,68 @@
       <c r="C47" s="36">
         <v>377.99116</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="37">
         <v>496.478224</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13">
-        <v>32.345846</v>
-      </c>
-      <c r="G47" s="13">
-        <v>32.345846</v>
-      </c>
-      <c r="H47" s="13">
-        <v>26.022308</v>
-      </c>
-      <c r="I47" s="51">
+      <c r="E47" s="37"/>
+      <c r="F47" s="37">
+        <v>32.023954</v>
+      </c>
+      <c r="G47" s="37">
+        <v>32.023954</v>
+      </c>
+      <c r="H47" s="37">
+        <v>25.768693</v>
+      </c>
+      <c r="I47" s="52">
         <v>558</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="53">
         <v>23.265249</v>
       </c>
       <c r="K47" s="36">
         <v>377.99116</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="37">
         <v>496.478224</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13">
-        <v>53.214133</v>
-      </c>
-      <c r="O47" s="13">
+      <c r="M47" s="37"/>
+      <c r="N47" s="37">
+        <v>52.684569</v>
+      </c>
+      <c r="O47" s="37">
         <v>50</v>
       </c>
-      <c r="P47" s="13">
-        <v>39.59676</v>
-      </c>
-      <c r="Q47" s="13">
-        <v>849.078885</v>
-      </c>
-      <c r="R47" s="52">
-        <v>35.40149</v>
+      <c r="P47" s="37">
+        <v>39.709087</v>
+      </c>
+      <c r="Q47" s="37">
+        <v>859.867843</v>
+      </c>
+      <c r="R47" s="53">
+        <v>35.851325</v>
       </c>
       <c r="S47" s="36">
         <v>377.99116</v>
       </c>
-      <c r="T47" s="13">
+      <c r="T47" s="37">
         <v>496.478224</v>
       </c>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13">
-        <v>74.082421</v>
-      </c>
-      <c r="W47" s="13">
+      <c r="U47" s="37"/>
+      <c r="V47" s="37">
+        <v>73.345185</v>
+      </c>
+      <c r="W47" s="37">
         <v>50</v>
       </c>
-      <c r="X47" s="13">
-        <v>35.517058</v>
-      </c>
-      <c r="Y47" s="13">
-        <v>761.597261</v>
-      </c>
-      <c r="Z47" s="52">
-        <v>31.754032</v>
+      <c r="X47" s="37">
+        <v>35.673435</v>
+      </c>
+      <c r="Y47" s="37">
+        <v>772.479095</v>
+      </c>
+      <c r="Z47" s="53">
+        <v>32.207739</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:26">
@@ -17079,7 +17085,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="48"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="22" t="s">
         <v>33</v>
       </c>
@@ -17089,7 +17095,7 @@
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
-      <c r="R48" s="48"/>
+      <c r="R48" s="49"/>
       <c r="S48" s="22" t="s">
         <v>34</v>
       </c>
@@ -17099,734 +17105,734 @@
       <c r="W48" s="23"/>
       <c r="X48" s="23"/>
       <c r="Y48" s="23"/>
-      <c r="Z48" s="48"/>
+      <c r="Z48" s="49"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="39">
         <v>5</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="40">
         <v>103.642737</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="41">
         <v>150.948547</v>
       </c>
-      <c r="E49" s="40">
-        <v>19.841049</v>
-      </c>
-      <c r="F49" s="40">
-        <v>21.274732</v>
-      </c>
-      <c r="G49" s="40">
+      <c r="E49" s="41">
+        <v>19.434765</v>
+      </c>
+      <c r="F49" s="41">
+        <v>20.835988</v>
+      </c>
+      <c r="G49" s="41">
         <v>5</v>
       </c>
-      <c r="H49" s="40">
-        <v>3.566317</v>
-      </c>
-      <c r="I49" s="40">
-        <v>76.031869</v>
-      </c>
-      <c r="J49" s="53">
-        <v>3.170072</v>
-      </c>
-      <c r="K49" s="39">
+      <c r="H49" s="41">
+        <v>3.598777</v>
+      </c>
+      <c r="I49" s="41">
+        <v>78.327811</v>
+      </c>
+      <c r="J49" s="54">
+        <v>3.265799</v>
+      </c>
+      <c r="K49" s="40">
         <v>103.642737</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="41">
         <v>150.948547</v>
       </c>
-      <c r="M49" s="40">
-        <v>36.727049</v>
-      </c>
-      <c r="N49" s="40">
-        <v>39.380887</v>
-      </c>
-      <c r="O49" s="40">
+      <c r="M49" s="41">
+        <v>35.974991</v>
+      </c>
+      <c r="N49" s="41">
+        <v>38.568744</v>
+      </c>
+      <c r="O49" s="41">
         <v>5</v>
       </c>
-      <c r="P49" s="40">
-        <v>2.346161</v>
-      </c>
-      <c r="Q49" s="40">
-        <v>50.018834</v>
-      </c>
-      <c r="R49" s="53">
-        <v>2.085485</v>
-      </c>
-      <c r="S49" s="39">
+      <c r="P49" s="41">
+        <v>2.406247</v>
+      </c>
+      <c r="Q49" s="41">
+        <v>52.372245</v>
+      </c>
+      <c r="R49" s="54">
+        <v>2.183608</v>
+      </c>
+      <c r="S49" s="40">
         <v>103.642737</v>
       </c>
-      <c r="T49" s="63">
+      <c r="T49" s="65">
         <v>150.948547</v>
       </c>
-      <c r="U49" s="40">
-        <v>53.613048</v>
-      </c>
-      <c r="V49" s="63">
-        <v>57.487043</v>
-      </c>
-      <c r="W49" s="63">
+      <c r="U49" s="41">
+        <v>52.515216</v>
+      </c>
+      <c r="V49" s="65">
+        <v>56.3015</v>
+      </c>
+      <c r="W49" s="65">
         <v>5</v>
       </c>
-      <c r="X49" s="63">
-        <v>1.126005</v>
-      </c>
-      <c r="Y49" s="63">
-        <v>24.005799</v>
-      </c>
-      <c r="Z49" s="53">
-        <v>1.000898</v>
+      <c r="X49" s="65">
+        <v>1.213716</v>
+      </c>
+      <c r="Y49" s="65">
+        <v>26.416679</v>
+      </c>
+      <c r="Z49" s="54">
+        <v>1.101417</v>
       </c>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="41"/>
-      <c r="B50" s="38">
+      <c r="A50" s="42"/>
+      <c r="B50" s="39">
         <v>10</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="40">
         <v>134.125895</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="41">
         <v>190.093764</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40">
-        <v>21.658579</v>
-      </c>
-      <c r="G50" s="40">
+      <c r="E50" s="41"/>
+      <c r="F50" s="41">
+        <v>21.211283</v>
+      </c>
+      <c r="G50" s="41">
         <v>10</v>
       </c>
-      <c r="H50" s="40">
-        <v>8.182471</v>
-      </c>
-      <c r="I50" s="40">
-        <v>174.445668</v>
-      </c>
-      <c r="J50" s="53">
-        <v>7.273337</v>
-      </c>
-      <c r="K50" s="39">
+      <c r="H50" s="41">
+        <v>8.223482</v>
+      </c>
+      <c r="I50" s="41">
+        <v>178.985084</v>
+      </c>
+      <c r="J50" s="54">
+        <v>7.462603</v>
+      </c>
+      <c r="K50" s="40">
         <v>134.125895</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="41">
         <v>190.093764</v>
       </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40">
-        <v>40.091411</v>
-      </c>
-      <c r="O50" s="40">
+      <c r="M50" s="41"/>
+      <c r="N50" s="41">
+        <v>39.263438</v>
+      </c>
+      <c r="O50" s="41">
         <v>10</v>
       </c>
-      <c r="P50" s="40">
-        <v>6.635637</v>
-      </c>
-      <c r="Q50" s="40">
-        <v>141.468048</v>
-      </c>
-      <c r="R50" s="53">
-        <v>5.898368</v>
-      </c>
-      <c r="S50" s="39">
+      <c r="P50" s="41">
+        <v>6.711553</v>
+      </c>
+      <c r="Q50" s="41">
+        <v>146.077749</v>
+      </c>
+      <c r="R50" s="54">
+        <v>6.090565</v>
+      </c>
+      <c r="S50" s="40">
         <v>134.125895</v>
       </c>
-      <c r="T50" s="63">
+      <c r="T50" s="65">
         <v>190.093764</v>
       </c>
-      <c r="U50" s="40"/>
-      <c r="V50" s="63">
-        <v>58.524244</v>
-      </c>
-      <c r="W50" s="63">
+      <c r="U50" s="41"/>
+      <c r="V50" s="65">
+        <v>57.315594</v>
+      </c>
+      <c r="W50" s="65">
         <v>10</v>
       </c>
-      <c r="X50" s="63">
-        <v>5.088804</v>
-      </c>
-      <c r="Y50" s="63">
-        <v>108.490428</v>
-      </c>
-      <c r="Z50" s="53">
-        <v>4.523399</v>
+      <c r="X50" s="65">
+        <v>5.199623</v>
+      </c>
+      <c r="Y50" s="65">
+        <v>113.170415</v>
+      </c>
+      <c r="Z50" s="54">
+        <v>4.718527</v>
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="41"/>
-      <c r="B51" s="38">
+      <c r="A51" s="42"/>
+      <c r="B51" s="39">
         <v>15</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="40">
         <v>164.609053</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="41">
         <v>228.465511</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40">
-        <v>22.039658</v>
-      </c>
-      <c r="G51" s="40">
+      <c r="E51" s="41"/>
+      <c r="F51" s="41">
+        <v>21.583926</v>
+      </c>
+      <c r="G51" s="41">
         <v>15</v>
       </c>
-      <c r="H51" s="40">
-        <v>12.801391</v>
-      </c>
-      <c r="I51" s="40">
-        <v>272.918457</v>
-      </c>
-      <c r="J51" s="53">
-        <v>11.379061</v>
-      </c>
-      <c r="K51" s="39">
+      <c r="H51" s="41">
+        <v>12.85084</v>
+      </c>
+      <c r="I51" s="41">
+        <v>279.70007</v>
+      </c>
+      <c r="J51" s="54">
+        <v>11.661813</v>
+      </c>
+      <c r="K51" s="40">
         <v>164.609053</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L51" s="41">
         <v>228.465511</v>
       </c>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40">
-        <v>40.796814</v>
-      </c>
-      <c r="O51" s="40">
+      <c r="M51" s="41"/>
+      <c r="N51" s="41">
+        <v>39.953224</v>
+      </c>
+      <c r="O51" s="41">
         <v>15</v>
       </c>
-      <c r="P51" s="40">
-        <v>10.930235</v>
-      </c>
-      <c r="Q51" s="40">
-        <v>233.026458</v>
-      </c>
-      <c r="R51" s="53">
-        <v>9.715804</v>
-      </c>
-      <c r="S51" s="39">
+      <c r="P51" s="41">
+        <v>11.021767</v>
+      </c>
+      <c r="Q51" s="41">
+        <v>239.890083</v>
+      </c>
+      <c r="R51" s="54">
+        <v>10.001976</v>
+      </c>
+      <c r="S51" s="40">
         <v>164.609053</v>
       </c>
-      <c r="T51" s="63">
+      <c r="T51" s="65">
         <v>228.465511</v>
       </c>
-      <c r="U51" s="40"/>
-      <c r="V51" s="63">
-        <v>59.553969</v>
-      </c>
-      <c r="W51" s="63">
+      <c r="U51" s="41"/>
+      <c r="V51" s="65">
+        <v>58.322522</v>
+      </c>
+      <c r="W51" s="65">
         <v>15</v>
       </c>
-      <c r="X51" s="63">
-        <v>9.059079</v>
-      </c>
-      <c r="Y51" s="63">
-        <v>193.134458</v>
-      </c>
-      <c r="Z51" s="53">
-        <v>8.052547</v>
+      <c r="X51" s="65">
+        <v>9.192694</v>
+      </c>
+      <c r="Y51" s="65">
+        <v>200.080097</v>
+      </c>
+      <c r="Z51" s="54">
+        <v>8.342138</v>
       </c>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="41"/>
-      <c r="B52" s="38">
+      <c r="A52" s="42"/>
+      <c r="B52" s="39">
         <v>20</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="40">
         <v>195.092212</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="41">
         <v>266.831107</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40">
-        <v>22.425444</v>
-      </c>
-      <c r="G52" s="40">
+      <c r="E52" s="41"/>
+      <c r="F52" s="41">
+        <v>21.961224</v>
+      </c>
+      <c r="G52" s="41">
         <v>20</v>
       </c>
-      <c r="H52" s="40">
-        <v>17.415605</v>
-      </c>
-      <c r="I52" s="40">
-        <v>371.290893</v>
-      </c>
-      <c r="J52" s="53">
-        <v>15.4806</v>
-      </c>
-      <c r="K52" s="39">
+      <c r="H52" s="41">
+        <v>17.473541</v>
+      </c>
+      <c r="I52" s="41">
+        <v>380.313729</v>
+      </c>
+      <c r="J52" s="54">
+        <v>15.856798</v>
+      </c>
+      <c r="K52" s="40">
         <v>195.092212</v>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="41">
         <v>266.831107</v>
       </c>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40">
-        <v>41.510929</v>
-      </c>
-      <c r="O52" s="40">
+      <c r="M52" s="41"/>
+      <c r="N52" s="41">
+        <v>40.651627</v>
+      </c>
+      <c r="O52" s="41">
         <v>20</v>
       </c>
-      <c r="P52" s="40">
-        <v>15.21612</v>
-      </c>
-      <c r="Q52" s="40">
-        <v>324.399108</v>
-      </c>
-      <c r="R52" s="53">
-        <v>13.525494</v>
-      </c>
-      <c r="S52" s="39">
+      <c r="P52" s="41">
+        <v>15.323364</v>
+      </c>
+      <c r="Q52" s="41">
+        <v>333.514857</v>
+      </c>
+      <c r="R52" s="54">
+        <v>13.905566</v>
+      </c>
+      <c r="S52" s="40">
         <v>195.092212</v>
       </c>
-      <c r="T52" s="63">
+      <c r="T52" s="65">
         <v>266.831107</v>
       </c>
-      <c r="U52" s="40"/>
-      <c r="V52" s="63">
-        <v>60.596413</v>
-      </c>
-      <c r="W52" s="63">
+      <c r="U52" s="41"/>
+      <c r="V52" s="65">
+        <v>59.34203</v>
+      </c>
+      <c r="W52" s="65">
         <v>20</v>
       </c>
-      <c r="X52" s="63">
-        <v>13.016635</v>
-      </c>
-      <c r="Y52" s="63">
-        <v>277.507322</v>
-      </c>
-      <c r="Z52" s="53">
-        <v>11.570389</v>
+      <c r="X52" s="65">
+        <v>13.173186</v>
+      </c>
+      <c r="Y52" s="65">
+        <v>286.715984</v>
+      </c>
+      <c r="Z52" s="54">
+        <v>11.954335</v>
       </c>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="41"/>
-      <c r="B53" s="38">
+      <c r="A53" s="42"/>
+      <c r="B53" s="39">
         <v>25</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="40">
         <v>225.57537</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="41">
         <v>305.195825</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40">
-        <v>22.81599</v>
-      </c>
-      <c r="G53" s="40">
-        <v>22.81599</v>
-      </c>
-      <c r="H53" s="40">
-        <v>19.841049</v>
-      </c>
-      <c r="I53" s="54">
+      <c r="E53" s="41"/>
+      <c r="F53" s="41">
+        <v>22.343228</v>
+      </c>
+      <c r="G53" s="41">
+        <v>22.343228</v>
+      </c>
+      <c r="H53" s="41">
+        <v>19.434765</v>
+      </c>
+      <c r="I53" s="56">
         <v>423</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K53" s="39">
+      <c r="K53" s="40">
         <v>225.57537</v>
       </c>
-      <c r="L53" s="40">
+      <c r="L53" s="41">
         <v>305.195825</v>
       </c>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40">
-        <v>42.233853</v>
-      </c>
-      <c r="O53" s="40">
+      <c r="M53" s="41"/>
+      <c r="N53" s="41">
+        <v>41.358741</v>
+      </c>
+      <c r="O53" s="41">
         <v>25</v>
       </c>
-      <c r="P53" s="40">
-        <v>19.493196</v>
-      </c>
-      <c r="Q53" s="40">
-        <v>415.583956</v>
-      </c>
-      <c r="R53" s="53">
-        <v>17.327355</v>
-      </c>
-      <c r="S53" s="39">
+      <c r="P53" s="41">
+        <v>19.61625</v>
+      </c>
+      <c r="Q53" s="41">
+        <v>426.950033</v>
+      </c>
+      <c r="R53" s="54">
+        <v>17.801252</v>
+      </c>
+      <c r="S53" s="40">
         <v>225.57537</v>
       </c>
-      <c r="T53" s="63">
+      <c r="T53" s="65">
         <v>305.195825</v>
       </c>
-      <c r="U53" s="40"/>
-      <c r="V53" s="63">
-        <v>61.651716</v>
-      </c>
-      <c r="W53" s="63">
+      <c r="U53" s="41"/>
+      <c r="V53" s="65">
+        <v>60.374254</v>
+      </c>
+      <c r="W53" s="65">
         <v>25</v>
       </c>
-      <c r="X53" s="63">
-        <v>16.961331</v>
-      </c>
-      <c r="Y53" s="63">
-        <v>361.606039</v>
-      </c>
-      <c r="Z53" s="53">
-        <v>15.0768</v>
+      <c r="X53" s="65">
+        <v>17.140962</v>
+      </c>
+      <c r="Y53" s="65">
+        <v>373.075102</v>
+      </c>
+      <c r="Z53" s="54">
+        <v>15.554991</v>
       </c>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="41"/>
-      <c r="B54" s="38">
+      <c r="A54" s="42"/>
+      <c r="B54" s="39">
         <v>30</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="40">
         <v>256.058528</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="41">
         <v>343.559716</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40">
-        <v>23.211294</v>
-      </c>
-      <c r="G54" s="40">
-        <v>23.211294</v>
-      </c>
-      <c r="H54" s="40">
-        <v>19.841049</v>
-      </c>
-      <c r="I54" s="54">
+      <c r="E54" s="41"/>
+      <c r="F54" s="41">
+        <v>22.729938</v>
+      </c>
+      <c r="G54" s="41">
+        <v>22.729938</v>
+      </c>
+      <c r="H54" s="41">
+        <v>19.434765</v>
+      </c>
+      <c r="I54" s="56">
         <v>423</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K54" s="39">
+      <c r="K54" s="40">
         <v>256.058528</v>
       </c>
-      <c r="L54" s="40">
+      <c r="L54" s="41">
         <v>343.559716</v>
       </c>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40">
-        <v>42.965586</v>
-      </c>
-      <c r="O54" s="40">
+      <c r="M54" s="41"/>
+      <c r="N54" s="41">
+        <v>42.074567</v>
+      </c>
+      <c r="O54" s="41">
         <v>30</v>
       </c>
-      <c r="P54" s="40">
-        <v>23.761462</v>
-      </c>
-      <c r="Q54" s="40">
-        <v>506.580997</v>
-      </c>
-      <c r="R54" s="53">
-        <v>21.121385</v>
-      </c>
-      <c r="S54" s="39">
+      <c r="P54" s="41">
+        <v>23.900424</v>
+      </c>
+      <c r="Q54" s="41">
+        <v>520.195603</v>
+      </c>
+      <c r="R54" s="54">
+        <v>21.689032</v>
+      </c>
+      <c r="S54" s="40">
         <v>256.058528</v>
       </c>
-      <c r="T54" s="63">
+      <c r="T54" s="65">
         <v>343.559716</v>
       </c>
-      <c r="U54" s="40"/>
-      <c r="V54" s="63">
-        <v>62.719879</v>
-      </c>
-      <c r="W54" s="63">
+      <c r="U54" s="41"/>
+      <c r="V54" s="65">
+        <v>61.419195</v>
+      </c>
+      <c r="W54" s="65">
         <v>30</v>
       </c>
-      <c r="X54" s="63">
-        <v>20.893169</v>
-      </c>
-      <c r="Y54" s="63">
-        <v>445.430599</v>
-      </c>
-      <c r="Z54" s="53">
-        <v>18.571781</v>
+      <c r="X54" s="65">
+        <v>21.096021</v>
+      </c>
+      <c r="Y54" s="65">
+        <v>459.15744</v>
+      </c>
+      <c r="Z54" s="54">
+        <v>19.144108</v>
       </c>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="41"/>
-      <c r="B55" s="38">
+      <c r="A55" s="42"/>
+      <c r="B55" s="39">
         <v>35</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="40">
         <v>286.541686</v>
       </c>
-      <c r="D55" s="40">
+      <c r="D55" s="41">
         <v>381.922796</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40">
-        <v>23.611357</v>
-      </c>
-      <c r="G55" s="40">
-        <v>23.611357</v>
-      </c>
-      <c r="H55" s="40">
-        <v>19.841049</v>
-      </c>
-      <c r="I55" s="54">
+      <c r="E55" s="41"/>
+      <c r="F55" s="41">
+        <v>23.121355</v>
+      </c>
+      <c r="G55" s="41">
+        <v>23.121355</v>
+      </c>
+      <c r="H55" s="41">
+        <v>19.434765</v>
+      </c>
+      <c r="I55" s="56">
         <v>423</v>
       </c>
-      <c r="J55" s="53">
+      <c r="J55" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K55" s="39">
+      <c r="K55" s="40">
         <v>286.541686</v>
       </c>
-      <c r="L55" s="40">
+      <c r="L55" s="41">
         <v>381.922796</v>
       </c>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40">
-        <v>43.706129</v>
-      </c>
-      <c r="O55" s="40">
+      <c r="M55" s="41"/>
+      <c r="N55" s="41">
+        <v>42.799104</v>
+      </c>
+      <c r="O55" s="41">
         <v>35</v>
       </c>
-      <c r="P55" s="40">
-        <v>28.02092</v>
-      </c>
-      <c r="Q55" s="40">
-        <v>597.390234</v>
-      </c>
-      <c r="R55" s="53">
-        <v>24.907585</v>
-      </c>
-      <c r="S55" s="39">
+      <c r="P55" s="41">
+        <v>28.175887</v>
+      </c>
+      <c r="Q55" s="41">
+        <v>613.251574</v>
+      </c>
+      <c r="R55" s="54">
+        <v>25.568908</v>
+      </c>
+      <c r="S55" s="40">
         <v>286.541686</v>
       </c>
-      <c r="T55" s="63">
+      <c r="T55" s="65">
         <v>381.922796</v>
       </c>
-      <c r="U55" s="40"/>
-      <c r="V55" s="63">
-        <v>63.800901</v>
-      </c>
-      <c r="W55" s="63">
+      <c r="U55" s="41"/>
+      <c r="V55" s="65">
+        <v>62.476852</v>
+      </c>
+      <c r="W55" s="65">
         <v>35</v>
       </c>
-      <c r="X55" s="63">
-        <v>24.812147</v>
-      </c>
-      <c r="Y55" s="63">
-        <v>528.98101</v>
-      </c>
-      <c r="Z55" s="53">
-        <v>22.055331</v>
+      <c r="X55" s="65">
+        <v>25.038364</v>
+      </c>
+      <c r="Y55" s="65">
+        <v>544.963007</v>
+      </c>
+      <c r="Z55" s="54">
+        <v>22.721684</v>
       </c>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="41"/>
-      <c r="B56" s="38">
+      <c r="A56" s="42"/>
+      <c r="B56" s="39">
         <v>40</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="40">
         <v>317.024844</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="41">
         <v>420.285076</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40">
-        <v>24.016179</v>
-      </c>
-      <c r="G56" s="40">
-        <v>24.016179</v>
-      </c>
-      <c r="H56" s="40">
-        <v>19.841049</v>
-      </c>
-      <c r="I56" s="54">
+      <c r="E56" s="41"/>
+      <c r="F56" s="41">
+        <v>23.517477</v>
+      </c>
+      <c r="G56" s="41">
+        <v>23.517477</v>
+      </c>
+      <c r="H56" s="41">
+        <v>19.434765</v>
+      </c>
+      <c r="I56" s="56">
         <v>423</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K56" s="39">
+      <c r="K56" s="40">
         <v>317.024844</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="41">
         <v>420.285076</v>
       </c>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40">
-        <v>44.45548</v>
-      </c>
-      <c r="O56" s="40">
+      <c r="M56" s="41"/>
+      <c r="N56" s="41">
+        <v>43.532351</v>
+      </c>
+      <c r="O56" s="41">
         <v>40</v>
       </c>
-      <c r="P56" s="40">
-        <v>32.271569</v>
-      </c>
-      <c r="Q56" s="40">
-        <v>688.011676</v>
-      </c>
-      <c r="R56" s="53">
-        <v>28.685955</v>
-      </c>
-      <c r="S56" s="39">
+      <c r="P56" s="41">
+        <v>32.44264</v>
+      </c>
+      <c r="Q56" s="41">
+        <v>706.117953</v>
+      </c>
+      <c r="R56" s="54">
+        <v>29.440878</v>
+      </c>
+      <c r="S56" s="40">
         <v>317.024844</v>
       </c>
-      <c r="T56" s="63">
+      <c r="T56" s="65">
         <v>420.285076</v>
       </c>
-      <c r="U56" s="40"/>
-      <c r="V56" s="63">
-        <v>64.894781</v>
-      </c>
-      <c r="W56" s="63">
+      <c r="U56" s="41"/>
+      <c r="V56" s="65">
+        <v>63.547225</v>
+      </c>
+      <c r="W56" s="65">
         <v>40</v>
       </c>
-      <c r="X56" s="63">
-        <v>28.718267</v>
-      </c>
-      <c r="Y56" s="63">
-        <v>612.257282</v>
-      </c>
-      <c r="Z56" s="53">
-        <v>25.527451</v>
+      <c r="X56" s="65">
+        <v>28.967991</v>
+      </c>
+      <c r="Y56" s="65">
+        <v>630.491812</v>
+      </c>
+      <c r="Z56" s="54">
+        <v>26.287722</v>
       </c>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="41"/>
-      <c r="B57" s="38">
+      <c r="A57" s="42"/>
+      <c r="B57" s="39">
         <v>45</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="40">
         <v>347.508002</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="41">
         <v>458.646572</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40">
-        <v>24.425759</v>
-      </c>
-      <c r="G57" s="40">
-        <v>24.425759</v>
-      </c>
-      <c r="H57" s="40">
-        <v>19.841049</v>
-      </c>
-      <c r="I57" s="54">
+      <c r="E57" s="41"/>
+      <c r="F57" s="41">
+        <v>23.918305</v>
+      </c>
+      <c r="G57" s="41">
+        <v>23.918305</v>
+      </c>
+      <c r="H57" s="41">
+        <v>19.434765</v>
+      </c>
+      <c r="I57" s="56">
         <v>423</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K57" s="39">
+      <c r="K57" s="40">
         <v>347.508002</v>
       </c>
-      <c r="L57" s="40">
+      <c r="L57" s="41">
         <v>458.646572</v>
       </c>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40">
-        <v>45.213639</v>
-      </c>
-      <c r="O57" s="40">
+      <c r="M57" s="41"/>
+      <c r="N57" s="41">
+        <v>44.274309</v>
+      </c>
+      <c r="O57" s="41">
+        <v>44.274309</v>
+      </c>
+      <c r="P57" s="41">
+        <v>35.974991</v>
+      </c>
+      <c r="Q57" s="56">
+        <v>783</v>
+      </c>
+      <c r="R57" s="54">
+        <v>32.646397</v>
+      </c>
+      <c r="S57" s="40">
+        <v>347.508002</v>
+      </c>
+      <c r="T57" s="65">
+        <v>458.646572</v>
+      </c>
+      <c r="U57" s="41"/>
+      <c r="V57" s="65">
+        <v>64.630314</v>
+      </c>
+      <c r="W57" s="65">
         <v>45</v>
       </c>
-      <c r="P57" s="40">
-        <v>36.513409</v>
-      </c>
-      <c r="Q57" s="65">
-        <v>778.445327</v>
-      </c>
-      <c r="R57" s="53">
-        <v>32.456495</v>
-      </c>
-      <c r="S57" s="39">
-        <v>347.508002</v>
-      </c>
-      <c r="T57" s="63">
-        <v>458.646572</v>
-      </c>
-      <c r="U57" s="40"/>
-      <c r="V57" s="63">
-        <v>66.00152</v>
-      </c>
-      <c r="W57" s="63">
-        <v>45</v>
-      </c>
-      <c r="X57" s="63">
-        <v>32.611528</v>
-      </c>
-      <c r="Y57" s="63">
-        <v>695.259423</v>
-      </c>
-      <c r="Z57" s="53">
-        <v>28.988142</v>
+      <c r="X57" s="65">
+        <v>32.884903</v>
+      </c>
+      <c r="Y57" s="65">
+        <v>715.743864</v>
+      </c>
+      <c r="Z57" s="54">
+        <v>29.84222</v>
       </c>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43">
+      <c r="A58" s="43"/>
+      <c r="B58" s="44">
         <v>50</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="45">
         <v>377.99116</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="46">
         <v>497.007295</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45">
-        <v>24.840098</v>
-      </c>
-      <c r="G58" s="45">
-        <v>24.840098</v>
-      </c>
-      <c r="H58" s="45">
-        <v>19.841049</v>
-      </c>
-      <c r="I58" s="55">
+      <c r="E58" s="46"/>
+      <c r="F58" s="46">
+        <v>24.323839</v>
+      </c>
+      <c r="G58" s="46">
+        <v>24.323839</v>
+      </c>
+      <c r="H58" s="46">
+        <v>19.434765</v>
+      </c>
+      <c r="I58" s="57">
         <v>423</v>
       </c>
-      <c r="J58" s="56">
+      <c r="J58" s="58">
         <v>17.63656</v>
       </c>
-      <c r="K58" s="44">
+      <c r="K58" s="45">
         <v>377.99116</v>
       </c>
-      <c r="L58" s="45">
+      <c r="L58" s="46">
         <v>497.007295</v>
       </c>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45">
-        <v>45.980607</v>
-      </c>
-      <c r="O58" s="45">
-        <v>45.980607</v>
-      </c>
-      <c r="P58" s="45">
-        <v>36.727049</v>
-      </c>
-      <c r="Q58" s="55">
+      <c r="M58" s="46"/>
+      <c r="N58" s="46">
+        <v>45.024978</v>
+      </c>
+      <c r="O58" s="46">
+        <v>45.024978</v>
+      </c>
+      <c r="P58" s="46">
+        <v>35.974991</v>
+      </c>
+      <c r="Q58" s="57">
         <v>783</v>
       </c>
-      <c r="R58" s="56">
+      <c r="R58" s="58">
         <v>32.646397</v>
       </c>
-      <c r="S58" s="44">
+      <c r="S58" s="45">
         <v>377.99116</v>
       </c>
-      <c r="T58" s="45">
+      <c r="T58" s="46">
         <v>497.007295</v>
       </c>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45">
-        <v>67.121116</v>
-      </c>
-      <c r="W58" s="45">
+      <c r="U58" s="46"/>
+      <c r="V58" s="46">
+        <v>65.726117</v>
+      </c>
+      <c r="W58" s="46">
         <v>50</v>
       </c>
-      <c r="X58" s="45">
-        <v>36.491932</v>
-      </c>
-      <c r="Y58" s="45">
-        <v>777.987441</v>
-      </c>
-      <c r="Z58" s="56">
-        <v>32.437404</v>
+      <c r="X58" s="46">
+        <v>36.789099</v>
+      </c>
+      <c r="Y58" s="46">
+        <v>800.719172</v>
+      </c>
+      <c r="Z58" s="58">
+        <v>33.38518</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -17867,11 +17873,11 @@
       <c r="W62" s="23"/>
       <c r="X62" s="23"/>
       <c r="Y62" s="23"/>
-      <c r="Z62" s="48"/>
+      <c r="Z62" s="49"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:26">
       <c r="A63" s="24"/>
-      <c r="B63" s="46"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="22" t="s">
         <v>19</v>
       </c>
@@ -17881,7 +17887,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="48"/>
+      <c r="J63" s="49"/>
       <c r="K63" s="22" t="s">
         <v>20</v>
       </c>
@@ -17891,21 +17897,21 @@
       <c r="O63" s="23"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="59" t="s">
+      <c r="R63" s="49"/>
+      <c r="S63" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
       <c r="Z63" s="21"/>
     </row>
     <row r="64" ht="60" customHeight="1" spans="1:26">
       <c r="A64" s="26"/>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -17995,22 +18001,22 @@
         <v>151.66666</v>
       </c>
       <c r="E65" s="33">
-        <v>46.372197</v>
+        <v>45.7638</v>
       </c>
       <c r="F65" s="33">
-        <v>48.151571</v>
+        <v>47.511063</v>
       </c>
       <c r="G65" s="33">
         <v>5</v>
       </c>
       <c r="H65" s="33">
-        <v>3.220626</v>
+        <v>3.252736</v>
       </c>
       <c r="I65" s="33">
-        <v>38.754031</v>
-      </c>
-      <c r="J65" s="49">
-        <v>1.61581</v>
+        <v>39.660755</v>
+      </c>
+      <c r="J65" s="50">
+        <v>1.653615</v>
       </c>
       <c r="K65" s="32">
         <v>103.642737</v>
@@ -18019,46 +18025,46 @@
         <v>151.66666</v>
       </c>
       <c r="M65" s="33">
-        <v>76.289744</v>
+        <v>75.288832</v>
       </c>
       <c r="N65" s="33">
-        <v>79.217101</v>
+        <v>78.163362</v>
       </c>
       <c r="O65" s="33">
         <v>5</v>
       </c>
       <c r="P65" s="33">
-        <v>2.072644</v>
+        <v>2.125469</v>
       </c>
       <c r="Q65" s="33">
-        <v>24.94027</v>
-      </c>
-      <c r="R65" s="49">
-        <v>1.039859</v>
+        <v>25.915941</v>
+      </c>
+      <c r="R65" s="50">
+        <v>1.080539</v>
       </c>
       <c r="S65" s="32">
         <v>103.642737</v>
       </c>
-      <c r="T65" s="61">
+      <c r="T65" s="63">
         <v>151.66666</v>
       </c>
       <c r="U65" s="33">
-        <v>106.207291</v>
-      </c>
-      <c r="V65" s="61">
-        <v>110.28263</v>
-      </c>
-      <c r="W65" s="61">
+        <v>104.813864</v>
+      </c>
+      <c r="V65" s="63">
+        <v>108.815661</v>
+      </c>
+      <c r="W65" s="63">
         <v>5</v>
       </c>
-      <c r="X65" s="61">
-        <v>0.924661</v>
-      </c>
-      <c r="Y65" s="61">
-        <v>11.126508</v>
-      </c>
-      <c r="Z65" s="49">
-        <v>0.463909</v>
+      <c r="X65" s="63">
+        <v>0.998202</v>
+      </c>
+      <c r="Y65" s="63">
+        <v>12.171126</v>
+      </c>
+      <c r="Z65" s="50">
+        <v>0.507463</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -18074,19 +18080,19 @@
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="33">
-        <v>48.616373</v>
+        <v>47.96757</v>
       </c>
       <c r="G66" s="33">
         <v>10</v>
       </c>
       <c r="H66" s="33">
-        <v>7.755825</v>
+        <v>7.79623</v>
       </c>
       <c r="I66" s="33">
-        <v>93.326398</v>
-      </c>
-      <c r="J66" s="49">
-        <v>3.89115</v>
+        <v>95.05977</v>
+      </c>
+      <c r="J66" s="50">
+        <v>3.963421</v>
       </c>
       <c r="K66" s="32">
         <v>134.125895</v>
@@ -18096,41 +18102,41 @@
       </c>
       <c r="M66" s="33"/>
       <c r="N66" s="33">
-        <v>79.981775</v>
+        <v>78.914389</v>
       </c>
       <c r="O66" s="33">
         <v>10</v>
       </c>
       <c r="P66" s="33">
-        <v>6.30797</v>
+        <v>6.374443</v>
       </c>
       <c r="Q66" s="33">
-        <v>75.904253</v>
-      </c>
-      <c r="R66" s="49">
-        <v>3.164751</v>
+        <v>77.723857</v>
+      </c>
+      <c r="R66" s="50">
+        <v>3.240618</v>
       </c>
       <c r="S66" s="32">
         <v>134.125895</v>
       </c>
-      <c r="T66" s="61">
+      <c r="T66" s="63">
         <v>190.548255</v>
       </c>
       <c r="U66" s="33"/>
-      <c r="V66" s="61">
-        <v>111.347176</v>
-      </c>
-      <c r="W66" s="61">
+      <c r="V66" s="63">
+        <v>109.861208</v>
+      </c>
+      <c r="W66" s="63">
         <v>10</v>
       </c>
-      <c r="X66" s="61">
-        <v>4.860114</v>
-      </c>
-      <c r="Y66" s="61">
-        <v>58.482109</v>
-      </c>
-      <c r="Z66" s="49">
-        <v>2.438353</v>
+      <c r="X66" s="63">
+        <v>4.952656</v>
+      </c>
+      <c r="Y66" s="63">
+        <v>60.387944</v>
+      </c>
+      <c r="Z66" s="50">
+        <v>2.517815</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -18146,19 +18152,19 @@
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="33">
-        <v>49.077694</v>
+        <v>48.420694</v>
       </c>
       <c r="G67" s="33">
         <v>15</v>
       </c>
       <c r="H67" s="33">
-        <v>12.294503</v>
+        <v>12.343106</v>
       </c>
       <c r="I67" s="33">
-        <v>147.940648</v>
-      </c>
-      <c r="J67" s="49">
-        <v>6.168236</v>
+        <v>150.500027</v>
+      </c>
+      <c r="J67" s="50">
+        <v>6.274947</v>
       </c>
       <c r="K67" s="32">
         <v>164.609053</v>
@@ -18168,41 +18174,41 @@
       </c>
       <c r="M67" s="33"/>
       <c r="N67" s="33">
-        <v>80.740722</v>
+        <v>79.659851</v>
       </c>
       <c r="O67" s="33">
         <v>15</v>
       </c>
       <c r="P67" s="33">
-        <v>10.549022</v>
+        <v>10.628981</v>
       </c>
       <c r="Q67" s="33">
-        <v>126.937141</v>
-      </c>
-      <c r="R67" s="49">
-        <v>5.292516</v>
+        <v>129.599624</v>
+      </c>
+      <c r="R67" s="50">
+        <v>5.403526</v>
       </c>
       <c r="S67" s="32">
         <v>164.609053</v>
       </c>
-      <c r="T67" s="61">
+      <c r="T67" s="63">
         <v>228.850362</v>
       </c>
       <c r="U67" s="33"/>
-      <c r="V67" s="61">
-        <v>112.403751</v>
-      </c>
-      <c r="W67" s="61">
+      <c r="V67" s="63">
+        <v>110.899008</v>
+      </c>
+      <c r="W67" s="63">
         <v>15</v>
       </c>
-      <c r="X67" s="61">
-        <v>8.80354</v>
-      </c>
-      <c r="Y67" s="61">
-        <v>105.933635</v>
-      </c>
-      <c r="Z67" s="49">
-        <v>4.416796</v>
+      <c r="X67" s="63">
+        <v>8.914855</v>
+      </c>
+      <c r="Y67" s="63">
+        <v>108.699221</v>
+      </c>
+      <c r="Z67" s="50">
+        <v>4.532105</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -18218,19 +18224,19 @@
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="33">
-        <v>49.542394</v>
+        <v>48.877172</v>
       </c>
       <c r="G68" s="33">
         <v>20</v>
       </c>
       <c r="H68" s="33">
-        <v>16.829803</v>
+        <v>16.886627</v>
       </c>
       <c r="I68" s="33">
-        <v>202.514236</v>
-      </c>
-      <c r="J68" s="49">
-        <v>8.443627</v>
+        <v>205.899381</v>
+      </c>
+      <c r="J68" s="50">
+        <v>8.584768</v>
       </c>
       <c r="K68" s="32">
         <v>195.092212</v>
@@ -18240,41 +18246,41 @@
       </c>
       <c r="M68" s="33"/>
       <c r="N68" s="33">
-        <v>81.505229</v>
+        <v>80.410832</v>
       </c>
       <c r="O68" s="33">
         <v>20</v>
       </c>
       <c r="P68" s="33">
-        <v>14.784515</v>
+        <v>14.878</v>
       </c>
       <c r="Q68" s="33">
-        <v>177.903134</v>
-      </c>
-      <c r="R68" s="49">
-        <v>7.417492</v>
+        <v>181.408098</v>
+      </c>
+      <c r="R68" s="50">
+        <v>7.563628</v>
       </c>
       <c r="S68" s="32">
         <v>195.092212</v>
       </c>
-      <c r="T68" s="61">
+      <c r="T68" s="63">
         <v>267.14905</v>
       </c>
       <c r="U68" s="33"/>
-      <c r="V68" s="61">
-        <v>113.468064</v>
-      </c>
-      <c r="W68" s="61">
+      <c r="V68" s="63">
+        <v>111.944492</v>
+      </c>
+      <c r="W68" s="63">
         <v>20</v>
       </c>
-      <c r="X68" s="61">
-        <v>12.739227</v>
-      </c>
-      <c r="Y68" s="61">
-        <v>153.292033</v>
-      </c>
-      <c r="Z68" s="49">
-        <v>6.391357</v>
+      <c r="X68" s="63">
+        <v>12.869372</v>
+      </c>
+      <c r="Y68" s="63">
+        <v>156.916814</v>
+      </c>
+      <c r="Z68" s="50">
+        <v>6.542489</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -18290,19 +18296,19 @@
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33">
-        <v>50.010509</v>
+        <v>49.33704</v>
       </c>
       <c r="G69" s="33">
         <v>25</v>
       </c>
       <c r="H69" s="33">
-        <v>21.361688</v>
+        <v>21.426759</v>
       </c>
       <c r="I69" s="33">
-        <v>257.046739</v>
-      </c>
-      <c r="J69" s="49">
-        <v>10.717305</v>
+        <v>261.257409</v>
+      </c>
+      <c r="J69" s="50">
+        <v>10.892865</v>
       </c>
       <c r="K69" s="32">
         <v>225.57537</v>
@@ -18312,41 +18318,41 @@
       </c>
       <c r="M69" s="33"/>
       <c r="N69" s="33">
-        <v>82.275354</v>
+        <v>81.167389</v>
       </c>
       <c r="O69" s="33">
         <v>25</v>
       </c>
       <c r="P69" s="33">
-        <v>19.014391</v>
+        <v>19.121443</v>
       </c>
       <c r="Q69" s="33">
-        <v>228.801535</v>
-      </c>
-      <c r="R69" s="49">
-        <v>9.53965</v>
+        <v>233.148584</v>
+      </c>
+      <c r="R69" s="50">
+        <v>9.720896</v>
       </c>
       <c r="S69" s="32">
         <v>225.57537</v>
       </c>
-      <c r="T69" s="61">
+      <c r="T69" s="63">
         <v>305.447264</v>
       </c>
       <c r="U69" s="33"/>
-      <c r="V69" s="61">
-        <v>114.540198</v>
-      </c>
-      <c r="W69" s="61">
+      <c r="V69" s="63">
+        <v>112.997738</v>
+      </c>
+      <c r="W69" s="63">
         <v>25</v>
       </c>
-      <c r="X69" s="61">
-        <v>16.667093</v>
-      </c>
-      <c r="Y69" s="61">
-        <v>200.556331</v>
-      </c>
-      <c r="Z69" s="49">
-        <v>8.361994</v>
+      <c r="X69" s="63">
+        <v>16.816126</v>
+      </c>
+      <c r="Y69" s="63">
+        <v>205.039759</v>
+      </c>
+      <c r="Z69" s="50">
+        <v>8.548927</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -18362,19 +18368,19 @@
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="33">
-        <v>50.482038</v>
+        <v>49.800298</v>
       </c>
       <c r="G70" s="33">
         <v>30</v>
       </c>
       <c r="H70" s="33">
-        <v>25.890159</v>
+        <v>25.963502</v>
       </c>
       <c r="I70" s="33">
-        <v>311.538155</v>
-      </c>
-      <c r="J70" s="49">
-        <v>12.98927</v>
+        <v>316.57411</v>
+      </c>
+      <c r="J70" s="50">
+        <v>13.199239</v>
       </c>
       <c r="K70" s="32">
         <v>256.058528</v>
@@ -18384,41 +18390,41 @@
       </c>
       <c r="M70" s="33"/>
       <c r="N70" s="33">
-        <v>83.051095</v>
+        <v>81.929522</v>
       </c>
       <c r="O70" s="33">
         <v>30</v>
       </c>
       <c r="P70" s="33">
-        <v>23.238649</v>
+        <v>23.35931</v>
       </c>
       <c r="Q70" s="33">
-        <v>279.632341</v>
-      </c>
-      <c r="R70" s="49">
-        <v>11.658989</v>
+        <v>284.821081</v>
+      </c>
+      <c r="R70" s="50">
+        <v>11.875328</v>
       </c>
       <c r="S70" s="32">
         <v>256.058528</v>
       </c>
-      <c r="T70" s="61">
+      <c r="T70" s="63">
         <v>343.745025</v>
       </c>
       <c r="U70" s="33"/>
-      <c r="V70" s="61">
-        <v>115.620152</v>
-      </c>
-      <c r="W70" s="61">
+      <c r="V70" s="63">
+        <v>114.058746</v>
+      </c>
+      <c r="W70" s="63">
         <v>30</v>
       </c>
-      <c r="X70" s="61">
-        <v>20.587139</v>
-      </c>
-      <c r="Y70" s="61">
-        <v>247.726527</v>
-      </c>
-      <c r="Z70" s="49">
-        <v>10.328708</v>
+      <c r="X70" s="63">
+        <v>20.755118</v>
+      </c>
+      <c r="Y70" s="63">
+        <v>253.068052</v>
+      </c>
+      <c r="Z70" s="50">
+        <v>10.551418</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -18434,19 +18440,19 @@
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33">
-        <v>50.956982</v>
+        <v>50.266944</v>
       </c>
       <c r="G71" s="33">
         <v>35</v>
       </c>
       <c r="H71" s="33">
-        <v>30.415215</v>
+        <v>30.496855</v>
       </c>
       <c r="I71" s="33">
-        <v>365.988484</v>
-      </c>
-      <c r="J71" s="49">
-        <v>15.259522</v>
+        <v>371.849484</v>
+      </c>
+      <c r="J71" s="50">
+        <v>15.50389</v>
       </c>
       <c r="K71" s="32">
         <v>286.541686</v>
@@ -18456,41 +18462,41 @@
       </c>
       <c r="M71" s="33"/>
       <c r="N71" s="33">
-        <v>83.832454</v>
+        <v>82.697231</v>
       </c>
       <c r="O71" s="33">
         <v>35</v>
       </c>
       <c r="P71" s="33">
-        <v>27.45729</v>
+        <v>27.591601</v>
       </c>
       <c r="Q71" s="33">
-        <v>330.395553</v>
-      </c>
-      <c r="R71" s="49">
-        <v>13.77551</v>
+        <v>336.425589</v>
+      </c>
+      <c r="R71" s="50">
+        <v>14.026927</v>
       </c>
       <c r="S71" s="32">
         <v>286.541686</v>
       </c>
-      <c r="T71" s="61">
+      <c r="T71" s="63">
         <v>382.042339</v>
       </c>
       <c r="U71" s="33"/>
-      <c r="V71" s="61">
-        <v>116.707926</v>
-      </c>
-      <c r="W71" s="61">
+      <c r="V71" s="63">
+        <v>115.127518</v>
+      </c>
+      <c r="W71" s="63">
         <v>35</v>
       </c>
-      <c r="X71" s="61">
-        <v>24.499365</v>
-      </c>
-      <c r="Y71" s="61">
-        <v>294.802622</v>
-      </c>
-      <c r="Z71" s="49">
-        <v>12.291499</v>
+      <c r="X71" s="63">
+        <v>24.686346</v>
+      </c>
+      <c r="Y71" s="63">
+        <v>301.001694</v>
+      </c>
+      <c r="Z71" s="50">
+        <v>12.549963</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -18506,19 +18512,19 @@
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="33">
-        <v>51.43534</v>
+        <v>50.73698</v>
       </c>
       <c r="G72" s="33">
         <v>40</v>
       </c>
       <c r="H72" s="33">
-        <v>34.936857</v>
+        <v>35.02682</v>
       </c>
       <c r="I72" s="33">
-        <v>420.397727</v>
-      </c>
-      <c r="J72" s="49">
-        <v>17.52806</v>
+        <v>427.083533</v>
+      </c>
+      <c r="J72" s="50">
+        <v>17.806818</v>
       </c>
       <c r="K72" s="32">
         <v>317.024844</v>
@@ -18528,41 +18534,41 @@
       </c>
       <c r="M72" s="33"/>
       <c r="N72" s="33">
-        <v>84.61943</v>
+        <v>83.470516</v>
       </c>
       <c r="O72" s="33">
         <v>40</v>
       </c>
       <c r="P72" s="33">
-        <v>31.670314</v>
+        <v>31.818316</v>
       </c>
       <c r="Q72" s="33">
-        <v>381.091172</v>
-      </c>
-      <c r="R72" s="49">
-        <v>15.889213</v>
+        <v>387.96211</v>
+      </c>
+      <c r="R72" s="50">
+        <v>16.17569</v>
       </c>
       <c r="S72" s="32">
         <v>317.024844</v>
       </c>
-      <c r="T72" s="61">
+      <c r="T72" s="63">
         <v>420.339211</v>
       </c>
       <c r="U72" s="33"/>
-      <c r="V72" s="61">
-        <v>117.803521</v>
-      </c>
-      <c r="W72" s="61">
+      <c r="V72" s="63">
+        <v>116.204051</v>
+      </c>
+      <c r="W72" s="63">
         <v>40</v>
       </c>
-      <c r="X72" s="61">
-        <v>28.40377</v>
-      </c>
-      <c r="Y72" s="61">
-        <v>341.784617</v>
-      </c>
-      <c r="Z72" s="49">
-        <v>14.250366</v>
+      <c r="X72" s="63">
+        <v>28.609812</v>
+      </c>
+      <c r="Y72" s="63">
+        <v>348.840687</v>
+      </c>
+      <c r="Z72" s="50">
+        <v>14.544562</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -18578,19 +18584,19 @@
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="33">
-        <v>51.917113</v>
+        <v>51.210405</v>
       </c>
       <c r="G73" s="33">
         <v>45</v>
       </c>
       <c r="H73" s="33">
-        <v>39.455085</v>
+        <v>39.553394</v>
       </c>
       <c r="I73" s="33">
-        <v>474.765885</v>
-      </c>
-      <c r="J73" s="49">
-        <v>19.794886</v>
+        <v>482.276257</v>
+      </c>
+      <c r="J73" s="50">
+        <v>20.108023</v>
       </c>
       <c r="K73" s="32">
         <v>347.508002</v>
@@ -18600,41 +18606,41 @@
       </c>
       <c r="M73" s="33"/>
       <c r="N73" s="33">
-        <v>85.412024</v>
+        <v>84.249377</v>
       </c>
       <c r="O73" s="33">
         <v>45</v>
       </c>
       <c r="P73" s="33">
-        <v>35.87772</v>
+        <v>36.039455</v>
       </c>
       <c r="Q73" s="33">
-        <v>431.719199</v>
-      </c>
-      <c r="R73" s="49">
-        <v>18.000098</v>
+        <v>439.430644</v>
+      </c>
+      <c r="R73" s="50">
+        <v>18.321619</v>
       </c>
       <c r="S73" s="32">
         <v>347.508002</v>
       </c>
-      <c r="T73" s="61">
+      <c r="T73" s="63">
         <v>458.635648</v>
       </c>
       <c r="U73" s="33"/>
-      <c r="V73" s="61">
-        <v>118.906935</v>
-      </c>
-      <c r="W73" s="61">
+      <c r="V73" s="63">
+        <v>117.288348</v>
+      </c>
+      <c r="W73" s="63">
         <v>45</v>
       </c>
-      <c r="X73" s="61">
-        <v>32.300356</v>
-      </c>
-      <c r="Y73" s="61">
-        <v>388.672513</v>
-      </c>
-      <c r="Z73" s="49">
-        <v>16.205309</v>
+      <c r="X73" s="63">
+        <v>32.525516</v>
+      </c>
+      <c r="Y73" s="63">
+        <v>396.585031</v>
+      </c>
+      <c r="Z73" s="50">
+        <v>16.535214</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -18645,68 +18651,68 @@
       <c r="C74" s="36">
         <v>377.99116</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="37">
         <v>496.931655</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13">
-        <v>52.402299</v>
-      </c>
-      <c r="G74" s="13">
+      <c r="E74" s="37"/>
+      <c r="F74" s="37">
+        <v>51.68722</v>
+      </c>
+      <c r="G74" s="37">
         <v>50</v>
       </c>
-      <c r="H74" s="13">
-        <v>43.969898</v>
-      </c>
-      <c r="I74" s="62">
-        <v>529.092958</v>
-      </c>
-      <c r="J74" s="52">
-        <v>22.059999</v>
+      <c r="H74" s="37">
+        <v>44.07658</v>
+      </c>
+      <c r="I74" s="64">
+        <v>537.427656</v>
+      </c>
+      <c r="J74" s="53">
+        <v>22.407506</v>
       </c>
       <c r="K74" s="36">
         <v>377.99116</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="37">
         <v>496.931655</v>
       </c>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13">
-        <v>86.210234</v>
-      </c>
-      <c r="O74" s="13">
+      <c r="M74" s="37"/>
+      <c r="N74" s="37">
+        <v>85.033813</v>
+      </c>
+      <c r="O74" s="37">
         <v>50</v>
       </c>
-      <c r="P74" s="13">
-        <v>40.07951</v>
-      </c>
-      <c r="Q74" s="13">
-        <v>482.279635</v>
-      </c>
-      <c r="R74" s="52">
-        <v>20.108164</v>
+      <c r="P74" s="37">
+        <v>40.255019</v>
+      </c>
+      <c r="Q74" s="37">
+        <v>490.831192</v>
+      </c>
+      <c r="R74" s="53">
+        <v>20.464713</v>
       </c>
       <c r="S74" s="36">
         <v>377.99116</v>
       </c>
-      <c r="T74" s="13">
+      <c r="T74" s="37">
         <v>496.931655</v>
       </c>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13">
-        <v>120.01817</v>
-      </c>
-      <c r="W74" s="13">
+      <c r="U74" s="37"/>
+      <c r="V74" s="37">
+        <v>118.380407</v>
+      </c>
+      <c r="W74" s="37">
         <v>50</v>
       </c>
-      <c r="X74" s="13">
-        <v>36.189121</v>
-      </c>
-      <c r="Y74" s="13">
-        <v>435.466311</v>
-      </c>
-      <c r="Z74" s="52">
-        <v>18.15633</v>
+      <c r="X74" s="37">
+        <v>36.433457</v>
+      </c>
+      <c r="Y74" s="37">
+        <v>444.234729</v>
+      </c>
+      <c r="Z74" s="53">
+        <v>18.52192</v>
       </c>
     </row>
     <row r="75" ht="27" customHeight="1" spans="1:26">
@@ -18721,7 +18727,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
-      <c r="J75" s="48"/>
+      <c r="J75" s="49"/>
       <c r="K75" s="22" t="s">
         <v>33</v>
       </c>
@@ -18731,7 +18737,7 @@
       <c r="O75" s="23"/>
       <c r="P75" s="23"/>
       <c r="Q75" s="23"/>
-      <c r="R75" s="48"/>
+      <c r="R75" s="49"/>
       <c r="S75" s="22" t="s">
         <v>34</v>
       </c>
@@ -18741,734 +18747,734 @@
       <c r="W75" s="23"/>
       <c r="X75" s="23"/>
       <c r="Y75" s="23"/>
-      <c r="Z75" s="48"/>
+      <c r="Z75" s="49"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="38">
+      <c r="B76" s="39">
         <v>5</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="40">
         <v>103.642737</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="41">
         <v>152.151576</v>
       </c>
-      <c r="E76" s="40">
-        <v>34.930488</v>
-      </c>
-      <c r="F76" s="40">
-        <v>36.328995</v>
-      </c>
-      <c r="G76" s="40">
+      <c r="E76" s="41">
+        <v>33.958109</v>
+      </c>
+      <c r="F76" s="41">
+        <v>35.304977</v>
+      </c>
+      <c r="G76" s="41">
         <v>5</v>
       </c>
-      <c r="H76" s="40">
-        <v>3.601493</v>
-      </c>
-      <c r="I76" s="40">
-        <v>43.613238</v>
-      </c>
-      <c r="J76" s="53">
-        <v>1.81841</v>
-      </c>
-      <c r="K76" s="39">
+      <c r="H76" s="41">
+        <v>3.653132</v>
+      </c>
+      <c r="I76" s="41">
+        <v>45.505328</v>
+      </c>
+      <c r="J76" s="54">
+        <v>1.897299</v>
+      </c>
+      <c r="K76" s="40">
         <v>103.642737</v>
       </c>
-      <c r="L76" s="40">
+      <c r="L76" s="41">
         <v>152.151576</v>
       </c>
-      <c r="M76" s="40">
-        <v>64.658563</v>
-      </c>
-      <c r="N76" s="40">
-        <v>67.247288</v>
-      </c>
-      <c r="O76" s="40">
+      <c r="M76" s="41">
+        <v>62.858627</v>
+      </c>
+      <c r="N76" s="41">
+        <v>65.351765</v>
+      </c>
+      <c r="O76" s="41">
         <v>5</v>
       </c>
-      <c r="P76" s="40">
-        <v>2.411275</v>
-      </c>
-      <c r="Q76" s="40">
-        <v>29.199972</v>
-      </c>
-      <c r="R76" s="53">
-        <v>1.217463</v>
-      </c>
-      <c r="S76" s="39">
+      <c r="P76" s="41">
+        <v>2.506862</v>
+      </c>
+      <c r="Q76" s="41">
+        <v>31.226782</v>
+      </c>
+      <c r="R76" s="54">
+        <v>1.301969</v>
+      </c>
+      <c r="S76" s="40">
         <v>103.642737</v>
       </c>
-      <c r="T76" s="63">
+      <c r="T76" s="65">
         <v>152.151576</v>
       </c>
-      <c r="U76" s="40">
-        <v>94.386638</v>
-      </c>
-      <c r="V76" s="63">
-        <v>98.165582</v>
-      </c>
-      <c r="W76" s="63">
+      <c r="U76" s="41">
+        <v>91.759145</v>
+      </c>
+      <c r="V76" s="65">
+        <v>95.398554</v>
+      </c>
+      <c r="W76" s="65">
         <v>5</v>
       </c>
-      <c r="X76" s="63">
-        <v>1.221056</v>
-      </c>
-      <c r="Y76" s="63">
-        <v>14.786706</v>
-      </c>
-      <c r="Z76" s="53">
-        <v>0.616517</v>
+      <c r="X76" s="65">
+        <v>1.360591</v>
+      </c>
+      <c r="Y76" s="65">
+        <v>16.948236</v>
+      </c>
+      <c r="Z76" s="54">
+        <v>0.70664</v>
       </c>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="41"/>
-      <c r="B77" s="38">
+      <c r="A77" s="42"/>
+      <c r="B77" s="39">
         <v>10</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="40">
         <v>134.125895</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="41">
         <v>191.052763</v>
       </c>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40">
-        <v>36.693448</v>
-      </c>
-      <c r="G77" s="40">
+      <c r="E77" s="41"/>
+      <c r="F77" s="41">
+        <v>35.656123</v>
+      </c>
+      <c r="G77" s="41">
         <v>10</v>
       </c>
-      <c r="H77" s="40">
-        <v>8.23704</v>
-      </c>
-      <c r="I77" s="40">
-        <v>99.748623</v>
-      </c>
-      <c r="J77" s="53">
-        <v>4.158919</v>
-      </c>
-      <c r="K77" s="39">
+      <c r="H77" s="41">
+        <v>8.301986</v>
+      </c>
+      <c r="I77" s="41">
+        <v>103.413891</v>
+      </c>
+      <c r="J77" s="54">
+        <v>4.311738</v>
+      </c>
+      <c r="K77" s="40">
         <v>134.125895</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="41">
         <v>191.052763</v>
       </c>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40">
-        <v>67.921914</v>
-      </c>
-      <c r="O77" s="40">
+      <c r="M77" s="41"/>
+      <c r="N77" s="41">
+        <v>66.001759</v>
+      </c>
+      <c r="O77" s="41">
         <v>10</v>
       </c>
-      <c r="P77" s="40">
-        <v>6.736649</v>
-      </c>
-      <c r="Q77" s="40">
-        <v>81.57924</v>
-      </c>
-      <c r="R77" s="53">
-        <v>3.401364</v>
-      </c>
-      <c r="S77" s="39">
+      <c r="P77" s="41">
+        <v>6.856868</v>
+      </c>
+      <c r="Q77" s="41">
+        <v>85.412743</v>
+      </c>
+      <c r="R77" s="54">
+        <v>3.561198</v>
+      </c>
+      <c r="S77" s="40">
         <v>134.125895</v>
       </c>
-      <c r="T77" s="63">
+      <c r="T77" s="65">
         <v>191.052763</v>
       </c>
-      <c r="U77" s="40"/>
-      <c r="V77" s="63">
-        <v>99.15038</v>
-      </c>
-      <c r="W77" s="63">
+      <c r="U77" s="41"/>
+      <c r="V77" s="65">
+        <v>96.347395</v>
+      </c>
+      <c r="W77" s="65">
         <v>10</v>
       </c>
-      <c r="X77" s="63">
-        <v>5.236258</v>
-      </c>
-      <c r="Y77" s="63">
-        <v>63.409857</v>
-      </c>
-      <c r="Z77" s="53">
-        <v>2.64381</v>
+      <c r="X77" s="65">
+        <v>5.41175</v>
+      </c>
+      <c r="Y77" s="65">
+        <v>67.411594</v>
+      </c>
+      <c r="Z77" s="54">
+        <v>2.810659</v>
       </c>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="41"/>
-      <c r="B78" s="38">
+      <c r="A78" s="42"/>
+      <c r="B78" s="39">
         <v>15</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="40">
         <v>164.609053</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="41">
         <v>229.359314</v>
       </c>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40">
-        <v>37.055072</v>
-      </c>
-      <c r="G78" s="40">
+      <c r="E78" s="41"/>
+      <c r="F78" s="41">
+        <v>36.004602</v>
+      </c>
+      <c r="G78" s="41">
         <v>15</v>
       </c>
-      <c r="H78" s="40">
-        <v>12.875416</v>
-      </c>
-      <c r="I78" s="40">
-        <v>155.918264</v>
-      </c>
-      <c r="J78" s="53">
-        <v>6.500855</v>
-      </c>
-      <c r="K78" s="39">
+      <c r="H78" s="41">
+        <v>12.953507</v>
+      </c>
+      <c r="I78" s="41">
+        <v>161.355673</v>
+      </c>
+      <c r="J78" s="54">
+        <v>6.727562</v>
+      </c>
+      <c r="K78" s="40">
         <v>164.609053</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="41">
         <v>229.359314</v>
       </c>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40">
-        <v>68.591303</v>
-      </c>
-      <c r="O78" s="40">
+      <c r="M78" s="41"/>
+      <c r="N78" s="41">
+        <v>66.646816</v>
+      </c>
+      <c r="O78" s="41">
         <v>15</v>
       </c>
-      <c r="P78" s="40">
-        <v>11.06726</v>
-      </c>
-      <c r="Q78" s="40">
-        <v>134.021915</v>
-      </c>
-      <c r="R78" s="53">
-        <v>5.587909</v>
-      </c>
-      <c r="S78" s="39">
+      <c r="P78" s="41">
+        <v>11.211811</v>
+      </c>
+      <c r="Q78" s="41">
+        <v>139.660193</v>
+      </c>
+      <c r="R78" s="54">
+        <v>5.822991</v>
+      </c>
+      <c r="S78" s="40">
         <v>164.609053</v>
       </c>
-      <c r="T78" s="63">
+      <c r="T78" s="65">
         <v>229.359314</v>
       </c>
-      <c r="U78" s="40"/>
-      <c r="V78" s="63">
-        <v>100.127535</v>
-      </c>
-      <c r="W78" s="63">
+      <c r="U78" s="41"/>
+      <c r="V78" s="65">
+        <v>97.28903</v>
+      </c>
+      <c r="W78" s="65">
         <v>15</v>
       </c>
-      <c r="X78" s="63">
-        <v>9.259104</v>
-      </c>
-      <c r="Y78" s="63">
-        <v>112.125567</v>
-      </c>
-      <c r="Z78" s="53">
-        <v>4.674963</v>
+      <c r="X78" s="65">
+        <v>9.470115</v>
+      </c>
+      <c r="Y78" s="65">
+        <v>117.964713</v>
+      </c>
+      <c r="Z78" s="54">
+        <v>4.91842</v>
       </c>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="41"/>
-      <c r="B79" s="38">
+      <c r="A79" s="42"/>
+      <c r="B79" s="39">
         <v>20</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="40">
         <v>195.092212</v>
       </c>
-      <c r="D79" s="40">
+      <c r="D79" s="41">
         <v>267.662292</v>
       </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40">
-        <v>37.419383</v>
-      </c>
-      <c r="G79" s="40">
+      <c r="E79" s="41"/>
+      <c r="F79" s="41">
+        <v>36.355728</v>
+      </c>
+      <c r="G79" s="41">
         <v>20</v>
       </c>
-      <c r="H79" s="40">
-        <v>17.511105</v>
-      </c>
-      <c r="I79" s="40">
-        <v>212.055365</v>
-      </c>
-      <c r="J79" s="53">
-        <v>8.841435</v>
-      </c>
-      <c r="K79" s="39">
+      <c r="H79" s="41">
+        <v>17.602381</v>
+      </c>
+      <c r="I79" s="41">
+        <v>219.26448</v>
+      </c>
+      <c r="J79" s="54">
+        <v>9.142012</v>
+      </c>
+      <c r="K79" s="40">
         <v>195.092212</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="41">
         <v>267.662292</v>
       </c>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40">
-        <v>69.265667</v>
-      </c>
-      <c r="O79" s="40">
+      <c r="M79" s="41"/>
+      <c r="N79" s="41">
+        <v>67.296773</v>
+      </c>
+      <c r="O79" s="41">
         <v>20</v>
       </c>
-      <c r="P79" s="40">
-        <v>15.392897</v>
-      </c>
-      <c r="Q79" s="40">
-        <v>186.404358</v>
-      </c>
-      <c r="R79" s="53">
-        <v>7.771942</v>
-      </c>
-      <c r="S79" s="39">
+      <c r="P79" s="41">
+        <v>15.561854</v>
+      </c>
+      <c r="Q79" s="41">
+        <v>193.846606</v>
+      </c>
+      <c r="R79" s="54">
+        <v>8.082239</v>
+      </c>
+      <c r="S79" s="40">
         <v>195.092212</v>
       </c>
-      <c r="T79" s="63">
+      <c r="T79" s="65">
         <v>267.662292</v>
       </c>
-      <c r="U79" s="40"/>
-      <c r="V79" s="63">
-        <v>101.11195</v>
-      </c>
-      <c r="W79" s="63">
+      <c r="U79" s="41"/>
+      <c r="V79" s="65">
+        <v>98.237818</v>
+      </c>
+      <c r="W79" s="65">
         <v>20</v>
       </c>
-      <c r="X79" s="63">
-        <v>13.274688</v>
-      </c>
-      <c r="Y79" s="63">
-        <v>160.753351</v>
-      </c>
-      <c r="Z79" s="53">
-        <v>6.702449</v>
+      <c r="X79" s="65">
+        <v>13.521327</v>
+      </c>
+      <c r="Y79" s="65">
+        <v>168.428733</v>
+      </c>
+      <c r="Z79" s="54">
+        <v>7.022467</v>
       </c>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="41"/>
-      <c r="B80" s="38">
+      <c r="A80" s="42"/>
+      <c r="B80" s="39">
         <v>25</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="40">
         <v>225.57537</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="41">
         <v>305.964785</v>
       </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40">
-        <v>37.78641</v>
-      </c>
-      <c r="G80" s="40">
+      <c r="E80" s="41"/>
+      <c r="F80" s="41">
+        <v>36.709529</v>
+      </c>
+      <c r="G80" s="41">
         <v>25</v>
       </c>
-      <c r="H80" s="40">
-        <v>22.144078</v>
-      </c>
-      <c r="I80" s="40">
-        <v>268.159576</v>
-      </c>
-      <c r="J80" s="53">
-        <v>11.180644</v>
-      </c>
-      <c r="K80" s="39">
+      <c r="H80" s="41">
+        <v>22.248579</v>
+      </c>
+      <c r="I80" s="41">
+        <v>277.139966</v>
+      </c>
+      <c r="J80" s="54">
+        <v>11.555072</v>
+      </c>
+      <c r="K80" s="40">
         <v>225.57537</v>
       </c>
-      <c r="L80" s="40">
+      <c r="L80" s="41">
         <v>305.964785</v>
       </c>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40">
-        <v>69.945058</v>
-      </c>
-      <c r="O80" s="40">
+      <c r="M80" s="41"/>
+      <c r="N80" s="41">
+        <v>67.951682</v>
+      </c>
+      <c r="O80" s="41">
         <v>25</v>
       </c>
-      <c r="P80" s="40">
-        <v>19.713506</v>
-      </c>
-      <c r="Q80" s="40">
-        <v>238.725919</v>
-      </c>
-      <c r="R80" s="53">
-        <v>9.953437</v>
-      </c>
-      <c r="S80" s="39">
+      <c r="P80" s="41">
+        <v>19.906945</v>
+      </c>
+      <c r="Q80" s="41">
+        <v>247.97134</v>
+      </c>
+      <c r="R80" s="54">
+        <v>10.338916</v>
+      </c>
+      <c r="S80" s="40">
         <v>225.57537</v>
       </c>
-      <c r="T80" s="63">
+      <c r="T80" s="65">
         <v>305.964785</v>
       </c>
-      <c r="U80" s="40"/>
-      <c r="V80" s="63">
-        <v>102.103705</v>
-      </c>
-      <c r="W80" s="63">
+      <c r="U80" s="41"/>
+      <c r="V80" s="65">
+        <v>99.193834</v>
+      </c>
+      <c r="W80" s="65">
         <v>25</v>
       </c>
-      <c r="X80" s="63">
-        <v>17.282934</v>
-      </c>
-      <c r="Y80" s="63">
-        <v>209.292262</v>
-      </c>
-      <c r="Z80" s="53">
-        <v>8.72623</v>
+      <c r="X80" s="65">
+        <v>17.565311</v>
+      </c>
+      <c r="Y80" s="65">
+        <v>218.802714</v>
+      </c>
+      <c r="Z80" s="54">
+        <v>9.122759</v>
       </c>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="41"/>
-      <c r="B81" s="38">
+      <c r="A81" s="42"/>
+      <c r="B81" s="39">
         <v>30</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="40">
         <v>256.058528</v>
       </c>
-      <c r="D81" s="40">
+      <c r="D81" s="41">
         <v>344.266815</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40">
-        <v>38.156154</v>
-      </c>
-      <c r="G81" s="40">
+      <c r="E81" s="41"/>
+      <c r="F81" s="41">
+        <v>37.066006</v>
+      </c>
+      <c r="G81" s="41">
         <v>30</v>
       </c>
-      <c r="H81" s="40">
-        <v>26.774334</v>
-      </c>
-      <c r="I81" s="40">
-        <v>324.230895</v>
-      </c>
-      <c r="J81" s="53">
-        <v>13.518481</v>
-      </c>
-      <c r="K81" s="39">
+      <c r="H81" s="41">
+        <v>26.892103</v>
+      </c>
+      <c r="I81" s="41">
+        <v>334.98213</v>
+      </c>
+      <c r="J81" s="54">
+        <v>13.966743</v>
+      </c>
+      <c r="K81" s="40">
         <v>256.058528</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="41">
         <v>344.266815</v>
       </c>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40">
-        <v>70.629476</v>
-      </c>
-      <c r="O81" s="40">
+      <c r="M81" s="41"/>
+      <c r="N81" s="41">
+        <v>68.611542</v>
+      </c>
+      <c r="O81" s="41">
         <v>30</v>
       </c>
-      <c r="P81" s="40">
-        <v>24.029087</v>
-      </c>
-      <c r="Q81" s="40">
-        <v>290.986596</v>
-      </c>
-      <c r="R81" s="53">
-        <v>12.132393</v>
-      </c>
-      <c r="S81" s="39">
+      <c r="P81" s="41">
+        <v>24.247084</v>
+      </c>
+      <c r="Q81" s="41">
+        <v>302.034392</v>
+      </c>
+      <c r="R81" s="54">
+        <v>12.59302</v>
+      </c>
+      <c r="S81" s="40">
         <v>256.058528</v>
       </c>
-      <c r="T81" s="63">
+      <c r="T81" s="65">
         <v>344.266815</v>
       </c>
-      <c r="U81" s="40"/>
-      <c r="V81" s="63">
-        <v>103.102799</v>
-      </c>
-      <c r="W81" s="63">
+      <c r="U81" s="41"/>
+      <c r="V81" s="65">
+        <v>100.157079</v>
+      </c>
+      <c r="W81" s="65">
         <v>30</v>
       </c>
-      <c r="X81" s="63">
-        <v>21.28384</v>
-      </c>
-      <c r="Y81" s="63">
-        <v>257.742296</v>
-      </c>
-      <c r="Z81" s="53">
-        <v>10.746306</v>
+      <c r="X81" s="65">
+        <v>21.602066</v>
+      </c>
+      <c r="Y81" s="65">
+        <v>269.086653</v>
+      </c>
+      <c r="Z81" s="54">
+        <v>11.219297</v>
       </c>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="41"/>
-      <c r="B82" s="38">
+      <c r="A82" s="42"/>
+      <c r="B82" s="39">
         <v>35</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="40">
         <v>286.541686</v>
       </c>
-      <c r="D82" s="40">
+      <c r="D82" s="41">
         <v>382.568388</v>
       </c>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40">
-        <v>38.528613</v>
-      </c>
-      <c r="G82" s="40">
+      <c r="E82" s="41"/>
+      <c r="F82" s="41">
+        <v>37.425157</v>
+      </c>
+      <c r="G82" s="41">
         <v>35</v>
       </c>
-      <c r="H82" s="40">
-        <v>31.401875</v>
-      </c>
-      <c r="I82" s="65">
-        <v>380.269324</v>
-      </c>
-      <c r="J82" s="53">
-        <v>15.854947</v>
-      </c>
-      <c r="K82" s="39">
+      <c r="H82" s="41">
+        <v>31.532952</v>
+      </c>
+      <c r="I82" s="67">
+        <v>392.790972</v>
+      </c>
+      <c r="J82" s="54">
+        <v>16.377024</v>
+      </c>
+      <c r="K82" s="40">
         <v>286.541686</v>
       </c>
-      <c r="L82" s="40">
+      <c r="L82" s="41">
         <v>382.568388</v>
       </c>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40">
-        <v>71.318922</v>
-      </c>
-      <c r="O82" s="40">
+      <c r="M82" s="41"/>
+      <c r="N82" s="41">
+        <v>69.276355</v>
+      </c>
+      <c r="O82" s="41">
         <v>35</v>
       </c>
-      <c r="P82" s="40">
-        <v>28.339641</v>
-      </c>
-      <c r="Q82" s="40">
-        <v>343.186389</v>
-      </c>
-      <c r="R82" s="53">
-        <v>14.308811</v>
-      </c>
-      <c r="S82" s="39">
+      <c r="P82" s="41">
+        <v>28.582272</v>
+      </c>
+      <c r="Q82" s="41">
+        <v>356.035762</v>
+      </c>
+      <c r="R82" s="54">
+        <v>14.844553</v>
+      </c>
+      <c r="S82" s="40">
         <v>286.541686</v>
       </c>
-      <c r="T82" s="63">
+      <c r="T82" s="65">
         <v>382.568388</v>
       </c>
-      <c r="U82" s="40"/>
-      <c r="V82" s="63">
-        <v>104.109231</v>
-      </c>
-      <c r="W82" s="63">
+      <c r="U82" s="41"/>
+      <c r="V82" s="65">
+        <v>101.127552</v>
+      </c>
+      <c r="W82" s="65">
         <v>35</v>
       </c>
-      <c r="X82" s="63">
-        <v>25.277407</v>
-      </c>
-      <c r="Y82" s="63">
-        <v>306.103455</v>
-      </c>
-      <c r="Z82" s="53">
-        <v>12.762676</v>
+      <c r="X82" s="65">
+        <v>25.631593</v>
+      </c>
+      <c r="Y82" s="65">
+        <v>319.280552</v>
+      </c>
+      <c r="Z82" s="54">
+        <v>13.312081</v>
       </c>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="41"/>
-      <c r="B83" s="38">
+      <c r="A83" s="42"/>
+      <c r="B83" s="39">
         <v>40</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="40">
         <v>317.024844</v>
       </c>
-      <c r="D83" s="40">
+      <c r="D83" s="41">
         <v>420.86951</v>
       </c>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40">
-        <v>38.903789</v>
-      </c>
-      <c r="G83" s="40">
-        <v>38.903789</v>
-      </c>
-      <c r="H83" s="40">
-        <v>34.930488</v>
-      </c>
-      <c r="I83" s="54">
+      <c r="E83" s="41"/>
+      <c r="F83" s="41">
+        <v>37.786984</v>
+      </c>
+      <c r="G83" s="41">
+        <v>37.786984</v>
+      </c>
+      <c r="H83" s="41">
+        <v>33.958109</v>
+      </c>
+      <c r="I83" s="56">
         <v>423</v>
       </c>
-      <c r="J83" s="53">
+      <c r="J83" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K83" s="39">
+      <c r="K83" s="40">
         <v>317.024844</v>
       </c>
-      <c r="L83" s="40">
+      <c r="L83" s="41">
         <v>420.86951</v>
       </c>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40">
-        <v>72.013396</v>
-      </c>
-      <c r="O83" s="40">
+      <c r="M83" s="41"/>
+      <c r="N83" s="41">
+        <v>69.946119</v>
+      </c>
+      <c r="O83" s="41">
         <v>40</v>
       </c>
-      <c r="P83" s="40">
-        <v>32.645167</v>
-      </c>
-      <c r="Q83" s="40">
-        <v>395.3253</v>
-      </c>
-      <c r="R83" s="53">
-        <v>16.482691</v>
-      </c>
-      <c r="S83" s="39">
+      <c r="P83" s="41">
+        <v>32.912508</v>
+      </c>
+      <c r="Q83" s="41">
+        <v>409.975452</v>
+      </c>
+      <c r="R83" s="54">
+        <v>17.093514</v>
+      </c>
+      <c r="S83" s="40">
         <v>317.024844</v>
       </c>
-      <c r="T83" s="63">
+      <c r="T83" s="65">
         <v>420.86951</v>
       </c>
-      <c r="U83" s="40"/>
-      <c r="V83" s="63">
-        <v>105.123003</v>
-      </c>
-      <c r="W83" s="63">
+      <c r="U83" s="41"/>
+      <c r="V83" s="65">
+        <v>102.105254</v>
+      </c>
+      <c r="W83" s="65">
         <v>40</v>
       </c>
-      <c r="X83" s="63">
-        <v>29.263635</v>
-      </c>
-      <c r="Y83" s="63">
-        <v>354.375739</v>
-      </c>
-      <c r="Z83" s="53">
-        <v>14.77534</v>
+      <c r="X83" s="65">
+        <v>29.653891</v>
+      </c>
+      <c r="Y83" s="65">
+        <v>369.384412</v>
+      </c>
+      <c r="Z83" s="54">
+        <v>15.401112</v>
       </c>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="41"/>
-      <c r="B84" s="38">
+      <c r="A84" s="42"/>
+      <c r="B84" s="39">
         <v>45</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="40">
         <v>347.508002</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="41">
         <v>459.170187</v>
       </c>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40">
-        <v>39.28168</v>
-      </c>
-      <c r="G84" s="40">
-        <v>39.28168</v>
-      </c>
-      <c r="H84" s="40">
-        <v>34.930488</v>
-      </c>
-      <c r="I84" s="54">
+      <c r="E84" s="41"/>
+      <c r="F84" s="41">
+        <v>38.151485</v>
+      </c>
+      <c r="G84" s="41">
+        <v>38.151485</v>
+      </c>
+      <c r="H84" s="41">
+        <v>33.958109</v>
+      </c>
+      <c r="I84" s="56">
         <v>423</v>
       </c>
-      <c r="J84" s="53">
+      <c r="J84" s="54">
         <v>17.63656</v>
       </c>
-      <c r="K84" s="39">
+      <c r="K84" s="40">
         <v>347.508002</v>
       </c>
-      <c r="L84" s="40">
+      <c r="L84" s="41">
         <v>459.170187</v>
       </c>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40">
-        <v>72.712897</v>
-      </c>
-      <c r="O84" s="40">
+      <c r="M84" s="41"/>
+      <c r="N84" s="41">
+        <v>70.620834</v>
+      </c>
+      <c r="O84" s="41">
         <v>45</v>
       </c>
-      <c r="P84" s="40">
-        <v>36.945666</v>
-      </c>
-      <c r="Q84" s="40">
-        <v>447.40333</v>
-      </c>
-      <c r="R84" s="53">
-        <v>18.654032</v>
-      </c>
-      <c r="S84" s="39">
+      <c r="P84" s="41">
+        <v>37.237793</v>
+      </c>
+      <c r="Q84" s="41">
+        <v>463.853463</v>
+      </c>
+      <c r="R84" s="54">
+        <v>19.339904</v>
+      </c>
+      <c r="S84" s="40">
         <v>347.508002</v>
       </c>
-      <c r="T84" s="63">
+      <c r="T84" s="65">
         <v>459.170187</v>
       </c>
-      <c r="U84" s="40"/>
-      <c r="V84" s="63">
-        <v>106.144114</v>
-      </c>
-      <c r="W84" s="63">
+      <c r="U84" s="41"/>
+      <c r="V84" s="65">
+        <v>103.090183</v>
+      </c>
+      <c r="W84" s="65">
         <v>45</v>
       </c>
-      <c r="X84" s="63">
-        <v>33.242524</v>
-      </c>
-      <c r="Y84" s="63">
-        <v>402.559151</v>
-      </c>
-      <c r="Z84" s="53">
-        <v>16.784299</v>
+      <c r="X84" s="65">
+        <v>33.668962</v>
+      </c>
+      <c r="Y84" s="65">
+        <v>419.398235</v>
+      </c>
+      <c r="Z84" s="54">
+        <v>17.486388</v>
       </c>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43">
+      <c r="A85" s="43"/>
+      <c r="B85" s="44">
         <v>50</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="45">
         <v>377.99116</v>
       </c>
-      <c r="D85" s="45">
+      <c r="D85" s="46">
         <v>497.470423</v>
       </c>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45">
-        <v>39.662287</v>
-      </c>
-      <c r="G85" s="45">
-        <v>39.662287</v>
-      </c>
-      <c r="H85" s="45">
-        <v>34.930488</v>
-      </c>
-      <c r="I85" s="55">
+      <c r="E85" s="46"/>
+      <c r="F85" s="46">
+        <v>38.518661</v>
+      </c>
+      <c r="G85" s="46">
+        <v>38.518661</v>
+      </c>
+      <c r="H85" s="46">
+        <v>33.958109</v>
+      </c>
+      <c r="I85" s="57">
         <v>423</v>
       </c>
-      <c r="J85" s="56">
+      <c r="J85" s="58">
         <v>17.63656</v>
       </c>
-      <c r="K85" s="44">
+      <c r="K85" s="45">
         <v>377.99116</v>
       </c>
-      <c r="L85" s="45">
+      <c r="L85" s="46">
         <v>497.470423</v>
       </c>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45">
-        <v>73.417426</v>
-      </c>
-      <c r="O85" s="45">
+      <c r="M85" s="46"/>
+      <c r="N85" s="46">
+        <v>71.300501</v>
+      </c>
+      <c r="O85" s="46">
         <v>50</v>
       </c>
-      <c r="P85" s="45">
-        <v>41.241138</v>
-      </c>
-      <c r="Q85" s="45">
-        <v>499.42048</v>
-      </c>
-      <c r="R85" s="56">
-        <v>20.822835</v>
-      </c>
-      <c r="S85" s="44">
+      <c r="P85" s="46">
+        <v>41.558126</v>
+      </c>
+      <c r="Q85" s="46">
+        <v>517.669795</v>
+      </c>
+      <c r="R85" s="58">
+        <v>21.583721</v>
+      </c>
+      <c r="S85" s="45">
         <v>377.99116</v>
       </c>
-      <c r="T85" s="45">
+      <c r="T85" s="46">
         <v>497.470423</v>
       </c>
-      <c r="U85" s="45"/>
-      <c r="V85" s="45">
-        <v>107.172564</v>
-      </c>
-      <c r="W85" s="45">
+      <c r="U85" s="46"/>
+      <c r="V85" s="46">
+        <v>104.082341</v>
+      </c>
+      <c r="W85" s="46">
         <v>50</v>
       </c>
-      <c r="X85" s="45">
-        <v>37.214074</v>
-      </c>
-      <c r="Y85" s="45">
-        <v>450.653691</v>
-      </c>
-      <c r="Z85" s="56">
-        <v>18.789552</v>
+      <c r="X85" s="46">
+        <v>37.676804</v>
+      </c>
+      <c r="Y85" s="46">
+        <v>469.322021</v>
+      </c>
+      <c r="Z85" s="58">
+        <v>19.56791</v>
       </c>
     </row>
   </sheetData>
